--- a/app/placed_bets.xlsx
+++ b/app/placed_bets.xlsx
@@ -107,12 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -143,9 +140,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -513,7 +507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,12 +517,12 @@
   <cols>
     <col width="17" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="24" customWidth="1" min="7" max="7"/>
-    <col width="24" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
     <col width="13" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
@@ -536,7 +530,7 @@
     <col width="13" customWidth="1" min="13" max="13"/>
     <col width="21" customWidth="1" min="14" max="14"/>
     <col width="15" customWidth="1" min="15" max="15"/>
-    <col width="12" customWidth="1" min="16" max="16"/>
+    <col width="11" customWidth="1" min="16" max="16"/>
     <col width="13" customWidth="1" min="17" max="17"/>
     <col width="13" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
@@ -544,382 +538,174 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Away</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Bet</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Odds</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Wager</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Win</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Profit</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="K1" s="3" t="n"/>
-      <c r="L1" s="4" t="inlineStr">
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="M1" s="5" t="inlineStr">
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
       </c>
-      <c r="N1" s="6" t="inlineStr">
+      <c r="N1" s="5" t="inlineStr">
         <is>
           <t>Win percentage</t>
         </is>
       </c>
-      <c r="O1" s="7" t="inlineStr">
+      <c r="O1" s="6" t="inlineStr">
         <is>
           <t>Invested</t>
         </is>
       </c>
-      <c r="P1" s="8" t="inlineStr">
+      <c r="P1" s="7" t="inlineStr">
         <is>
           <t>Won</t>
         </is>
       </c>
-      <c r="Q1" s="9" t="inlineStr">
+      <c r="Q1" s="8" t="inlineStr">
         <is>
           <t>Gained</t>
         </is>
       </c>
-      <c r="R1" s="10" t="inlineStr">
+      <c r="R1" s="9" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="S1" s="11" t="inlineStr">
+      <c r="S1" s="10" t="inlineStr">
         <is>
           <t>Average odds</t>
         </is>
       </c>
-      <c r="T1" s="12" t="inlineStr">
+      <c r="T1" s="11" t="inlineStr">
         <is>
           <t>Balance</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>23.12.2024</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Inter Milan</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Como</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="2" t="n">
         <v>1.36</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J2" s="4" t="n">
+      <c r="J2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="K2" s="3" t="n"/>
-      <c r="L2" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="M2" s="3" t="n">
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N2" s="3" t="n">
-        <v>80</v>
-      </c>
-      <c r="O2" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="P2" s="3" t="n">
-        <v>262.5</v>
-      </c>
-      <c r="Q2" s="3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="R2" s="3" t="inlineStr">
-        <is>
-          <t>-0.01%</t>
-        </is>
-      </c>
-      <c r="S2" s="3" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T2" s="3" t="n">
-        <v>992.5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>26.12.2024</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Chelsea</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Fulham</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F3" s="3" t="n">
+      <c r="M2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="O2" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="G3" s="3" t="n">
-        <v>75</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>1 - 2</t>
-        </is>
-      </c>
-      <c r="J3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3" t="n"/>
-      <c r="L3" s="3" t="n"/>
-      <c r="M3" s="3" t="n"/>
-      <c r="N3" s="3" t="n"/>
-      <c r="O3" s="3" t="n"/>
-      <c r="P3" s="3" t="n"/>
-      <c r="Q3" s="3" t="n"/>
-      <c r="R3" s="3" t="n"/>
-      <c r="S3" s="3" t="n"/>
-      <c r="T3" s="3" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>27.12.2024</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Arsenal</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>Ipswich</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>56.99999999999999</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>6.999999999999993</v>
-      </c>
-      <c r="I4" s="3" t="inlineStr">
-        <is>
-          <t>1 - 0</t>
-        </is>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3" t="n"/>
-      <c r="L4" s="3" t="n"/>
-      <c r="M4" s="3" t="n"/>
-      <c r="N4" s="3" t="n"/>
-      <c r="O4" s="3" t="n"/>
-      <c r="P4" s="3" t="n"/>
-      <c r="Q4" s="3" t="n"/>
-      <c r="R4" s="3" t="n"/>
-      <c r="S4" s="3" t="n"/>
-      <c r="T4" s="3" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>28.12.2024</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Cagliari</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>Inter Milan</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>0 - 3</t>
-        </is>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3" t="n"/>
-      <c r="L5" s="3" t="n"/>
-      <c r="M5" s="3" t="n"/>
-      <c r="N5" s="3" t="n"/>
-      <c r="O5" s="3" t="n"/>
-      <c r="P5" s="3" t="n"/>
-      <c r="Q5" s="3" t="n"/>
-      <c r="R5" s="3" t="n"/>
-      <c r="S5" s="3" t="n"/>
-      <c r="T5" s="3" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>29.12.2024</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>Napoli</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Venezia</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>65</v>
-      </c>
-      <c r="H6" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="I6" s="3" t="inlineStr">
-        <is>
-          <t>1 - 0</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3" t="n"/>
-      <c r="L6" s="3" t="n"/>
-      <c r="M6" s="3" t="n"/>
-      <c r="N6" s="3" t="n"/>
-      <c r="O6" s="3" t="n"/>
-      <c r="P6" s="3" t="n"/>
-      <c r="Q6" s="3" t="n"/>
-      <c r="R6" s="3" t="n"/>
-      <c r="S6" s="3" t="n"/>
-      <c r="T6" s="3" t="n"/>
+      <c r="P2" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>-0.0%</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -938,7 +724,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="26" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
@@ -947,508 +733,508 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Team</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Bet on</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Successful</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Success %</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Arsenal</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C18" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>100.0%</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Chelsea</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Liverpool</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Manchester City</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Manchester United</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>Atletico Madrid</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>Real Madrid</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>Bayer Leverkusen</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>Bayern Munich</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>Borussia Dortmund</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>Eintracht Frankfurt</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>Mainz</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>RB Leipzig</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>Stuttgart</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>AC Milan</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>Lazio</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>Inter Milan</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>100.0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>Juventus</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
+      <c r="B20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>Napoli</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>100.0%</t>
+      <c r="B21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
+      <c r="B22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>Lille</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
+      <c r="B23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>Lyon</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
+      <c r="B24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="inlineStr">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>Marseille</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
+      <c r="B25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>Monaco</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3" t="inlineStr">
+      <c r="B26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="inlineStr">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t>Nice</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
+      <c r="B27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>Paris SG</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="3" t="inlineStr">
+      <c r="B28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>0%</t>
         </is>

--- a/app/placed_bets.xlsx
+++ b/app/placed_bets.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -140,6 +140,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -507,7 +510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,7 +520,7 @@
   <cols>
     <col width="17" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
@@ -681,31 +684,83 @@
         <v>1</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="O2" s="2" t="n">
         <v>100</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>50</v>
       </c>
       <c r="P2" s="2" t="n">
         <v>68</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>18</v>
+        <v>-32</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>-0.0%</t>
+          <t>-0.05%</t>
         </is>
       </c>
       <c r="S2" s="2" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>998</v>
-      </c>
+        <v>948</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>26.12.2024</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>1 - 2</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -724,7 +779,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="26" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
@@ -779,14 +834,14 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>

--- a/app/placed_bets.xlsx
+++ b/app/placed_bets.xlsx
@@ -142,7 +142,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -510,7 +510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,8 +519,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="17" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
@@ -533,7 +533,7 @@
     <col width="13" customWidth="1" min="13" max="13"/>
     <col width="21" customWidth="1" min="14" max="14"/>
     <col width="15" customWidth="1" min="15" max="15"/>
-    <col width="11" customWidth="1" min="16" max="16"/>
+    <col width="12" customWidth="1" min="16" max="16"/>
     <col width="13" customWidth="1" min="17" max="17"/>
     <col width="13" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
@@ -641,39 +641,39 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>23.12.2024</t>
+          <t>28.12.2024</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
           <t>Inter Milan</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Como</t>
-        </is>
-      </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>50</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>68</v>
+        <v>72.5</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>18</v>
+        <v>22.5</v>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>2 - 0</t>
+          <t>0 - 3</t>
         </is>
       </c>
       <c r="J2" s="3" t="n">
@@ -681,49 +681,49 @@
       </c>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>68</v>
+        <v>275</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>-32</v>
+        <v>75</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>-0.05%</t>
+          <t>0.05%</t>
         </is>
       </c>
       <c r="S2" s="2" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>948</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>26.12.2024</t>
+          <t>29.12.2024</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -732,24 +732,24 @@
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>50</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>1 - 2</t>
-        </is>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0</v>
+          <t>1 - 0</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
@@ -761,6 +761,110 @@
       <c r="R3" s="2" t="n"/>
       <c r="S3" s="2" t="n"/>
       <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>28.12.2024</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0 - 3</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="n"/>
+      <c r="L4" s="2" t="n"/>
+      <c r="M4" s="2" t="n"/>
+      <c r="N4" s="2" t="n"/>
+      <c r="O4" s="2" t="n"/>
+      <c r="P4" s="2" t="n"/>
+      <c r="Q4" s="2" t="n"/>
+      <c r="R4" s="2" t="n"/>
+      <c r="S4" s="2" t="n"/>
+      <c r="T4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>29.12.2024</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1 - 0</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="n"/>
+      <c r="L5" s="2" t="n"/>
+      <c r="M5" s="2" t="n"/>
+      <c r="N5" s="2" t="n"/>
+      <c r="O5" s="2" t="n"/>
+      <c r="P5" s="2" t="n"/>
+      <c r="Q5" s="2" t="n"/>
+      <c r="R5" s="2" t="n"/>
+      <c r="S5" s="2" t="n"/>
+      <c r="T5" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -834,14 +938,14 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>0%</t>
         </is>
       </c>
     </row>
@@ -1104,10 +1208,10 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
@@ -1158,14 +1262,14 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100.0%</t>
         </is>
       </c>
     </row>

--- a/app/placed_bets.xlsx
+++ b/app/placed_bets.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -140,6 +140,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -592,7 +595,7 @@
         </is>
       </c>
       <c r="K1" s="2" t="n"/>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="12" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
@@ -676,7 +679,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="J2" s="12" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="n"/>
@@ -748,7 +751,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="J3" s="12" t="n">
         <v>1</v>
       </c>
       <c r="K3" s="2" t="n"/>
@@ -800,7 +803,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="J4" s="12" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="n"/>
@@ -852,7 +855,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="J5" s="12" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="n"/>

--- a/app/placed_bets.xlsx
+++ b/app/placed_bets.xlsx
@@ -513,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -684,7 +684,7 @@
       </c>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" s="2" t="n">
         <v>0</v>
@@ -693,24 +693,24 @@
         <v>100</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>0.05%</t>
+          <t>0.04%</t>
         </is>
       </c>
       <c r="S2" s="2" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1055</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="3">
@@ -816,58 +816,6 @@
       <c r="R4" s="2" t="n"/>
       <c r="S4" s="2" t="n"/>
       <c r="T4" s="2" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>29.12.2024</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Napoli</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>Venezia</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>1 - 0</t>
-        </is>
-      </c>
-      <c r="J5" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="n"/>
-      <c r="M5" s="2" t="n"/>
-      <c r="N5" s="2" t="n"/>
-      <c r="O5" s="2" t="n"/>
-      <c r="P5" s="2" t="n"/>
-      <c r="Q5" s="2" t="n"/>
-      <c r="R5" s="2" t="n"/>
-      <c r="S5" s="2" t="n"/>
-      <c r="T5" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1265,10 +1213,10 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>

--- a/app/placed_bets.xlsx
+++ b/app/placed_bets.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -140,6 +140,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -519,7 +528,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,7 +537,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="17" customWidth="1" min="1" max="1"/>
-    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
@@ -601,12 +610,12 @@
         </is>
       </c>
       <c r="K1" s="2" t="n"/>
-      <c r="L1" s="13" t="inlineStr">
+      <c r="L1" s="16" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="M1" s="12" t="inlineStr">
+      <c r="M1" s="15" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
@@ -685,27 +694,27 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J2" s="13" t="n">
+      <c r="J2" s="16" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>62.5</v>
+        <v>66.67</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>370</v>
+        <v>570</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>335</v>
+        <v>531</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>-35</v>
+        <v>-39</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -713,10 +722,10 @@
         </is>
       </c>
       <c r="S2" s="2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>965</v>
+        <v>961</v>
       </c>
     </row>
     <row r="3">
@@ -757,7 +766,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J3" s="12" t="n">
+      <c r="J3" s="15" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="2" t="n"/>
@@ -809,7 +818,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J4" s="13" t="n">
+      <c r="J4" s="16" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="n"/>
@@ -861,7 +870,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J5" s="13" t="n">
+      <c r="J5" s="16" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="n"/>
@@ -913,7 +922,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J6" s="13" t="n">
+      <c r="J6" s="16" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="n"/>
@@ -965,7 +974,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J7" s="12" t="n">
+      <c r="J7" s="15" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="n"/>
@@ -1017,7 +1026,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J8" s="13" t="n">
+      <c r="J8" s="16" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="n"/>
@@ -1069,7 +1078,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J9" s="12" t="n">
+      <c r="J9" s="15" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="2" t="n"/>
@@ -1082,6 +1091,214 @@
       <c r="R9" s="2" t="n"/>
       <c r="S9" s="2" t="n"/>
       <c r="T9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>05.01.2025</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Olympique Marseille</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5 - 1</t>
+        </is>
+      </c>
+      <c r="J10" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
+      <c r="M10" s="2" t="n"/>
+      <c r="N10" s="2" t="n"/>
+      <c r="O10" s="2" t="n"/>
+      <c r="P10" s="2" t="n"/>
+      <c r="Q10" s="2" t="n"/>
+      <c r="R10" s="2" t="n"/>
+      <c r="S10" s="2" t="n"/>
+      <c r="T10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>10.01.2025</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1 - 1</t>
+        </is>
+      </c>
+      <c r="J11" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2" t="n"/>
+      <c r="L11" s="2" t="n"/>
+      <c r="M11" s="2" t="n"/>
+      <c r="N11" s="2" t="n"/>
+      <c r="O11" s="2" t="n"/>
+      <c r="P11" s="2" t="n"/>
+      <c r="Q11" s="2" t="n"/>
+      <c r="R11" s="2" t="n"/>
+      <c r="S11" s="2" t="n"/>
+      <c r="T11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>11.01.2025</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1 - 1</t>
+        </is>
+      </c>
+      <c r="J12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="n"/>
+      <c r="L12" s="2" t="n"/>
+      <c r="M12" s="2" t="n"/>
+      <c r="N12" s="2" t="n"/>
+      <c r="O12" s="2" t="n"/>
+      <c r="P12" s="2" t="n"/>
+      <c r="Q12" s="2" t="n"/>
+      <c r="R12" s="2" t="n"/>
+      <c r="S12" s="2" t="n"/>
+      <c r="T12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>12.01.2025</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0 - 1</t>
+        </is>
+      </c>
+      <c r="J13" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="n"/>
+      <c r="L13" s="2" t="n"/>
+      <c r="M13" s="2" t="n"/>
+      <c r="N13" s="2" t="n"/>
+      <c r="O13" s="2" t="n"/>
+      <c r="P13" s="2" t="n"/>
+      <c r="Q13" s="2" t="n"/>
+      <c r="R13" s="2" t="n"/>
+      <c r="S13" s="2" t="n"/>
+      <c r="T13" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1407,14 +1624,14 @@
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
@@ -1425,10 +1642,10 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
@@ -1461,14 +1678,14 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100.0%</t>
         </is>
       </c>
     </row>
@@ -1551,14 +1768,14 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100.0%</t>
         </is>
       </c>
     </row>

--- a/app/placed_bets.xlsx
+++ b/app/placed_bets.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -152,6 +152,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -528,7 +540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,7 +550,7 @@
   <cols>
     <col width="17" customWidth="1" min="1" max="1"/>
     <col width="26" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
@@ -610,12 +622,12 @@
         </is>
       </c>
       <c r="K1" s="2" t="n"/>
-      <c r="L1" s="16" t="inlineStr">
+      <c r="L1" s="21" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="M1" s="15" t="inlineStr">
+      <c r="M1" s="18" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
@@ -694,38 +706,38 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J2" s="16" t="n">
+      <c r="J2" s="21" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>66.67</v>
+        <v>68.75</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>570</v>
+        <v>770</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>531</v>
+        <v>715.5</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>-39</v>
+        <v>-54.5</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>-0.04%</t>
+          <t>-0.05%</t>
         </is>
       </c>
       <c r="S2" s="2" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>961</v>
+        <v>945.5</v>
       </c>
     </row>
     <row r="3">
@@ -766,7 +778,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J3" s="15" t="n">
+      <c r="J3" s="18" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="2" t="n"/>
@@ -818,7 +830,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J4" s="16" t="n">
+      <c r="J4" s="21" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="n"/>
@@ -870,7 +882,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J5" s="16" t="n">
+      <c r="J5" s="21" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="n"/>
@@ -922,7 +934,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J6" s="16" t="n">
+      <c r="J6" s="21" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="n"/>
@@ -974,7 +986,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J7" s="15" t="n">
+      <c r="J7" s="18" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="n"/>
@@ -1026,7 +1038,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J8" s="16" t="n">
+      <c r="J8" s="21" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="n"/>
@@ -1078,7 +1090,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J9" s="15" t="n">
+      <c r="J9" s="18" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="2" t="n"/>
@@ -1130,7 +1142,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J10" s="16" t="n">
+      <c r="J10" s="21" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="n"/>
@@ -1182,7 +1194,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J11" s="16" t="n">
+      <c r="J11" s="21" t="n">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="n"/>
@@ -1234,7 +1246,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J12" s="15" t="n">
+      <c r="J12" s="18" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="n"/>
@@ -1286,7 +1298,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J13" s="16" t="n">
+      <c r="J13" s="21" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="n"/>
@@ -1299,6 +1311,214 @@
       <c r="R13" s="2" t="n"/>
       <c r="S13" s="2" t="n"/>
       <c r="T13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>12.01.2025</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1 - 0</t>
+        </is>
+      </c>
+      <c r="J14" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2" t="n"/>
+      <c r="L14" s="2" t="n"/>
+      <c r="M14" s="2" t="n"/>
+      <c r="N14" s="2" t="n"/>
+      <c r="O14" s="2" t="n"/>
+      <c r="P14" s="2" t="n"/>
+      <c r="Q14" s="2" t="n"/>
+      <c r="R14" s="2" t="n"/>
+      <c r="S14" s="2" t="n"/>
+      <c r="T14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>12.01.2025</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2 - 0</t>
+        </is>
+      </c>
+      <c r="J15" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2" t="n"/>
+      <c r="L15" s="2" t="n"/>
+      <c r="M15" s="2" t="n"/>
+      <c r="N15" s="2" t="n"/>
+      <c r="O15" s="2" t="n"/>
+      <c r="P15" s="2" t="n"/>
+      <c r="Q15" s="2" t="n"/>
+      <c r="R15" s="2" t="n"/>
+      <c r="S15" s="2" t="n"/>
+      <c r="T15" s="2" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>12.01.2025</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Saint Etienne</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>55.50000000000001</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>5.500000000000007</v>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2 - 1</t>
+        </is>
+      </c>
+      <c r="J16" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2" t="n"/>
+      <c r="L16" s="2" t="n"/>
+      <c r="M16" s="2" t="n"/>
+      <c r="N16" s="2" t="n"/>
+      <c r="O16" s="2" t="n"/>
+      <c r="P16" s="2" t="n"/>
+      <c r="Q16" s="2" t="n"/>
+      <c r="R16" s="2" t="n"/>
+      <c r="S16" s="2" t="n"/>
+      <c r="T16" s="2" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>14.01.2025</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>56.99999999999999</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>6.999999999999993</v>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4 - 2</t>
+        </is>
+      </c>
+      <c r="J17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2" t="n"/>
+      <c r="L17" s="2" t="n"/>
+      <c r="M17" s="2" t="n"/>
+      <c r="N17" s="2" t="n"/>
+      <c r="O17" s="2" t="n"/>
+      <c r="P17" s="2" t="n"/>
+      <c r="Q17" s="2" t="n"/>
+      <c r="R17" s="2" t="n"/>
+      <c r="S17" s="2" t="n"/>
+      <c r="T17" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1444,14 +1664,14 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100.0%</t>
         </is>
       </c>
     </row>
@@ -1534,14 +1754,14 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
@@ -1696,10 +1916,10 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
@@ -1822,14 +2042,14 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100.0%</t>
         </is>
       </c>
     </row>

--- a/app/placed_bets.xlsx
+++ b/app/placed_bets.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -173,6 +173,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -540,7 +561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,7 +584,7 @@
     <col width="13" customWidth="1" min="13" max="13"/>
     <col width="21" customWidth="1" min="14" max="14"/>
     <col width="15" customWidth="1" min="15" max="15"/>
-    <col width="12" customWidth="1" min="16" max="16"/>
+    <col width="13" customWidth="1" min="16" max="16"/>
     <col width="13" customWidth="1" min="17" max="17"/>
     <col width="13" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
@@ -622,12 +643,12 @@
         </is>
       </c>
       <c r="K1" s="2" t="n"/>
-      <c r="L1" s="21" t="inlineStr">
+      <c r="L1" s="27" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="M1" s="18" t="inlineStr">
+      <c r="M1" s="26" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
@@ -706,38 +727,38 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J2" s="21" t="n">
+      <c r="J2" s="27" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>68.75</v>
+        <v>65.22</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>770</v>
+        <v>1420</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>715.5</v>
+        <v>1195.5</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>-54.5</v>
+        <v>-224.5</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>-0.05%</t>
+          <t>-0.22%</t>
         </is>
       </c>
       <c r="S2" s="2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>945.5</v>
+        <v>775.5</v>
       </c>
     </row>
     <row r="3">
@@ -778,7 +799,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J3" s="18" t="n">
+      <c r="J3" s="26" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="2" t="n"/>
@@ -830,7 +851,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J4" s="21" t="n">
+      <c r="J4" s="27" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="n"/>
@@ -882,7 +903,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J5" s="21" t="n">
+      <c r="J5" s="27" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="n"/>
@@ -934,7 +955,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J6" s="21" t="n">
+      <c r="J6" s="27" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="n"/>
@@ -986,7 +1007,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J7" s="18" t="n">
+      <c r="J7" s="26" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="n"/>
@@ -1038,7 +1059,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J8" s="21" t="n">
+      <c r="J8" s="27" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="n"/>
@@ -1090,7 +1111,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J9" s="18" t="n">
+      <c r="J9" s="26" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="2" t="n"/>
@@ -1142,7 +1163,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J10" s="21" t="n">
+      <c r="J10" s="27" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="n"/>
@@ -1194,7 +1215,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J11" s="21" t="n">
+      <c r="J11" s="27" t="n">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="n"/>
@@ -1246,7 +1267,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J12" s="18" t="n">
+      <c r="J12" s="26" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="n"/>
@@ -1298,7 +1319,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J13" s="21" t="n">
+      <c r="J13" s="27" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="n"/>
@@ -1350,7 +1371,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J14" s="21" t="n">
+      <c r="J14" s="27" t="n">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="n"/>
@@ -1402,7 +1423,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J15" s="21" t="n">
+      <c r="J15" s="27" t="n">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="n"/>
@@ -1454,7 +1475,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J16" s="21" t="n">
+      <c r="J16" s="27" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="n"/>
@@ -1506,7 +1527,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J17" s="18" t="n">
+      <c r="J17" s="26" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="2" t="n"/>
@@ -1519,6 +1540,370 @@
       <c r="R17" s="2" t="n"/>
       <c r="S17" s="2" t="n"/>
       <c r="T17" s="2" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>15.01.2025</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Bayern Munchen</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>56.99999999999999</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>6.999999999999993</v>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5 - 0</t>
+        </is>
+      </c>
+      <c r="J18" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2" t="n"/>
+      <c r="L18" s="2" t="n"/>
+      <c r="M18" s="2" t="n"/>
+      <c r="N18" s="2" t="n"/>
+      <c r="O18" s="2" t="n"/>
+      <c r="P18" s="2" t="n"/>
+      <c r="Q18" s="2" t="n"/>
+      <c r="R18" s="2" t="n"/>
+      <c r="S18" s="2" t="n"/>
+      <c r="T18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>17.01.2025</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>15.99999999999999</v>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2 - 1</t>
+        </is>
+      </c>
+      <c r="J19" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="n"/>
+      <c r="L19" s="2" t="n"/>
+      <c r="M19" s="2" t="n"/>
+      <c r="N19" s="2" t="n"/>
+      <c r="O19" s="2" t="n"/>
+      <c r="P19" s="2" t="n"/>
+      <c r="Q19" s="2" t="n"/>
+      <c r="R19" s="2" t="n"/>
+      <c r="S19" s="2" t="n"/>
+      <c r="T19" s="2" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>18.01.2025</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3 - 3</t>
+        </is>
+      </c>
+      <c r="J20" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2" t="n"/>
+      <c r="L20" s="2" t="n"/>
+      <c r="M20" s="2" t="n"/>
+      <c r="N20" s="2" t="n"/>
+      <c r="O20" s="2" t="n"/>
+      <c r="P20" s="2" t="n"/>
+      <c r="Q20" s="2" t="n"/>
+      <c r="R20" s="2" t="n"/>
+      <c r="S20" s="2" t="n"/>
+      <c r="T20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>18.01.2025</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Leganes</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1 - 0</t>
+        </is>
+      </c>
+      <c r="J21" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="n"/>
+      <c r="L21" s="2" t="n"/>
+      <c r="M21" s="2" t="n"/>
+      <c r="N21" s="2" t="n"/>
+      <c r="O21" s="2" t="n"/>
+      <c r="P21" s="2" t="n"/>
+      <c r="Q21" s="2" t="n"/>
+      <c r="R21" s="2" t="n"/>
+      <c r="S21" s="2" t="n"/>
+      <c r="T21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>18.01.2025</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1 - 2</t>
+        </is>
+      </c>
+      <c r="J22" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2" t="n"/>
+      <c r="L22" s="2" t="n"/>
+      <c r="M22" s="2" t="n"/>
+      <c r="N22" s="2" t="n"/>
+      <c r="O22" s="2" t="n"/>
+      <c r="P22" s="2" t="n"/>
+      <c r="Q22" s="2" t="n"/>
+      <c r="R22" s="2" t="n"/>
+      <c r="S22" s="2" t="n"/>
+      <c r="T22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>18.01.2025</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1 - 1</t>
+        </is>
+      </c>
+      <c r="J23" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2" t="n"/>
+      <c r="L23" s="2" t="n"/>
+      <c r="M23" s="2" t="n"/>
+      <c r="N23" s="2" t="n"/>
+      <c r="O23" s="2" t="n"/>
+      <c r="P23" s="2" t="n"/>
+      <c r="Q23" s="2" t="n"/>
+      <c r="R23" s="2" t="n"/>
+      <c r="S23" s="2" t="n"/>
+      <c r="T23" s="2" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>19.01.2025</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>4 - 1</t>
+        </is>
+      </c>
+      <c r="J24" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2" t="n"/>
+      <c r="L24" s="2" t="n"/>
+      <c r="M24" s="2" t="n"/>
+      <c r="N24" s="2" t="n"/>
+      <c r="O24" s="2" t="n"/>
+      <c r="P24" s="2" t="n"/>
+      <c r="Q24" s="2" t="n"/>
+      <c r="R24" s="2" t="n"/>
+      <c r="S24" s="2" t="n"/>
+      <c r="T24" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1664,14 +2049,14 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
     </row>
@@ -1682,14 +2067,14 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
@@ -1700,10 +2085,10 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
@@ -1736,14 +2121,14 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100.0%</t>
         </is>
       </c>
     </row>
@@ -1808,14 +2193,14 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100.0%</t>
         </is>
       </c>
     </row>
@@ -2006,14 +2391,14 @@
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
@@ -2042,10 +2427,10 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>

--- a/app/placed_bets.xlsx
+++ b/app/placed_bets.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -191,6 +191,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -561,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,12 +670,12 @@
         </is>
       </c>
       <c r="K1" s="2" t="n"/>
-      <c r="L1" s="27" t="inlineStr">
+      <c r="L1" s="37" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="M1" s="26" t="inlineStr">
+      <c r="M1" s="35" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
@@ -727,38 +754,38 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J2" s="27" t="n">
+      <c r="J2" s="37" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>65.22</v>
+        <v>75</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1420</v>
+        <v>3120</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1195.5</v>
+        <v>3107.5</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>-224.5</v>
+        <v>-12.5</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>-0.22%</t>
+          <t>-0.01%</t>
         </is>
       </c>
       <c r="S2" s="2" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>775.5</v>
+        <v>987.5</v>
       </c>
     </row>
     <row r="3">
@@ -799,7 +826,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J3" s="26" t="n">
+      <c r="J3" s="35" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="2" t="n"/>
@@ -851,7 +878,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J4" s="27" t="n">
+      <c r="J4" s="37" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="n"/>
@@ -903,7 +930,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J5" s="27" t="n">
+      <c r="J5" s="37" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="n"/>
@@ -955,7 +982,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J6" s="27" t="n">
+      <c r="J6" s="37" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="n"/>
@@ -1007,7 +1034,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J7" s="26" t="n">
+      <c r="J7" s="35" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="n"/>
@@ -1059,7 +1086,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J8" s="27" t="n">
+      <c r="J8" s="37" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="n"/>
@@ -1111,7 +1138,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J9" s="26" t="n">
+      <c r="J9" s="35" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="2" t="n"/>
@@ -1163,7 +1190,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J10" s="27" t="n">
+      <c r="J10" s="37" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="n"/>
@@ -1215,7 +1242,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J11" s="27" t="n">
+      <c r="J11" s="37" t="n">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="n"/>
@@ -1267,7 +1294,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J12" s="26" t="n">
+      <c r="J12" s="35" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="n"/>
@@ -1319,7 +1346,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J13" s="27" t="n">
+      <c r="J13" s="37" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="n"/>
@@ -1371,7 +1398,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J14" s="27" t="n">
+      <c r="J14" s="37" t="n">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="n"/>
@@ -1423,7 +1450,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J15" s="27" t="n">
+      <c r="J15" s="37" t="n">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="n"/>
@@ -1475,7 +1502,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J16" s="27" t="n">
+      <c r="J16" s="37" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="n"/>
@@ -1527,7 +1554,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J17" s="26" t="n">
+      <c r="J17" s="35" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="2" t="n"/>
@@ -1579,7 +1606,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J18" s="27" t="n">
+      <c r="J18" s="37" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="n"/>
@@ -1631,7 +1658,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J19" s="26" t="n">
+      <c r="J19" s="35" t="n">
         <v>0</v>
       </c>
       <c r="K19" s="2" t="n"/>
@@ -1683,7 +1710,7 @@
           <t>3 - 3</t>
         </is>
       </c>
-      <c r="J20" s="27" t="n">
+      <c r="J20" s="37" t="n">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="n"/>
@@ -1735,7 +1762,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J21" s="26" t="n">
+      <c r="J21" s="35" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="2" t="n"/>
@@ -1787,7 +1814,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J22" s="27" t="n">
+      <c r="J22" s="37" t="n">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="n"/>
@@ -1839,7 +1866,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J23" s="26" t="n">
+      <c r="J23" s="35" t="n">
         <v>0</v>
       </c>
       <c r="K23" s="2" t="n"/>
@@ -1891,7 +1918,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J24" s="27" t="n">
+      <c r="J24" s="37" t="n">
         <v>1</v>
       </c>
       <c r="K24" s="2" t="n"/>
@@ -1904,6 +1931,890 @@
       <c r="R24" s="2" t="n"/>
       <c r="S24" s="2" t="n"/>
       <c r="T24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>19.01.2025</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>Ipswich</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>0 - 6</t>
+        </is>
+      </c>
+      <c r="J25" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2" t="n"/>
+      <c r="L25" s="2" t="n"/>
+      <c r="M25" s="2" t="n"/>
+      <c r="N25" s="2" t="n"/>
+      <c r="O25" s="2" t="n"/>
+      <c r="P25" s="2" t="n"/>
+      <c r="Q25" s="2" t="n"/>
+      <c r="R25" s="2" t="n"/>
+      <c r="S25" s="2" t="n"/>
+      <c r="T25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>19.01.2025</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>3 - 1</t>
+        </is>
+      </c>
+      <c r="J26" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2" t="n"/>
+      <c r="L26" s="2" t="n"/>
+      <c r="M26" s="2" t="n"/>
+      <c r="N26" s="2" t="n"/>
+      <c r="O26" s="2" t="n"/>
+      <c r="P26" s="2" t="n"/>
+      <c r="Q26" s="2" t="n"/>
+      <c r="R26" s="2" t="n"/>
+      <c r="S26" s="2" t="n"/>
+      <c r="T26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>25.01.2025</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Ipswich</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>12.00000000000001</v>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>4 - 1</t>
+        </is>
+      </c>
+      <c r="J27" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2" t="n"/>
+      <c r="L27" s="2" t="n"/>
+      <c r="M27" s="2" t="n"/>
+      <c r="N27" s="2" t="n"/>
+      <c r="O27" s="2" t="n"/>
+      <c r="P27" s="2" t="n"/>
+      <c r="Q27" s="2" t="n"/>
+      <c r="R27" s="2" t="n"/>
+      <c r="S27" s="2" t="n"/>
+      <c r="T27" s="2" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>25.01.2025</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0 - 3</t>
+        </is>
+      </c>
+      <c r="J28" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2" t="n"/>
+      <c r="L28" s="2" t="n"/>
+      <c r="M28" s="2" t="n"/>
+      <c r="N28" s="2" t="n"/>
+      <c r="O28" s="2" t="n"/>
+      <c r="P28" s="2" t="n"/>
+      <c r="Q28" s="2" t="n"/>
+      <c r="R28" s="2" t="n"/>
+      <c r="S28" s="2" t="n"/>
+      <c r="T28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>25.01.2025</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>1 - 1</t>
+        </is>
+      </c>
+      <c r="J29" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="n"/>
+      <c r="L29" s="2" t="n"/>
+      <c r="M29" s="2" t="n"/>
+      <c r="N29" s="2" t="n"/>
+      <c r="O29" s="2" t="n"/>
+      <c r="P29" s="2" t="n"/>
+      <c r="Q29" s="2" t="n"/>
+      <c r="R29" s="2" t="n"/>
+      <c r="S29" s="2" t="n"/>
+      <c r="T29" s="2" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>26.01.2025</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>3 - 2</t>
+        </is>
+      </c>
+      <c r="J30" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2" t="n"/>
+      <c r="L30" s="2" t="n"/>
+      <c r="M30" s="2" t="n"/>
+      <c r="N30" s="2" t="n"/>
+      <c r="O30" s="2" t="n"/>
+      <c r="P30" s="2" t="n"/>
+      <c r="Q30" s="2" t="n"/>
+      <c r="R30" s="2" t="n"/>
+      <c r="S30" s="2" t="n"/>
+      <c r="T30" s="2" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>26.01.2025</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>0 - 4</t>
+        </is>
+      </c>
+      <c r="J31" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2" t="n"/>
+      <c r="L31" s="2" t="n"/>
+      <c r="M31" s="2" t="n"/>
+      <c r="N31" s="2" t="n"/>
+      <c r="O31" s="2" t="n"/>
+      <c r="P31" s="2" t="n"/>
+      <c r="Q31" s="2" t="n"/>
+      <c r="R31" s="2" t="n"/>
+      <c r="S31" s="2" t="n"/>
+      <c r="T31" s="2" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>26.01.2025</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>7 - 1</t>
+        </is>
+      </c>
+      <c r="J32" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2" t="n"/>
+      <c r="L32" s="2" t="n"/>
+      <c r="M32" s="2" t="n"/>
+      <c r="N32" s="2" t="n"/>
+      <c r="O32" s="2" t="n"/>
+      <c r="P32" s="2" t="n"/>
+      <c r="Q32" s="2" t="n"/>
+      <c r="R32" s="2" t="n"/>
+      <c r="S32" s="2" t="n"/>
+      <c r="T32" s="2" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>01.02.2025</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>2 - 5</t>
+        </is>
+      </c>
+      <c r="J33" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2" t="n"/>
+      <c r="L33" s="2" t="n"/>
+      <c r="M33" s="2" t="n"/>
+      <c r="N33" s="2" t="n"/>
+      <c r="O33" s="2" t="n"/>
+      <c r="P33" s="2" t="n"/>
+      <c r="Q33" s="2" t="n"/>
+      <c r="R33" s="2" t="n"/>
+      <c r="S33" s="2" t="n"/>
+      <c r="T33" s="2" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>01.02.2025</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>1 - 0</t>
+        </is>
+      </c>
+      <c r="J34" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2" t="n"/>
+      <c r="L34" s="2" t="n"/>
+      <c r="M34" s="2" t="n"/>
+      <c r="N34" s="2" t="n"/>
+      <c r="O34" s="2" t="n"/>
+      <c r="P34" s="2" t="n"/>
+      <c r="Q34" s="2" t="n"/>
+      <c r="R34" s="2" t="n"/>
+      <c r="S34" s="2" t="n"/>
+      <c r="T34" s="2" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>02.02.2025</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>4 - 1</t>
+        </is>
+      </c>
+      <c r="J35" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2" t="n"/>
+      <c r="L35" s="2" t="n"/>
+      <c r="M35" s="2" t="n"/>
+      <c r="N35" s="2" t="n"/>
+      <c r="O35" s="2" t="n"/>
+      <c r="P35" s="2" t="n"/>
+      <c r="Q35" s="2" t="n"/>
+      <c r="R35" s="2" t="n"/>
+      <c r="S35" s="2" t="n"/>
+      <c r="T35" s="2" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>02.02.2025</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>1 - 0</t>
+        </is>
+      </c>
+      <c r="J36" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2" t="n"/>
+      <c r="L36" s="2" t="n"/>
+      <c r="M36" s="2" t="n"/>
+      <c r="N36" s="2" t="n"/>
+      <c r="O36" s="2" t="n"/>
+      <c r="P36" s="2" t="n"/>
+      <c r="Q36" s="2" t="n"/>
+      <c r="R36" s="2" t="n"/>
+      <c r="S36" s="2" t="n"/>
+      <c r="T36" s="2" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>02.02.2025</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>3 - 1</t>
+        </is>
+      </c>
+      <c r="J37" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2" t="n"/>
+      <c r="L37" s="2" t="n"/>
+      <c r="M37" s="2" t="n"/>
+      <c r="N37" s="2" t="n"/>
+      <c r="O37" s="2" t="n"/>
+      <c r="P37" s="2" t="n"/>
+      <c r="Q37" s="2" t="n"/>
+      <c r="R37" s="2" t="n"/>
+      <c r="S37" s="2" t="n"/>
+      <c r="T37" s="2" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>07.02.2025</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>Bayern Munchen</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>12.00000000000001</v>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>3 - 0</t>
+        </is>
+      </c>
+      <c r="J38" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2" t="n"/>
+      <c r="L38" s="2" t="n"/>
+      <c r="M38" s="2" t="n"/>
+      <c r="N38" s="2" t="n"/>
+      <c r="O38" s="2" t="n"/>
+      <c r="P38" s="2" t="n"/>
+      <c r="Q38" s="2" t="n"/>
+      <c r="R38" s="2" t="n"/>
+      <c r="S38" s="2" t="n"/>
+      <c r="T38" s="2" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>07.02.2025</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>1 - 2</t>
+        </is>
+      </c>
+      <c r="J39" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2" t="n"/>
+      <c r="L39" s="2" t="n"/>
+      <c r="M39" s="2" t="n"/>
+      <c r="N39" s="2" t="n"/>
+      <c r="O39" s="2" t="n"/>
+      <c r="P39" s="2" t="n"/>
+      <c r="Q39" s="2" t="n"/>
+      <c r="R39" s="2" t="n"/>
+      <c r="S39" s="2" t="n"/>
+      <c r="T39" s="2" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>08.02.2025</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="J40" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2" t="n"/>
+      <c r="L40" s="2" t="n"/>
+      <c r="M40" s="2" t="n"/>
+      <c r="N40" s="2" t="n"/>
+      <c r="O40" s="2" t="n"/>
+      <c r="P40" s="2" t="n"/>
+      <c r="Q40" s="2" t="n"/>
+      <c r="R40" s="2" t="n"/>
+      <c r="S40" s="2" t="n"/>
+      <c r="T40" s="2" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>09.02.2025</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>0 - 1</t>
+        </is>
+      </c>
+      <c r="J41" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2" t="n"/>
+      <c r="L41" s="2" t="n"/>
+      <c r="M41" s="2" t="n"/>
+      <c r="N41" s="2" t="n"/>
+      <c r="O41" s="2" t="n"/>
+      <c r="P41" s="2" t="n"/>
+      <c r="Q41" s="2" t="n"/>
+      <c r="R41" s="2" t="n"/>
+      <c r="S41" s="2" t="n"/>
+      <c r="T41" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1995,14 +2906,14 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100.0%</t>
         </is>
       </c>
     </row>
@@ -2013,14 +2924,14 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100.0%</t>
         </is>
       </c>
     </row>
@@ -2067,14 +2978,14 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2085,14 +2996,14 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>75.0%</t>
         </is>
       </c>
     </row>
@@ -2103,14 +3014,14 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100.0%</t>
         </is>
       </c>
     </row>
@@ -2121,10 +3032,10 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
@@ -2229,14 +3140,14 @@
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
     </row>
@@ -2247,10 +3158,10 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
@@ -2265,14 +3176,14 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100.0%</t>
         </is>
       </c>
     </row>
@@ -2319,14 +3230,14 @@
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100.0%</t>
         </is>
       </c>
     </row>
@@ -2427,14 +3338,14 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>75.0%</t>
         </is>
       </c>
     </row>

--- a/app/placed_bets.xlsx
+++ b/app/placed_bets.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -221,6 +221,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -588,7 +612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:T57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,12 +694,12 @@
         </is>
       </c>
       <c r="K1" s="2" t="n"/>
-      <c r="L1" s="37" t="inlineStr">
+      <c r="L1" s="44" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="M1" s="35" t="inlineStr">
+      <c r="M1" s="42" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
@@ -754,38 +778,38 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J2" s="37" t="n">
+      <c r="J2" s="44" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>75</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>3120</v>
+        <v>4720</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3107.5</v>
+        <v>4433.5</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>-12.5</v>
+        <v>-286.5</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>-0.01%</t>
+          <t>-0.29%</t>
         </is>
       </c>
       <c r="S2" s="2" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>987.5</v>
+        <v>713.5</v>
       </c>
     </row>
     <row r="3">
@@ -826,7 +850,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J3" s="35" t="n">
+      <c r="J3" s="42" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="2" t="n"/>
@@ -878,7 +902,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J4" s="37" t="n">
+      <c r="J4" s="44" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="n"/>
@@ -930,7 +954,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J5" s="37" t="n">
+      <c r="J5" s="44" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="n"/>
@@ -982,7 +1006,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J6" s="37" t="n">
+      <c r="J6" s="44" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="n"/>
@@ -1034,7 +1058,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J7" s="35" t="n">
+      <c r="J7" s="42" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="n"/>
@@ -1086,7 +1110,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J8" s="37" t="n">
+      <c r="J8" s="44" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="n"/>
@@ -1138,7 +1162,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J9" s="35" t="n">
+      <c r="J9" s="42" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="2" t="n"/>
@@ -1190,7 +1214,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J10" s="37" t="n">
+      <c r="J10" s="44" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="n"/>
@@ -1242,7 +1266,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J11" s="37" t="n">
+      <c r="J11" s="44" t="n">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="n"/>
@@ -1294,7 +1318,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J12" s="35" t="n">
+      <c r="J12" s="42" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="n"/>
@@ -1346,7 +1370,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J13" s="37" t="n">
+      <c r="J13" s="44" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="n"/>
@@ -1398,7 +1422,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J14" s="37" t="n">
+      <c r="J14" s="44" t="n">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="n"/>
@@ -1450,7 +1474,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J15" s="37" t="n">
+      <c r="J15" s="44" t="n">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="n"/>
@@ -1502,7 +1526,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J16" s="37" t="n">
+      <c r="J16" s="44" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="n"/>
@@ -1554,7 +1578,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J17" s="35" t="n">
+      <c r="J17" s="42" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="2" t="n"/>
@@ -1606,7 +1630,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J18" s="37" t="n">
+      <c r="J18" s="44" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="n"/>
@@ -1658,7 +1682,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J19" s="35" t="n">
+      <c r="J19" s="42" t="n">
         <v>0</v>
       </c>
       <c r="K19" s="2" t="n"/>
@@ -1710,7 +1734,7 @@
           <t>3 - 3</t>
         </is>
       </c>
-      <c r="J20" s="37" t="n">
+      <c r="J20" s="44" t="n">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="n"/>
@@ -1762,7 +1786,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J21" s="35" t="n">
+      <c r="J21" s="42" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="2" t="n"/>
@@ -1814,7 +1838,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J22" s="37" t="n">
+      <c r="J22" s="44" t="n">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="n"/>
@@ -1866,7 +1890,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J23" s="35" t="n">
+      <c r="J23" s="42" t="n">
         <v>0</v>
       </c>
       <c r="K23" s="2" t="n"/>
@@ -1918,7 +1942,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J24" s="37" t="n">
+      <c r="J24" s="44" t="n">
         <v>1</v>
       </c>
       <c r="K24" s="2" t="n"/>
@@ -1970,7 +1994,7 @@
           <t>0 - 6</t>
         </is>
       </c>
-      <c r="J25" s="37" t="n">
+      <c r="J25" s="44" t="n">
         <v>1</v>
       </c>
       <c r="K25" s="2" t="n"/>
@@ -2022,7 +2046,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J26" s="37" t="n">
+      <c r="J26" s="44" t="n">
         <v>1</v>
       </c>
       <c r="K26" s="2" t="n"/>
@@ -2074,7 +2098,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J27" s="37" t="n">
+      <c r="J27" s="44" t="n">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="n"/>
@@ -2126,7 +2150,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J28" s="37" t="n">
+      <c r="J28" s="44" t="n">
         <v>1</v>
       </c>
       <c r="K28" s="2" t="n"/>
@@ -2178,7 +2202,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J29" s="35" t="n">
+      <c r="J29" s="42" t="n">
         <v>0</v>
       </c>
       <c r="K29" s="2" t="n"/>
@@ -2230,7 +2254,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J30" s="37" t="n">
+      <c r="J30" s="44" t="n">
         <v>1</v>
       </c>
       <c r="K30" s="2" t="n"/>
@@ -2282,7 +2306,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J31" s="37" t="n">
+      <c r="J31" s="44" t="n">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="n"/>
@@ -2334,7 +2358,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J32" s="37" t="n">
+      <c r="J32" s="44" t="n">
         <v>1</v>
       </c>
       <c r="K32" s="2" t="n"/>
@@ -2386,7 +2410,7 @@
           <t>2 - 5</t>
         </is>
       </c>
-      <c r="J33" s="37" t="n">
+      <c r="J33" s="44" t="n">
         <v>1</v>
       </c>
       <c r="K33" s="2" t="n"/>
@@ -2438,7 +2462,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J34" s="35" t="n">
+      <c r="J34" s="42" t="n">
         <v>0</v>
       </c>
       <c r="K34" s="2" t="n"/>
@@ -2490,7 +2514,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J35" s="37" t="n">
+      <c r="J35" s="44" t="n">
         <v>1</v>
       </c>
       <c r="K35" s="2" t="n"/>
@@ -2542,7 +2566,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J36" s="37" t="n">
+      <c r="J36" s="44" t="n">
         <v>1</v>
       </c>
       <c r="K36" s="2" t="n"/>
@@ -2594,7 +2618,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J37" s="37" t="n">
+      <c r="J37" s="44" t="n">
         <v>1</v>
       </c>
       <c r="K37" s="2" t="n"/>
@@ -2646,7 +2670,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J38" s="37" t="n">
+      <c r="J38" s="44" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="2" t="n"/>
@@ -2698,7 +2722,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J39" s="37" t="n">
+      <c r="J39" s="44" t="n">
         <v>1</v>
       </c>
       <c r="K39" s="2" t="n"/>
@@ -2750,7 +2774,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J40" s="37" t="n">
+      <c r="J40" s="44" t="n">
         <v>1</v>
       </c>
       <c r="K40" s="2" t="n"/>
@@ -2802,7 +2826,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J41" s="37" t="n">
+      <c r="J41" s="44" t="n">
         <v>1</v>
       </c>
       <c r="K41" s="2" t="n"/>
@@ -2815,6 +2839,838 @@
       <c r="R41" s="2" t="n"/>
       <c r="S41" s="2" t="n"/>
       <c r="T41" s="2" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>09.02.2025</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>5 - 1</t>
+        </is>
+      </c>
+      <c r="J42" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="2" t="n"/>
+      <c r="L42" s="2" t="n"/>
+      <c r="M42" s="2" t="n"/>
+      <c r="N42" s="2" t="n"/>
+      <c r="O42" s="2" t="n"/>
+      <c r="P42" s="2" t="n"/>
+      <c r="Q42" s="2" t="n"/>
+      <c r="R42" s="2" t="n"/>
+      <c r="S42" s="2" t="n"/>
+      <c r="T42" s="2" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>09.02.2025</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>1 - 1</t>
+        </is>
+      </c>
+      <c r="J43" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2" t="n"/>
+      <c r="L43" s="2" t="n"/>
+      <c r="M43" s="2" t="n"/>
+      <c r="N43" s="2" t="n"/>
+      <c r="O43" s="2" t="n"/>
+      <c r="P43" s="2" t="n"/>
+      <c r="Q43" s="2" t="n"/>
+      <c r="R43" s="2" t="n"/>
+      <c r="S43" s="2" t="n"/>
+      <c r="T43" s="2" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>15.02.2025</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>0 - 2</t>
+        </is>
+      </c>
+      <c r="J44" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2" t="n"/>
+      <c r="L44" s="2" t="n"/>
+      <c r="M44" s="2" t="n"/>
+      <c r="N44" s="2" t="n"/>
+      <c r="O44" s="2" t="n"/>
+      <c r="P44" s="2" t="n"/>
+      <c r="Q44" s="2" t="n"/>
+      <c r="R44" s="2" t="n"/>
+      <c r="S44" s="2" t="n"/>
+      <c r="T44" s="2" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>15.02.2025</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>15.99999999999999</v>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>2 - 0</t>
+        </is>
+      </c>
+      <c r="J45" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2" t="n"/>
+      <c r="L45" s="2" t="n"/>
+      <c r="M45" s="2" t="n"/>
+      <c r="N45" s="2" t="n"/>
+      <c r="O45" s="2" t="n"/>
+      <c r="P45" s="2" t="n"/>
+      <c r="Q45" s="2" t="n"/>
+      <c r="R45" s="2" t="n"/>
+      <c r="S45" s="2" t="n"/>
+      <c r="T45" s="2" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>15.02.2025</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>13.99999999999999</v>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>1 - 1</t>
+        </is>
+      </c>
+      <c r="J46" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2" t="n"/>
+      <c r="L46" s="2" t="n"/>
+      <c r="M46" s="2" t="n"/>
+      <c r="N46" s="2" t="n"/>
+      <c r="O46" s="2" t="n"/>
+      <c r="P46" s="2" t="n"/>
+      <c r="Q46" s="2" t="n"/>
+      <c r="R46" s="2" t="n"/>
+      <c r="S46" s="2" t="n"/>
+      <c r="T46" s="2" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>15.02.2025</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>Olympique Marseille</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>Saint Etienne</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>5 - 1</t>
+        </is>
+      </c>
+      <c r="J47" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" s="2" t="n"/>
+      <c r="L47" s="2" t="n"/>
+      <c r="M47" s="2" t="n"/>
+      <c r="N47" s="2" t="n"/>
+      <c r="O47" s="2" t="n"/>
+      <c r="P47" s="2" t="n"/>
+      <c r="Q47" s="2" t="n"/>
+      <c r="R47" s="2" t="n"/>
+      <c r="S47" s="2" t="n"/>
+      <c r="T47" s="2" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>15.02.2025</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>1 - 1</t>
+        </is>
+      </c>
+      <c r="J48" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2" t="n"/>
+      <c r="L48" s="2" t="n"/>
+      <c r="M48" s="2" t="n"/>
+      <c r="N48" s="2" t="n"/>
+      <c r="O48" s="2" t="n"/>
+      <c r="P48" s="2" t="n"/>
+      <c r="Q48" s="2" t="n"/>
+      <c r="R48" s="2" t="n"/>
+      <c r="S48" s="2" t="n"/>
+      <c r="T48" s="2" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>15.02.2025</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>7 - 1</t>
+        </is>
+      </c>
+      <c r="J49" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2" t="n"/>
+      <c r="L49" s="2" t="n"/>
+      <c r="M49" s="2" t="n"/>
+      <c r="N49" s="2" t="n"/>
+      <c r="O49" s="2" t="n"/>
+      <c r="P49" s="2" t="n"/>
+      <c r="Q49" s="2" t="n"/>
+      <c r="R49" s="2" t="n"/>
+      <c r="S49" s="2" t="n"/>
+      <c r="T49" s="2" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>15.02.2025</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0 - 1</t>
+        </is>
+      </c>
+      <c r="J50" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2" t="n"/>
+      <c r="L50" s="2" t="n"/>
+      <c r="M50" s="2" t="n"/>
+      <c r="N50" s="2" t="n"/>
+      <c r="O50" s="2" t="n"/>
+      <c r="P50" s="2" t="n"/>
+      <c r="Q50" s="2" t="n"/>
+      <c r="R50" s="2" t="n"/>
+      <c r="S50" s="2" t="n"/>
+      <c r="T50" s="2" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>16.02.2025</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>Wolverhampton</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>2 - 1</t>
+        </is>
+      </c>
+      <c r="J51" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" s="2" t="n"/>
+      <c r="L51" s="2" t="n"/>
+      <c r="M51" s="2" t="n"/>
+      <c r="N51" s="2" t="n"/>
+      <c r="O51" s="2" t="n"/>
+      <c r="P51" s="2" t="n"/>
+      <c r="Q51" s="2" t="n"/>
+      <c r="R51" s="2" t="n"/>
+      <c r="S51" s="2" t="n"/>
+      <c r="T51" s="2" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>22.02.2025</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="J52" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" s="2" t="n"/>
+      <c r="L52" s="2" t="n"/>
+      <c r="M52" s="2" t="n"/>
+      <c r="N52" s="2" t="n"/>
+      <c r="O52" s="2" t="n"/>
+      <c r="P52" s="2" t="n"/>
+      <c r="Q52" s="2" t="n"/>
+      <c r="R52" s="2" t="n"/>
+      <c r="S52" s="2" t="n"/>
+      <c r="T52" s="2" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>22.02.2025</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>0 - 2</t>
+        </is>
+      </c>
+      <c r="J53" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" s="2" t="n"/>
+      <c r="L53" s="2" t="n"/>
+      <c r="M53" s="2" t="n"/>
+      <c r="N53" s="2" t="n"/>
+      <c r="O53" s="2" t="n"/>
+      <c r="P53" s="2" t="n"/>
+      <c r="Q53" s="2" t="n"/>
+      <c r="R53" s="2" t="n"/>
+      <c r="S53" s="2" t="n"/>
+      <c r="T53" s="2" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>22.02.2025</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>0 - 1</t>
+        </is>
+      </c>
+      <c r="J54" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2" t="n"/>
+      <c r="L54" s="2" t="n"/>
+      <c r="M54" s="2" t="n"/>
+      <c r="N54" s="2" t="n"/>
+      <c r="O54" s="2" t="n"/>
+      <c r="P54" s="2" t="n"/>
+      <c r="Q54" s="2" t="n"/>
+      <c r="R54" s="2" t="n"/>
+      <c r="S54" s="2" t="n"/>
+      <c r="T54" s="2" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>22.02.2025</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>Torino FC</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>2 - 1</t>
+        </is>
+      </c>
+      <c r="J55" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" s="2" t="n"/>
+      <c r="L55" s="2" t="n"/>
+      <c r="M55" s="2" t="n"/>
+      <c r="N55" s="2" t="n"/>
+      <c r="O55" s="2" t="n"/>
+      <c r="P55" s="2" t="n"/>
+      <c r="Q55" s="2" t="n"/>
+      <c r="R55" s="2" t="n"/>
+      <c r="S55" s="2" t="n"/>
+      <c r="T55" s="2" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>22.02.2025</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F56" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>0 - 3</t>
+        </is>
+      </c>
+      <c r="J56" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" s="2" t="n"/>
+      <c r="L56" s="2" t="n"/>
+      <c r="M56" s="2" t="n"/>
+      <c r="N56" s="2" t="n"/>
+      <c r="O56" s="2" t="n"/>
+      <c r="P56" s="2" t="n"/>
+      <c r="Q56" s="2" t="n"/>
+      <c r="R56" s="2" t="n"/>
+      <c r="S56" s="2" t="n"/>
+      <c r="T56" s="2" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>22.02.2025</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>1 - 0</t>
+        </is>
+      </c>
+      <c r="J57" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" s="2" t="n"/>
+      <c r="L57" s="2" t="n"/>
+      <c r="M57" s="2" t="n"/>
+      <c r="N57" s="2" t="n"/>
+      <c r="O57" s="2" t="n"/>
+      <c r="P57" s="2" t="n"/>
+      <c r="Q57" s="2" t="n"/>
+      <c r="R57" s="2" t="n"/>
+      <c r="S57" s="2" t="n"/>
+      <c r="T57" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2870,14 +3726,14 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2906,10 +3762,10 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
@@ -2960,10 +3816,10 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="n">
         <v>2</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>1</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
@@ -2996,14 +3852,14 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>80.0%</t>
         </is>
       </c>
     </row>
@@ -3014,10 +3870,10 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
@@ -3050,7 +3906,7 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>0</v>
@@ -3140,14 +3996,14 @@
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -3158,10 +4014,10 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
@@ -3194,14 +4050,14 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -3212,14 +4068,14 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -3284,10 +4140,10 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
@@ -3302,14 +4158,14 @@
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
     </row>
@@ -3338,14 +4194,14 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>80.0%</t>
         </is>
       </c>
     </row>

--- a/app/placed_bets.xlsx
+++ b/app/placed_bets.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -245,6 +245,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -612,7 +630,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T57"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,7 +640,7 @@
   <cols>
     <col width="17" customWidth="1" min="1" max="1"/>
     <col width="26" customWidth="1" min="2" max="2"/>
-    <col width="24" customWidth="1" min="3" max="3"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
@@ -694,12 +712,12 @@
         </is>
       </c>
       <c r="K1" s="2" t="n"/>
-      <c r="L1" s="44" t="inlineStr">
+      <c r="L1" s="51" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="M1" s="42" t="inlineStr">
+      <c r="M1" s="50" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
@@ -778,38 +796,38 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J2" s="44" t="n">
+      <c r="J2" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>71.43000000000001</v>
+        <v>70.31</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>4720</v>
+        <v>5520</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4433.5</v>
+        <v>5067.5</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>-286.5</v>
+        <v>-452.5</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>-0.29%</t>
+          <t>-0.45%</t>
         </is>
       </c>
       <c r="S2" s="2" t="n">
         <v>1.33</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>713.5</v>
+        <v>547.5</v>
       </c>
     </row>
     <row r="3">
@@ -850,7 +868,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J3" s="42" t="n">
+      <c r="J3" s="50" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="2" t="n"/>
@@ -902,7 +920,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J4" s="44" t="n">
+      <c r="J4" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="n"/>
@@ -954,7 +972,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J5" s="44" t="n">
+      <c r="J5" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="n"/>
@@ -1006,7 +1024,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J6" s="44" t="n">
+      <c r="J6" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="n"/>
@@ -1058,7 +1076,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J7" s="42" t="n">
+      <c r="J7" s="50" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="n"/>
@@ -1110,7 +1128,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J8" s="44" t="n">
+      <c r="J8" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="n"/>
@@ -1162,7 +1180,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J9" s="42" t="n">
+      <c r="J9" s="50" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="2" t="n"/>
@@ -1214,7 +1232,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J10" s="44" t="n">
+      <c r="J10" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="n"/>
@@ -1266,7 +1284,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J11" s="44" t="n">
+      <c r="J11" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="n"/>
@@ -1318,7 +1336,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J12" s="42" t="n">
+      <c r="J12" s="50" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="n"/>
@@ -1370,7 +1388,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J13" s="44" t="n">
+      <c r="J13" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="n"/>
@@ -1422,7 +1440,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J14" s="44" t="n">
+      <c r="J14" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="n"/>
@@ -1474,7 +1492,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J15" s="44" t="n">
+      <c r="J15" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="n"/>
@@ -1526,7 +1544,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J16" s="44" t="n">
+      <c r="J16" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="n"/>
@@ -1578,7 +1596,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J17" s="42" t="n">
+      <c r="J17" s="50" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="2" t="n"/>
@@ -1630,7 +1648,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J18" s="44" t="n">
+      <c r="J18" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="n"/>
@@ -1682,7 +1700,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J19" s="42" t="n">
+      <c r="J19" s="50" t="n">
         <v>0</v>
       </c>
       <c r="K19" s="2" t="n"/>
@@ -1734,7 +1752,7 @@
           <t>3 - 3</t>
         </is>
       </c>
-      <c r="J20" s="44" t="n">
+      <c r="J20" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="n"/>
@@ -1786,7 +1804,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J21" s="42" t="n">
+      <c r="J21" s="50" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="2" t="n"/>
@@ -1838,7 +1856,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J22" s="44" t="n">
+      <c r="J22" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="n"/>
@@ -1890,7 +1908,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J23" s="42" t="n">
+      <c r="J23" s="50" t="n">
         <v>0</v>
       </c>
       <c r="K23" s="2" t="n"/>
@@ -1942,7 +1960,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J24" s="44" t="n">
+      <c r="J24" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K24" s="2" t="n"/>
@@ -1994,7 +2012,7 @@
           <t>0 - 6</t>
         </is>
       </c>
-      <c r="J25" s="44" t="n">
+      <c r="J25" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K25" s="2" t="n"/>
@@ -2046,7 +2064,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J26" s="44" t="n">
+      <c r="J26" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K26" s="2" t="n"/>
@@ -2098,7 +2116,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J27" s="44" t="n">
+      <c r="J27" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="n"/>
@@ -2150,7 +2168,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J28" s="44" t="n">
+      <c r="J28" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K28" s="2" t="n"/>
@@ -2202,7 +2220,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J29" s="42" t="n">
+      <c r="J29" s="50" t="n">
         <v>0</v>
       </c>
       <c r="K29" s="2" t="n"/>
@@ -2254,7 +2272,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J30" s="44" t="n">
+      <c r="J30" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K30" s="2" t="n"/>
@@ -2306,7 +2324,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J31" s="44" t="n">
+      <c r="J31" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="n"/>
@@ -2358,7 +2376,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J32" s="44" t="n">
+      <c r="J32" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K32" s="2" t="n"/>
@@ -2410,7 +2428,7 @@
           <t>2 - 5</t>
         </is>
       </c>
-      <c r="J33" s="44" t="n">
+      <c r="J33" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K33" s="2" t="n"/>
@@ -2462,7 +2480,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J34" s="42" t="n">
+      <c r="J34" s="50" t="n">
         <v>0</v>
       </c>
       <c r="K34" s="2" t="n"/>
@@ -2514,7 +2532,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J35" s="44" t="n">
+      <c r="J35" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K35" s="2" t="n"/>
@@ -2566,7 +2584,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J36" s="44" t="n">
+      <c r="J36" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K36" s="2" t="n"/>
@@ -2618,7 +2636,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J37" s="44" t="n">
+      <c r="J37" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K37" s="2" t="n"/>
@@ -2670,7 +2688,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J38" s="44" t="n">
+      <c r="J38" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="2" t="n"/>
@@ -2722,7 +2740,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J39" s="44" t="n">
+      <c r="J39" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K39" s="2" t="n"/>
@@ -2774,7 +2792,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J40" s="44" t="n">
+      <c r="J40" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K40" s="2" t="n"/>
@@ -2826,7 +2844,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J41" s="44" t="n">
+      <c r="J41" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K41" s="2" t="n"/>
@@ -2878,7 +2896,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J42" s="44" t="n">
+      <c r="J42" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K42" s="2" t="n"/>
@@ -2930,7 +2948,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J43" s="42" t="n">
+      <c r="J43" s="50" t="n">
         <v>0</v>
       </c>
       <c r="K43" s="2" t="n"/>
@@ -2982,7 +3000,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J44" s="44" t="n">
+      <c r="J44" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K44" s="2" t="n"/>
@@ -3034,7 +3052,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J45" s="42" t="n">
+      <c r="J45" s="50" t="n">
         <v>0</v>
       </c>
       <c r="K45" s="2" t="n"/>
@@ -3086,7 +3104,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J46" s="44" t="n">
+      <c r="J46" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K46" s="2" t="n"/>
@@ -3138,7 +3156,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J47" s="44" t="n">
+      <c r="J47" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K47" s="2" t="n"/>
@@ -3190,7 +3208,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J48" s="42" t="n">
+      <c r="J48" s="50" t="n">
         <v>0</v>
       </c>
       <c r="K48" s="2" t="n"/>
@@ -3242,7 +3260,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J49" s="44" t="n">
+      <c r="J49" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K49" s="2" t="n"/>
@@ -3294,7 +3312,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J50" s="44" t="n">
+      <c r="J50" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K50" s="2" t="n"/>
@@ -3346,7 +3364,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J51" s="44" t="n">
+      <c r="J51" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K51" s="2" t="n"/>
@@ -3398,7 +3416,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J52" s="42" t="n">
+      <c r="J52" s="50" t="n">
         <v>0</v>
       </c>
       <c r="K52" s="2" t="n"/>
@@ -3450,7 +3468,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J53" s="44" t="n">
+      <c r="J53" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K53" s="2" t="n"/>
@@ -3502,7 +3520,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J54" s="42" t="n">
+      <c r="J54" s="50" t="n">
         <v>0</v>
       </c>
       <c r="K54" s="2" t="n"/>
@@ -3554,7 +3572,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J55" s="42" t="n">
+      <c r="J55" s="50" t="n">
         <v>0</v>
       </c>
       <c r="K55" s="2" t="n"/>
@@ -3606,7 +3624,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J56" s="44" t="n">
+      <c r="J56" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K56" s="2" t="n"/>
@@ -3658,7 +3676,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J57" s="44" t="n">
+      <c r="J57" s="51" t="n">
         <v>1</v>
       </c>
       <c r="K57" s="2" t="n"/>
@@ -3671,6 +3689,422 @@
       <c r="R57" s="2" t="n"/>
       <c r="S57" s="2" t="n"/>
       <c r="T57" s="2" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>22.02.2025</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0 - 2</t>
+        </is>
+      </c>
+      <c r="J58" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" s="2" t="n"/>
+      <c r="L58" s="2" t="n"/>
+      <c r="M58" s="2" t="n"/>
+      <c r="N58" s="2" t="n"/>
+      <c r="O58" s="2" t="n"/>
+      <c r="P58" s="2" t="n"/>
+      <c r="Q58" s="2" t="n"/>
+      <c r="R58" s="2" t="n"/>
+      <c r="S58" s="2" t="n"/>
+      <c r="T58" s="2" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>22.02.2025</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>Olympique Marseille</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F59" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>3 - 0</t>
+        </is>
+      </c>
+      <c r="J59" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2" t="n"/>
+      <c r="L59" s="2" t="n"/>
+      <c r="M59" s="2" t="n"/>
+      <c r="N59" s="2" t="n"/>
+      <c r="O59" s="2" t="n"/>
+      <c r="P59" s="2" t="n"/>
+      <c r="Q59" s="2" t="n"/>
+      <c r="R59" s="2" t="n"/>
+      <c r="S59" s="2" t="n"/>
+      <c r="T59" s="2" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>23.02.2025</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="I60" s="2" t="inlineStr">
+        <is>
+          <t>2 - 1</t>
+        </is>
+      </c>
+      <c r="J60" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2" t="n"/>
+      <c r="L60" s="2" t="n"/>
+      <c r="M60" s="2" t="n"/>
+      <c r="N60" s="2" t="n"/>
+      <c r="O60" s="2" t="n"/>
+      <c r="P60" s="2" t="n"/>
+      <c r="Q60" s="2" t="n"/>
+      <c r="R60" s="2" t="n"/>
+      <c r="S60" s="2" t="n"/>
+      <c r="T60" s="2" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>23.02.2025</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F61" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="I61" s="2" t="inlineStr">
+        <is>
+          <t>2 - 2</t>
+        </is>
+      </c>
+      <c r="J61" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" s="2" t="n"/>
+      <c r="L61" s="2" t="n"/>
+      <c r="M61" s="2" t="n"/>
+      <c r="N61" s="2" t="n"/>
+      <c r="O61" s="2" t="n"/>
+      <c r="P61" s="2" t="n"/>
+      <c r="Q61" s="2" t="n"/>
+      <c r="R61" s="2" t="n"/>
+      <c r="S61" s="2" t="n"/>
+      <c r="T61" s="2" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>23.02.2025</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F62" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I62" s="2" t="inlineStr">
+        <is>
+          <t>2 - 0</t>
+        </is>
+      </c>
+      <c r="J62" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" s="2" t="n"/>
+      <c r="L62" s="2" t="n"/>
+      <c r="M62" s="2" t="n"/>
+      <c r="N62" s="2" t="n"/>
+      <c r="O62" s="2" t="n"/>
+      <c r="P62" s="2" t="n"/>
+      <c r="Q62" s="2" t="n"/>
+      <c r="R62" s="2" t="n"/>
+      <c r="S62" s="2" t="n"/>
+      <c r="T62" s="2" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>23.02.2025</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F63" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="I63" s="2" t="inlineStr">
+        <is>
+          <t>0 - 1</t>
+        </is>
+      </c>
+      <c r="J63" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" s="2" t="n"/>
+      <c r="L63" s="2" t="n"/>
+      <c r="M63" s="2" t="n"/>
+      <c r="N63" s="2" t="n"/>
+      <c r="O63" s="2" t="n"/>
+      <c r="P63" s="2" t="n"/>
+      <c r="Q63" s="2" t="n"/>
+      <c r="R63" s="2" t="n"/>
+      <c r="S63" s="2" t="n"/>
+      <c r="T63" s="2" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>25.02.2025</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F64" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I64" s="2" t="inlineStr">
+        <is>
+          <t>4 - 0</t>
+        </is>
+      </c>
+      <c r="J64" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" s="2" t="n"/>
+      <c r="L64" s="2" t="n"/>
+      <c r="M64" s="2" t="n"/>
+      <c r="N64" s="2" t="n"/>
+      <c r="O64" s="2" t="n"/>
+      <c r="P64" s="2" t="n"/>
+      <c r="Q64" s="2" t="n"/>
+      <c r="R64" s="2" t="n"/>
+      <c r="S64" s="2" t="n"/>
+      <c r="T64" s="2" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>28.02.2025</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F65" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="I65" s="2" t="inlineStr">
+        <is>
+          <t>3 - 0</t>
+        </is>
+      </c>
+      <c r="J65" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" s="2" t="n"/>
+      <c r="L65" s="2" t="n"/>
+      <c r="M65" s="2" t="n"/>
+      <c r="N65" s="2" t="n"/>
+      <c r="O65" s="2" t="n"/>
+      <c r="P65" s="2" t="n"/>
+      <c r="Q65" s="2" t="n"/>
+      <c r="R65" s="2" t="n"/>
+      <c r="S65" s="2" t="n"/>
+      <c r="T65" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3744,14 +4178,14 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
     </row>
@@ -3834,14 +4268,14 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>75.0%</t>
         </is>
       </c>
     </row>
@@ -3852,14 +4286,14 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>4</v>
-      </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -3960,14 +4394,14 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
     </row>
@@ -4032,10 +4466,10 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
@@ -4068,14 +4502,14 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>50.0%</t>
         </is>
       </c>
     </row>
@@ -4140,14 +4574,14 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -4158,14 +4592,14 @@
         </is>
       </c>
       <c r="B26" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>

--- a/app/placed_bets.xlsx
+++ b/app/placed_bets.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -254,6 +254,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -630,7 +639,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T65"/>
+  <dimension ref="A1:T70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,12 +721,12 @@
         </is>
       </c>
       <c r="K1" s="2" t="n"/>
-      <c r="L1" s="51" t="inlineStr">
+      <c r="L1" s="54" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="M1" s="50" t="inlineStr">
+      <c r="M1" s="53" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
@@ -796,27 +805,27 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J2" s="51" t="n">
+      <c r="J2" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>70.31</v>
+        <v>71.01000000000001</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>5520</v>
+        <v>5970</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>5067.5</v>
+        <v>5518.5</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>-452.5</v>
+        <v>-451.5</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -827,7 +836,7 @@
         <v>1.33</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>547.5</v>
+        <v>548.5</v>
       </c>
     </row>
     <row r="3">
@@ -868,7 +877,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J3" s="50" t="n">
+      <c r="J3" s="53" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="2" t="n"/>
@@ -920,7 +929,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J4" s="51" t="n">
+      <c r="J4" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="n"/>
@@ -972,7 +981,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J5" s="51" t="n">
+      <c r="J5" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="n"/>
@@ -1024,7 +1033,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J6" s="51" t="n">
+      <c r="J6" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="n"/>
@@ -1076,7 +1085,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J7" s="50" t="n">
+      <c r="J7" s="53" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="n"/>
@@ -1128,7 +1137,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J8" s="51" t="n">
+      <c r="J8" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="n"/>
@@ -1180,7 +1189,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J9" s="50" t="n">
+      <c r="J9" s="53" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="2" t="n"/>
@@ -1232,7 +1241,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J10" s="51" t="n">
+      <c r="J10" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="n"/>
@@ -1284,7 +1293,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J11" s="51" t="n">
+      <c r="J11" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="n"/>
@@ -1336,7 +1345,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J12" s="50" t="n">
+      <c r="J12" s="53" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="n"/>
@@ -1388,7 +1397,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J13" s="51" t="n">
+      <c r="J13" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="n"/>
@@ -1440,7 +1449,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J14" s="51" t="n">
+      <c r="J14" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="n"/>
@@ -1492,7 +1501,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J15" s="51" t="n">
+      <c r="J15" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="n"/>
@@ -1544,7 +1553,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J16" s="51" t="n">
+      <c r="J16" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="n"/>
@@ -1596,7 +1605,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J17" s="50" t="n">
+      <c r="J17" s="53" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="2" t="n"/>
@@ -1648,7 +1657,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J18" s="51" t="n">
+      <c r="J18" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="n"/>
@@ -1700,7 +1709,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J19" s="50" t="n">
+      <c r="J19" s="53" t="n">
         <v>0</v>
       </c>
       <c r="K19" s="2" t="n"/>
@@ -1752,7 +1761,7 @@
           <t>3 - 3</t>
         </is>
       </c>
-      <c r="J20" s="51" t="n">
+      <c r="J20" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="n"/>
@@ -1804,7 +1813,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J21" s="50" t="n">
+      <c r="J21" s="53" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="2" t="n"/>
@@ -1856,7 +1865,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J22" s="51" t="n">
+      <c r="J22" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="n"/>
@@ -1908,7 +1917,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J23" s="50" t="n">
+      <c r="J23" s="53" t="n">
         <v>0</v>
       </c>
       <c r="K23" s="2" t="n"/>
@@ -1960,7 +1969,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J24" s="51" t="n">
+      <c r="J24" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K24" s="2" t="n"/>
@@ -2012,7 +2021,7 @@
           <t>0 - 6</t>
         </is>
       </c>
-      <c r="J25" s="51" t="n">
+      <c r="J25" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K25" s="2" t="n"/>
@@ -2064,7 +2073,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J26" s="51" t="n">
+      <c r="J26" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K26" s="2" t="n"/>
@@ -2116,7 +2125,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J27" s="51" t="n">
+      <c r="J27" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="n"/>
@@ -2168,7 +2177,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J28" s="51" t="n">
+      <c r="J28" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K28" s="2" t="n"/>
@@ -2220,7 +2229,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J29" s="50" t="n">
+      <c r="J29" s="53" t="n">
         <v>0</v>
       </c>
       <c r="K29" s="2" t="n"/>
@@ -2272,7 +2281,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J30" s="51" t="n">
+      <c r="J30" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K30" s="2" t="n"/>
@@ -2324,7 +2333,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J31" s="51" t="n">
+      <c r="J31" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="n"/>
@@ -2376,7 +2385,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J32" s="51" t="n">
+      <c r="J32" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K32" s="2" t="n"/>
@@ -2428,7 +2437,7 @@
           <t>2 - 5</t>
         </is>
       </c>
-      <c r="J33" s="51" t="n">
+      <c r="J33" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K33" s="2" t="n"/>
@@ -2480,7 +2489,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J34" s="50" t="n">
+      <c r="J34" s="53" t="n">
         <v>0</v>
       </c>
       <c r="K34" s="2" t="n"/>
@@ -2532,7 +2541,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J35" s="51" t="n">
+      <c r="J35" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K35" s="2" t="n"/>
@@ -2584,7 +2593,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J36" s="51" t="n">
+      <c r="J36" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K36" s="2" t="n"/>
@@ -2636,7 +2645,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J37" s="51" t="n">
+      <c r="J37" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K37" s="2" t="n"/>
@@ -2688,7 +2697,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J38" s="51" t="n">
+      <c r="J38" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="2" t="n"/>
@@ -2740,7 +2749,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J39" s="51" t="n">
+      <c r="J39" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K39" s="2" t="n"/>
@@ -2792,7 +2801,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J40" s="51" t="n">
+      <c r="J40" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K40" s="2" t="n"/>
@@ -2844,7 +2853,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J41" s="51" t="n">
+      <c r="J41" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K41" s="2" t="n"/>
@@ -2896,7 +2905,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J42" s="51" t="n">
+      <c r="J42" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K42" s="2" t="n"/>
@@ -2948,7 +2957,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J43" s="50" t="n">
+      <c r="J43" s="53" t="n">
         <v>0</v>
       </c>
       <c r="K43" s="2" t="n"/>
@@ -3000,7 +3009,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J44" s="51" t="n">
+      <c r="J44" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K44" s="2" t="n"/>
@@ -3052,7 +3061,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J45" s="50" t="n">
+      <c r="J45" s="53" t="n">
         <v>0</v>
       </c>
       <c r="K45" s="2" t="n"/>
@@ -3104,7 +3113,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J46" s="51" t="n">
+      <c r="J46" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K46" s="2" t="n"/>
@@ -3156,7 +3165,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J47" s="51" t="n">
+      <c r="J47" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K47" s="2" t="n"/>
@@ -3208,7 +3217,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J48" s="50" t="n">
+      <c r="J48" s="53" t="n">
         <v>0</v>
       </c>
       <c r="K48" s="2" t="n"/>
@@ -3260,7 +3269,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J49" s="51" t="n">
+      <c r="J49" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K49" s="2" t="n"/>
@@ -3312,7 +3321,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J50" s="51" t="n">
+      <c r="J50" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K50" s="2" t="n"/>
@@ -3364,7 +3373,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J51" s="51" t="n">
+      <c r="J51" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K51" s="2" t="n"/>
@@ -3416,7 +3425,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J52" s="50" t="n">
+      <c r="J52" s="53" t="n">
         <v>0</v>
       </c>
       <c r="K52" s="2" t="n"/>
@@ -3468,7 +3477,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J53" s="51" t="n">
+      <c r="J53" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K53" s="2" t="n"/>
@@ -3520,7 +3529,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J54" s="50" t="n">
+      <c r="J54" s="53" t="n">
         <v>0</v>
       </c>
       <c r="K54" s="2" t="n"/>
@@ -3572,7 +3581,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J55" s="50" t="n">
+      <c r="J55" s="53" t="n">
         <v>0</v>
       </c>
       <c r="K55" s="2" t="n"/>
@@ -3624,7 +3633,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J56" s="51" t="n">
+      <c r="J56" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K56" s="2" t="n"/>
@@ -3676,7 +3685,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J57" s="51" t="n">
+      <c r="J57" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K57" s="2" t="n"/>
@@ -3728,7 +3737,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J58" s="51" t="n">
+      <c r="J58" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K58" s="2" t="n"/>
@@ -3780,7 +3789,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J59" s="50" t="n">
+      <c r="J59" s="53" t="n">
         <v>0</v>
       </c>
       <c r="K59" s="2" t="n"/>
@@ -3832,7 +3841,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J60" s="50" t="n">
+      <c r="J60" s="53" t="n">
         <v>0</v>
       </c>
       <c r="K60" s="2" t="n"/>
@@ -3884,7 +3893,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J61" s="50" t="n">
+      <c r="J61" s="53" t="n">
         <v>0</v>
       </c>
       <c r="K61" s="2" t="n"/>
@@ -3936,7 +3945,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J62" s="51" t="n">
+      <c r="J62" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K62" s="2" t="n"/>
@@ -3988,7 +3997,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J63" s="51" t="n">
+      <c r="J63" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K63" s="2" t="n"/>
@@ -4040,7 +4049,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J64" s="51" t="n">
+      <c r="J64" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K64" s="2" t="n"/>
@@ -4092,7 +4101,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J65" s="51" t="n">
+      <c r="J65" s="54" t="n">
         <v>1</v>
       </c>
       <c r="K65" s="2" t="n"/>
@@ -4105,6 +4114,266 @@
       <c r="R65" s="2" t="n"/>
       <c r="S65" s="2" t="n"/>
       <c r="T65" s="2" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>01.03.2025</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F66" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="I66" s="2" t="inlineStr">
+        <is>
+          <t>2 - 1</t>
+        </is>
+      </c>
+      <c r="J66" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" s="2" t="n"/>
+      <c r="L66" s="2" t="n"/>
+      <c r="M66" s="2" t="n"/>
+      <c r="N66" s="2" t="n"/>
+      <c r="O66" s="2" t="n"/>
+      <c r="P66" s="2" t="n"/>
+      <c r="Q66" s="2" t="n"/>
+      <c r="R66" s="2" t="n"/>
+      <c r="S66" s="2" t="n"/>
+      <c r="T66" s="2" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>02.03.2025</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>Olympique Lyon</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>1X</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F67" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I67" s="2" t="inlineStr">
+        <is>
+          <t>2 - 1</t>
+        </is>
+      </c>
+      <c r="J67" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" s="2" t="n"/>
+      <c r="L67" s="2" t="n"/>
+      <c r="M67" s="2" t="n"/>
+      <c r="N67" s="2" t="n"/>
+      <c r="O67" s="2" t="n"/>
+      <c r="P67" s="2" t="n"/>
+      <c r="Q67" s="2" t="n"/>
+      <c r="R67" s="2" t="n"/>
+      <c r="S67" s="2" t="n"/>
+      <c r="T67" s="2" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>02.03.2025</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>Olympique Marseille</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="I68" s="2" t="inlineStr">
+        <is>
+          <t>2 - 0</t>
+        </is>
+      </c>
+      <c r="J68" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" s="2" t="n"/>
+      <c r="L68" s="2" t="n"/>
+      <c r="M68" s="2" t="n"/>
+      <c r="N68" s="2" t="n"/>
+      <c r="O68" s="2" t="n"/>
+      <c r="P68" s="2" t="n"/>
+      <c r="Q68" s="2" t="n"/>
+      <c r="R68" s="2" t="n"/>
+      <c r="S68" s="2" t="n"/>
+      <c r="T68" s="2" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>03.03.2025</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F69" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="I69" s="2" t="inlineStr">
+        <is>
+          <t>2 - 0</t>
+        </is>
+      </c>
+      <c r="J69" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" s="2" t="n"/>
+      <c r="L69" s="2" t="n"/>
+      <c r="M69" s="2" t="n"/>
+      <c r="N69" s="2" t="n"/>
+      <c r="O69" s="2" t="n"/>
+      <c r="P69" s="2" t="n"/>
+      <c r="Q69" s="2" t="n"/>
+      <c r="R69" s="2" t="n"/>
+      <c r="S69" s="2" t="n"/>
+      <c r="T69" s="2" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>08.03.2025</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>Bayern Munchen</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F70" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="H70" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I70" s="2" t="inlineStr">
+        <is>
+          <t>2 - 3</t>
+        </is>
+      </c>
+      <c r="J70" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" s="2" t="n"/>
+      <c r="L70" s="2" t="n"/>
+      <c r="M70" s="2" t="n"/>
+      <c r="N70" s="2" t="n"/>
+      <c r="O70" s="2" t="n"/>
+      <c r="P70" s="2" t="n"/>
+      <c r="Q70" s="2" t="n"/>
+      <c r="R70" s="2" t="n"/>
+      <c r="S70" s="2" t="n"/>
+      <c r="T70" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4286,14 +4555,14 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>5</v>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -4322,10 +4591,10 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
@@ -4466,10 +4735,10 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
@@ -4552,18 +4821,18 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Olympique Lyon</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
@@ -4574,14 +4843,14 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>75.0%</t>
         </is>
       </c>
     </row>

--- a/app/placed_bets.xlsx
+++ b/app/placed_bets.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -254,6 +254,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -639,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T70"/>
+  <dimension ref="A1:T73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,8 +662,8 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="24" customWidth="1" min="7" max="7"/>
-    <col width="24" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
     <col width="13" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
@@ -721,12 +730,12 @@
         </is>
       </c>
       <c r="K1" s="2" t="n"/>
-      <c r="L1" s="54" t="inlineStr">
+      <c r="L1" s="57" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="M1" s="53" t="inlineStr">
+      <c r="M1" s="56" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
@@ -805,38 +814,38 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J2" s="54" t="n">
+      <c r="J2" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>71.01000000000001</v>
+        <v>70.83</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>5970</v>
+        <v>6270</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>5518.5</v>
+        <v>5747.5</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>-451.5</v>
+        <v>-522.5</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>-0.45%</t>
+          <t>-0.52%</t>
         </is>
       </c>
       <c r="S2" s="2" t="n">
         <v>1.33</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>548.5</v>
+        <v>477.5</v>
       </c>
     </row>
     <row r="3">
@@ -877,7 +886,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J3" s="53" t="n">
+      <c r="J3" s="56" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="2" t="n"/>
@@ -929,7 +938,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J4" s="54" t="n">
+      <c r="J4" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="n"/>
@@ -981,7 +990,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J5" s="54" t="n">
+      <c r="J5" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="n"/>
@@ -1033,7 +1042,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J6" s="54" t="n">
+      <c r="J6" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="n"/>
@@ -1085,7 +1094,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J7" s="53" t="n">
+      <c r="J7" s="56" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="n"/>
@@ -1137,7 +1146,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J8" s="54" t="n">
+      <c r="J8" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="n"/>
@@ -1189,7 +1198,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J9" s="53" t="n">
+      <c r="J9" s="56" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="2" t="n"/>
@@ -1241,7 +1250,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J10" s="54" t="n">
+      <c r="J10" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="n"/>
@@ -1293,7 +1302,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J11" s="54" t="n">
+      <c r="J11" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="n"/>
@@ -1345,7 +1354,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J12" s="53" t="n">
+      <c r="J12" s="56" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="n"/>
@@ -1397,7 +1406,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J13" s="54" t="n">
+      <c r="J13" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="n"/>
@@ -1449,7 +1458,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J14" s="54" t="n">
+      <c r="J14" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="n"/>
@@ -1501,7 +1510,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J15" s="54" t="n">
+      <c r="J15" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="n"/>
@@ -1553,7 +1562,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J16" s="54" t="n">
+      <c r="J16" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="n"/>
@@ -1605,7 +1614,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J17" s="53" t="n">
+      <c r="J17" s="56" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="2" t="n"/>
@@ -1657,7 +1666,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J18" s="54" t="n">
+      <c r="J18" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="n"/>
@@ -1709,7 +1718,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J19" s="53" t="n">
+      <c r="J19" s="56" t="n">
         <v>0</v>
       </c>
       <c r="K19" s="2" t="n"/>
@@ -1761,7 +1770,7 @@
           <t>3 - 3</t>
         </is>
       </c>
-      <c r="J20" s="54" t="n">
+      <c r="J20" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="n"/>
@@ -1813,7 +1822,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J21" s="53" t="n">
+      <c r="J21" s="56" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="2" t="n"/>
@@ -1865,7 +1874,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J22" s="54" t="n">
+      <c r="J22" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="n"/>
@@ -1917,7 +1926,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J23" s="53" t="n">
+      <c r="J23" s="56" t="n">
         <v>0</v>
       </c>
       <c r="K23" s="2" t="n"/>
@@ -1969,7 +1978,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J24" s="54" t="n">
+      <c r="J24" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K24" s="2" t="n"/>
@@ -2021,7 +2030,7 @@
           <t>0 - 6</t>
         </is>
       </c>
-      <c r="J25" s="54" t="n">
+      <c r="J25" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K25" s="2" t="n"/>
@@ -2073,7 +2082,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J26" s="54" t="n">
+      <c r="J26" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K26" s="2" t="n"/>
@@ -2125,7 +2134,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J27" s="54" t="n">
+      <c r="J27" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="n"/>
@@ -2177,7 +2186,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J28" s="54" t="n">
+      <c r="J28" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K28" s="2" t="n"/>
@@ -2229,7 +2238,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J29" s="53" t="n">
+      <c r="J29" s="56" t="n">
         <v>0</v>
       </c>
       <c r="K29" s="2" t="n"/>
@@ -2281,7 +2290,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J30" s="54" t="n">
+      <c r="J30" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K30" s="2" t="n"/>
@@ -2333,7 +2342,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J31" s="54" t="n">
+      <c r="J31" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="n"/>
@@ -2385,7 +2394,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J32" s="54" t="n">
+      <c r="J32" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K32" s="2" t="n"/>
@@ -2437,7 +2446,7 @@
           <t>2 - 5</t>
         </is>
       </c>
-      <c r="J33" s="54" t="n">
+      <c r="J33" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K33" s="2" t="n"/>
@@ -2489,7 +2498,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J34" s="53" t="n">
+      <c r="J34" s="56" t="n">
         <v>0</v>
       </c>
       <c r="K34" s="2" t="n"/>
@@ -2541,7 +2550,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J35" s="54" t="n">
+      <c r="J35" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K35" s="2" t="n"/>
@@ -2593,7 +2602,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J36" s="54" t="n">
+      <c r="J36" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K36" s="2" t="n"/>
@@ -2645,7 +2654,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J37" s="54" t="n">
+      <c r="J37" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K37" s="2" t="n"/>
@@ -2697,7 +2706,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J38" s="54" t="n">
+      <c r="J38" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="2" t="n"/>
@@ -2749,7 +2758,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J39" s="54" t="n">
+      <c r="J39" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K39" s="2" t="n"/>
@@ -2801,7 +2810,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J40" s="54" t="n">
+      <c r="J40" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K40" s="2" t="n"/>
@@ -2853,7 +2862,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J41" s="54" t="n">
+      <c r="J41" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K41" s="2" t="n"/>
@@ -2905,7 +2914,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J42" s="54" t="n">
+      <c r="J42" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K42" s="2" t="n"/>
@@ -2957,7 +2966,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J43" s="53" t="n">
+      <c r="J43" s="56" t="n">
         <v>0</v>
       </c>
       <c r="K43" s="2" t="n"/>
@@ -3009,7 +3018,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J44" s="54" t="n">
+      <c r="J44" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K44" s="2" t="n"/>
@@ -3061,7 +3070,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J45" s="53" t="n">
+      <c r="J45" s="56" t="n">
         <v>0</v>
       </c>
       <c r="K45" s="2" t="n"/>
@@ -3113,7 +3122,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J46" s="54" t="n">
+      <c r="J46" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K46" s="2" t="n"/>
@@ -3165,7 +3174,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J47" s="54" t="n">
+      <c r="J47" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K47" s="2" t="n"/>
@@ -3217,7 +3226,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J48" s="53" t="n">
+      <c r="J48" s="56" t="n">
         <v>0</v>
       </c>
       <c r="K48" s="2" t="n"/>
@@ -3269,7 +3278,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J49" s="54" t="n">
+      <c r="J49" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K49" s="2" t="n"/>
@@ -3321,7 +3330,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J50" s="54" t="n">
+      <c r="J50" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K50" s="2" t="n"/>
@@ -3373,7 +3382,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J51" s="54" t="n">
+      <c r="J51" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K51" s="2" t="n"/>
@@ -3425,7 +3434,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J52" s="53" t="n">
+      <c r="J52" s="56" t="n">
         <v>0</v>
       </c>
       <c r="K52" s="2" t="n"/>
@@ -3477,7 +3486,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J53" s="54" t="n">
+      <c r="J53" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K53" s="2" t="n"/>
@@ -3529,7 +3538,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J54" s="53" t="n">
+      <c r="J54" s="56" t="n">
         <v>0</v>
       </c>
       <c r="K54" s="2" t="n"/>
@@ -3581,7 +3590,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J55" s="53" t="n">
+      <c r="J55" s="56" t="n">
         <v>0</v>
       </c>
       <c r="K55" s="2" t="n"/>
@@ -3633,7 +3642,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J56" s="54" t="n">
+      <c r="J56" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K56" s="2" t="n"/>
@@ -3685,7 +3694,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J57" s="54" t="n">
+      <c r="J57" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K57" s="2" t="n"/>
@@ -3737,7 +3746,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J58" s="54" t="n">
+      <c r="J58" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K58" s="2" t="n"/>
@@ -3789,7 +3798,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J59" s="53" t="n">
+      <c r="J59" s="56" t="n">
         <v>0</v>
       </c>
       <c r="K59" s="2" t="n"/>
@@ -3841,7 +3850,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J60" s="53" t="n">
+      <c r="J60" s="56" t="n">
         <v>0</v>
       </c>
       <c r="K60" s="2" t="n"/>
@@ -3893,7 +3902,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J61" s="53" t="n">
+      <c r="J61" s="56" t="n">
         <v>0</v>
       </c>
       <c r="K61" s="2" t="n"/>
@@ -3945,7 +3954,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J62" s="54" t="n">
+      <c r="J62" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K62" s="2" t="n"/>
@@ -3997,7 +4006,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J63" s="54" t="n">
+      <c r="J63" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K63" s="2" t="n"/>
@@ -4049,7 +4058,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J64" s="54" t="n">
+      <c r="J64" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K64" s="2" t="n"/>
@@ -4101,7 +4110,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J65" s="54" t="n">
+      <c r="J65" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K65" s="2" t="n"/>
@@ -4153,7 +4162,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J66" s="53" t="n">
+      <c r="J66" s="56" t="n">
         <v>0</v>
       </c>
       <c r="K66" s="2" t="n"/>
@@ -4205,7 +4214,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J67" s="54" t="n">
+      <c r="J67" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K67" s="2" t="n"/>
@@ -4257,7 +4266,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J68" s="54" t="n">
+      <c r="J68" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K68" s="2" t="n"/>
@@ -4309,7 +4318,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J69" s="54" t="n">
+      <c r="J69" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K69" s="2" t="n"/>
@@ -4361,7 +4370,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="J70" s="54" t="n">
+      <c r="J70" s="57" t="n">
         <v>1</v>
       </c>
       <c r="K70" s="2" t="n"/>
@@ -4374,6 +4383,162 @@
       <c r="R70" s="2" t="n"/>
       <c r="S70" s="2" t="n"/>
       <c r="T70" s="2" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>08.03.2025</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F71" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="H71" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="I71" s="2" t="inlineStr">
+        <is>
+          <t>0 - 2</t>
+        </is>
+      </c>
+      <c r="J71" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" s="2" t="n"/>
+      <c r="L71" s="2" t="n"/>
+      <c r="M71" s="2" t="n"/>
+      <c r="N71" s="2" t="n"/>
+      <c r="O71" s="2" t="n"/>
+      <c r="P71" s="2" t="n"/>
+      <c r="Q71" s="2" t="n"/>
+      <c r="R71" s="2" t="n"/>
+      <c r="S71" s="2" t="n"/>
+      <c r="T71" s="2" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>08.03.2025</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F72" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G72" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="H72" s="2" t="n">
+        <v>15.99999999999999</v>
+      </c>
+      <c r="I72" s="2" t="inlineStr">
+        <is>
+          <t>2 - 2</t>
+        </is>
+      </c>
+      <c r="J72" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" s="2" t="n"/>
+      <c r="L72" s="2" t="n"/>
+      <c r="M72" s="2" t="n"/>
+      <c r="N72" s="2" t="n"/>
+      <c r="O72" s="2" t="n"/>
+      <c r="P72" s="2" t="n"/>
+      <c r="Q72" s="2" t="n"/>
+      <c r="R72" s="2" t="n"/>
+      <c r="S72" s="2" t="n"/>
+      <c r="T72" s="2" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>08.03.2025</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F73" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G73" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="H73" s="2" t="n">
+        <v>12.99999999999999</v>
+      </c>
+      <c r="I73" s="2" t="inlineStr">
+        <is>
+          <t>3 - 1</t>
+        </is>
+      </c>
+      <c r="J73" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" s="2" t="n"/>
+      <c r="L73" s="2" t="n"/>
+      <c r="M73" s="2" t="n"/>
+      <c r="N73" s="2" t="n"/>
+      <c r="O73" s="2" t="n"/>
+      <c r="P73" s="2" t="n"/>
+      <c r="Q73" s="2" t="n"/>
+      <c r="R73" s="2" t="n"/>
+      <c r="S73" s="2" t="n"/>
+      <c r="T73" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4465,10 +4630,10 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
@@ -4573,14 +4738,14 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3</v>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>75.0%</t>
         </is>
       </c>
     </row>
@@ -4681,14 +4846,14 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100.0%</t>
         </is>
       </c>
     </row>

--- a/app/placed_bets.xlsx
+++ b/app/placed_bets.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -275,6 +275,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -648,7 +690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T73"/>
+  <dimension ref="A1:T89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,8 +704,8 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="25" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="24" customWidth="1" min="7" max="7"/>
+    <col width="24" customWidth="1" min="8" max="8"/>
     <col width="13" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
@@ -730,12 +772,12 @@
         </is>
       </c>
       <c r="K1" s="2" t="n"/>
-      <c r="L1" s="57" t="inlineStr">
+      <c r="L1" s="71" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="M1" s="56" t="inlineStr">
+      <c r="M1" s="67" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
@@ -814,38 +856,38 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J2" s="57" t="n">
+      <c r="J2" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>70.83</v>
+        <v>70.45</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>6270</v>
+        <v>7420</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>5747.5</v>
+        <v>6728.5</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>-522.5</v>
+        <v>-691.5</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>-0.52%</t>
+          <t>-0.69%</t>
         </is>
       </c>
       <c r="S2" s="2" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>477.5</v>
+        <v>308.5</v>
       </c>
     </row>
     <row r="3">
@@ -886,7 +928,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J3" s="56" t="n">
+      <c r="J3" s="67" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="2" t="n"/>
@@ -938,7 +980,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J4" s="57" t="n">
+      <c r="J4" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="n"/>
@@ -990,7 +1032,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J5" s="57" t="n">
+      <c r="J5" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="n"/>
@@ -1042,7 +1084,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J6" s="57" t="n">
+      <c r="J6" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="n"/>
@@ -1094,7 +1136,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J7" s="56" t="n">
+      <c r="J7" s="67" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="n"/>
@@ -1146,7 +1188,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J8" s="57" t="n">
+      <c r="J8" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="n"/>
@@ -1198,7 +1240,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J9" s="56" t="n">
+      <c r="J9" s="67" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="2" t="n"/>
@@ -1250,7 +1292,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J10" s="57" t="n">
+      <c r="J10" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="n"/>
@@ -1302,7 +1344,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J11" s="57" t="n">
+      <c r="J11" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="n"/>
@@ -1354,7 +1396,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J12" s="56" t="n">
+      <c r="J12" s="67" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="n"/>
@@ -1406,7 +1448,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J13" s="57" t="n">
+      <c r="J13" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="n"/>
@@ -1458,7 +1500,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J14" s="57" t="n">
+      <c r="J14" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="n"/>
@@ -1510,7 +1552,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J15" s="57" t="n">
+      <c r="J15" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="n"/>
@@ -1562,7 +1604,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J16" s="57" t="n">
+      <c r="J16" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="n"/>
@@ -1614,7 +1656,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J17" s="56" t="n">
+      <c r="J17" s="67" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="2" t="n"/>
@@ -1666,7 +1708,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J18" s="57" t="n">
+      <c r="J18" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="n"/>
@@ -1718,7 +1760,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J19" s="56" t="n">
+      <c r="J19" s="67" t="n">
         <v>0</v>
       </c>
       <c r="K19" s="2" t="n"/>
@@ -1770,7 +1812,7 @@
           <t>3 - 3</t>
         </is>
       </c>
-      <c r="J20" s="57" t="n">
+      <c r="J20" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="n"/>
@@ -1822,7 +1864,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J21" s="56" t="n">
+      <c r="J21" s="67" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="2" t="n"/>
@@ -1874,7 +1916,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J22" s="57" t="n">
+      <c r="J22" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="n"/>
@@ -1926,7 +1968,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J23" s="56" t="n">
+      <c r="J23" s="67" t="n">
         <v>0</v>
       </c>
       <c r="K23" s="2" t="n"/>
@@ -1978,7 +2020,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J24" s="57" t="n">
+      <c r="J24" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K24" s="2" t="n"/>
@@ -2030,7 +2072,7 @@
           <t>0 - 6</t>
         </is>
       </c>
-      <c r="J25" s="57" t="n">
+      <c r="J25" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K25" s="2" t="n"/>
@@ -2082,7 +2124,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J26" s="57" t="n">
+      <c r="J26" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K26" s="2" t="n"/>
@@ -2134,7 +2176,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J27" s="57" t="n">
+      <c r="J27" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="n"/>
@@ -2186,7 +2228,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J28" s="57" t="n">
+      <c r="J28" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K28" s="2" t="n"/>
@@ -2238,7 +2280,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J29" s="56" t="n">
+      <c r="J29" s="67" t="n">
         <v>0</v>
       </c>
       <c r="K29" s="2" t="n"/>
@@ -2290,7 +2332,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J30" s="57" t="n">
+      <c r="J30" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K30" s="2" t="n"/>
@@ -2342,7 +2384,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J31" s="57" t="n">
+      <c r="J31" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="n"/>
@@ -2394,7 +2436,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J32" s="57" t="n">
+      <c r="J32" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K32" s="2" t="n"/>
@@ -2446,7 +2488,7 @@
           <t>2 - 5</t>
         </is>
       </c>
-      <c r="J33" s="57" t="n">
+      <c r="J33" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K33" s="2" t="n"/>
@@ -2498,7 +2540,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J34" s="56" t="n">
+      <c r="J34" s="67" t="n">
         <v>0</v>
       </c>
       <c r="K34" s="2" t="n"/>
@@ -2550,7 +2592,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J35" s="57" t="n">
+      <c r="J35" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K35" s="2" t="n"/>
@@ -2602,7 +2644,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J36" s="57" t="n">
+      <c r="J36" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K36" s="2" t="n"/>
@@ -2654,7 +2696,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J37" s="57" t="n">
+      <c r="J37" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K37" s="2" t="n"/>
@@ -2706,7 +2748,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J38" s="57" t="n">
+      <c r="J38" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="2" t="n"/>
@@ -2758,7 +2800,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J39" s="57" t="n">
+      <c r="J39" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K39" s="2" t="n"/>
@@ -2810,7 +2852,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J40" s="57" t="n">
+      <c r="J40" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K40" s="2" t="n"/>
@@ -2862,7 +2904,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J41" s="57" t="n">
+      <c r="J41" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K41" s="2" t="n"/>
@@ -2914,7 +2956,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J42" s="57" t="n">
+      <c r="J42" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K42" s="2" t="n"/>
@@ -2966,7 +3008,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J43" s="56" t="n">
+      <c r="J43" s="67" t="n">
         <v>0</v>
       </c>
       <c r="K43" s="2" t="n"/>
@@ -3018,7 +3060,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J44" s="57" t="n">
+      <c r="J44" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K44" s="2" t="n"/>
@@ -3070,7 +3112,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J45" s="56" t="n">
+      <c r="J45" s="67" t="n">
         <v>0</v>
       </c>
       <c r="K45" s="2" t="n"/>
@@ -3122,7 +3164,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J46" s="57" t="n">
+      <c r="J46" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K46" s="2" t="n"/>
@@ -3174,7 +3216,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J47" s="57" t="n">
+      <c r="J47" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K47" s="2" t="n"/>
@@ -3226,7 +3268,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J48" s="56" t="n">
+      <c r="J48" s="67" t="n">
         <v>0</v>
       </c>
       <c r="K48" s="2" t="n"/>
@@ -3278,7 +3320,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J49" s="57" t="n">
+      <c r="J49" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K49" s="2" t="n"/>
@@ -3330,7 +3372,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J50" s="57" t="n">
+      <c r="J50" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K50" s="2" t="n"/>
@@ -3382,7 +3424,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J51" s="57" t="n">
+      <c r="J51" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K51" s="2" t="n"/>
@@ -3434,7 +3476,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J52" s="56" t="n">
+      <c r="J52" s="67" t="n">
         <v>0</v>
       </c>
       <c r="K52" s="2" t="n"/>
@@ -3486,7 +3528,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J53" s="57" t="n">
+      <c r="J53" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K53" s="2" t="n"/>
@@ -3538,7 +3580,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J54" s="56" t="n">
+      <c r="J54" s="67" t="n">
         <v>0</v>
       </c>
       <c r="K54" s="2" t="n"/>
@@ -3590,7 +3632,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J55" s="56" t="n">
+      <c r="J55" s="67" t="n">
         <v>0</v>
       </c>
       <c r="K55" s="2" t="n"/>
@@ -3642,7 +3684,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J56" s="57" t="n">
+      <c r="J56" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K56" s="2" t="n"/>
@@ -3694,7 +3736,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J57" s="57" t="n">
+      <c r="J57" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K57" s="2" t="n"/>
@@ -3746,7 +3788,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J58" s="57" t="n">
+      <c r="J58" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K58" s="2" t="n"/>
@@ -3798,7 +3840,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J59" s="56" t="n">
+      <c r="J59" s="67" t="n">
         <v>0</v>
       </c>
       <c r="K59" s="2" t="n"/>
@@ -3850,7 +3892,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J60" s="56" t="n">
+      <c r="J60" s="67" t="n">
         <v>0</v>
       </c>
       <c r="K60" s="2" t="n"/>
@@ -3902,7 +3944,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J61" s="56" t="n">
+      <c r="J61" s="67" t="n">
         <v>0</v>
       </c>
       <c r="K61" s="2" t="n"/>
@@ -3954,7 +3996,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J62" s="57" t="n">
+      <c r="J62" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K62" s="2" t="n"/>
@@ -4006,7 +4048,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J63" s="57" t="n">
+      <c r="J63" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K63" s="2" t="n"/>
@@ -4058,7 +4100,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J64" s="57" t="n">
+      <c r="J64" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K64" s="2" t="n"/>
@@ -4110,7 +4152,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J65" s="57" t="n">
+      <c r="J65" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K65" s="2" t="n"/>
@@ -4162,7 +4204,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J66" s="56" t="n">
+      <c r="J66" s="67" t="n">
         <v>0</v>
       </c>
       <c r="K66" s="2" t="n"/>
@@ -4214,7 +4256,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J67" s="57" t="n">
+      <c r="J67" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K67" s="2" t="n"/>
@@ -4266,7 +4308,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J68" s="57" t="n">
+      <c r="J68" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K68" s="2" t="n"/>
@@ -4318,7 +4360,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J69" s="57" t="n">
+      <c r="J69" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K69" s="2" t="n"/>
@@ -4370,7 +4412,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="J70" s="57" t="n">
+      <c r="J70" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K70" s="2" t="n"/>
@@ -4422,7 +4464,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J71" s="56" t="n">
+      <c r="J71" s="67" t="n">
         <v>0</v>
       </c>
       <c r="K71" s="2" t="n"/>
@@ -4474,7 +4516,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J72" s="57" t="n">
+      <c r="J72" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K72" s="2" t="n"/>
@@ -4526,7 +4568,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J73" s="57" t="n">
+      <c r="J73" s="71" t="n">
         <v>1</v>
       </c>
       <c r="K73" s="2" t="n"/>
@@ -4539,6 +4581,838 @@
       <c r="R73" s="2" t="n"/>
       <c r="S73" s="2" t="n"/>
       <c r="T73" s="2" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>08.03.2025</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F74" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="H74" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="I74" s="2" t="inlineStr">
+        <is>
+          <t>1 - 4</t>
+        </is>
+      </c>
+      <c r="J74" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" s="2" t="n"/>
+      <c r="L74" s="2" t="n"/>
+      <c r="M74" s="2" t="n"/>
+      <c r="N74" s="2" t="n"/>
+      <c r="O74" s="2" t="n"/>
+      <c r="P74" s="2" t="n"/>
+      <c r="Q74" s="2" t="n"/>
+      <c r="R74" s="2" t="n"/>
+      <c r="S74" s="2" t="n"/>
+      <c r="T74" s="2" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>08.03.2025</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F75" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G75" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="H75" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="I75" s="2" t="inlineStr">
+        <is>
+          <t>1 - 0</t>
+        </is>
+      </c>
+      <c r="J75" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" s="2" t="n"/>
+      <c r="L75" s="2" t="n"/>
+      <c r="M75" s="2" t="n"/>
+      <c r="N75" s="2" t="n"/>
+      <c r="O75" s="2" t="n"/>
+      <c r="P75" s="2" t="n"/>
+      <c r="Q75" s="2" t="n"/>
+      <c r="R75" s="2" t="n"/>
+      <c r="S75" s="2" t="n"/>
+      <c r="T75" s="2" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>08.03.2025</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F76" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G76" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="H76" s="2" t="n">
+        <v>15.99999999999999</v>
+      </c>
+      <c r="I76" s="2" t="inlineStr">
+        <is>
+          <t>3 - 2</t>
+        </is>
+      </c>
+      <c r="J76" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" s="2" t="n"/>
+      <c r="L76" s="2" t="n"/>
+      <c r="M76" s="2" t="n"/>
+      <c r="N76" s="2" t="n"/>
+      <c r="O76" s="2" t="n"/>
+      <c r="P76" s="2" t="n"/>
+      <c r="Q76" s="2" t="n"/>
+      <c r="R76" s="2" t="n"/>
+      <c r="S76" s="2" t="n"/>
+      <c r="T76" s="2" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>08.03.2025</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>Olympique Marseille</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="inlineStr">
+        <is>
+          <t>1X</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F77" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G77" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="H77" s="2" t="n">
+        <v>13.99999999999999</v>
+      </c>
+      <c r="I77" s="2" t="inlineStr">
+        <is>
+          <t>0 - 1</t>
+        </is>
+      </c>
+      <c r="J77" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" s="2" t="n"/>
+      <c r="L77" s="2" t="n"/>
+      <c r="M77" s="2" t="n"/>
+      <c r="N77" s="2" t="n"/>
+      <c r="O77" s="2" t="n"/>
+      <c r="P77" s="2" t="n"/>
+      <c r="Q77" s="2" t="n"/>
+      <c r="R77" s="2" t="n"/>
+      <c r="S77" s="2" t="n"/>
+      <c r="T77" s="2" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>09.03.2025</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F78" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="H78" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="I78" s="2" t="inlineStr">
+        <is>
+          <t>2 - 1</t>
+        </is>
+      </c>
+      <c r="J78" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" s="2" t="n"/>
+      <c r="L78" s="2" t="n"/>
+      <c r="M78" s="2" t="n"/>
+      <c r="N78" s="2" t="n"/>
+      <c r="O78" s="2" t="n"/>
+      <c r="P78" s="2" t="n"/>
+      <c r="Q78" s="2" t="n"/>
+      <c r="R78" s="2" t="n"/>
+      <c r="S78" s="2" t="n"/>
+      <c r="T78" s="2" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>09.03.2025</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F79" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G79" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="H79" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="I79" s="2" t="inlineStr">
+        <is>
+          <t>1 - 0</t>
+        </is>
+      </c>
+      <c r="J79" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" s="2" t="n"/>
+      <c r="L79" s="2" t="n"/>
+      <c r="M79" s="2" t="n"/>
+      <c r="N79" s="2" t="n"/>
+      <c r="O79" s="2" t="n"/>
+      <c r="P79" s="2" t="n"/>
+      <c r="Q79" s="2" t="n"/>
+      <c r="R79" s="2" t="n"/>
+      <c r="S79" s="2" t="n"/>
+      <c r="T79" s="2" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>09.03.2025</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F80" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="H80" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="I80" s="2" t="inlineStr">
+        <is>
+          <t>1 - 2</t>
+        </is>
+      </c>
+      <c r="J80" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" s="2" t="n"/>
+      <c r="L80" s="2" t="n"/>
+      <c r="M80" s="2" t="n"/>
+      <c r="N80" s="2" t="n"/>
+      <c r="O80" s="2" t="n"/>
+      <c r="P80" s="2" t="n"/>
+      <c r="Q80" s="2" t="n"/>
+      <c r="R80" s="2" t="n"/>
+      <c r="S80" s="2" t="n"/>
+      <c r="T80" s="2" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>09.03.2025</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H81" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I81" s="2" t="inlineStr">
+        <is>
+          <t>0 - 1</t>
+        </is>
+      </c>
+      <c r="J81" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" s="2" t="n"/>
+      <c r="L81" s="2" t="n"/>
+      <c r="M81" s="2" t="n"/>
+      <c r="N81" s="2" t="n"/>
+      <c r="O81" s="2" t="n"/>
+      <c r="P81" s="2" t="n"/>
+      <c r="Q81" s="2" t="n"/>
+      <c r="R81" s="2" t="n"/>
+      <c r="S81" s="2" t="n"/>
+      <c r="T81" s="2" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>14.03.2025</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F82" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>57.49999999999999</v>
+      </c>
+      <c r="H82" s="2" t="n">
+        <v>7.499999999999993</v>
+      </c>
+      <c r="I82" s="2" t="inlineStr">
+        <is>
+          <t>1 - 1</t>
+        </is>
+      </c>
+      <c r="J82" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" s="2" t="n"/>
+      <c r="L82" s="2" t="n"/>
+      <c r="M82" s="2" t="n"/>
+      <c r="N82" s="2" t="n"/>
+      <c r="O82" s="2" t="n"/>
+      <c r="P82" s="2" t="n"/>
+      <c r="Q82" s="2" t="n"/>
+      <c r="R82" s="2" t="n"/>
+      <c r="S82" s="2" t="n"/>
+      <c r="T82" s="2" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>15.03.2025</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>Bayern Munchen</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="I83" s="2" t="inlineStr">
+        <is>
+          <t>1 - 1</t>
+        </is>
+      </c>
+      <c r="J83" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" s="2" t="n"/>
+      <c r="L83" s="2" t="n"/>
+      <c r="M83" s="2" t="n"/>
+      <c r="N83" s="2" t="n"/>
+      <c r="O83" s="2" t="n"/>
+      <c r="P83" s="2" t="n"/>
+      <c r="Q83" s="2" t="n"/>
+      <c r="R83" s="2" t="n"/>
+      <c r="S83" s="2" t="n"/>
+      <c r="T83" s="2" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>15.03.2025</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I84" s="2" t="inlineStr">
+        <is>
+          <t>1 - 0</t>
+        </is>
+      </c>
+      <c r="J84" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" s="2" t="n"/>
+      <c r="L84" s="2" t="n"/>
+      <c r="M84" s="2" t="n"/>
+      <c r="N84" s="2" t="n"/>
+      <c r="O84" s="2" t="n"/>
+      <c r="P84" s="2" t="n"/>
+      <c r="Q84" s="2" t="n"/>
+      <c r="R84" s="2" t="n"/>
+      <c r="S84" s="2" t="n"/>
+      <c r="T84" s="2" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>15.03.2025</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F85" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="I85" s="2" t="inlineStr">
+        <is>
+          <t>1 - 2</t>
+        </is>
+      </c>
+      <c r="J85" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" s="2" t="n"/>
+      <c r="L85" s="2" t="n"/>
+      <c r="M85" s="2" t="n"/>
+      <c r="N85" s="2" t="n"/>
+      <c r="O85" s="2" t="n"/>
+      <c r="P85" s="2" t="n"/>
+      <c r="Q85" s="2" t="n"/>
+      <c r="R85" s="2" t="n"/>
+      <c r="S85" s="2" t="n"/>
+      <c r="T85" s="2" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>16.03.2025</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>Olympique Lyon</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="I86" s="2" t="inlineStr">
+        <is>
+          <t>4 - 2</t>
+        </is>
+      </c>
+      <c r="J86" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" s="2" t="n"/>
+      <c r="L86" s="2" t="n"/>
+      <c r="M86" s="2" t="n"/>
+      <c r="N86" s="2" t="n"/>
+      <c r="O86" s="2" t="n"/>
+      <c r="P86" s="2" t="n"/>
+      <c r="Q86" s="2" t="n"/>
+      <c r="R86" s="2" t="n"/>
+      <c r="S86" s="2" t="n"/>
+      <c r="T86" s="2" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>16.03.2025</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>6.000000000000007</v>
+      </c>
+      <c r="I87" s="2" t="inlineStr">
+        <is>
+          <t>1 - 0</t>
+        </is>
+      </c>
+      <c r="J87" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" s="2" t="n"/>
+      <c r="L87" s="2" t="n"/>
+      <c r="M87" s="2" t="n"/>
+      <c r="N87" s="2" t="n"/>
+      <c r="O87" s="2" t="n"/>
+      <c r="P87" s="2" t="n"/>
+      <c r="Q87" s="2" t="n"/>
+      <c r="R87" s="2" t="n"/>
+      <c r="S87" s="2" t="n"/>
+      <c r="T87" s="2" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>16.03.2025</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="I88" s="2" t="inlineStr">
+        <is>
+          <t>1 - 3</t>
+        </is>
+      </c>
+      <c r="J88" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" s="2" t="n"/>
+      <c r="L88" s="2" t="n"/>
+      <c r="M88" s="2" t="n"/>
+      <c r="N88" s="2" t="n"/>
+      <c r="O88" s="2" t="n"/>
+      <c r="P88" s="2" t="n"/>
+      <c r="Q88" s="2" t="n"/>
+      <c r="R88" s="2" t="n"/>
+      <c r="S88" s="2" t="n"/>
+      <c r="T88" s="2" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>28.03.2025</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>1X</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F89" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I89" s="2" t="inlineStr">
+        <is>
+          <t>3 - 1</t>
+        </is>
+      </c>
+      <c r="J89" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" s="2" t="n"/>
+      <c r="L89" s="2" t="n"/>
+      <c r="M89" s="2" t="n"/>
+      <c r="N89" s="2" t="n"/>
+      <c r="O89" s="2" t="n"/>
+      <c r="P89" s="2" t="n"/>
+      <c r="Q89" s="2" t="n"/>
+      <c r="R89" s="2" t="n"/>
+      <c r="S89" s="2" t="n"/>
+      <c r="T89" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4612,14 +5486,14 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
     </row>
@@ -4684,14 +5558,14 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
     </row>
@@ -4720,14 +5594,14 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>75.0%</t>
         </is>
       </c>
     </row>
@@ -4738,14 +5612,14 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3</v>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
     </row>
@@ -4756,14 +5630,14 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3</v>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>75.0%</t>
         </is>
       </c>
     </row>
@@ -4792,14 +5666,14 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>50.0%</t>
         </is>
       </c>
     </row>
@@ -4882,10 +5756,10 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
@@ -4954,10 +5828,10 @@
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
@@ -4972,14 +5846,14 @@
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>50.0%</t>
         </is>
       </c>
     </row>
@@ -4990,14 +5864,14 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
     </row>
@@ -5008,14 +5882,14 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3</v>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
     </row>
@@ -5044,14 +5918,14 @@
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100.0%</t>
         </is>
       </c>
     </row>
@@ -5062,14 +5936,14 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>4</v>
-      </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>

--- a/app/placed_bets.xlsx
+++ b/app/placed_bets.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -308,6 +308,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -690,7 +711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T89"/>
+  <dimension ref="A1:T97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -772,7 +793,7 @@
         </is>
       </c>
       <c r="K1" s="2" t="n"/>
-      <c r="L1" s="71" t="inlineStr">
+      <c r="L1" s="78" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
@@ -856,38 +877,38 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J2" s="71" t="n">
+      <c r="J2" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="M2" s="2" t="n">
         <v>26</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>70.45</v>
+        <v>72.92</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>7420</v>
+        <v>7820</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>6728.5</v>
+        <v>7186</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>-691.5</v>
+        <v>-634</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>-0.69%</t>
+          <t>-0.63%</t>
         </is>
       </c>
       <c r="S2" s="2" t="n">
         <v>1.34</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>308.5</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3">
@@ -980,7 +1001,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J4" s="71" t="n">
+      <c r="J4" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="n"/>
@@ -1032,7 +1053,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J5" s="71" t="n">
+      <c r="J5" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="n"/>
@@ -1084,7 +1105,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J6" s="71" t="n">
+      <c r="J6" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="n"/>
@@ -1188,7 +1209,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J8" s="71" t="n">
+      <c r="J8" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="n"/>
@@ -1292,7 +1313,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J10" s="71" t="n">
+      <c r="J10" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="n"/>
@@ -1344,7 +1365,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J11" s="71" t="n">
+      <c r="J11" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="n"/>
@@ -1448,7 +1469,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J13" s="71" t="n">
+      <c r="J13" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="n"/>
@@ -1500,7 +1521,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J14" s="71" t="n">
+      <c r="J14" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="n"/>
@@ -1552,7 +1573,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J15" s="71" t="n">
+      <c r="J15" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="n"/>
@@ -1604,7 +1625,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J16" s="71" t="n">
+      <c r="J16" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="n"/>
@@ -1708,7 +1729,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J18" s="71" t="n">
+      <c r="J18" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="n"/>
@@ -1812,7 +1833,7 @@
           <t>3 - 3</t>
         </is>
       </c>
-      <c r="J20" s="71" t="n">
+      <c r="J20" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="n"/>
@@ -1916,7 +1937,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J22" s="71" t="n">
+      <c r="J22" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="n"/>
@@ -2020,7 +2041,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J24" s="71" t="n">
+      <c r="J24" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K24" s="2" t="n"/>
@@ -2072,7 +2093,7 @@
           <t>0 - 6</t>
         </is>
       </c>
-      <c r="J25" s="71" t="n">
+      <c r="J25" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K25" s="2" t="n"/>
@@ -2124,7 +2145,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J26" s="71" t="n">
+      <c r="J26" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K26" s="2" t="n"/>
@@ -2176,7 +2197,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J27" s="71" t="n">
+      <c r="J27" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="n"/>
@@ -2228,7 +2249,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J28" s="71" t="n">
+      <c r="J28" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K28" s="2" t="n"/>
@@ -2332,7 +2353,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J30" s="71" t="n">
+      <c r="J30" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K30" s="2" t="n"/>
@@ -2384,7 +2405,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J31" s="71" t="n">
+      <c r="J31" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="n"/>
@@ -2436,7 +2457,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J32" s="71" t="n">
+      <c r="J32" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K32" s="2" t="n"/>
@@ -2488,7 +2509,7 @@
           <t>2 - 5</t>
         </is>
       </c>
-      <c r="J33" s="71" t="n">
+      <c r="J33" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K33" s="2" t="n"/>
@@ -2592,7 +2613,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J35" s="71" t="n">
+      <c r="J35" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K35" s="2" t="n"/>
@@ -2644,7 +2665,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J36" s="71" t="n">
+      <c r="J36" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K36" s="2" t="n"/>
@@ -2696,7 +2717,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J37" s="71" t="n">
+      <c r="J37" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K37" s="2" t="n"/>
@@ -2748,7 +2769,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J38" s="71" t="n">
+      <c r="J38" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="2" t="n"/>
@@ -2800,7 +2821,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J39" s="71" t="n">
+      <c r="J39" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K39" s="2" t="n"/>
@@ -2852,7 +2873,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J40" s="71" t="n">
+      <c r="J40" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K40" s="2" t="n"/>
@@ -2904,7 +2925,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J41" s="71" t="n">
+      <c r="J41" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K41" s="2" t="n"/>
@@ -2956,7 +2977,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J42" s="71" t="n">
+      <c r="J42" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K42" s="2" t="n"/>
@@ -3060,7 +3081,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J44" s="71" t="n">
+      <c r="J44" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K44" s="2" t="n"/>
@@ -3164,7 +3185,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J46" s="71" t="n">
+      <c r="J46" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K46" s="2" t="n"/>
@@ -3216,7 +3237,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J47" s="71" t="n">
+      <c r="J47" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K47" s="2" t="n"/>
@@ -3320,7 +3341,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J49" s="71" t="n">
+      <c r="J49" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K49" s="2" t="n"/>
@@ -3372,7 +3393,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J50" s="71" t="n">
+      <c r="J50" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K50" s="2" t="n"/>
@@ -3424,7 +3445,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J51" s="71" t="n">
+      <c r="J51" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K51" s="2" t="n"/>
@@ -3528,7 +3549,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J53" s="71" t="n">
+      <c r="J53" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K53" s="2" t="n"/>
@@ -3684,7 +3705,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J56" s="71" t="n">
+      <c r="J56" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K56" s="2" t="n"/>
@@ -3736,7 +3757,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J57" s="71" t="n">
+      <c r="J57" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K57" s="2" t="n"/>
@@ -3788,7 +3809,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J58" s="71" t="n">
+      <c r="J58" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K58" s="2" t="n"/>
@@ -3996,7 +4017,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J62" s="71" t="n">
+      <c r="J62" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K62" s="2" t="n"/>
@@ -4048,7 +4069,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J63" s="71" t="n">
+      <c r="J63" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K63" s="2" t="n"/>
@@ -4100,7 +4121,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J64" s="71" t="n">
+      <c r="J64" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K64" s="2" t="n"/>
@@ -4152,7 +4173,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J65" s="71" t="n">
+      <c r="J65" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K65" s="2" t="n"/>
@@ -4256,7 +4277,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J67" s="71" t="n">
+      <c r="J67" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K67" s="2" t="n"/>
@@ -4308,7 +4329,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J68" s="71" t="n">
+      <c r="J68" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K68" s="2" t="n"/>
@@ -4360,7 +4381,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J69" s="71" t="n">
+      <c r="J69" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K69" s="2" t="n"/>
@@ -4412,7 +4433,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="J70" s="71" t="n">
+      <c r="J70" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K70" s="2" t="n"/>
@@ -4516,7 +4537,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J72" s="71" t="n">
+      <c r="J72" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K72" s="2" t="n"/>
@@ -4568,7 +4589,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J73" s="71" t="n">
+      <c r="J73" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K73" s="2" t="n"/>
@@ -4620,7 +4641,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J74" s="71" t="n">
+      <c r="J74" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K74" s="2" t="n"/>
@@ -4672,7 +4693,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J75" s="71" t="n">
+      <c r="J75" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K75" s="2" t="n"/>
@@ -4724,7 +4745,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J76" s="71" t="n">
+      <c r="J76" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K76" s="2" t="n"/>
@@ -4880,7 +4901,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J79" s="71" t="n">
+      <c r="J79" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K79" s="2" t="n"/>
@@ -4984,7 +5005,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J81" s="71" t="n">
+      <c r="J81" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K81" s="2" t="n"/>
@@ -5036,7 +5057,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J82" s="71" t="n">
+      <c r="J82" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K82" s="2" t="n"/>
@@ -5192,7 +5213,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J85" s="71" t="n">
+      <c r="J85" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K85" s="2" t="n"/>
@@ -5244,7 +5265,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J86" s="71" t="n">
+      <c r="J86" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K86" s="2" t="n"/>
@@ -5296,7 +5317,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J87" s="71" t="n">
+      <c r="J87" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K87" s="2" t="n"/>
@@ -5348,7 +5369,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J88" s="71" t="n">
+      <c r="J88" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K88" s="2" t="n"/>
@@ -5400,7 +5421,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J89" s="71" t="n">
+      <c r="J89" s="78" t="n">
         <v>1</v>
       </c>
       <c r="K89" s="2" t="n"/>
@@ -5413,6 +5434,422 @@
       <c r="R89" s="2" t="n"/>
       <c r="S89" s="2" t="n"/>
       <c r="T89" s="2" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>29.03.2025</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>Saint Etienne</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F90" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="H90" s="2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I90" s="2" t="inlineStr">
+        <is>
+          <t>1 - 6</t>
+        </is>
+      </c>
+      <c r="J90" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" s="2" t="n"/>
+      <c r="L90" s="2" t="n"/>
+      <c r="M90" s="2" t="n"/>
+      <c r="N90" s="2" t="n"/>
+      <c r="O90" s="2" t="n"/>
+      <c r="P90" s="2" t="n"/>
+      <c r="Q90" s="2" t="n"/>
+      <c r="R90" s="2" t="n"/>
+      <c r="S90" s="2" t="n"/>
+      <c r="T90" s="2" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>29.03.2025</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>Leganes</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G91" s="2" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="H91" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I91" s="2" t="inlineStr">
+        <is>
+          <t>3 - 2</t>
+        </is>
+      </c>
+      <c r="J91" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" s="2" t="n"/>
+      <c r="L91" s="2" t="n"/>
+      <c r="M91" s="2" t="n"/>
+      <c r="N91" s="2" t="n"/>
+      <c r="O91" s="2" t="n"/>
+      <c r="P91" s="2" t="n"/>
+      <c r="Q91" s="2" t="n"/>
+      <c r="R91" s="2" t="n"/>
+      <c r="S91" s="2" t="n"/>
+      <c r="T91" s="2" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>01.04.2025</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
+        <is>
+          <t>1X</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F92" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G92" s="2" t="n">
+        <v>55.50000000000001</v>
+      </c>
+      <c r="H92" s="2" t="n">
+        <v>5.500000000000007</v>
+      </c>
+      <c r="I92" s="2" t="inlineStr">
+        <is>
+          <t>2 - 1</t>
+        </is>
+      </c>
+      <c r="J92" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" s="2" t="n"/>
+      <c r="L92" s="2" t="n"/>
+      <c r="M92" s="2" t="n"/>
+      <c r="N92" s="2" t="n"/>
+      <c r="O92" s="2" t="n"/>
+      <c r="P92" s="2" t="n"/>
+      <c r="Q92" s="2" t="n"/>
+      <c r="R92" s="2" t="n"/>
+      <c r="S92" s="2" t="n"/>
+      <c r="T92" s="2" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>02.04.2025</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F93" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G93" s="2" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="H93" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I93" s="2" t="inlineStr">
+        <is>
+          <t>2 - 0</t>
+        </is>
+      </c>
+      <c r="J93" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" s="2" t="n"/>
+      <c r="L93" s="2" t="n"/>
+      <c r="M93" s="2" t="n"/>
+      <c r="N93" s="2" t="n"/>
+      <c r="O93" s="2" t="n"/>
+      <c r="P93" s="2" t="n"/>
+      <c r="Q93" s="2" t="n"/>
+      <c r="R93" s="2" t="n"/>
+      <c r="S93" s="2" t="n"/>
+      <c r="T93" s="2" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>02.04.2025</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F94" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G94" s="2" t="n">
+        <v>55.50000000000001</v>
+      </c>
+      <c r="H94" s="2" t="n">
+        <v>5.500000000000007</v>
+      </c>
+      <c r="I94" s="2" t="inlineStr">
+        <is>
+          <t>1 - 0</t>
+        </is>
+      </c>
+      <c r="J94" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" s="2" t="n"/>
+      <c r="L94" s="2" t="n"/>
+      <c r="M94" s="2" t="n"/>
+      <c r="N94" s="2" t="n"/>
+      <c r="O94" s="2" t="n"/>
+      <c r="P94" s="2" t="n"/>
+      <c r="Q94" s="2" t="n"/>
+      <c r="R94" s="2" t="n"/>
+      <c r="S94" s="2" t="n"/>
+      <c r="T94" s="2" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>04.04.2025</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>Bayern Munchen</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F95" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G95" s="2" t="n">
+        <v>55.00000000000001</v>
+      </c>
+      <c r="H95" s="2" t="n">
+        <v>5.000000000000007</v>
+      </c>
+      <c r="I95" s="2" t="inlineStr">
+        <is>
+          <t>1 - 3</t>
+        </is>
+      </c>
+      <c r="J95" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" s="2" t="n"/>
+      <c r="L95" s="2" t="n"/>
+      <c r="M95" s="2" t="n"/>
+      <c r="N95" s="2" t="n"/>
+      <c r="O95" s="2" t="n"/>
+      <c r="P95" s="2" t="n"/>
+      <c r="Q95" s="2" t="n"/>
+      <c r="R95" s="2" t="n"/>
+      <c r="S95" s="2" t="n"/>
+      <c r="T95" s="2" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>05.04.2025</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F96" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G96" s="2" t="n">
+        <v>56.99999999999999</v>
+      </c>
+      <c r="H96" s="2" t="n">
+        <v>6.999999999999993</v>
+      </c>
+      <c r="I96" s="2" t="inlineStr">
+        <is>
+          <t>0 - 1</t>
+        </is>
+      </c>
+      <c r="J96" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" s="2" t="n"/>
+      <c r="L96" s="2" t="n"/>
+      <c r="M96" s="2" t="n"/>
+      <c r="N96" s="2" t="n"/>
+      <c r="O96" s="2" t="n"/>
+      <c r="P96" s="2" t="n"/>
+      <c r="Q96" s="2" t="n"/>
+      <c r="R96" s="2" t="n"/>
+      <c r="S96" s="2" t="n"/>
+      <c r="T96" s="2" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>05.04.2025</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F97" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G97" s="2" t="n">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="H97" s="2" t="n">
+        <v>6.000000000000007</v>
+      </c>
+      <c r="I97" s="2" t="inlineStr">
+        <is>
+          <t>1 - 1</t>
+        </is>
+      </c>
+      <c r="J97" s="78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" s="2" t="n"/>
+      <c r="L97" s="2" t="n"/>
+      <c r="M97" s="2" t="n"/>
+      <c r="N97" s="2" t="n"/>
+      <c r="O97" s="2" t="n"/>
+      <c r="P97" s="2" t="n"/>
+      <c r="Q97" s="2" t="n"/>
+      <c r="R97" s="2" t="n"/>
+      <c r="S97" s="2" t="n"/>
+      <c r="T97" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5468,14 +5905,14 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>50.0%</t>
         </is>
       </c>
     </row>
@@ -5504,10 +5941,10 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
@@ -5522,10 +5959,10 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
@@ -5594,14 +6031,14 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>77.78%</t>
         </is>
       </c>
     </row>
@@ -5612,14 +6049,14 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -5630,14 +6067,14 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>80.0%</t>
         </is>
       </c>
     </row>
@@ -5684,14 +6121,14 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100.0%</t>
         </is>
       </c>
     </row>
@@ -5936,14 +6373,14 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>5</v>
-      </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>85.71%</t>
         </is>
       </c>
     </row>

--- a/app/placed_bets.xlsx
+++ b/app/placed_bets.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -338,6 +338,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -711,7 +726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T97"/>
+  <dimension ref="A1:T105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -793,12 +808,12 @@
         </is>
       </c>
       <c r="K1" s="2" t="n"/>
-      <c r="L1" s="78" t="inlineStr">
+      <c r="L1" s="83" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="M1" s="67" t="inlineStr">
+      <c r="M1" s="82" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
@@ -877,38 +892,38 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J2" s="78" t="n">
+      <c r="J2" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>72.92</v>
+        <v>73.08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>7820</v>
+        <v>8220</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>7186</v>
+        <v>7527.5</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>-634</v>
+        <v>-692.5</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>-0.63%</t>
+          <t>-0.69%</t>
         </is>
       </c>
       <c r="S2" s="2" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>366</v>
+        <v>307.5</v>
       </c>
     </row>
     <row r="3">
@@ -949,7 +964,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J3" s="67" t="n">
+      <c r="J3" s="82" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="2" t="n"/>
@@ -1001,7 +1016,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J4" s="78" t="n">
+      <c r="J4" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="n"/>
@@ -1053,7 +1068,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J5" s="78" t="n">
+      <c r="J5" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="n"/>
@@ -1105,7 +1120,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J6" s="78" t="n">
+      <c r="J6" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="n"/>
@@ -1157,7 +1172,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J7" s="67" t="n">
+      <c r="J7" s="82" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="n"/>
@@ -1209,7 +1224,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J8" s="78" t="n">
+      <c r="J8" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="n"/>
@@ -1261,7 +1276,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J9" s="67" t="n">
+      <c r="J9" s="82" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="2" t="n"/>
@@ -1313,7 +1328,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J10" s="78" t="n">
+      <c r="J10" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="n"/>
@@ -1365,7 +1380,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J11" s="78" t="n">
+      <c r="J11" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="n"/>
@@ -1417,7 +1432,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J12" s="67" t="n">
+      <c r="J12" s="82" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="n"/>
@@ -1469,7 +1484,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J13" s="78" t="n">
+      <c r="J13" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="n"/>
@@ -1521,7 +1536,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J14" s="78" t="n">
+      <c r="J14" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="n"/>
@@ -1573,7 +1588,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J15" s="78" t="n">
+      <c r="J15" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="n"/>
@@ -1625,7 +1640,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J16" s="78" t="n">
+      <c r="J16" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="n"/>
@@ -1677,7 +1692,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J17" s="67" t="n">
+      <c r="J17" s="82" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="2" t="n"/>
@@ -1729,7 +1744,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J18" s="78" t="n">
+      <c r="J18" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="n"/>
@@ -1781,7 +1796,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J19" s="67" t="n">
+      <c r="J19" s="82" t="n">
         <v>0</v>
       </c>
       <c r="K19" s="2" t="n"/>
@@ -1833,7 +1848,7 @@
           <t>3 - 3</t>
         </is>
       </c>
-      <c r="J20" s="78" t="n">
+      <c r="J20" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="n"/>
@@ -1885,7 +1900,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J21" s="67" t="n">
+      <c r="J21" s="82" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="2" t="n"/>
@@ -1937,7 +1952,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J22" s="78" t="n">
+      <c r="J22" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="n"/>
@@ -1989,7 +2004,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J23" s="67" t="n">
+      <c r="J23" s="82" t="n">
         <v>0</v>
       </c>
       <c r="K23" s="2" t="n"/>
@@ -2041,7 +2056,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J24" s="78" t="n">
+      <c r="J24" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K24" s="2" t="n"/>
@@ -2093,7 +2108,7 @@
           <t>0 - 6</t>
         </is>
       </c>
-      <c r="J25" s="78" t="n">
+      <c r="J25" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K25" s="2" t="n"/>
@@ -2145,7 +2160,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J26" s="78" t="n">
+      <c r="J26" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K26" s="2" t="n"/>
@@ -2197,7 +2212,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J27" s="78" t="n">
+      <c r="J27" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="n"/>
@@ -2249,7 +2264,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J28" s="78" t="n">
+      <c r="J28" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K28" s="2" t="n"/>
@@ -2301,7 +2316,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J29" s="67" t="n">
+      <c r="J29" s="82" t="n">
         <v>0</v>
       </c>
       <c r="K29" s="2" t="n"/>
@@ -2353,7 +2368,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J30" s="78" t="n">
+      <c r="J30" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K30" s="2" t="n"/>
@@ -2405,7 +2420,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J31" s="78" t="n">
+      <c r="J31" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="n"/>
@@ -2457,7 +2472,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J32" s="78" t="n">
+      <c r="J32" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K32" s="2" t="n"/>
@@ -2509,7 +2524,7 @@
           <t>2 - 5</t>
         </is>
       </c>
-      <c r="J33" s="78" t="n">
+      <c r="J33" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K33" s="2" t="n"/>
@@ -2561,7 +2576,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J34" s="67" t="n">
+      <c r="J34" s="82" t="n">
         <v>0</v>
       </c>
       <c r="K34" s="2" t="n"/>
@@ -2613,7 +2628,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J35" s="78" t="n">
+      <c r="J35" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K35" s="2" t="n"/>
@@ -2665,7 +2680,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J36" s="78" t="n">
+      <c r="J36" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K36" s="2" t="n"/>
@@ -2717,7 +2732,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J37" s="78" t="n">
+      <c r="J37" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K37" s="2" t="n"/>
@@ -2769,7 +2784,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J38" s="78" t="n">
+      <c r="J38" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="2" t="n"/>
@@ -2821,7 +2836,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J39" s="78" t="n">
+      <c r="J39" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K39" s="2" t="n"/>
@@ -2873,7 +2888,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J40" s="78" t="n">
+      <c r="J40" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K40" s="2" t="n"/>
@@ -2925,7 +2940,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J41" s="78" t="n">
+      <c r="J41" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K41" s="2" t="n"/>
@@ -2977,7 +2992,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J42" s="78" t="n">
+      <c r="J42" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K42" s="2" t="n"/>
@@ -3029,7 +3044,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J43" s="67" t="n">
+      <c r="J43" s="82" t="n">
         <v>0</v>
       </c>
       <c r="K43" s="2" t="n"/>
@@ -3081,7 +3096,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J44" s="78" t="n">
+      <c r="J44" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K44" s="2" t="n"/>
@@ -3133,7 +3148,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J45" s="67" t="n">
+      <c r="J45" s="82" t="n">
         <v>0</v>
       </c>
       <c r="K45" s="2" t="n"/>
@@ -3185,7 +3200,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J46" s="78" t="n">
+      <c r="J46" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K46" s="2" t="n"/>
@@ -3237,7 +3252,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J47" s="78" t="n">
+      <c r="J47" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K47" s="2" t="n"/>
@@ -3289,7 +3304,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J48" s="67" t="n">
+      <c r="J48" s="82" t="n">
         <v>0</v>
       </c>
       <c r="K48" s="2" t="n"/>
@@ -3341,7 +3356,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J49" s="78" t="n">
+      <c r="J49" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K49" s="2" t="n"/>
@@ -3393,7 +3408,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J50" s="78" t="n">
+      <c r="J50" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K50" s="2" t="n"/>
@@ -3445,7 +3460,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J51" s="78" t="n">
+      <c r="J51" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K51" s="2" t="n"/>
@@ -3497,7 +3512,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J52" s="67" t="n">
+      <c r="J52" s="82" t="n">
         <v>0</v>
       </c>
       <c r="K52" s="2" t="n"/>
@@ -3549,7 +3564,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J53" s="78" t="n">
+      <c r="J53" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K53" s="2" t="n"/>
@@ -3601,7 +3616,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J54" s="67" t="n">
+      <c r="J54" s="82" t="n">
         <v>0</v>
       </c>
       <c r="K54" s="2" t="n"/>
@@ -3653,7 +3668,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J55" s="67" t="n">
+      <c r="J55" s="82" t="n">
         <v>0</v>
       </c>
       <c r="K55" s="2" t="n"/>
@@ -3705,7 +3720,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J56" s="78" t="n">
+      <c r="J56" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K56" s="2" t="n"/>
@@ -3757,7 +3772,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J57" s="78" t="n">
+      <c r="J57" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K57" s="2" t="n"/>
@@ -3809,7 +3824,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J58" s="78" t="n">
+      <c r="J58" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K58" s="2" t="n"/>
@@ -3861,7 +3876,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J59" s="67" t="n">
+      <c r="J59" s="82" t="n">
         <v>0</v>
       </c>
       <c r="K59" s="2" t="n"/>
@@ -3913,7 +3928,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J60" s="67" t="n">
+      <c r="J60" s="82" t="n">
         <v>0</v>
       </c>
       <c r="K60" s="2" t="n"/>
@@ -3965,7 +3980,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J61" s="67" t="n">
+      <c r="J61" s="82" t="n">
         <v>0</v>
       </c>
       <c r="K61" s="2" t="n"/>
@@ -4017,7 +4032,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J62" s="78" t="n">
+      <c r="J62" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K62" s="2" t="n"/>
@@ -4069,7 +4084,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J63" s="78" t="n">
+      <c r="J63" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K63" s="2" t="n"/>
@@ -4121,7 +4136,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J64" s="78" t="n">
+      <c r="J64" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K64" s="2" t="n"/>
@@ -4173,7 +4188,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J65" s="78" t="n">
+      <c r="J65" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K65" s="2" t="n"/>
@@ -4225,7 +4240,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J66" s="67" t="n">
+      <c r="J66" s="82" t="n">
         <v>0</v>
       </c>
       <c r="K66" s="2" t="n"/>
@@ -4277,7 +4292,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J67" s="78" t="n">
+      <c r="J67" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K67" s="2" t="n"/>
@@ -4329,7 +4344,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J68" s="78" t="n">
+      <c r="J68" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K68" s="2" t="n"/>
@@ -4381,7 +4396,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J69" s="78" t="n">
+      <c r="J69" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K69" s="2" t="n"/>
@@ -4433,7 +4448,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="J70" s="78" t="n">
+      <c r="J70" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K70" s="2" t="n"/>
@@ -4485,7 +4500,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J71" s="67" t="n">
+      <c r="J71" s="82" t="n">
         <v>0</v>
       </c>
       <c r="K71" s="2" t="n"/>
@@ -4537,7 +4552,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J72" s="78" t="n">
+      <c r="J72" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K72" s="2" t="n"/>
@@ -4589,7 +4604,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J73" s="78" t="n">
+      <c r="J73" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K73" s="2" t="n"/>
@@ -4641,7 +4656,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J74" s="78" t="n">
+      <c r="J74" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K74" s="2" t="n"/>
@@ -4693,7 +4708,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J75" s="78" t="n">
+      <c r="J75" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K75" s="2" t="n"/>
@@ -4745,7 +4760,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J76" s="78" t="n">
+      <c r="J76" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K76" s="2" t="n"/>
@@ -4797,7 +4812,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J77" s="67" t="n">
+      <c r="J77" s="82" t="n">
         <v>0</v>
       </c>
       <c r="K77" s="2" t="n"/>
@@ -4849,7 +4864,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J78" s="67" t="n">
+      <c r="J78" s="82" t="n">
         <v>0</v>
       </c>
       <c r="K78" s="2" t="n"/>
@@ -4901,7 +4916,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J79" s="78" t="n">
+      <c r="J79" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K79" s="2" t="n"/>
@@ -4953,7 +4968,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J80" s="67" t="n">
+      <c r="J80" s="82" t="n">
         <v>0</v>
       </c>
       <c r="K80" s="2" t="n"/>
@@ -5005,7 +5020,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J81" s="78" t="n">
+      <c r="J81" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K81" s="2" t="n"/>
@@ -5057,7 +5072,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J82" s="78" t="n">
+      <c r="J82" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K82" s="2" t="n"/>
@@ -5109,7 +5124,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J83" s="67" t="n">
+      <c r="J83" s="82" t="n">
         <v>0</v>
       </c>
       <c r="K83" s="2" t="n"/>
@@ -5161,7 +5176,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J84" s="67" t="n">
+      <c r="J84" s="82" t="n">
         <v>0</v>
       </c>
       <c r="K84" s="2" t="n"/>
@@ -5213,7 +5228,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J85" s="78" t="n">
+      <c r="J85" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K85" s="2" t="n"/>
@@ -5265,7 +5280,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J86" s="78" t="n">
+      <c r="J86" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K86" s="2" t="n"/>
@@ -5317,7 +5332,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J87" s="78" t="n">
+      <c r="J87" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K87" s="2" t="n"/>
@@ -5369,7 +5384,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J88" s="78" t="n">
+      <c r="J88" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K88" s="2" t="n"/>
@@ -5421,7 +5436,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J89" s="78" t="n">
+      <c r="J89" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K89" s="2" t="n"/>
@@ -5473,7 +5488,7 @@
           <t>1 - 6</t>
         </is>
       </c>
-      <c r="J90" s="78" t="n">
+      <c r="J90" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K90" s="2" t="n"/>
@@ -5525,7 +5540,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J91" s="78" t="n">
+      <c r="J91" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K91" s="2" t="n"/>
@@ -5577,7 +5592,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J92" s="78" t="n">
+      <c r="J92" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K92" s="2" t="n"/>
@@ -5629,7 +5644,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J93" s="78" t="n">
+      <c r="J93" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K93" s="2" t="n"/>
@@ -5681,7 +5696,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J94" s="78" t="n">
+      <c r="J94" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K94" s="2" t="n"/>
@@ -5733,7 +5748,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J95" s="78" t="n">
+      <c r="J95" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K95" s="2" t="n"/>
@@ -5785,7 +5800,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J96" s="78" t="n">
+      <c r="J96" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K96" s="2" t="n"/>
@@ -5837,7 +5852,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J97" s="78" t="n">
+      <c r="J97" s="83" t="n">
         <v>1</v>
       </c>
       <c r="K97" s="2" t="n"/>
@@ -5850,6 +5865,422 @@
       <c r="R97" s="2" t="n"/>
       <c r="S97" s="2" t="n"/>
       <c r="T97" s="2" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>05.04.2025</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F98" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G98" s="2" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="H98" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I98" s="2" t="inlineStr">
+        <is>
+          <t>3 - 1</t>
+        </is>
+      </c>
+      <c r="J98" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" s="2" t="n"/>
+      <c r="L98" s="2" t="n"/>
+      <c r="M98" s="2" t="n"/>
+      <c r="N98" s="2" t="n"/>
+      <c r="O98" s="2" t="n"/>
+      <c r="P98" s="2" t="n"/>
+      <c r="Q98" s="2" t="n"/>
+      <c r="R98" s="2" t="n"/>
+      <c r="S98" s="2" t="n"/>
+      <c r="T98" s="2" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>05.04.2025</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F99" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G99" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="H99" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="I99" s="2" t="inlineStr">
+        <is>
+          <t>1 - 2</t>
+        </is>
+      </c>
+      <c r="J99" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" s="2" t="n"/>
+      <c r="L99" s="2" t="n"/>
+      <c r="M99" s="2" t="n"/>
+      <c r="N99" s="2" t="n"/>
+      <c r="O99" s="2" t="n"/>
+      <c r="P99" s="2" t="n"/>
+      <c r="Q99" s="2" t="n"/>
+      <c r="R99" s="2" t="n"/>
+      <c r="S99" s="2" t="n"/>
+      <c r="T99" s="2" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>05.04.2025</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F100" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G100" s="2" t="n">
+        <v>56.49999999999999</v>
+      </c>
+      <c r="H100" s="2" t="n">
+        <v>6.499999999999993</v>
+      </c>
+      <c r="I100" s="2" t="inlineStr">
+        <is>
+          <t>1 - 0</t>
+        </is>
+      </c>
+      <c r="J100" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" s="2" t="n"/>
+      <c r="L100" s="2" t="n"/>
+      <c r="M100" s="2" t="n"/>
+      <c r="N100" s="2" t="n"/>
+      <c r="O100" s="2" t="n"/>
+      <c r="P100" s="2" t="n"/>
+      <c r="Q100" s="2" t="n"/>
+      <c r="R100" s="2" t="n"/>
+      <c r="S100" s="2" t="n"/>
+      <c r="T100" s="2" t="n"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>05.04.2025</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F101" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G101" s="2" t="n">
+        <v>55.50000000000001</v>
+      </c>
+      <c r="H101" s="2" t="n">
+        <v>5.500000000000007</v>
+      </c>
+      <c r="I101" s="2" t="inlineStr">
+        <is>
+          <t>2 - 2</t>
+        </is>
+      </c>
+      <c r="J101" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" s="2" t="n"/>
+      <c r="L101" s="2" t="n"/>
+      <c r="M101" s="2" t="n"/>
+      <c r="N101" s="2" t="n"/>
+      <c r="O101" s="2" t="n"/>
+      <c r="P101" s="2" t="n"/>
+      <c r="Q101" s="2" t="n"/>
+      <c r="R101" s="2" t="n"/>
+      <c r="S101" s="2" t="n"/>
+      <c r="T101" s="2" t="n"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>05.04.2025</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="inlineStr">
+        <is>
+          <t>1X</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F102" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G102" s="2" t="n">
+        <v>55.00000000000001</v>
+      </c>
+      <c r="H102" s="2" t="n">
+        <v>5.000000000000007</v>
+      </c>
+      <c r="I102" s="2" t="inlineStr">
+        <is>
+          <t>1 - 1</t>
+        </is>
+      </c>
+      <c r="J102" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" s="2" t="n"/>
+      <c r="L102" s="2" t="n"/>
+      <c r="M102" s="2" t="n"/>
+      <c r="N102" s="2" t="n"/>
+      <c r="O102" s="2" t="n"/>
+      <c r="P102" s="2" t="n"/>
+      <c r="Q102" s="2" t="n"/>
+      <c r="R102" s="2" t="n"/>
+      <c r="S102" s="2" t="n"/>
+      <c r="T102" s="2" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>06.04.2025</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F103" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G103" s="2" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="H103" s="2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I103" s="2" t="inlineStr">
+        <is>
+          <t>3 - 2</t>
+        </is>
+      </c>
+      <c r="J103" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" s="2" t="n"/>
+      <c r="L103" s="2" t="n"/>
+      <c r="M103" s="2" t="n"/>
+      <c r="N103" s="2" t="n"/>
+      <c r="O103" s="2" t="n"/>
+      <c r="P103" s="2" t="n"/>
+      <c r="Q103" s="2" t="n"/>
+      <c r="R103" s="2" t="n"/>
+      <c r="S103" s="2" t="n"/>
+      <c r="T103" s="2" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>12.04.2025</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr">
+        <is>
+          <t>1X</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F104" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G104" s="2" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="H104" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I104" s="2" t="inlineStr">
+        <is>
+          <t>5 - 2</t>
+        </is>
+      </c>
+      <c r="J104" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" s="2" t="n"/>
+      <c r="L104" s="2" t="n"/>
+      <c r="M104" s="2" t="n"/>
+      <c r="N104" s="2" t="n"/>
+      <c r="O104" s="2" t="n"/>
+      <c r="P104" s="2" t="n"/>
+      <c r="Q104" s="2" t="n"/>
+      <c r="R104" s="2" t="n"/>
+      <c r="S104" s="2" t="n"/>
+      <c r="T104" s="2" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>12.04.2025</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F105" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G105" s="2" t="n">
+        <v>54.50000000000001</v>
+      </c>
+      <c r="H105" s="2" t="n">
+        <v>4.500000000000007</v>
+      </c>
+      <c r="I105" s="2" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="J105" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" s="2" t="n"/>
+      <c r="L105" s="2" t="n"/>
+      <c r="M105" s="2" t="n"/>
+      <c r="N105" s="2" t="n"/>
+      <c r="O105" s="2" t="n"/>
+      <c r="P105" s="2" t="n"/>
+      <c r="Q105" s="2" t="n"/>
+      <c r="R105" s="2" t="n"/>
+      <c r="S105" s="2" t="n"/>
+      <c r="T105" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5941,14 +6372,14 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>80.0%</t>
         </is>
       </c>
     </row>
@@ -5959,14 +6390,14 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -6013,14 +6444,14 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
     </row>
@@ -6031,14 +6462,14 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>7</v>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>70.0%</t>
         </is>
       </c>
     </row>
@@ -6049,14 +6480,14 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -6139,14 +6570,14 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -6193,10 +6624,10 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
@@ -6373,14 +6804,14 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C28" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>6</v>
-      </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>87.5%</t>
         </is>
       </c>
     </row>

--- a/app/placed_bets.xlsx
+++ b/app/placed_bets.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -359,6 +359,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -726,7 +744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T105"/>
+  <dimension ref="A1:T121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -808,12 +826,12 @@
         </is>
       </c>
       <c r="K1" s="2" t="n"/>
-      <c r="L1" s="83" t="inlineStr">
+      <c r="L1" s="88" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="M1" s="82" t="inlineStr">
+      <c r="M1" s="86" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
@@ -892,38 +910,38 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J2" s="83" t="n">
+      <c r="J2" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>73.08</v>
+        <v>75</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>8220</v>
+        <v>9020</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>7527.5</v>
+        <v>8311</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>-692.5</v>
+        <v>-709</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>-0.69%</t>
+          <t>-0.71%</t>
         </is>
       </c>
       <c r="S2" s="2" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>307.5</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3">
@@ -964,7 +982,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J3" s="82" t="n">
+      <c r="J3" s="86" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="2" t="n"/>
@@ -1016,7 +1034,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J4" s="83" t="n">
+      <c r="J4" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="n"/>
@@ -1068,7 +1086,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J5" s="83" t="n">
+      <c r="J5" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="n"/>
@@ -1120,7 +1138,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J6" s="83" t="n">
+      <c r="J6" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="n"/>
@@ -1172,7 +1190,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J7" s="82" t="n">
+      <c r="J7" s="86" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="n"/>
@@ -1224,7 +1242,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J8" s="83" t="n">
+      <c r="J8" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="n"/>
@@ -1276,7 +1294,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J9" s="82" t="n">
+      <c r="J9" s="86" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="2" t="n"/>
@@ -1328,7 +1346,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J10" s="83" t="n">
+      <c r="J10" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="n"/>
@@ -1380,7 +1398,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J11" s="83" t="n">
+      <c r="J11" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="n"/>
@@ -1432,7 +1450,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J12" s="82" t="n">
+      <c r="J12" s="86" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="n"/>
@@ -1484,7 +1502,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J13" s="83" t="n">
+      <c r="J13" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="n"/>
@@ -1536,7 +1554,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J14" s="83" t="n">
+      <c r="J14" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="n"/>
@@ -1588,7 +1606,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J15" s="83" t="n">
+      <c r="J15" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="n"/>
@@ -1640,7 +1658,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J16" s="83" t="n">
+      <c r="J16" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="n"/>
@@ -1692,7 +1710,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J17" s="82" t="n">
+      <c r="J17" s="86" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="2" t="n"/>
@@ -1744,7 +1762,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J18" s="83" t="n">
+      <c r="J18" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="n"/>
@@ -1796,7 +1814,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J19" s="82" t="n">
+      <c r="J19" s="86" t="n">
         <v>0</v>
       </c>
       <c r="K19" s="2" t="n"/>
@@ -1848,7 +1866,7 @@
           <t>3 - 3</t>
         </is>
       </c>
-      <c r="J20" s="83" t="n">
+      <c r="J20" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="n"/>
@@ -1900,7 +1918,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J21" s="82" t="n">
+      <c r="J21" s="86" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="2" t="n"/>
@@ -1952,7 +1970,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J22" s="83" t="n">
+      <c r="J22" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="n"/>
@@ -2004,7 +2022,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J23" s="82" t="n">
+      <c r="J23" s="86" t="n">
         <v>0</v>
       </c>
       <c r="K23" s="2" t="n"/>
@@ -2056,7 +2074,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J24" s="83" t="n">
+      <c r="J24" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K24" s="2" t="n"/>
@@ -2108,7 +2126,7 @@
           <t>0 - 6</t>
         </is>
       </c>
-      <c r="J25" s="83" t="n">
+      <c r="J25" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K25" s="2" t="n"/>
@@ -2160,7 +2178,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J26" s="83" t="n">
+      <c r="J26" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K26" s="2" t="n"/>
@@ -2212,7 +2230,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J27" s="83" t="n">
+      <c r="J27" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="n"/>
@@ -2264,7 +2282,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J28" s="83" t="n">
+      <c r="J28" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K28" s="2" t="n"/>
@@ -2316,7 +2334,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J29" s="82" t="n">
+      <c r="J29" s="86" t="n">
         <v>0</v>
       </c>
       <c r="K29" s="2" t="n"/>
@@ -2368,7 +2386,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J30" s="83" t="n">
+      <c r="J30" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K30" s="2" t="n"/>
@@ -2420,7 +2438,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J31" s="83" t="n">
+      <c r="J31" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="n"/>
@@ -2472,7 +2490,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J32" s="83" t="n">
+      <c r="J32" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K32" s="2" t="n"/>
@@ -2524,7 +2542,7 @@
           <t>2 - 5</t>
         </is>
       </c>
-      <c r="J33" s="83" t="n">
+      <c r="J33" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K33" s="2" t="n"/>
@@ -2576,7 +2594,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J34" s="82" t="n">
+      <c r="J34" s="86" t="n">
         <v>0</v>
       </c>
       <c r="K34" s="2" t="n"/>
@@ -2628,7 +2646,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J35" s="83" t="n">
+      <c r="J35" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K35" s="2" t="n"/>
@@ -2680,7 +2698,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J36" s="83" t="n">
+      <c r="J36" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K36" s="2" t="n"/>
@@ -2732,7 +2750,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J37" s="83" t="n">
+      <c r="J37" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K37" s="2" t="n"/>
@@ -2784,7 +2802,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J38" s="83" t="n">
+      <c r="J38" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="2" t="n"/>
@@ -2836,7 +2854,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J39" s="83" t="n">
+      <c r="J39" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K39" s="2" t="n"/>
@@ -2888,7 +2906,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J40" s="83" t="n">
+      <c r="J40" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K40" s="2" t="n"/>
@@ -2940,7 +2958,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J41" s="83" t="n">
+      <c r="J41" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K41" s="2" t="n"/>
@@ -2992,7 +3010,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J42" s="83" t="n">
+      <c r="J42" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K42" s="2" t="n"/>
@@ -3044,7 +3062,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J43" s="82" t="n">
+      <c r="J43" s="86" t="n">
         <v>0</v>
       </c>
       <c r="K43" s="2" t="n"/>
@@ -3096,7 +3114,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J44" s="83" t="n">
+      <c r="J44" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K44" s="2" t="n"/>
@@ -3148,7 +3166,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J45" s="82" t="n">
+      <c r="J45" s="86" t="n">
         <v>0</v>
       </c>
       <c r="K45" s="2" t="n"/>
@@ -3200,7 +3218,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J46" s="83" t="n">
+      <c r="J46" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K46" s="2" t="n"/>
@@ -3252,7 +3270,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J47" s="83" t="n">
+      <c r="J47" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K47" s="2" t="n"/>
@@ -3304,7 +3322,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J48" s="82" t="n">
+      <c r="J48" s="86" t="n">
         <v>0</v>
       </c>
       <c r="K48" s="2" t="n"/>
@@ -3356,7 +3374,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J49" s="83" t="n">
+      <c r="J49" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K49" s="2" t="n"/>
@@ -3408,7 +3426,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J50" s="83" t="n">
+      <c r="J50" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K50" s="2" t="n"/>
@@ -3460,7 +3478,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J51" s="83" t="n">
+      <c r="J51" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K51" s="2" t="n"/>
@@ -3512,7 +3530,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J52" s="82" t="n">
+      <c r="J52" s="86" t="n">
         <v>0</v>
       </c>
       <c r="K52" s="2" t="n"/>
@@ -3564,7 +3582,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J53" s="83" t="n">
+      <c r="J53" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K53" s="2" t="n"/>
@@ -3616,7 +3634,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J54" s="82" t="n">
+      <c r="J54" s="86" t="n">
         <v>0</v>
       </c>
       <c r="K54" s="2" t="n"/>
@@ -3668,7 +3686,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J55" s="82" t="n">
+      <c r="J55" s="86" t="n">
         <v>0</v>
       </c>
       <c r="K55" s="2" t="n"/>
@@ -3720,7 +3738,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J56" s="83" t="n">
+      <c r="J56" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K56" s="2" t="n"/>
@@ -3772,7 +3790,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J57" s="83" t="n">
+      <c r="J57" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K57" s="2" t="n"/>
@@ -3824,7 +3842,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J58" s="83" t="n">
+      <c r="J58" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K58" s="2" t="n"/>
@@ -3876,7 +3894,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J59" s="82" t="n">
+      <c r="J59" s="86" t="n">
         <v>0</v>
       </c>
       <c r="K59" s="2" t="n"/>
@@ -3928,7 +3946,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J60" s="82" t="n">
+      <c r="J60" s="86" t="n">
         <v>0</v>
       </c>
       <c r="K60" s="2" t="n"/>
@@ -3980,7 +3998,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J61" s="82" t="n">
+      <c r="J61" s="86" t="n">
         <v>0</v>
       </c>
       <c r="K61" s="2" t="n"/>
@@ -4032,7 +4050,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J62" s="83" t="n">
+      <c r="J62" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K62" s="2" t="n"/>
@@ -4084,7 +4102,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J63" s="83" t="n">
+      <c r="J63" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K63" s="2" t="n"/>
@@ -4136,7 +4154,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J64" s="83" t="n">
+      <c r="J64" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K64" s="2" t="n"/>
@@ -4188,7 +4206,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J65" s="83" t="n">
+      <c r="J65" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K65" s="2" t="n"/>
@@ -4240,7 +4258,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J66" s="82" t="n">
+      <c r="J66" s="86" t="n">
         <v>0</v>
       </c>
       <c r="K66" s="2" t="n"/>
@@ -4292,7 +4310,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J67" s="83" t="n">
+      <c r="J67" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K67" s="2" t="n"/>
@@ -4344,7 +4362,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J68" s="83" t="n">
+      <c r="J68" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K68" s="2" t="n"/>
@@ -4396,7 +4414,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J69" s="83" t="n">
+      <c r="J69" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K69" s="2" t="n"/>
@@ -4448,7 +4466,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="J70" s="83" t="n">
+      <c r="J70" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K70" s="2" t="n"/>
@@ -4500,7 +4518,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J71" s="82" t="n">
+      <c r="J71" s="86" t="n">
         <v>0</v>
       </c>
       <c r="K71" s="2" t="n"/>
@@ -4552,7 +4570,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J72" s="83" t="n">
+      <c r="J72" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K72" s="2" t="n"/>
@@ -4604,7 +4622,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J73" s="83" t="n">
+      <c r="J73" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K73" s="2" t="n"/>
@@ -4656,7 +4674,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J74" s="83" t="n">
+      <c r="J74" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K74" s="2" t="n"/>
@@ -4708,7 +4726,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J75" s="83" t="n">
+      <c r="J75" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K75" s="2" t="n"/>
@@ -4760,7 +4778,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J76" s="83" t="n">
+      <c r="J76" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K76" s="2" t="n"/>
@@ -4812,7 +4830,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J77" s="82" t="n">
+      <c r="J77" s="86" t="n">
         <v>0</v>
       </c>
       <c r="K77" s="2" t="n"/>
@@ -4864,7 +4882,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J78" s="82" t="n">
+      <c r="J78" s="86" t="n">
         <v>0</v>
       </c>
       <c r="K78" s="2" t="n"/>
@@ -4916,7 +4934,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J79" s="83" t="n">
+      <c r="J79" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K79" s="2" t="n"/>
@@ -4968,7 +4986,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J80" s="82" t="n">
+      <c r="J80" s="86" t="n">
         <v>0</v>
       </c>
       <c r="K80" s="2" t="n"/>
@@ -5020,7 +5038,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J81" s="83" t="n">
+      <c r="J81" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K81" s="2" t="n"/>
@@ -5072,7 +5090,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J82" s="83" t="n">
+      <c r="J82" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K82" s="2" t="n"/>
@@ -5124,7 +5142,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J83" s="82" t="n">
+      <c r="J83" s="86" t="n">
         <v>0</v>
       </c>
       <c r="K83" s="2" t="n"/>
@@ -5176,7 +5194,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J84" s="82" t="n">
+      <c r="J84" s="86" t="n">
         <v>0</v>
       </c>
       <c r="K84" s="2" t="n"/>
@@ -5228,7 +5246,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J85" s="83" t="n">
+      <c r="J85" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K85" s="2" t="n"/>
@@ -5280,7 +5298,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J86" s="83" t="n">
+      <c r="J86" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K86" s="2" t="n"/>
@@ -5332,7 +5350,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J87" s="83" t="n">
+      <c r="J87" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K87" s="2" t="n"/>
@@ -5384,7 +5402,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J88" s="83" t="n">
+      <c r="J88" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K88" s="2" t="n"/>
@@ -5436,7 +5454,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J89" s="83" t="n">
+      <c r="J89" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K89" s="2" t="n"/>
@@ -5488,7 +5506,7 @@
           <t>1 - 6</t>
         </is>
       </c>
-      <c r="J90" s="83" t="n">
+      <c r="J90" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K90" s="2" t="n"/>
@@ -5540,7 +5558,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J91" s="83" t="n">
+      <c r="J91" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K91" s="2" t="n"/>
@@ -5592,7 +5610,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J92" s="83" t="n">
+      <c r="J92" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K92" s="2" t="n"/>
@@ -5644,7 +5662,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J93" s="83" t="n">
+      <c r="J93" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K93" s="2" t="n"/>
@@ -5696,7 +5714,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J94" s="83" t="n">
+      <c r="J94" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K94" s="2" t="n"/>
@@ -5748,7 +5766,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J95" s="83" t="n">
+      <c r="J95" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K95" s="2" t="n"/>
@@ -5800,7 +5818,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J96" s="83" t="n">
+      <c r="J96" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K96" s="2" t="n"/>
@@ -5852,7 +5870,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J97" s="83" t="n">
+      <c r="J97" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K97" s="2" t="n"/>
@@ -5904,7 +5922,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J98" s="83" t="n">
+      <c r="J98" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K98" s="2" t="n"/>
@@ -5956,7 +5974,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J99" s="82" t="n">
+      <c r="J99" s="86" t="n">
         <v>0</v>
       </c>
       <c r="K99" s="2" t="n"/>
@@ -6008,7 +6026,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J100" s="83" t="n">
+      <c r="J100" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K100" s="2" t="n"/>
@@ -6060,7 +6078,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J101" s="83" t="n">
+      <c r="J101" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K101" s="2" t="n"/>
@@ -6112,7 +6130,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J102" s="83" t="n">
+      <c r="J102" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K102" s="2" t="n"/>
@@ -6164,7 +6182,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J103" s="82" t="n">
+      <c r="J103" s="86" t="n">
         <v>0</v>
       </c>
       <c r="K103" s="2" t="n"/>
@@ -6216,7 +6234,7 @@
           <t>5 - 2</t>
         </is>
       </c>
-      <c r="J104" s="83" t="n">
+      <c r="J104" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K104" s="2" t="n"/>
@@ -6268,7 +6286,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J105" s="83" t="n">
+      <c r="J105" s="88" t="n">
         <v>1</v>
       </c>
       <c r="K105" s="2" t="n"/>
@@ -6281,6 +6299,838 @@
       <c r="R105" s="2" t="n"/>
       <c r="S105" s="2" t="n"/>
       <c r="T105" s="2" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>12.04.2025</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F106" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G106" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="H106" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I106" s="2" t="inlineStr">
+        <is>
+          <t>3 - 1</t>
+        </is>
+      </c>
+      <c r="J106" s="88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" s="2" t="n"/>
+      <c r="L106" s="2" t="n"/>
+      <c r="M106" s="2" t="n"/>
+      <c r="N106" s="2" t="n"/>
+      <c r="O106" s="2" t="n"/>
+      <c r="P106" s="2" t="n"/>
+      <c r="Q106" s="2" t="n"/>
+      <c r="R106" s="2" t="n"/>
+      <c r="S106" s="2" t="n"/>
+      <c r="T106" s="2" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>12.04.2025</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F107" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G107" s="2" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="H107" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I107" s="2" t="inlineStr">
+        <is>
+          <t>2 - 1</t>
+        </is>
+      </c>
+      <c r="J107" s="88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" s="2" t="n"/>
+      <c r="L107" s="2" t="n"/>
+      <c r="M107" s="2" t="n"/>
+      <c r="N107" s="2" t="n"/>
+      <c r="O107" s="2" t="n"/>
+      <c r="P107" s="2" t="n"/>
+      <c r="Q107" s="2" t="n"/>
+      <c r="R107" s="2" t="n"/>
+      <c r="S107" s="2" t="n"/>
+      <c r="T107" s="2" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>12.04.2025</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>Leganes</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F108" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G108" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="H108" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I108" s="2" t="inlineStr">
+        <is>
+          <t>0 - 1</t>
+        </is>
+      </c>
+      <c r="J108" s="88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" s="2" t="n"/>
+      <c r="L108" s="2" t="n"/>
+      <c r="M108" s="2" t="n"/>
+      <c r="N108" s="2" t="n"/>
+      <c r="O108" s="2" t="n"/>
+      <c r="P108" s="2" t="n"/>
+      <c r="Q108" s="2" t="n"/>
+      <c r="R108" s="2" t="n"/>
+      <c r="S108" s="2" t="n"/>
+      <c r="T108" s="2" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>13.04.2025</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>Ipswich</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F109" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G109" s="2" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="H109" s="2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I109" s="2" t="inlineStr">
+        <is>
+          <t>2 - 2</t>
+        </is>
+      </c>
+      <c r="J109" s="86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" s="2" t="n"/>
+      <c r="L109" s="2" t="n"/>
+      <c r="M109" s="2" t="n"/>
+      <c r="N109" s="2" t="n"/>
+      <c r="O109" s="2" t="n"/>
+      <c r="P109" s="2" t="n"/>
+      <c r="Q109" s="2" t="n"/>
+      <c r="R109" s="2" t="n"/>
+      <c r="S109" s="2" t="n"/>
+      <c r="T109" s="2" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>13.04.2025</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="inlineStr">
+        <is>
+          <t>1X</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F110" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G110" s="2" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="H110" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I110" s="2" t="inlineStr">
+        <is>
+          <t>2 - 1</t>
+        </is>
+      </c>
+      <c r="J110" s="88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" s="2" t="n"/>
+      <c r="L110" s="2" t="n"/>
+      <c r="M110" s="2" t="n"/>
+      <c r="N110" s="2" t="n"/>
+      <c r="O110" s="2" t="n"/>
+      <c r="P110" s="2" t="n"/>
+      <c r="Q110" s="2" t="n"/>
+      <c r="R110" s="2" t="n"/>
+      <c r="S110" s="2" t="n"/>
+      <c r="T110" s="2" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>14.04.2025</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F111" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G111" s="2" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="H111" s="2" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="I111" s="2" t="inlineStr">
+        <is>
+          <t>3 - 0</t>
+        </is>
+      </c>
+      <c r="J111" s="88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" s="2" t="n"/>
+      <c r="L111" s="2" t="n"/>
+      <c r="M111" s="2" t="n"/>
+      <c r="N111" s="2" t="n"/>
+      <c r="O111" s="2" t="n"/>
+      <c r="P111" s="2" t="n"/>
+      <c r="Q111" s="2" t="n"/>
+      <c r="R111" s="2" t="n"/>
+      <c r="S111" s="2" t="n"/>
+      <c r="T111" s="2" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>14.04.2025</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F112" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G112" s="2" t="n">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="H112" s="2" t="n">
+        <v>6.000000000000007</v>
+      </c>
+      <c r="I112" s="2" t="inlineStr">
+        <is>
+          <t>4 - 2</t>
+        </is>
+      </c>
+      <c r="J112" s="88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" s="2" t="n"/>
+      <c r="L112" s="2" t="n"/>
+      <c r="M112" s="2" t="n"/>
+      <c r="N112" s="2" t="n"/>
+      <c r="O112" s="2" t="n"/>
+      <c r="P112" s="2" t="n"/>
+      <c r="Q112" s="2" t="n"/>
+      <c r="R112" s="2" t="n"/>
+      <c r="S112" s="2" t="n"/>
+      <c r="T112" s="2" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>19.04.2025</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>Bayern Munchen</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F113" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G113" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="H113" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I113" s="2" t="inlineStr">
+        <is>
+          <t>0 - 4</t>
+        </is>
+      </c>
+      <c r="J113" s="88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" s="2" t="n"/>
+      <c r="L113" s="2" t="n"/>
+      <c r="M113" s="2" t="n"/>
+      <c r="N113" s="2" t="n"/>
+      <c r="O113" s="2" t="n"/>
+      <c r="P113" s="2" t="n"/>
+      <c r="Q113" s="2" t="n"/>
+      <c r="R113" s="2" t="n"/>
+      <c r="S113" s="2" t="n"/>
+      <c r="T113" s="2" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>19.04.2025</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F114" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G114" s="2" t="n">
+        <v>56.99999999999999</v>
+      </c>
+      <c r="H114" s="2" t="n">
+        <v>6.999999999999993</v>
+      </c>
+      <c r="I114" s="2" t="inlineStr">
+        <is>
+          <t>1 - 1</t>
+        </is>
+      </c>
+      <c r="J114" s="88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" s="2" t="n"/>
+      <c r="L114" s="2" t="n"/>
+      <c r="M114" s="2" t="n"/>
+      <c r="N114" s="2" t="n"/>
+      <c r="O114" s="2" t="n"/>
+      <c r="P114" s="2" t="n"/>
+      <c r="Q114" s="2" t="n"/>
+      <c r="R114" s="2" t="n"/>
+      <c r="S114" s="2" t="n"/>
+      <c r="T114" s="2" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>19.04.2025</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="inlineStr">
+        <is>
+          <t>1X</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F115" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G115" s="2" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="H115" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I115" s="2" t="inlineStr">
+        <is>
+          <t>4 - 3</t>
+        </is>
+      </c>
+      <c r="J115" s="88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" s="2" t="n"/>
+      <c r="L115" s="2" t="n"/>
+      <c r="M115" s="2" t="n"/>
+      <c r="N115" s="2" t="n"/>
+      <c r="O115" s="2" t="n"/>
+      <c r="P115" s="2" t="n"/>
+      <c r="Q115" s="2" t="n"/>
+      <c r="R115" s="2" t="n"/>
+      <c r="S115" s="2" t="n"/>
+      <c r="T115" s="2" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>19.04.2025</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F116" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G116" s="2" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="H116" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I116" s="2" t="inlineStr">
+        <is>
+          <t>2 - 1</t>
+        </is>
+      </c>
+      <c r="J116" s="88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K116" s="2" t="n"/>
+      <c r="L116" s="2" t="n"/>
+      <c r="M116" s="2" t="n"/>
+      <c r="N116" s="2" t="n"/>
+      <c r="O116" s="2" t="n"/>
+      <c r="P116" s="2" t="n"/>
+      <c r="Q116" s="2" t="n"/>
+      <c r="R116" s="2" t="n"/>
+      <c r="S116" s="2" t="n"/>
+      <c r="T116" s="2" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>19.04.2025</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F117" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G117" s="2" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="H117" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I117" s="2" t="inlineStr">
+        <is>
+          <t>0 - 1</t>
+        </is>
+      </c>
+      <c r="J117" s="88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" s="2" t="n"/>
+      <c r="L117" s="2" t="n"/>
+      <c r="M117" s="2" t="n"/>
+      <c r="N117" s="2" t="n"/>
+      <c r="O117" s="2" t="n"/>
+      <c r="P117" s="2" t="n"/>
+      <c r="Q117" s="2" t="n"/>
+      <c r="R117" s="2" t="n"/>
+      <c r="S117" s="2" t="n"/>
+      <c r="T117" s="2" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>19.04.2025</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="inlineStr">
+        <is>
+          <t>1X</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F118" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G118" s="2" t="n">
+        <v>56.49999999999999</v>
+      </c>
+      <c r="H118" s="2" t="n">
+        <v>6.499999999999993</v>
+      </c>
+      <c r="I118" s="2" t="inlineStr">
+        <is>
+          <t>1 - 0</t>
+        </is>
+      </c>
+      <c r="J118" s="88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" s="2" t="n"/>
+      <c r="L118" s="2" t="n"/>
+      <c r="M118" s="2" t="n"/>
+      <c r="N118" s="2" t="n"/>
+      <c r="O118" s="2" t="n"/>
+      <c r="P118" s="2" t="n"/>
+      <c r="Q118" s="2" t="n"/>
+      <c r="R118" s="2" t="n"/>
+      <c r="S118" s="2" t="n"/>
+      <c r="T118" s="2" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>19.04.2025</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F119" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G119" s="2" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="H119" s="2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I119" s="2" t="inlineStr">
+        <is>
+          <t>1 - 0</t>
+        </is>
+      </c>
+      <c r="J119" s="86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" s="2" t="n"/>
+      <c r="L119" s="2" t="n"/>
+      <c r="M119" s="2" t="n"/>
+      <c r="N119" s="2" t="n"/>
+      <c r="O119" s="2" t="n"/>
+      <c r="P119" s="2" t="n"/>
+      <c r="Q119" s="2" t="n"/>
+      <c r="R119" s="2" t="n"/>
+      <c r="S119" s="2" t="n"/>
+      <c r="T119" s="2" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>20.04.2025</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>Ipswich</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F120" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G120" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="H120" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I120" s="2" t="inlineStr">
+        <is>
+          <t>0 - 4</t>
+        </is>
+      </c>
+      <c r="J120" s="88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" s="2" t="n"/>
+      <c r="L120" s="2" t="n"/>
+      <c r="M120" s="2" t="n"/>
+      <c r="N120" s="2" t="n"/>
+      <c r="O120" s="2" t="n"/>
+      <c r="P120" s="2" t="n"/>
+      <c r="Q120" s="2" t="n"/>
+      <c r="R120" s="2" t="n"/>
+      <c r="S120" s="2" t="n"/>
+      <c r="T120" s="2" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>20.04.2025</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F121" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G121" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="H121" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I121" s="2" t="inlineStr">
+        <is>
+          <t>0 - 1</t>
+        </is>
+      </c>
+      <c r="J121" s="88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K121" s="2" t="n"/>
+      <c r="L121" s="2" t="n"/>
+      <c r="M121" s="2" t="n"/>
+      <c r="N121" s="2" t="n"/>
+      <c r="O121" s="2" t="n"/>
+      <c r="P121" s="2" t="n"/>
+      <c r="Q121" s="2" t="n"/>
+      <c r="R121" s="2" t="n"/>
+      <c r="S121" s="2" t="n"/>
+      <c r="T121" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6336,14 +7186,14 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
     </row>
@@ -6354,14 +7204,14 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -6372,14 +7222,14 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>4</v>
-      </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -6426,14 +7276,14 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>42.86%</t>
         </is>
       </c>
     </row>
@@ -6444,14 +7294,14 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>57.14%</t>
         </is>
       </c>
     </row>
@@ -6498,14 +7348,14 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>4</v>
-      </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -6570,14 +7420,14 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>75.0%</t>
         </is>
       </c>
     </row>
@@ -6624,10 +7474,10 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
@@ -6642,10 +7492,10 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
@@ -6678,14 +7528,14 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -6696,14 +7546,14 @@
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3</v>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>75.0%</t>
         </is>
       </c>
     </row>
@@ -6804,14 +7654,14 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>7</v>
-      </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>88.89%</t>
         </is>
       </c>
     </row>

--- a/app/placed_bets.xlsx
+++ b/app/placed_bets.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -377,6 +377,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -744,7 +762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T121"/>
+  <dimension ref="A1:T129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,12 +844,12 @@
         </is>
       </c>
       <c r="K1" s="2" t="n"/>
-      <c r="L1" s="88" t="inlineStr">
+      <c r="L1" s="95" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="M1" s="86" t="inlineStr">
+      <c r="M1" s="93" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
@@ -910,27 +928,27 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J2" s="88" t="n">
+      <c r="J2" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N2" s="2" t="n">
         <v>75</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>9020</v>
+        <v>9420</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>8311</v>
+        <v>8713.5</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>-709</v>
+        <v>-706.5</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -938,10 +956,10 @@
         </is>
       </c>
       <c r="S2" s="2" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>291</v>
+        <v>293.5</v>
       </c>
     </row>
     <row r="3">
@@ -982,7 +1000,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J3" s="86" t="n">
+      <c r="J3" s="93" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="2" t="n"/>
@@ -1034,7 +1052,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J4" s="88" t="n">
+      <c r="J4" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="n"/>
@@ -1086,7 +1104,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J5" s="88" t="n">
+      <c r="J5" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="n"/>
@@ -1138,7 +1156,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J6" s="88" t="n">
+      <c r="J6" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="n"/>
@@ -1190,7 +1208,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J7" s="86" t="n">
+      <c r="J7" s="93" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="n"/>
@@ -1242,7 +1260,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J8" s="88" t="n">
+      <c r="J8" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="n"/>
@@ -1294,7 +1312,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J9" s="86" t="n">
+      <c r="J9" s="93" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="2" t="n"/>
@@ -1346,7 +1364,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J10" s="88" t="n">
+      <c r="J10" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="n"/>
@@ -1398,7 +1416,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J11" s="88" t="n">
+      <c r="J11" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="n"/>
@@ -1450,7 +1468,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J12" s="86" t="n">
+      <c r="J12" s="93" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="n"/>
@@ -1502,7 +1520,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J13" s="88" t="n">
+      <c r="J13" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="n"/>
@@ -1554,7 +1572,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J14" s="88" t="n">
+      <c r="J14" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="n"/>
@@ -1606,7 +1624,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J15" s="88" t="n">
+      <c r="J15" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="n"/>
@@ -1658,7 +1676,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J16" s="88" t="n">
+      <c r="J16" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="n"/>
@@ -1710,7 +1728,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J17" s="86" t="n">
+      <c r="J17" s="93" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="2" t="n"/>
@@ -1762,7 +1780,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J18" s="88" t="n">
+      <c r="J18" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="n"/>
@@ -1814,7 +1832,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J19" s="86" t="n">
+      <c r="J19" s="93" t="n">
         <v>0</v>
       </c>
       <c r="K19" s="2" t="n"/>
@@ -1866,7 +1884,7 @@
           <t>3 - 3</t>
         </is>
       </c>
-      <c r="J20" s="88" t="n">
+      <c r="J20" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="n"/>
@@ -1918,7 +1936,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J21" s="86" t="n">
+      <c r="J21" s="93" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="2" t="n"/>
@@ -1970,7 +1988,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J22" s="88" t="n">
+      <c r="J22" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="n"/>
@@ -2022,7 +2040,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J23" s="86" t="n">
+      <c r="J23" s="93" t="n">
         <v>0</v>
       </c>
       <c r="K23" s="2" t="n"/>
@@ -2074,7 +2092,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J24" s="88" t="n">
+      <c r="J24" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K24" s="2" t="n"/>
@@ -2126,7 +2144,7 @@
           <t>0 - 6</t>
         </is>
       </c>
-      <c r="J25" s="88" t="n">
+      <c r="J25" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K25" s="2" t="n"/>
@@ -2178,7 +2196,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J26" s="88" t="n">
+      <c r="J26" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K26" s="2" t="n"/>
@@ -2230,7 +2248,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J27" s="88" t="n">
+      <c r="J27" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="n"/>
@@ -2282,7 +2300,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J28" s="88" t="n">
+      <c r="J28" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K28" s="2" t="n"/>
@@ -2334,7 +2352,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J29" s="86" t="n">
+      <c r="J29" s="93" t="n">
         <v>0</v>
       </c>
       <c r="K29" s="2" t="n"/>
@@ -2386,7 +2404,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J30" s="88" t="n">
+      <c r="J30" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K30" s="2" t="n"/>
@@ -2438,7 +2456,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J31" s="88" t="n">
+      <c r="J31" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="n"/>
@@ -2490,7 +2508,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J32" s="88" t="n">
+      <c r="J32" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K32" s="2" t="n"/>
@@ -2542,7 +2560,7 @@
           <t>2 - 5</t>
         </is>
       </c>
-      <c r="J33" s="88" t="n">
+      <c r="J33" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K33" s="2" t="n"/>
@@ -2594,7 +2612,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J34" s="86" t="n">
+      <c r="J34" s="93" t="n">
         <v>0</v>
       </c>
       <c r="K34" s="2" t="n"/>
@@ -2646,7 +2664,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J35" s="88" t="n">
+      <c r="J35" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K35" s="2" t="n"/>
@@ -2698,7 +2716,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J36" s="88" t="n">
+      <c r="J36" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K36" s="2" t="n"/>
@@ -2750,7 +2768,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J37" s="88" t="n">
+      <c r="J37" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K37" s="2" t="n"/>
@@ -2802,7 +2820,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J38" s="88" t="n">
+      <c r="J38" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="2" t="n"/>
@@ -2854,7 +2872,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J39" s="88" t="n">
+      <c r="J39" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K39" s="2" t="n"/>
@@ -2906,7 +2924,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J40" s="88" t="n">
+      <c r="J40" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K40" s="2" t="n"/>
@@ -2958,7 +2976,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J41" s="88" t="n">
+      <c r="J41" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K41" s="2" t="n"/>
@@ -3010,7 +3028,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J42" s="88" t="n">
+      <c r="J42" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K42" s="2" t="n"/>
@@ -3062,7 +3080,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J43" s="86" t="n">
+      <c r="J43" s="93" t="n">
         <v>0</v>
       </c>
       <c r="K43" s="2" t="n"/>
@@ -3114,7 +3132,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J44" s="88" t="n">
+      <c r="J44" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K44" s="2" t="n"/>
@@ -3166,7 +3184,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J45" s="86" t="n">
+      <c r="J45" s="93" t="n">
         <v>0</v>
       </c>
       <c r="K45" s="2" t="n"/>
@@ -3218,7 +3236,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J46" s="88" t="n">
+      <c r="J46" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K46" s="2" t="n"/>
@@ -3270,7 +3288,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J47" s="88" t="n">
+      <c r="J47" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K47" s="2" t="n"/>
@@ -3322,7 +3340,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J48" s="86" t="n">
+      <c r="J48" s="93" t="n">
         <v>0</v>
       </c>
       <c r="K48" s="2" t="n"/>
@@ -3374,7 +3392,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J49" s="88" t="n">
+      <c r="J49" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K49" s="2" t="n"/>
@@ -3426,7 +3444,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J50" s="88" t="n">
+      <c r="J50" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K50" s="2" t="n"/>
@@ -3478,7 +3496,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J51" s="88" t="n">
+      <c r="J51" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K51" s="2" t="n"/>
@@ -3530,7 +3548,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J52" s="86" t="n">
+      <c r="J52" s="93" t="n">
         <v>0</v>
       </c>
       <c r="K52" s="2" t="n"/>
@@ -3582,7 +3600,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J53" s="88" t="n">
+      <c r="J53" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K53" s="2" t="n"/>
@@ -3634,7 +3652,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J54" s="86" t="n">
+      <c r="J54" s="93" t="n">
         <v>0</v>
       </c>
       <c r="K54" s="2" t="n"/>
@@ -3686,7 +3704,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J55" s="86" t="n">
+      <c r="J55" s="93" t="n">
         <v>0</v>
       </c>
       <c r="K55" s="2" t="n"/>
@@ -3738,7 +3756,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J56" s="88" t="n">
+      <c r="J56" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K56" s="2" t="n"/>
@@ -3790,7 +3808,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J57" s="88" t="n">
+      <c r="J57" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K57" s="2" t="n"/>
@@ -3842,7 +3860,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J58" s="88" t="n">
+      <c r="J58" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K58" s="2" t="n"/>
@@ -3894,7 +3912,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J59" s="86" t="n">
+      <c r="J59" s="93" t="n">
         <v>0</v>
       </c>
       <c r="K59" s="2" t="n"/>
@@ -3946,7 +3964,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J60" s="86" t="n">
+      <c r="J60" s="93" t="n">
         <v>0</v>
       </c>
       <c r="K60" s="2" t="n"/>
@@ -3998,7 +4016,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J61" s="86" t="n">
+      <c r="J61" s="93" t="n">
         <v>0</v>
       </c>
       <c r="K61" s="2" t="n"/>
@@ -4050,7 +4068,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J62" s="88" t="n">
+      <c r="J62" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K62" s="2" t="n"/>
@@ -4102,7 +4120,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J63" s="88" t="n">
+      <c r="J63" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K63" s="2" t="n"/>
@@ -4154,7 +4172,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J64" s="88" t="n">
+      <c r="J64" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K64" s="2" t="n"/>
@@ -4206,7 +4224,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J65" s="88" t="n">
+      <c r="J65" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K65" s="2" t="n"/>
@@ -4258,7 +4276,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J66" s="86" t="n">
+      <c r="J66" s="93" t="n">
         <v>0</v>
       </c>
       <c r="K66" s="2" t="n"/>
@@ -4310,7 +4328,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J67" s="88" t="n">
+      <c r="J67" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K67" s="2" t="n"/>
@@ -4362,7 +4380,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J68" s="88" t="n">
+      <c r="J68" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K68" s="2" t="n"/>
@@ -4414,7 +4432,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J69" s="88" t="n">
+      <c r="J69" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K69" s="2" t="n"/>
@@ -4466,7 +4484,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="J70" s="88" t="n">
+      <c r="J70" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K70" s="2" t="n"/>
@@ -4518,7 +4536,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J71" s="86" t="n">
+      <c r="J71" s="93" t="n">
         <v>0</v>
       </c>
       <c r="K71" s="2" t="n"/>
@@ -4570,7 +4588,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J72" s="88" t="n">
+      <c r="J72" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K72" s="2" t="n"/>
@@ -4622,7 +4640,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J73" s="88" t="n">
+      <c r="J73" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K73" s="2" t="n"/>
@@ -4674,7 +4692,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J74" s="88" t="n">
+      <c r="J74" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K74" s="2" t="n"/>
@@ -4726,7 +4744,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J75" s="88" t="n">
+      <c r="J75" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K75" s="2" t="n"/>
@@ -4778,7 +4796,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J76" s="88" t="n">
+      <c r="J76" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K76" s="2" t="n"/>
@@ -4830,7 +4848,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J77" s="86" t="n">
+      <c r="J77" s="93" t="n">
         <v>0</v>
       </c>
       <c r="K77" s="2" t="n"/>
@@ -4882,7 +4900,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J78" s="86" t="n">
+      <c r="J78" s="93" t="n">
         <v>0</v>
       </c>
       <c r="K78" s="2" t="n"/>
@@ -4934,7 +4952,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J79" s="88" t="n">
+      <c r="J79" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K79" s="2" t="n"/>
@@ -4986,7 +5004,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J80" s="86" t="n">
+      <c r="J80" s="93" t="n">
         <v>0</v>
       </c>
       <c r="K80" s="2" t="n"/>
@@ -5038,7 +5056,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J81" s="88" t="n">
+      <c r="J81" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K81" s="2" t="n"/>
@@ -5090,7 +5108,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J82" s="88" t="n">
+      <c r="J82" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K82" s="2" t="n"/>
@@ -5142,7 +5160,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J83" s="86" t="n">
+      <c r="J83" s="93" t="n">
         <v>0</v>
       </c>
       <c r="K83" s="2" t="n"/>
@@ -5194,7 +5212,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J84" s="86" t="n">
+      <c r="J84" s="93" t="n">
         <v>0</v>
       </c>
       <c r="K84" s="2" t="n"/>
@@ -5246,7 +5264,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J85" s="88" t="n">
+      <c r="J85" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K85" s="2" t="n"/>
@@ -5298,7 +5316,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J86" s="88" t="n">
+      <c r="J86" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K86" s="2" t="n"/>
@@ -5350,7 +5368,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J87" s="88" t="n">
+      <c r="J87" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K87" s="2" t="n"/>
@@ -5402,7 +5420,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J88" s="88" t="n">
+      <c r="J88" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K88" s="2" t="n"/>
@@ -5454,7 +5472,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J89" s="88" t="n">
+      <c r="J89" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K89" s="2" t="n"/>
@@ -5506,7 +5524,7 @@
           <t>1 - 6</t>
         </is>
       </c>
-      <c r="J90" s="88" t="n">
+      <c r="J90" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K90" s="2" t="n"/>
@@ -5558,7 +5576,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J91" s="88" t="n">
+      <c r="J91" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K91" s="2" t="n"/>
@@ -5610,7 +5628,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J92" s="88" t="n">
+      <c r="J92" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K92" s="2" t="n"/>
@@ -5662,7 +5680,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J93" s="88" t="n">
+      <c r="J93" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K93" s="2" t="n"/>
@@ -5714,7 +5732,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J94" s="88" t="n">
+      <c r="J94" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K94" s="2" t="n"/>
@@ -5766,7 +5784,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J95" s="88" t="n">
+      <c r="J95" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K95" s="2" t="n"/>
@@ -5818,7 +5836,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J96" s="88" t="n">
+      <c r="J96" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K96" s="2" t="n"/>
@@ -5870,7 +5888,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J97" s="88" t="n">
+      <c r="J97" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K97" s="2" t="n"/>
@@ -5922,7 +5940,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J98" s="88" t="n">
+      <c r="J98" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K98" s="2" t="n"/>
@@ -5974,7 +5992,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J99" s="86" t="n">
+      <c r="J99" s="93" t="n">
         <v>0</v>
       </c>
       <c r="K99" s="2" t="n"/>
@@ -6026,7 +6044,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J100" s="88" t="n">
+      <c r="J100" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K100" s="2" t="n"/>
@@ -6078,7 +6096,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J101" s="88" t="n">
+      <c r="J101" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K101" s="2" t="n"/>
@@ -6130,7 +6148,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J102" s="88" t="n">
+      <c r="J102" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K102" s="2" t="n"/>
@@ -6182,7 +6200,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J103" s="86" t="n">
+      <c r="J103" s="93" t="n">
         <v>0</v>
       </c>
       <c r="K103" s="2" t="n"/>
@@ -6234,7 +6252,7 @@
           <t>5 - 2</t>
         </is>
       </c>
-      <c r="J104" s="88" t="n">
+      <c r="J104" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K104" s="2" t="n"/>
@@ -6286,7 +6304,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J105" s="88" t="n">
+      <c r="J105" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K105" s="2" t="n"/>
@@ -6338,7 +6356,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J106" s="88" t="n">
+      <c r="J106" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K106" s="2" t="n"/>
@@ -6390,7 +6408,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J107" s="88" t="n">
+      <c r="J107" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K107" s="2" t="n"/>
@@ -6442,7 +6460,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J108" s="88" t="n">
+      <c r="J108" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K108" s="2" t="n"/>
@@ -6494,7 +6512,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J109" s="86" t="n">
+      <c r="J109" s="93" t="n">
         <v>0</v>
       </c>
       <c r="K109" s="2" t="n"/>
@@ -6546,7 +6564,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J110" s="88" t="n">
+      <c r="J110" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K110" s="2" t="n"/>
@@ -6598,7 +6616,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J111" s="88" t="n">
+      <c r="J111" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K111" s="2" t="n"/>
@@ -6650,7 +6668,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J112" s="88" t="n">
+      <c r="J112" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K112" s="2" t="n"/>
@@ -6702,7 +6720,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J113" s="88" t="n">
+      <c r="J113" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K113" s="2" t="n"/>
@@ -6754,7 +6772,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J114" s="88" t="n">
+      <c r="J114" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K114" s="2" t="n"/>
@@ -6806,7 +6824,7 @@
           <t>4 - 3</t>
         </is>
       </c>
-      <c r="J115" s="88" t="n">
+      <c r="J115" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K115" s="2" t="n"/>
@@ -6858,7 +6876,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J116" s="88" t="n">
+      <c r="J116" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K116" s="2" t="n"/>
@@ -6910,7 +6928,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J117" s="88" t="n">
+      <c r="J117" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K117" s="2" t="n"/>
@@ -6962,7 +6980,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J118" s="88" t="n">
+      <c r="J118" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K118" s="2" t="n"/>
@@ -7014,7 +7032,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J119" s="86" t="n">
+      <c r="J119" s="93" t="n">
         <v>0</v>
       </c>
       <c r="K119" s="2" t="n"/>
@@ -7066,7 +7084,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J120" s="88" t="n">
+      <c r="J120" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K120" s="2" t="n"/>
@@ -7118,7 +7136,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J121" s="88" t="n">
+      <c r="J121" s="95" t="n">
         <v>1</v>
       </c>
       <c r="K121" s="2" t="n"/>
@@ -7131,6 +7149,422 @@
       <c r="R121" s="2" t="n"/>
       <c r="S121" s="2" t="n"/>
       <c r="T121" s="2" t="n"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>20.04.2025</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>Saint Etienne</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>Olympique Lyon</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F122" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G122" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="H122" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I122" s="2" t="inlineStr">
+        <is>
+          <t>2 - 1</t>
+        </is>
+      </c>
+      <c r="J122" s="93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" s="2" t="n"/>
+      <c r="L122" s="2" t="n"/>
+      <c r="M122" s="2" t="n"/>
+      <c r="N122" s="2" t="n"/>
+      <c r="O122" s="2" t="n"/>
+      <c r="P122" s="2" t="n"/>
+      <c r="Q122" s="2" t="n"/>
+      <c r="R122" s="2" t="n"/>
+      <c r="S122" s="2" t="n"/>
+      <c r="T122" s="2" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>22.04.2025</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F123" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G123" s="2" t="n">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="H123" s="2" t="n">
+        <v>6.000000000000007</v>
+      </c>
+      <c r="I123" s="2" t="inlineStr">
+        <is>
+          <t>1 - 1</t>
+        </is>
+      </c>
+      <c r="J123" s="95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" s="2" t="n"/>
+      <c r="L123" s="2" t="n"/>
+      <c r="M123" s="2" t="n"/>
+      <c r="N123" s="2" t="n"/>
+      <c r="O123" s="2" t="n"/>
+      <c r="P123" s="2" t="n"/>
+      <c r="Q123" s="2" t="n"/>
+      <c r="R123" s="2" t="n"/>
+      <c r="S123" s="2" t="n"/>
+      <c r="T123" s="2" t="n"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>22.04.2025</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F124" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G124" s="2" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="H124" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I124" s="2" t="inlineStr">
+        <is>
+          <t>1 - 0</t>
+        </is>
+      </c>
+      <c r="J124" s="95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" s="2" t="n"/>
+      <c r="L124" s="2" t="n"/>
+      <c r="M124" s="2" t="n"/>
+      <c r="N124" s="2" t="n"/>
+      <c r="O124" s="2" t="n"/>
+      <c r="P124" s="2" t="n"/>
+      <c r="Q124" s="2" t="n"/>
+      <c r="R124" s="2" t="n"/>
+      <c r="S124" s="2" t="n"/>
+      <c r="T124" s="2" t="n"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>23.04.2025</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F125" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G125" s="2" t="n">
+        <v>54.50000000000001</v>
+      </c>
+      <c r="H125" s="2" t="n">
+        <v>4.500000000000007</v>
+      </c>
+      <c r="I125" s="2" t="inlineStr">
+        <is>
+          <t>2 - 2</t>
+        </is>
+      </c>
+      <c r="J125" s="95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" s="2" t="n"/>
+      <c r="L125" s="2" t="n"/>
+      <c r="M125" s="2" t="n"/>
+      <c r="N125" s="2" t="n"/>
+      <c r="O125" s="2" t="n"/>
+      <c r="P125" s="2" t="n"/>
+      <c r="Q125" s="2" t="n"/>
+      <c r="R125" s="2" t="n"/>
+      <c r="S125" s="2" t="n"/>
+      <c r="T125" s="2" t="n"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>10.05.2025</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F126" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G126" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="H126" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="I126" s="2" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="J126" s="93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" s="2" t="n"/>
+      <c r="L126" s="2" t="n"/>
+      <c r="M126" s="2" t="n"/>
+      <c r="N126" s="2" t="n"/>
+      <c r="O126" s="2" t="n"/>
+      <c r="P126" s="2" t="n"/>
+      <c r="Q126" s="2" t="n"/>
+      <c r="R126" s="2" t="n"/>
+      <c r="S126" s="2" t="n"/>
+      <c r="T126" s="2" t="n"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>10.05.2025</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="inlineStr">
+        <is>
+          <t>Olympique Marseille</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="F127" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G127" s="2" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="H127" s="2" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="I127" s="2" t="inlineStr">
+        <is>
+          <t>1 - 3</t>
+        </is>
+      </c>
+      <c r="J127" s="95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" s="2" t="n"/>
+      <c r="L127" s="2" t="n"/>
+      <c r="M127" s="2" t="n"/>
+      <c r="N127" s="2" t="n"/>
+      <c r="O127" s="2" t="n"/>
+      <c r="P127" s="2" t="n"/>
+      <c r="Q127" s="2" t="n"/>
+      <c r="R127" s="2" t="n"/>
+      <c r="S127" s="2" t="n"/>
+      <c r="T127" s="2" t="n"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>10.05.2025</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F128" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G128" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="H128" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="I128" s="2" t="inlineStr">
+        <is>
+          <t>1 - 4</t>
+        </is>
+      </c>
+      <c r="J128" s="95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" s="2" t="n"/>
+      <c r="L128" s="2" t="n"/>
+      <c r="M128" s="2" t="n"/>
+      <c r="N128" s="2" t="n"/>
+      <c r="O128" s="2" t="n"/>
+      <c r="P128" s="2" t="n"/>
+      <c r="Q128" s="2" t="n"/>
+      <c r="R128" s="2" t="n"/>
+      <c r="S128" s="2" t="n"/>
+      <c r="T128" s="2" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>10.05.2025</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F129" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G129" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="H129" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="I129" s="2" t="inlineStr">
+        <is>
+          <t>4 - 0</t>
+        </is>
+      </c>
+      <c r="J129" s="95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" s="2" t="n"/>
+      <c r="L129" s="2" t="n"/>
+      <c r="M129" s="2" t="n"/>
+      <c r="N129" s="2" t="n"/>
+      <c r="O129" s="2" t="n"/>
+      <c r="P129" s="2" t="n"/>
+      <c r="Q129" s="2" t="n"/>
+      <c r="R129" s="2" t="n"/>
+      <c r="S129" s="2" t="n"/>
+      <c r="T129" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7186,14 +7620,14 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -7240,14 +7674,14 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>50.0%</t>
         </is>
       </c>
     </row>
@@ -7276,14 +7710,14 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>50.0%</t>
         </is>
       </c>
     </row>
@@ -7294,14 +7728,14 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>62.5%</t>
         </is>
       </c>
     </row>
@@ -7582,14 +8016,14 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -7600,14 +8034,14 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -7654,14 +8088,14 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>88.89%</t>
+          <t>90.91%</t>
         </is>
       </c>
     </row>

--- a/app/placed_bets.xlsx
+++ b/app/placed_bets.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -392,6 +392,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -762,7 +768,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T129"/>
+  <dimension ref="A1:T134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -844,7 +850,7 @@
         </is>
       </c>
       <c r="K1" s="2" t="n"/>
-      <c r="L1" s="95" t="inlineStr">
+      <c r="L1" s="96" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
@@ -928,38 +934,38 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J2" s="95" t="n">
+      <c r="J2" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>75</v>
+        <v>75.19</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>9420</v>
+        <v>9670</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>8713.5</v>
+        <v>8950.5</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>-706.5</v>
+        <v>-719.5</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>-0.71%</t>
+          <t>-0.72%</t>
         </is>
       </c>
       <c r="S2" s="2" t="n">
         <v>1.3</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>293.5</v>
+        <v>280.5</v>
       </c>
     </row>
     <row r="3">
@@ -1052,7 +1058,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J4" s="95" t="n">
+      <c r="J4" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="n"/>
@@ -1104,7 +1110,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J5" s="95" t="n">
+      <c r="J5" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="n"/>
@@ -1156,7 +1162,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J6" s="95" t="n">
+      <c r="J6" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="n"/>
@@ -1260,7 +1266,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J8" s="95" t="n">
+      <c r="J8" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="n"/>
@@ -1364,7 +1370,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J10" s="95" t="n">
+      <c r="J10" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="n"/>
@@ -1416,7 +1422,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J11" s="95" t="n">
+      <c r="J11" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="n"/>
@@ -1520,7 +1526,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J13" s="95" t="n">
+      <c r="J13" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="n"/>
@@ -1572,7 +1578,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J14" s="95" t="n">
+      <c r="J14" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="n"/>
@@ -1624,7 +1630,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J15" s="95" t="n">
+      <c r="J15" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="n"/>
@@ -1676,7 +1682,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J16" s="95" t="n">
+      <c r="J16" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="n"/>
@@ -1780,7 +1786,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J18" s="95" t="n">
+      <c r="J18" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="n"/>
@@ -1884,7 +1890,7 @@
           <t>3 - 3</t>
         </is>
       </c>
-      <c r="J20" s="95" t="n">
+      <c r="J20" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="n"/>
@@ -1988,7 +1994,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J22" s="95" t="n">
+      <c r="J22" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="n"/>
@@ -2092,7 +2098,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J24" s="95" t="n">
+      <c r="J24" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K24" s="2" t="n"/>
@@ -2144,7 +2150,7 @@
           <t>0 - 6</t>
         </is>
       </c>
-      <c r="J25" s="95" t="n">
+      <c r="J25" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K25" s="2" t="n"/>
@@ -2196,7 +2202,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J26" s="95" t="n">
+      <c r="J26" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K26" s="2" t="n"/>
@@ -2248,7 +2254,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J27" s="95" t="n">
+      <c r="J27" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="n"/>
@@ -2300,7 +2306,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J28" s="95" t="n">
+      <c r="J28" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K28" s="2" t="n"/>
@@ -2404,7 +2410,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J30" s="95" t="n">
+      <c r="J30" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K30" s="2" t="n"/>
@@ -2456,7 +2462,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J31" s="95" t="n">
+      <c r="J31" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="n"/>
@@ -2508,7 +2514,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J32" s="95" t="n">
+      <c r="J32" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K32" s="2" t="n"/>
@@ -2560,7 +2566,7 @@
           <t>2 - 5</t>
         </is>
       </c>
-      <c r="J33" s="95" t="n">
+      <c r="J33" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K33" s="2" t="n"/>
@@ -2664,7 +2670,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J35" s="95" t="n">
+      <c r="J35" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K35" s="2" t="n"/>
@@ -2716,7 +2722,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J36" s="95" t="n">
+      <c r="J36" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K36" s="2" t="n"/>
@@ -2768,7 +2774,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J37" s="95" t="n">
+      <c r="J37" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K37" s="2" t="n"/>
@@ -2820,7 +2826,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J38" s="95" t="n">
+      <c r="J38" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="2" t="n"/>
@@ -2872,7 +2878,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J39" s="95" t="n">
+      <c r="J39" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K39" s="2" t="n"/>
@@ -2924,7 +2930,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J40" s="95" t="n">
+      <c r="J40" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K40" s="2" t="n"/>
@@ -2976,7 +2982,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J41" s="95" t="n">
+      <c r="J41" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K41" s="2" t="n"/>
@@ -3028,7 +3034,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J42" s="95" t="n">
+      <c r="J42" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K42" s="2" t="n"/>
@@ -3132,7 +3138,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J44" s="95" t="n">
+      <c r="J44" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K44" s="2" t="n"/>
@@ -3236,7 +3242,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J46" s="95" t="n">
+      <c r="J46" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K46" s="2" t="n"/>
@@ -3288,7 +3294,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J47" s="95" t="n">
+      <c r="J47" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K47" s="2" t="n"/>
@@ -3392,7 +3398,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J49" s="95" t="n">
+      <c r="J49" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K49" s="2" t="n"/>
@@ -3444,7 +3450,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J50" s="95" t="n">
+      <c r="J50" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K50" s="2" t="n"/>
@@ -3496,7 +3502,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J51" s="95" t="n">
+      <c r="J51" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K51" s="2" t="n"/>
@@ -3600,7 +3606,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J53" s="95" t="n">
+      <c r="J53" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K53" s="2" t="n"/>
@@ -3756,7 +3762,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J56" s="95" t="n">
+      <c r="J56" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K56" s="2" t="n"/>
@@ -3808,7 +3814,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J57" s="95" t="n">
+      <c r="J57" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K57" s="2" t="n"/>
@@ -3860,7 +3866,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J58" s="95" t="n">
+      <c r="J58" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K58" s="2" t="n"/>
@@ -4068,7 +4074,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J62" s="95" t="n">
+      <c r="J62" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K62" s="2" t="n"/>
@@ -4120,7 +4126,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J63" s="95" t="n">
+      <c r="J63" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K63" s="2" t="n"/>
@@ -4172,7 +4178,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J64" s="95" t="n">
+      <c r="J64" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K64" s="2" t="n"/>
@@ -4224,7 +4230,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J65" s="95" t="n">
+      <c r="J65" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K65" s="2" t="n"/>
@@ -4328,7 +4334,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J67" s="95" t="n">
+      <c r="J67" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K67" s="2" t="n"/>
@@ -4380,7 +4386,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J68" s="95" t="n">
+      <c r="J68" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K68" s="2" t="n"/>
@@ -4432,7 +4438,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J69" s="95" t="n">
+      <c r="J69" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K69" s="2" t="n"/>
@@ -4484,7 +4490,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="J70" s="95" t="n">
+      <c r="J70" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K70" s="2" t="n"/>
@@ -4588,7 +4594,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J72" s="95" t="n">
+      <c r="J72" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K72" s="2" t="n"/>
@@ -4640,7 +4646,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J73" s="95" t="n">
+      <c r="J73" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K73" s="2" t="n"/>
@@ -4692,7 +4698,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J74" s="95" t="n">
+      <c r="J74" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K74" s="2" t="n"/>
@@ -4744,7 +4750,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J75" s="95" t="n">
+      <c r="J75" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K75" s="2" t="n"/>
@@ -4796,7 +4802,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J76" s="95" t="n">
+      <c r="J76" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K76" s="2" t="n"/>
@@ -4952,7 +4958,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J79" s="95" t="n">
+      <c r="J79" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K79" s="2" t="n"/>
@@ -5056,7 +5062,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J81" s="95" t="n">
+      <c r="J81" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K81" s="2" t="n"/>
@@ -5108,7 +5114,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J82" s="95" t="n">
+      <c r="J82" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K82" s="2" t="n"/>
@@ -5264,7 +5270,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J85" s="95" t="n">
+      <c r="J85" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K85" s="2" t="n"/>
@@ -5316,7 +5322,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J86" s="95" t="n">
+      <c r="J86" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K86" s="2" t="n"/>
@@ -5368,7 +5374,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J87" s="95" t="n">
+      <c r="J87" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K87" s="2" t="n"/>
@@ -5420,7 +5426,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J88" s="95" t="n">
+      <c r="J88" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K88" s="2" t="n"/>
@@ -5472,7 +5478,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J89" s="95" t="n">
+      <c r="J89" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K89" s="2" t="n"/>
@@ -5524,7 +5530,7 @@
           <t>1 - 6</t>
         </is>
       </c>
-      <c r="J90" s="95" t="n">
+      <c r="J90" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K90" s="2" t="n"/>
@@ -5576,7 +5582,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J91" s="95" t="n">
+      <c r="J91" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K91" s="2" t="n"/>
@@ -5628,7 +5634,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J92" s="95" t="n">
+      <c r="J92" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K92" s="2" t="n"/>
@@ -5680,7 +5686,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J93" s="95" t="n">
+      <c r="J93" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K93" s="2" t="n"/>
@@ -5732,7 +5738,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J94" s="95" t="n">
+      <c r="J94" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K94" s="2" t="n"/>
@@ -5784,7 +5790,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J95" s="95" t="n">
+      <c r="J95" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K95" s="2" t="n"/>
@@ -5836,7 +5842,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J96" s="95" t="n">
+      <c r="J96" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K96" s="2" t="n"/>
@@ -5888,7 +5894,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J97" s="95" t="n">
+      <c r="J97" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K97" s="2" t="n"/>
@@ -5940,7 +5946,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J98" s="95" t="n">
+      <c r="J98" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K98" s="2" t="n"/>
@@ -6044,7 +6050,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J100" s="95" t="n">
+      <c r="J100" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K100" s="2" t="n"/>
@@ -6096,7 +6102,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J101" s="95" t="n">
+      <c r="J101" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K101" s="2" t="n"/>
@@ -6148,7 +6154,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J102" s="95" t="n">
+      <c r="J102" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K102" s="2" t="n"/>
@@ -6252,7 +6258,7 @@
           <t>5 - 2</t>
         </is>
       </c>
-      <c r="J104" s="95" t="n">
+      <c r="J104" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K104" s="2" t="n"/>
@@ -6304,7 +6310,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J105" s="95" t="n">
+      <c r="J105" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K105" s="2" t="n"/>
@@ -6356,7 +6362,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J106" s="95" t="n">
+      <c r="J106" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K106" s="2" t="n"/>
@@ -6408,7 +6414,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J107" s="95" t="n">
+      <c r="J107" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K107" s="2" t="n"/>
@@ -6460,7 +6466,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J108" s="95" t="n">
+      <c r="J108" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K108" s="2" t="n"/>
@@ -6564,7 +6570,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J110" s="95" t="n">
+      <c r="J110" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K110" s="2" t="n"/>
@@ -6616,7 +6622,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J111" s="95" t="n">
+      <c r="J111" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K111" s="2" t="n"/>
@@ -6668,7 +6674,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J112" s="95" t="n">
+      <c r="J112" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K112" s="2" t="n"/>
@@ -6720,7 +6726,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J113" s="95" t="n">
+      <c r="J113" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K113" s="2" t="n"/>
@@ -6772,7 +6778,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J114" s="95" t="n">
+      <c r="J114" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K114" s="2" t="n"/>
@@ -6824,7 +6830,7 @@
           <t>4 - 3</t>
         </is>
       </c>
-      <c r="J115" s="95" t="n">
+      <c r="J115" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K115" s="2" t="n"/>
@@ -6876,7 +6882,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J116" s="95" t="n">
+      <c r="J116" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K116" s="2" t="n"/>
@@ -6928,7 +6934,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J117" s="95" t="n">
+      <c r="J117" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K117" s="2" t="n"/>
@@ -6980,7 +6986,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J118" s="95" t="n">
+      <c r="J118" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K118" s="2" t="n"/>
@@ -7084,7 +7090,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J120" s="95" t="n">
+      <c r="J120" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K120" s="2" t="n"/>
@@ -7136,7 +7142,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J121" s="95" t="n">
+      <c r="J121" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K121" s="2" t="n"/>
@@ -7240,7 +7246,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J123" s="95" t="n">
+      <c r="J123" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K123" s="2" t="n"/>
@@ -7292,7 +7298,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J124" s="95" t="n">
+      <c r="J124" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K124" s="2" t="n"/>
@@ -7344,7 +7350,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J125" s="95" t="n">
+      <c r="J125" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K125" s="2" t="n"/>
@@ -7448,7 +7454,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J127" s="95" t="n">
+      <c r="J127" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K127" s="2" t="n"/>
@@ -7500,7 +7506,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J128" s="95" t="n">
+      <c r="J128" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K128" s="2" t="n"/>
@@ -7552,7 +7558,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J129" s="95" t="n">
+      <c r="J129" s="96" t="n">
         <v>1</v>
       </c>
       <c r="K129" s="2" t="n"/>
@@ -7565,6 +7571,266 @@
       <c r="R129" s="2" t="n"/>
       <c r="S129" s="2" t="n"/>
       <c r="T129" s="2" t="n"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>15.05.2025</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F130" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G130" s="2" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="H130" s="2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="I130" s="2" t="inlineStr">
+        <is>
+          <t>2 - 0</t>
+        </is>
+      </c>
+      <c r="J130" s="93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" s="2" t="n"/>
+      <c r="L130" s="2" t="n"/>
+      <c r="M130" s="2" t="n"/>
+      <c r="N130" s="2" t="n"/>
+      <c r="O130" s="2" t="n"/>
+      <c r="P130" s="2" t="n"/>
+      <c r="Q130" s="2" t="n"/>
+      <c r="R130" s="2" t="n"/>
+      <c r="S130" s="2" t="n"/>
+      <c r="T130" s="2" t="n"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>15.05.2025</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F131" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G131" s="2" t="n">
+        <v>55.50000000000001</v>
+      </c>
+      <c r="H131" s="2" t="n">
+        <v>5.500000000000007</v>
+      </c>
+      <c r="I131" s="2" t="inlineStr">
+        <is>
+          <t>0 - 2</t>
+        </is>
+      </c>
+      <c r="J131" s="96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" s="2" t="n"/>
+      <c r="L131" s="2" t="n"/>
+      <c r="M131" s="2" t="n"/>
+      <c r="N131" s="2" t="n"/>
+      <c r="O131" s="2" t="n"/>
+      <c r="P131" s="2" t="n"/>
+      <c r="Q131" s="2" t="n"/>
+      <c r="R131" s="2" t="n"/>
+      <c r="S131" s="2" t="n"/>
+      <c r="T131" s="2" t="n"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>17.05.2025</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>Bayern Munchen</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F132" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G132" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="H132" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="I132" s="2" t="inlineStr">
+        <is>
+          <t>0 - 4</t>
+        </is>
+      </c>
+      <c r="J132" s="96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" s="2" t="n"/>
+      <c r="L132" s="2" t="n"/>
+      <c r="M132" s="2" t="n"/>
+      <c r="N132" s="2" t="n"/>
+      <c r="O132" s="2" t="n"/>
+      <c r="P132" s="2" t="n"/>
+      <c r="Q132" s="2" t="n"/>
+      <c r="R132" s="2" t="n"/>
+      <c r="S132" s="2" t="n"/>
+      <c r="T132" s="2" t="n"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>23.05.2025</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F133" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G133" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="H133" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I133" s="2" t="inlineStr">
+        <is>
+          <t>2 - 0</t>
+        </is>
+      </c>
+      <c r="J133" s="96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K133" s="2" t="n"/>
+      <c r="L133" s="2" t="n"/>
+      <c r="M133" s="2" t="n"/>
+      <c r="N133" s="2" t="n"/>
+      <c r="O133" s="2" t="n"/>
+      <c r="P133" s="2" t="n"/>
+      <c r="Q133" s="2" t="n"/>
+      <c r="R133" s="2" t="n"/>
+      <c r="S133" s="2" t="n"/>
+      <c r="T133" s="2" t="n"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>23.05.2025</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F134" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G134" s="2" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="H134" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I134" s="2" t="inlineStr">
+        <is>
+          <t>0 - 2</t>
+        </is>
+      </c>
+      <c r="J134" s="96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K134" s="2" t="n"/>
+      <c r="L134" s="2" t="n"/>
+      <c r="M134" s="2" t="n"/>
+      <c r="N134" s="2" t="n"/>
+      <c r="O134" s="2" t="n"/>
+      <c r="P134" s="2" t="n"/>
+      <c r="Q134" s="2" t="n"/>
+      <c r="R134" s="2" t="n"/>
+      <c r="S134" s="2" t="n"/>
+      <c r="T134" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7710,14 +7976,14 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>44.44%</t>
         </is>
       </c>
     </row>
@@ -7728,14 +7994,14 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -7782,14 +8048,14 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>5</v>
-      </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>85.71%</t>
         </is>
       </c>
     </row>
@@ -7908,10 +8174,10 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
@@ -7962,14 +8228,14 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>

--- a/app/placed_bets.xlsx
+++ b/app/placed_bets.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -401,6 +401,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -768,7 +774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T134"/>
+  <dimension ref="A1:T143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -850,12 +856,12 @@
         </is>
       </c>
       <c r="K1" s="2" t="n"/>
-      <c r="L1" s="96" t="inlineStr">
+      <c r="L1" s="98" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="M1" s="93" t="inlineStr">
+      <c r="M1" s="97" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
@@ -934,38 +940,38 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J2" s="96" t="n">
+      <c r="J2" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>75.19</v>
+        <v>76.06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>9670</v>
+        <v>10120</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>8950.5</v>
+        <v>9387</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>-719.5</v>
+        <v>-733</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>-0.72%</t>
+          <t>-0.73%</t>
         </is>
       </c>
       <c r="S2" s="2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>280.5</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
@@ -1006,7 +1012,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J3" s="93" t="n">
+      <c r="J3" s="97" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="2" t="n"/>
@@ -1058,7 +1064,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J4" s="96" t="n">
+      <c r="J4" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="n"/>
@@ -1110,7 +1116,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J5" s="96" t="n">
+      <c r="J5" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="n"/>
@@ -1162,7 +1168,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J6" s="96" t="n">
+      <c r="J6" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="n"/>
@@ -1214,7 +1220,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J7" s="93" t="n">
+      <c r="J7" s="97" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="n"/>
@@ -1266,7 +1272,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J8" s="96" t="n">
+      <c r="J8" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="n"/>
@@ -1318,7 +1324,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J9" s="93" t="n">
+      <c r="J9" s="97" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="2" t="n"/>
@@ -1370,7 +1376,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J10" s="96" t="n">
+      <c r="J10" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="n"/>
@@ -1422,7 +1428,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J11" s="96" t="n">
+      <c r="J11" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="n"/>
@@ -1474,7 +1480,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J12" s="93" t="n">
+      <c r="J12" s="97" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="n"/>
@@ -1526,7 +1532,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J13" s="96" t="n">
+      <c r="J13" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="n"/>
@@ -1578,7 +1584,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J14" s="96" t="n">
+      <c r="J14" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="n"/>
@@ -1630,7 +1636,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J15" s="96" t="n">
+      <c r="J15" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="n"/>
@@ -1682,7 +1688,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J16" s="96" t="n">
+      <c r="J16" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="n"/>
@@ -1734,7 +1740,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J17" s="93" t="n">
+      <c r="J17" s="97" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="2" t="n"/>
@@ -1786,7 +1792,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J18" s="96" t="n">
+      <c r="J18" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="n"/>
@@ -1838,7 +1844,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J19" s="93" t="n">
+      <c r="J19" s="97" t="n">
         <v>0</v>
       </c>
       <c r="K19" s="2" t="n"/>
@@ -1890,7 +1896,7 @@
           <t>3 - 3</t>
         </is>
       </c>
-      <c r="J20" s="96" t="n">
+      <c r="J20" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="n"/>
@@ -1942,7 +1948,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J21" s="93" t="n">
+      <c r="J21" s="97" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="2" t="n"/>
@@ -1994,7 +2000,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J22" s="96" t="n">
+      <c r="J22" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="n"/>
@@ -2046,7 +2052,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J23" s="93" t="n">
+      <c r="J23" s="97" t="n">
         <v>0</v>
       </c>
       <c r="K23" s="2" t="n"/>
@@ -2098,7 +2104,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J24" s="96" t="n">
+      <c r="J24" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K24" s="2" t="n"/>
@@ -2150,7 +2156,7 @@
           <t>0 - 6</t>
         </is>
       </c>
-      <c r="J25" s="96" t="n">
+      <c r="J25" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K25" s="2" t="n"/>
@@ -2202,7 +2208,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J26" s="96" t="n">
+      <c r="J26" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K26" s="2" t="n"/>
@@ -2254,7 +2260,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J27" s="96" t="n">
+      <c r="J27" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="n"/>
@@ -2306,7 +2312,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J28" s="96" t="n">
+      <c r="J28" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K28" s="2" t="n"/>
@@ -2358,7 +2364,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J29" s="93" t="n">
+      <c r="J29" s="97" t="n">
         <v>0</v>
       </c>
       <c r="K29" s="2" t="n"/>
@@ -2410,7 +2416,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J30" s="96" t="n">
+      <c r="J30" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K30" s="2" t="n"/>
@@ -2462,7 +2468,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J31" s="96" t="n">
+      <c r="J31" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="n"/>
@@ -2514,7 +2520,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J32" s="96" t="n">
+      <c r="J32" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K32" s="2" t="n"/>
@@ -2566,7 +2572,7 @@
           <t>2 - 5</t>
         </is>
       </c>
-      <c r="J33" s="96" t="n">
+      <c r="J33" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K33" s="2" t="n"/>
@@ -2618,7 +2624,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J34" s="93" t="n">
+      <c r="J34" s="97" t="n">
         <v>0</v>
       </c>
       <c r="K34" s="2" t="n"/>
@@ -2670,7 +2676,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J35" s="96" t="n">
+      <c r="J35" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K35" s="2" t="n"/>
@@ -2722,7 +2728,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J36" s="96" t="n">
+      <c r="J36" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K36" s="2" t="n"/>
@@ -2774,7 +2780,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J37" s="96" t="n">
+      <c r="J37" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K37" s="2" t="n"/>
@@ -2826,7 +2832,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J38" s="96" t="n">
+      <c r="J38" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="2" t="n"/>
@@ -2878,7 +2884,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J39" s="96" t="n">
+      <c r="J39" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K39" s="2" t="n"/>
@@ -2930,7 +2936,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J40" s="96" t="n">
+      <c r="J40" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K40" s="2" t="n"/>
@@ -2982,7 +2988,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J41" s="96" t="n">
+      <c r="J41" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K41" s="2" t="n"/>
@@ -3034,7 +3040,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J42" s="96" t="n">
+      <c r="J42" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K42" s="2" t="n"/>
@@ -3086,7 +3092,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J43" s="93" t="n">
+      <c r="J43" s="97" t="n">
         <v>0</v>
       </c>
       <c r="K43" s="2" t="n"/>
@@ -3138,7 +3144,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J44" s="96" t="n">
+      <c r="J44" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K44" s="2" t="n"/>
@@ -3190,7 +3196,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J45" s="93" t="n">
+      <c r="J45" s="97" t="n">
         <v>0</v>
       </c>
       <c r="K45" s="2" t="n"/>
@@ -3242,7 +3248,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J46" s="96" t="n">
+      <c r="J46" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K46" s="2" t="n"/>
@@ -3294,7 +3300,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J47" s="96" t="n">
+      <c r="J47" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K47" s="2" t="n"/>
@@ -3346,7 +3352,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J48" s="93" t="n">
+      <c r="J48" s="97" t="n">
         <v>0</v>
       </c>
       <c r="K48" s="2" t="n"/>
@@ -3398,7 +3404,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J49" s="96" t="n">
+      <c r="J49" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K49" s="2" t="n"/>
@@ -3450,7 +3456,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J50" s="96" t="n">
+      <c r="J50" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K50" s="2" t="n"/>
@@ -3502,7 +3508,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J51" s="96" t="n">
+      <c r="J51" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K51" s="2" t="n"/>
@@ -3554,7 +3560,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J52" s="93" t="n">
+      <c r="J52" s="97" t="n">
         <v>0</v>
       </c>
       <c r="K52" s="2" t="n"/>
@@ -3606,7 +3612,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J53" s="96" t="n">
+      <c r="J53" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K53" s="2" t="n"/>
@@ -3658,7 +3664,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J54" s="93" t="n">
+      <c r="J54" s="97" t="n">
         <v>0</v>
       </c>
       <c r="K54" s="2" t="n"/>
@@ -3710,7 +3716,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J55" s="93" t="n">
+      <c r="J55" s="97" t="n">
         <v>0</v>
       </c>
       <c r="K55" s="2" t="n"/>
@@ -3762,7 +3768,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J56" s="96" t="n">
+      <c r="J56" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K56" s="2" t="n"/>
@@ -3814,7 +3820,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J57" s="96" t="n">
+      <c r="J57" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K57" s="2" t="n"/>
@@ -3866,7 +3872,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J58" s="96" t="n">
+      <c r="J58" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K58" s="2" t="n"/>
@@ -3918,7 +3924,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J59" s="93" t="n">
+      <c r="J59" s="97" t="n">
         <v>0</v>
       </c>
       <c r="K59" s="2" t="n"/>
@@ -3970,7 +3976,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J60" s="93" t="n">
+      <c r="J60" s="97" t="n">
         <v>0</v>
       </c>
       <c r="K60" s="2" t="n"/>
@@ -4022,7 +4028,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J61" s="93" t="n">
+      <c r="J61" s="97" t="n">
         <v>0</v>
       </c>
       <c r="K61" s="2" t="n"/>
@@ -4074,7 +4080,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J62" s="96" t="n">
+      <c r="J62" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K62" s="2" t="n"/>
@@ -4126,7 +4132,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J63" s="96" t="n">
+      <c r="J63" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K63" s="2" t="n"/>
@@ -4178,7 +4184,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J64" s="96" t="n">
+      <c r="J64" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K64" s="2" t="n"/>
@@ -4230,7 +4236,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J65" s="96" t="n">
+      <c r="J65" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K65" s="2" t="n"/>
@@ -4282,7 +4288,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J66" s="93" t="n">
+      <c r="J66" s="97" t="n">
         <v>0</v>
       </c>
       <c r="K66" s="2" t="n"/>
@@ -4334,7 +4340,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J67" s="96" t="n">
+      <c r="J67" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K67" s="2" t="n"/>
@@ -4386,7 +4392,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J68" s="96" t="n">
+      <c r="J68" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K68" s="2" t="n"/>
@@ -4438,7 +4444,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J69" s="96" t="n">
+      <c r="J69" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K69" s="2" t="n"/>
@@ -4490,7 +4496,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="J70" s="96" t="n">
+      <c r="J70" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K70" s="2" t="n"/>
@@ -4542,7 +4548,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J71" s="93" t="n">
+      <c r="J71" s="97" t="n">
         <v>0</v>
       </c>
       <c r="K71" s="2" t="n"/>
@@ -4594,7 +4600,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J72" s="96" t="n">
+      <c r="J72" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K72" s="2" t="n"/>
@@ -4646,7 +4652,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J73" s="96" t="n">
+      <c r="J73" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K73" s="2" t="n"/>
@@ -4698,7 +4704,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J74" s="96" t="n">
+      <c r="J74" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K74" s="2" t="n"/>
@@ -4750,7 +4756,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J75" s="96" t="n">
+      <c r="J75" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K75" s="2" t="n"/>
@@ -4802,7 +4808,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J76" s="96" t="n">
+      <c r="J76" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K76" s="2" t="n"/>
@@ -4854,7 +4860,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J77" s="93" t="n">
+      <c r="J77" s="97" t="n">
         <v>0</v>
       </c>
       <c r="K77" s="2" t="n"/>
@@ -4906,7 +4912,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J78" s="93" t="n">
+      <c r="J78" s="97" t="n">
         <v>0</v>
       </c>
       <c r="K78" s="2" t="n"/>
@@ -4958,7 +4964,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J79" s="96" t="n">
+      <c r="J79" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K79" s="2" t="n"/>
@@ -5010,7 +5016,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J80" s="93" t="n">
+      <c r="J80" s="97" t="n">
         <v>0</v>
       </c>
       <c r="K80" s="2" t="n"/>
@@ -5062,7 +5068,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J81" s="96" t="n">
+      <c r="J81" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K81" s="2" t="n"/>
@@ -5114,7 +5120,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J82" s="96" t="n">
+      <c r="J82" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K82" s="2" t="n"/>
@@ -5166,7 +5172,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J83" s="93" t="n">
+      <c r="J83" s="97" t="n">
         <v>0</v>
       </c>
       <c r="K83" s="2" t="n"/>
@@ -5218,7 +5224,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J84" s="93" t="n">
+      <c r="J84" s="97" t="n">
         <v>0</v>
       </c>
       <c r="K84" s="2" t="n"/>
@@ -5270,7 +5276,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J85" s="96" t="n">
+      <c r="J85" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K85" s="2" t="n"/>
@@ -5322,7 +5328,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J86" s="96" t="n">
+      <c r="J86" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K86" s="2" t="n"/>
@@ -5374,7 +5380,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J87" s="96" t="n">
+      <c r="J87" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K87" s="2" t="n"/>
@@ -5426,7 +5432,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J88" s="96" t="n">
+      <c r="J88" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K88" s="2" t="n"/>
@@ -5478,7 +5484,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J89" s="96" t="n">
+      <c r="J89" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K89" s="2" t="n"/>
@@ -5530,7 +5536,7 @@
           <t>1 - 6</t>
         </is>
       </c>
-      <c r="J90" s="96" t="n">
+      <c r="J90" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K90" s="2" t="n"/>
@@ -5582,7 +5588,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J91" s="96" t="n">
+      <c r="J91" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K91" s="2" t="n"/>
@@ -5634,7 +5640,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J92" s="96" t="n">
+      <c r="J92" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K92" s="2" t="n"/>
@@ -5686,7 +5692,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J93" s="96" t="n">
+      <c r="J93" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K93" s="2" t="n"/>
@@ -5738,7 +5744,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J94" s="96" t="n">
+      <c r="J94" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K94" s="2" t="n"/>
@@ -5790,7 +5796,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J95" s="96" t="n">
+      <c r="J95" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K95" s="2" t="n"/>
@@ -5842,7 +5848,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J96" s="96" t="n">
+      <c r="J96" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K96" s="2" t="n"/>
@@ -5894,7 +5900,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J97" s="96" t="n">
+      <c r="J97" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K97" s="2" t="n"/>
@@ -5946,7 +5952,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J98" s="96" t="n">
+      <c r="J98" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K98" s="2" t="n"/>
@@ -5998,7 +6004,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J99" s="93" t="n">
+      <c r="J99" s="97" t="n">
         <v>0</v>
       </c>
       <c r="K99" s="2" t="n"/>
@@ -6050,7 +6056,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J100" s="96" t="n">
+      <c r="J100" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K100" s="2" t="n"/>
@@ -6102,7 +6108,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J101" s="96" t="n">
+      <c r="J101" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K101" s="2" t="n"/>
@@ -6154,7 +6160,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J102" s="96" t="n">
+      <c r="J102" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K102" s="2" t="n"/>
@@ -6206,7 +6212,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J103" s="93" t="n">
+      <c r="J103" s="97" t="n">
         <v>0</v>
       </c>
       <c r="K103" s="2" t="n"/>
@@ -6258,7 +6264,7 @@
           <t>5 - 2</t>
         </is>
       </c>
-      <c r="J104" s="96" t="n">
+      <c r="J104" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K104" s="2" t="n"/>
@@ -6310,7 +6316,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J105" s="96" t="n">
+      <c r="J105" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K105" s="2" t="n"/>
@@ -6362,7 +6368,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J106" s="96" t="n">
+      <c r="J106" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K106" s="2" t="n"/>
@@ -6414,7 +6420,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J107" s="96" t="n">
+      <c r="J107" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K107" s="2" t="n"/>
@@ -6466,7 +6472,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J108" s="96" t="n">
+      <c r="J108" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K108" s="2" t="n"/>
@@ -6518,7 +6524,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J109" s="93" t="n">
+      <c r="J109" s="97" t="n">
         <v>0</v>
       </c>
       <c r="K109" s="2" t="n"/>
@@ -6570,7 +6576,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J110" s="96" t="n">
+      <c r="J110" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K110" s="2" t="n"/>
@@ -6622,7 +6628,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J111" s="96" t="n">
+      <c r="J111" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K111" s="2" t="n"/>
@@ -6674,7 +6680,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J112" s="96" t="n">
+      <c r="J112" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K112" s="2" t="n"/>
@@ -6726,7 +6732,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J113" s="96" t="n">
+      <c r="J113" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K113" s="2" t="n"/>
@@ -6778,7 +6784,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J114" s="96" t="n">
+      <c r="J114" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K114" s="2" t="n"/>
@@ -6830,7 +6836,7 @@
           <t>4 - 3</t>
         </is>
       </c>
-      <c r="J115" s="96" t="n">
+      <c r="J115" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K115" s="2" t="n"/>
@@ -6882,7 +6888,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J116" s="96" t="n">
+      <c r="J116" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K116" s="2" t="n"/>
@@ -6934,7 +6940,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J117" s="96" t="n">
+      <c r="J117" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K117" s="2" t="n"/>
@@ -6986,7 +6992,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J118" s="96" t="n">
+      <c r="J118" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K118" s="2" t="n"/>
@@ -7038,7 +7044,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J119" s="93" t="n">
+      <c r="J119" s="97" t="n">
         <v>0</v>
       </c>
       <c r="K119" s="2" t="n"/>
@@ -7090,7 +7096,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J120" s="96" t="n">
+      <c r="J120" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K120" s="2" t="n"/>
@@ -7142,7 +7148,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J121" s="96" t="n">
+      <c r="J121" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K121" s="2" t="n"/>
@@ -7194,7 +7200,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J122" s="93" t="n">
+      <c r="J122" s="97" t="n">
         <v>0</v>
       </c>
       <c r="K122" s="2" t="n"/>
@@ -7246,7 +7252,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J123" s="96" t="n">
+      <c r="J123" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K123" s="2" t="n"/>
@@ -7298,7 +7304,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J124" s="96" t="n">
+      <c r="J124" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K124" s="2" t="n"/>
@@ -7350,7 +7356,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J125" s="96" t="n">
+      <c r="J125" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K125" s="2" t="n"/>
@@ -7402,7 +7408,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J126" s="93" t="n">
+      <c r="J126" s="97" t="n">
         <v>0</v>
       </c>
       <c r="K126" s="2" t="n"/>
@@ -7454,7 +7460,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J127" s="96" t="n">
+      <c r="J127" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K127" s="2" t="n"/>
@@ -7506,7 +7512,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J128" s="96" t="n">
+      <c r="J128" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K128" s="2" t="n"/>
@@ -7558,7 +7564,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J129" s="96" t="n">
+      <c r="J129" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K129" s="2" t="n"/>
@@ -7610,7 +7616,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J130" s="93" t="n">
+      <c r="J130" s="97" t="n">
         <v>0</v>
       </c>
       <c r="K130" s="2" t="n"/>
@@ -7662,7 +7668,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J131" s="96" t="n">
+      <c r="J131" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K131" s="2" t="n"/>
@@ -7714,7 +7720,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J132" s="96" t="n">
+      <c r="J132" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K132" s="2" t="n"/>
@@ -7766,7 +7772,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J133" s="96" t="n">
+      <c r="J133" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K133" s="2" t="n"/>
@@ -7818,7 +7824,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J134" s="96" t="n">
+      <c r="J134" s="98" t="n">
         <v>1</v>
       </c>
       <c r="K134" s="2" t="n"/>
@@ -7831,6 +7837,474 @@
       <c r="R134" s="2" t="n"/>
       <c r="S134" s="2" t="n"/>
       <c r="T134" s="2" t="n"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>15.08.2025</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F135" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G135" s="2" t="n">
+        <v>54.50000000000001</v>
+      </c>
+      <c r="H135" s="2" t="n">
+        <v>4.500000000000007</v>
+      </c>
+      <c r="I135" s="2" t="inlineStr">
+        <is>
+          <t>4 - 2</t>
+        </is>
+      </c>
+      <c r="J135" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K135" s="2" t="n"/>
+      <c r="L135" s="2" t="n"/>
+      <c r="M135" s="2" t="n"/>
+      <c r="N135" s="2" t="n"/>
+      <c r="O135" s="2" t="n"/>
+      <c r="P135" s="2" t="n"/>
+      <c r="Q135" s="2" t="n"/>
+      <c r="R135" s="2" t="n"/>
+      <c r="S135" s="2" t="n"/>
+      <c r="T135" s="2" t="n"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>16.08.2025</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F136" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G136" s="2" t="n">
+        <v>55.00000000000001</v>
+      </c>
+      <c r="H136" s="2" t="n">
+        <v>5.000000000000007</v>
+      </c>
+      <c r="I136" s="2" t="inlineStr">
+        <is>
+          <t>0 - 3</t>
+        </is>
+      </c>
+      <c r="J136" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" s="2" t="n"/>
+      <c r="L136" s="2" t="n"/>
+      <c r="M136" s="2" t="n"/>
+      <c r="N136" s="2" t="n"/>
+      <c r="O136" s="2" t="n"/>
+      <c r="P136" s="2" t="n"/>
+      <c r="Q136" s="2" t="n"/>
+      <c r="R136" s="2" t="n"/>
+      <c r="S136" s="2" t="n"/>
+      <c r="T136" s="2" t="n"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>17.08.2025</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F137" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G137" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="H137" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I137" s="2" t="inlineStr">
+        <is>
+          <t>0 - 1</t>
+        </is>
+      </c>
+      <c r="J137" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" s="2" t="n"/>
+      <c r="L137" s="2" t="n"/>
+      <c r="M137" s="2" t="n"/>
+      <c r="N137" s="2" t="n"/>
+      <c r="O137" s="2" t="n"/>
+      <c r="P137" s="2" t="n"/>
+      <c r="Q137" s="2" t="n"/>
+      <c r="R137" s="2" t="n"/>
+      <c r="S137" s="2" t="n"/>
+      <c r="T137" s="2" t="n"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>23.08.2025</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>Leeds United</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F138" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G138" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="H138" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I138" s="2" t="inlineStr">
+        <is>
+          <t>5 - 0</t>
+        </is>
+      </c>
+      <c r="J138" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" s="2" t="n"/>
+      <c r="L138" s="2" t="n"/>
+      <c r="M138" s="2" t="n"/>
+      <c r="N138" s="2" t="n"/>
+      <c r="O138" s="2" t="n"/>
+      <c r="P138" s="2" t="n"/>
+      <c r="Q138" s="2" t="n"/>
+      <c r="R138" s="2" t="n"/>
+      <c r="S138" s="2" t="n"/>
+      <c r="T138" s="2" t="n"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>23.08.2025</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="C139" s="2" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F139" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G139" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="H139" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I139" s="2" t="inlineStr">
+        <is>
+          <t>2 - 3</t>
+        </is>
+      </c>
+      <c r="J139" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" s="2" t="n"/>
+      <c r="L139" s="2" t="n"/>
+      <c r="M139" s="2" t="n"/>
+      <c r="N139" s="2" t="n"/>
+      <c r="O139" s="2" t="n"/>
+      <c r="P139" s="2" t="n"/>
+      <c r="Q139" s="2" t="n"/>
+      <c r="R139" s="2" t="n"/>
+      <c r="S139" s="2" t="n"/>
+      <c r="T139" s="2" t="n"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>23.08.2025</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F140" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G140" s="2" t="n">
+        <v>57.49999999999999</v>
+      </c>
+      <c r="H140" s="2" t="n">
+        <v>7.499999999999993</v>
+      </c>
+      <c r="I140" s="2" t="inlineStr">
+        <is>
+          <t>0 - 2</t>
+        </is>
+      </c>
+      <c r="J140" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" s="2" t="n"/>
+      <c r="L140" s="2" t="n"/>
+      <c r="M140" s="2" t="n"/>
+      <c r="N140" s="2" t="n"/>
+      <c r="O140" s="2" t="n"/>
+      <c r="P140" s="2" t="n"/>
+      <c r="Q140" s="2" t="n"/>
+      <c r="R140" s="2" t="n"/>
+      <c r="S140" s="2" t="n"/>
+      <c r="T140" s="2" t="n"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>24.08.2025</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>Real Oviedo</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F141" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G141" s="2" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="H141" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I141" s="2" t="inlineStr">
+        <is>
+          <t>0 - 3</t>
+        </is>
+      </c>
+      <c r="J141" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K141" s="2" t="n"/>
+      <c r="L141" s="2" t="n"/>
+      <c r="M141" s="2" t="n"/>
+      <c r="N141" s="2" t="n"/>
+      <c r="O141" s="2" t="n"/>
+      <c r="P141" s="2" t="n"/>
+      <c r="Q141" s="2" t="n"/>
+      <c r="R141" s="2" t="n"/>
+      <c r="S141" s="2" t="n"/>
+      <c r="T141" s="2" t="n"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>31.08.2025</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F142" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G142" s="2" t="n">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="H142" s="2" t="n">
+        <v>6.000000000000007</v>
+      </c>
+      <c r="I142" s="2" t="inlineStr">
+        <is>
+          <t>1 - 1</t>
+        </is>
+      </c>
+      <c r="J142" s="98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" s="2" t="n"/>
+      <c r="L142" s="2" t="n"/>
+      <c r="M142" s="2" t="n"/>
+      <c r="N142" s="2" t="n"/>
+      <c r="O142" s="2" t="n"/>
+      <c r="P142" s="2" t="n"/>
+      <c r="Q142" s="2" t="n"/>
+      <c r="R142" s="2" t="n"/>
+      <c r="S142" s="2" t="n"/>
+      <c r="T142" s="2" t="n"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>31.08.2025</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="C143" s="2" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="inlineStr">
+        <is>
+          <t>1X</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F143" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G143" s="2" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="H143" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I143" s="2" t="inlineStr">
+        <is>
+          <t>1 - 2</t>
+        </is>
+      </c>
+      <c r="J143" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" s="2" t="n"/>
+      <c r="L143" s="2" t="n"/>
+      <c r="M143" s="2" t="n"/>
+      <c r="N143" s="2" t="n"/>
+      <c r="O143" s="2" t="n"/>
+      <c r="P143" s="2" t="n"/>
+      <c r="Q143" s="2" t="n"/>
+      <c r="R143" s="2" t="n"/>
+      <c r="S143" s="2" t="n"/>
+      <c r="T143" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7886,14 +8360,14 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -7922,14 +8396,14 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>75.0%</t>
         </is>
       </c>
     </row>
@@ -7994,14 +8468,14 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>6</v>
-      </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>75.0%</t>
         </is>
       </c>
     </row>
@@ -8012,14 +8486,14 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>70.0%</t>
+          <t>72.73%</t>
         </is>
       </c>
     </row>
@@ -8174,14 +8648,14 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>10</v>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>90.91%</t>
         </is>
       </c>
     </row>
@@ -8228,14 +8702,14 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>75.0%</t>
         </is>
       </c>
     </row>
@@ -8354,14 +8828,14 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>10</v>
-      </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>90.91%</t>
+          <t>91.67%</t>
         </is>
       </c>
     </row>

--- a/app/placed_bets.xlsx
+++ b/app/placed_bets.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -404,6 +404,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -774,7 +783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T143"/>
+  <dimension ref="A1:T149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -856,12 +865,12 @@
         </is>
       </c>
       <c r="K1" s="2" t="n"/>
-      <c r="L1" s="98" t="inlineStr">
+      <c r="L1" s="101" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="M1" s="97" t="inlineStr">
+      <c r="M1" s="102" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
@@ -940,38 +949,38 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J2" s="98" t="n">
+      <c r="J2" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>76.06</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>10120</v>
+        <v>10340</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>9387</v>
+        <v>9640.5</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>-733</v>
+        <v>-699.5</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>-0.73%</t>
+          <t>-0.69%</t>
         </is>
       </c>
       <c r="S2" s="2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>267</v>
+        <v>310.5</v>
       </c>
     </row>
     <row r="3">
@@ -1012,7 +1021,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J3" s="97" t="n">
+      <c r="J3" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="2" t="n"/>
@@ -1064,7 +1073,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J4" s="98" t="n">
+      <c r="J4" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="n"/>
@@ -1116,7 +1125,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J5" s="98" t="n">
+      <c r="J5" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="n"/>
@@ -1168,7 +1177,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J6" s="98" t="n">
+      <c r="J6" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="n"/>
@@ -1220,7 +1229,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J7" s="97" t="n">
+      <c r="J7" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="n"/>
@@ -1272,7 +1281,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J8" s="98" t="n">
+      <c r="J8" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="n"/>
@@ -1324,7 +1333,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J9" s="97" t="n">
+      <c r="J9" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="2" t="n"/>
@@ -1376,7 +1385,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J10" s="98" t="n">
+      <c r="J10" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="n"/>
@@ -1428,7 +1437,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J11" s="98" t="n">
+      <c r="J11" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="n"/>
@@ -1480,7 +1489,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J12" s="97" t="n">
+      <c r="J12" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="n"/>
@@ -1532,7 +1541,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J13" s="98" t="n">
+      <c r="J13" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="n"/>
@@ -1584,7 +1593,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J14" s="98" t="n">
+      <c r="J14" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="n"/>
@@ -1636,7 +1645,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J15" s="98" t="n">
+      <c r="J15" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="n"/>
@@ -1688,7 +1697,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J16" s="98" t="n">
+      <c r="J16" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="n"/>
@@ -1740,7 +1749,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J17" s="97" t="n">
+      <c r="J17" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="2" t="n"/>
@@ -1792,7 +1801,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J18" s="98" t="n">
+      <c r="J18" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="n"/>
@@ -1844,7 +1853,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J19" s="97" t="n">
+      <c r="J19" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K19" s="2" t="n"/>
@@ -1896,7 +1905,7 @@
           <t>3 - 3</t>
         </is>
       </c>
-      <c r="J20" s="98" t="n">
+      <c r="J20" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="n"/>
@@ -1948,7 +1957,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J21" s="97" t="n">
+      <c r="J21" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="2" t="n"/>
@@ -2000,7 +2009,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J22" s="98" t="n">
+      <c r="J22" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="n"/>
@@ -2052,7 +2061,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J23" s="97" t="n">
+      <c r="J23" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K23" s="2" t="n"/>
@@ -2104,7 +2113,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J24" s="98" t="n">
+      <c r="J24" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K24" s="2" t="n"/>
@@ -2156,7 +2165,7 @@
           <t>0 - 6</t>
         </is>
       </c>
-      <c r="J25" s="98" t="n">
+      <c r="J25" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K25" s="2" t="n"/>
@@ -2208,7 +2217,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J26" s="98" t="n">
+      <c r="J26" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K26" s="2" t="n"/>
@@ -2260,7 +2269,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J27" s="98" t="n">
+      <c r="J27" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="n"/>
@@ -2312,7 +2321,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J28" s="98" t="n">
+      <c r="J28" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K28" s="2" t="n"/>
@@ -2364,7 +2373,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J29" s="97" t="n">
+      <c r="J29" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K29" s="2" t="n"/>
@@ -2416,7 +2425,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J30" s="98" t="n">
+      <c r="J30" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K30" s="2" t="n"/>
@@ -2468,7 +2477,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J31" s="98" t="n">
+      <c r="J31" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="n"/>
@@ -2520,7 +2529,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J32" s="98" t="n">
+      <c r="J32" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K32" s="2" t="n"/>
@@ -2572,7 +2581,7 @@
           <t>2 - 5</t>
         </is>
       </c>
-      <c r="J33" s="98" t="n">
+      <c r="J33" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K33" s="2" t="n"/>
@@ -2624,7 +2633,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J34" s="97" t="n">
+      <c r="J34" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K34" s="2" t="n"/>
@@ -2676,7 +2685,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J35" s="98" t="n">
+      <c r="J35" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K35" s="2" t="n"/>
@@ -2728,7 +2737,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J36" s="98" t="n">
+      <c r="J36" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K36" s="2" t="n"/>
@@ -2780,7 +2789,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J37" s="98" t="n">
+      <c r="J37" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K37" s="2" t="n"/>
@@ -2832,7 +2841,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J38" s="98" t="n">
+      <c r="J38" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="2" t="n"/>
@@ -2884,7 +2893,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J39" s="98" t="n">
+      <c r="J39" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K39" s="2" t="n"/>
@@ -2936,7 +2945,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J40" s="98" t="n">
+      <c r="J40" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K40" s="2" t="n"/>
@@ -2988,7 +2997,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J41" s="98" t="n">
+      <c r="J41" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K41" s="2" t="n"/>
@@ -3040,7 +3049,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J42" s="98" t="n">
+      <c r="J42" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K42" s="2" t="n"/>
@@ -3092,7 +3101,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J43" s="97" t="n">
+      <c r="J43" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K43" s="2" t="n"/>
@@ -3144,7 +3153,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J44" s="98" t="n">
+      <c r="J44" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K44" s="2" t="n"/>
@@ -3196,7 +3205,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J45" s="97" t="n">
+      <c r="J45" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K45" s="2" t="n"/>
@@ -3248,7 +3257,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J46" s="98" t="n">
+      <c r="J46" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K46" s="2" t="n"/>
@@ -3300,7 +3309,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J47" s="98" t="n">
+      <c r="J47" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K47" s="2" t="n"/>
@@ -3352,7 +3361,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J48" s="97" t="n">
+      <c r="J48" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K48" s="2" t="n"/>
@@ -3404,7 +3413,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J49" s="98" t="n">
+      <c r="J49" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K49" s="2" t="n"/>
@@ -3456,7 +3465,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J50" s="98" t="n">
+      <c r="J50" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K50" s="2" t="n"/>
@@ -3508,7 +3517,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J51" s="98" t="n">
+      <c r="J51" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K51" s="2" t="n"/>
@@ -3560,7 +3569,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J52" s="97" t="n">
+      <c r="J52" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K52" s="2" t="n"/>
@@ -3612,7 +3621,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J53" s="98" t="n">
+      <c r="J53" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K53" s="2" t="n"/>
@@ -3664,7 +3673,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J54" s="97" t="n">
+      <c r="J54" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K54" s="2" t="n"/>
@@ -3716,7 +3725,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J55" s="97" t="n">
+      <c r="J55" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K55" s="2" t="n"/>
@@ -3768,7 +3777,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J56" s="98" t="n">
+      <c r="J56" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K56" s="2" t="n"/>
@@ -3820,7 +3829,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J57" s="98" t="n">
+      <c r="J57" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K57" s="2" t="n"/>
@@ -3872,7 +3881,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J58" s="98" t="n">
+      <c r="J58" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K58" s="2" t="n"/>
@@ -3924,7 +3933,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J59" s="97" t="n">
+      <c r="J59" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K59" s="2" t="n"/>
@@ -3976,7 +3985,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J60" s="97" t="n">
+      <c r="J60" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K60" s="2" t="n"/>
@@ -4028,7 +4037,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J61" s="97" t="n">
+      <c r="J61" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K61" s="2" t="n"/>
@@ -4080,7 +4089,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J62" s="98" t="n">
+      <c r="J62" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K62" s="2" t="n"/>
@@ -4132,7 +4141,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J63" s="98" t="n">
+      <c r="J63" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K63" s="2" t="n"/>
@@ -4184,7 +4193,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J64" s="98" t="n">
+      <c r="J64" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K64" s="2" t="n"/>
@@ -4236,7 +4245,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J65" s="98" t="n">
+      <c r="J65" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K65" s="2" t="n"/>
@@ -4288,7 +4297,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J66" s="97" t="n">
+      <c r="J66" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K66" s="2" t="n"/>
@@ -4340,7 +4349,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J67" s="98" t="n">
+      <c r="J67" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K67" s="2" t="n"/>
@@ -4392,7 +4401,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J68" s="98" t="n">
+      <c r="J68" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K68" s="2" t="n"/>
@@ -4444,7 +4453,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J69" s="98" t="n">
+      <c r="J69" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K69" s="2" t="n"/>
@@ -4496,7 +4505,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="J70" s="98" t="n">
+      <c r="J70" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K70" s="2" t="n"/>
@@ -4548,7 +4557,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J71" s="97" t="n">
+      <c r="J71" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K71" s="2" t="n"/>
@@ -4600,7 +4609,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J72" s="98" t="n">
+      <c r="J72" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K72" s="2" t="n"/>
@@ -4652,7 +4661,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J73" s="98" t="n">
+      <c r="J73" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K73" s="2" t="n"/>
@@ -4704,7 +4713,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J74" s="98" t="n">
+      <c r="J74" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K74" s="2" t="n"/>
@@ -4756,7 +4765,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J75" s="98" t="n">
+      <c r="J75" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K75" s="2" t="n"/>
@@ -4808,7 +4817,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J76" s="98" t="n">
+      <c r="J76" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K76" s="2" t="n"/>
@@ -4860,7 +4869,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J77" s="97" t="n">
+      <c r="J77" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K77" s="2" t="n"/>
@@ -4912,7 +4921,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J78" s="97" t="n">
+      <c r="J78" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K78" s="2" t="n"/>
@@ -4964,7 +4973,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J79" s="98" t="n">
+      <c r="J79" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K79" s="2" t="n"/>
@@ -5016,7 +5025,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J80" s="97" t="n">
+      <c r="J80" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K80" s="2" t="n"/>
@@ -5068,7 +5077,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J81" s="98" t="n">
+      <c r="J81" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K81" s="2" t="n"/>
@@ -5120,7 +5129,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J82" s="98" t="n">
+      <c r="J82" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K82" s="2" t="n"/>
@@ -5172,7 +5181,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J83" s="97" t="n">
+      <c r="J83" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K83" s="2" t="n"/>
@@ -5224,7 +5233,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J84" s="97" t="n">
+      <c r="J84" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K84" s="2" t="n"/>
@@ -5276,7 +5285,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J85" s="98" t="n">
+      <c r="J85" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K85" s="2" t="n"/>
@@ -5328,7 +5337,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J86" s="98" t="n">
+      <c r="J86" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K86" s="2" t="n"/>
@@ -5380,7 +5389,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J87" s="98" t="n">
+      <c r="J87" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K87" s="2" t="n"/>
@@ -5432,7 +5441,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J88" s="98" t="n">
+      <c r="J88" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K88" s="2" t="n"/>
@@ -5484,7 +5493,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J89" s="98" t="n">
+      <c r="J89" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K89" s="2" t="n"/>
@@ -5536,7 +5545,7 @@
           <t>1 - 6</t>
         </is>
       </c>
-      <c r="J90" s="98" t="n">
+      <c r="J90" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K90" s="2" t="n"/>
@@ -5588,7 +5597,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J91" s="98" t="n">
+      <c r="J91" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K91" s="2" t="n"/>
@@ -5640,7 +5649,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J92" s="98" t="n">
+      <c r="J92" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K92" s="2" t="n"/>
@@ -5692,7 +5701,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J93" s="98" t="n">
+      <c r="J93" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K93" s="2" t="n"/>
@@ -5744,7 +5753,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J94" s="98" t="n">
+      <c r="J94" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K94" s="2" t="n"/>
@@ -5796,7 +5805,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J95" s="98" t="n">
+      <c r="J95" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K95" s="2" t="n"/>
@@ -5848,7 +5857,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J96" s="98" t="n">
+      <c r="J96" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K96" s="2" t="n"/>
@@ -5900,7 +5909,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J97" s="98" t="n">
+      <c r="J97" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K97" s="2" t="n"/>
@@ -5952,7 +5961,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J98" s="98" t="n">
+      <c r="J98" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K98" s="2" t="n"/>
@@ -6004,7 +6013,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J99" s="97" t="n">
+      <c r="J99" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K99" s="2" t="n"/>
@@ -6056,7 +6065,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J100" s="98" t="n">
+      <c r="J100" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K100" s="2" t="n"/>
@@ -6108,7 +6117,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J101" s="98" t="n">
+      <c r="J101" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K101" s="2" t="n"/>
@@ -6160,7 +6169,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J102" s="98" t="n">
+      <c r="J102" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K102" s="2" t="n"/>
@@ -6212,7 +6221,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J103" s="97" t="n">
+      <c r="J103" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K103" s="2" t="n"/>
@@ -6264,7 +6273,7 @@
           <t>5 - 2</t>
         </is>
       </c>
-      <c r="J104" s="98" t="n">
+      <c r="J104" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K104" s="2" t="n"/>
@@ -6316,7 +6325,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J105" s="98" t="n">
+      <c r="J105" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K105" s="2" t="n"/>
@@ -6368,7 +6377,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J106" s="98" t="n">
+      <c r="J106" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K106" s="2" t="n"/>
@@ -6420,7 +6429,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J107" s="98" t="n">
+      <c r="J107" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K107" s="2" t="n"/>
@@ -6472,7 +6481,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J108" s="98" t="n">
+      <c r="J108" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K108" s="2" t="n"/>
@@ -6524,7 +6533,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J109" s="97" t="n">
+      <c r="J109" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K109" s="2" t="n"/>
@@ -6576,7 +6585,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J110" s="98" t="n">
+      <c r="J110" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K110" s="2" t="n"/>
@@ -6628,7 +6637,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J111" s="98" t="n">
+      <c r="J111" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K111" s="2" t="n"/>
@@ -6680,7 +6689,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J112" s="98" t="n">
+      <c r="J112" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K112" s="2" t="n"/>
@@ -6732,7 +6741,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J113" s="98" t="n">
+      <c r="J113" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K113" s="2" t="n"/>
@@ -6784,7 +6793,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J114" s="98" t="n">
+      <c r="J114" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K114" s="2" t="n"/>
@@ -6836,7 +6845,7 @@
           <t>4 - 3</t>
         </is>
       </c>
-      <c r="J115" s="98" t="n">
+      <c r="J115" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K115" s="2" t="n"/>
@@ -6888,7 +6897,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J116" s="98" t="n">
+      <c r="J116" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K116" s="2" t="n"/>
@@ -6940,7 +6949,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J117" s="98" t="n">
+      <c r="J117" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K117" s="2" t="n"/>
@@ -6992,7 +7001,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J118" s="98" t="n">
+      <c r="J118" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K118" s="2" t="n"/>
@@ -7044,7 +7053,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J119" s="97" t="n">
+      <c r="J119" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K119" s="2" t="n"/>
@@ -7096,7 +7105,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J120" s="98" t="n">
+      <c r="J120" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K120" s="2" t="n"/>
@@ -7148,7 +7157,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J121" s="98" t="n">
+      <c r="J121" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K121" s="2" t="n"/>
@@ -7200,7 +7209,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J122" s="97" t="n">
+      <c r="J122" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K122" s="2" t="n"/>
@@ -7252,7 +7261,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J123" s="98" t="n">
+      <c r="J123" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K123" s="2" t="n"/>
@@ -7304,7 +7313,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J124" s="98" t="n">
+      <c r="J124" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K124" s="2" t="n"/>
@@ -7356,7 +7365,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J125" s="98" t="n">
+      <c r="J125" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K125" s="2" t="n"/>
@@ -7408,7 +7417,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J126" s="97" t="n">
+      <c r="J126" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K126" s="2" t="n"/>
@@ -7460,7 +7469,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J127" s="98" t="n">
+      <c r="J127" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K127" s="2" t="n"/>
@@ -7512,7 +7521,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J128" s="98" t="n">
+      <c r="J128" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K128" s="2" t="n"/>
@@ -7564,7 +7573,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J129" s="98" t="n">
+      <c r="J129" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K129" s="2" t="n"/>
@@ -7616,7 +7625,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J130" s="97" t="n">
+      <c r="J130" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K130" s="2" t="n"/>
@@ -7668,7 +7677,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J131" s="98" t="n">
+      <c r="J131" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K131" s="2" t="n"/>
@@ -7720,7 +7729,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J132" s="98" t="n">
+      <c r="J132" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K132" s="2" t="n"/>
@@ -7772,7 +7781,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J133" s="98" t="n">
+      <c r="J133" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K133" s="2" t="n"/>
@@ -7824,7 +7833,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J134" s="98" t="n">
+      <c r="J134" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K134" s="2" t="n"/>
@@ -7876,7 +7885,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J135" s="98" t="n">
+      <c r="J135" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K135" s="2" t="n"/>
@@ -7928,7 +7937,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J136" s="98" t="n">
+      <c r="J136" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K136" s="2" t="n"/>
@@ -7980,7 +7989,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J137" s="98" t="n">
+      <c r="J137" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K137" s="2" t="n"/>
@@ -8032,7 +8041,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J138" s="98" t="n">
+      <c r="J138" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K138" s="2" t="n"/>
@@ -8084,7 +8093,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="J139" s="98" t="n">
+      <c r="J139" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K139" s="2" t="n"/>
@@ -8136,7 +8145,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J140" s="98" t="n">
+      <c r="J140" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K140" s="2" t="n"/>
@@ -8188,7 +8197,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J141" s="98" t="n">
+      <c r="J141" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K141" s="2" t="n"/>
@@ -8240,7 +8249,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J142" s="98" t="n">
+      <c r="J142" s="101" t="n">
         <v>1</v>
       </c>
       <c r="K142" s="2" t="n"/>
@@ -8292,7 +8301,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J143" s="97" t="n">
+      <c r="J143" s="102" t="n">
         <v>0</v>
       </c>
       <c r="K143" s="2" t="n"/>
@@ -8305,6 +8314,318 @@
       <c r="R143" s="2" t="n"/>
       <c r="S143" s="2" t="n"/>
       <c r="T143" s="2" t="n"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>12.09.2025</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>Olympique Marseille</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F144" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G144" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="H144" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I144" s="2" t="inlineStr">
+        <is>
+          <t>4 - 0</t>
+        </is>
+      </c>
+      <c r="J144" s="101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" s="2" t="n"/>
+      <c r="L144" s="2" t="n"/>
+      <c r="M144" s="2" t="n"/>
+      <c r="N144" s="2" t="n"/>
+      <c r="O144" s="2" t="n"/>
+      <c r="P144" s="2" t="n"/>
+      <c r="Q144" s="2" t="n"/>
+      <c r="R144" s="2" t="n"/>
+      <c r="S144" s="2" t="n"/>
+      <c r="T144" s="2" t="n"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>13.09.2025</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C145" s="2" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F145" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="H145" s="2" t="n">
+        <v>7.800000000000001</v>
+      </c>
+      <c r="I145" s="2" t="inlineStr">
+        <is>
+          <t>2 - 2</t>
+        </is>
+      </c>
+      <c r="J145" s="102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" s="2" t="n"/>
+      <c r="L145" s="2" t="n"/>
+      <c r="M145" s="2" t="n"/>
+      <c r="N145" s="2" t="n"/>
+      <c r="O145" s="2" t="n"/>
+      <c r="P145" s="2" t="n"/>
+      <c r="Q145" s="2" t="n"/>
+      <c r="R145" s="2" t="n"/>
+      <c r="S145" s="2" t="n"/>
+      <c r="T145" s="2" t="n"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>13.09.2025</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F146" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G146" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="H146" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="I146" s="2" t="inlineStr">
+        <is>
+          <t>2 - 0</t>
+        </is>
+      </c>
+      <c r="J146" s="101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" s="2" t="n"/>
+      <c r="L146" s="2" t="n"/>
+      <c r="M146" s="2" t="n"/>
+      <c r="N146" s="2" t="n"/>
+      <c r="O146" s="2" t="n"/>
+      <c r="P146" s="2" t="n"/>
+      <c r="Q146" s="2" t="n"/>
+      <c r="R146" s="2" t="n"/>
+      <c r="S146" s="2" t="n"/>
+      <c r="T146" s="2" t="n"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>14.09.2025</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F147" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G147" s="2" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="H147" s="2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I147" s="2" t="inlineStr">
+        <is>
+          <t>0 - 1</t>
+        </is>
+      </c>
+      <c r="J147" s="101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" s="2" t="n"/>
+      <c r="L147" s="2" t="n"/>
+      <c r="M147" s="2" t="n"/>
+      <c r="N147" s="2" t="n"/>
+      <c r="O147" s="2" t="n"/>
+      <c r="P147" s="2" t="n"/>
+      <c r="Q147" s="2" t="n"/>
+      <c r="R147" s="2" t="n"/>
+      <c r="S147" s="2" t="n"/>
+      <c r="T147" s="2" t="n"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>14.09.2025</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="inlineStr">
+        <is>
+          <t>1X</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F148" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G148" s="2" t="n">
+        <v>55.00000000000001</v>
+      </c>
+      <c r="H148" s="2" t="n">
+        <v>5.000000000000007</v>
+      </c>
+      <c r="I148" s="2" t="inlineStr">
+        <is>
+          <t>2 - 0</t>
+        </is>
+      </c>
+      <c r="J148" s="101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K148" s="2" t="n"/>
+      <c r="L148" s="2" t="n"/>
+      <c r="M148" s="2" t="n"/>
+      <c r="N148" s="2" t="n"/>
+      <c r="O148" s="2" t="n"/>
+      <c r="P148" s="2" t="n"/>
+      <c r="Q148" s="2" t="n"/>
+      <c r="R148" s="2" t="n"/>
+      <c r="S148" s="2" t="n"/>
+      <c r="T148" s="2" t="n"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>14.09.2025</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="C149" s="2" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F149" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="H149" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I149" s="2" t="inlineStr">
+        <is>
+          <t>1 - 0</t>
+        </is>
+      </c>
+      <c r="J149" s="102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" s="2" t="n"/>
+      <c r="L149" s="2" t="n"/>
+      <c r="M149" s="2" t="n"/>
+      <c r="N149" s="2" t="n"/>
+      <c r="O149" s="2" t="n"/>
+      <c r="P149" s="2" t="n"/>
+      <c r="Q149" s="2" t="n"/>
+      <c r="R149" s="2" t="n"/>
+      <c r="S149" s="2" t="n"/>
+      <c r="T149" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8378,14 +8699,14 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>28.57%</t>
         </is>
       </c>
     </row>
@@ -8396,14 +8717,14 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>77.78%</t>
         </is>
       </c>
     </row>
@@ -8450,14 +8771,14 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44.44%</t>
+          <t>50.0%</t>
         </is>
       </c>
     </row>
@@ -8684,14 +9005,14 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>50.0%</t>
         </is>
       </c>
     </row>
@@ -8774,14 +9095,14 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -8828,14 +9149,14 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>11</v>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>91.67%</t>
+          <t>84.62%</t>
         </is>
       </c>
     </row>

--- a/app/placed_bets.xlsx
+++ b/app/placed_bets.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -416,6 +416,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -783,7 +807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T149"/>
+  <dimension ref="A1:T159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -806,7 +830,7 @@
     <col width="13" customWidth="1" min="13" max="13"/>
     <col width="21" customWidth="1" min="14" max="14"/>
     <col width="15" customWidth="1" min="15" max="15"/>
-    <col width="13" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
     <col width="13" customWidth="1" min="17" max="17"/>
     <col width="13" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
@@ -865,12 +889,12 @@
         </is>
       </c>
       <c r="K1" s="2" t="n"/>
-      <c r="L1" s="101" t="inlineStr">
+      <c r="L1" s="110" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="M1" s="102" t="inlineStr">
+      <c r="M1" s="108" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
@@ -949,38 +973,38 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J2" s="101" t="n">
+      <c r="J2" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>75.68000000000001</v>
+        <v>74.68000000000001</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>10340</v>
+        <v>10800</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>9640.5</v>
+        <v>10026.5</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>-699.5</v>
+        <v>-773.5</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>-0.69%</t>
+          <t>-0.75%</t>
         </is>
       </c>
       <c r="S2" s="2" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>310.5</v>
+        <v>246.5</v>
       </c>
     </row>
     <row r="3">
@@ -1021,7 +1045,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J3" s="102" t="n">
+      <c r="J3" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="2" t="n"/>
@@ -1073,7 +1097,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J4" s="101" t="n">
+      <c r="J4" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="n"/>
@@ -1125,7 +1149,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J5" s="101" t="n">
+      <c r="J5" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="n"/>
@@ -1177,7 +1201,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J6" s="101" t="n">
+      <c r="J6" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="n"/>
@@ -1229,7 +1253,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J7" s="102" t="n">
+      <c r="J7" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="n"/>
@@ -1281,7 +1305,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J8" s="101" t="n">
+      <c r="J8" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="n"/>
@@ -1333,7 +1357,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J9" s="102" t="n">
+      <c r="J9" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="2" t="n"/>
@@ -1385,7 +1409,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J10" s="101" t="n">
+      <c r="J10" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="n"/>
@@ -1437,7 +1461,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J11" s="101" t="n">
+      <c r="J11" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="n"/>
@@ -1489,7 +1513,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J12" s="102" t="n">
+      <c r="J12" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="n"/>
@@ -1541,7 +1565,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J13" s="101" t="n">
+      <c r="J13" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="n"/>
@@ -1593,7 +1617,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J14" s="101" t="n">
+      <c r="J14" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="n"/>
@@ -1645,7 +1669,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J15" s="101" t="n">
+      <c r="J15" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="n"/>
@@ -1697,7 +1721,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J16" s="101" t="n">
+      <c r="J16" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="n"/>
@@ -1749,7 +1773,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J17" s="102" t="n">
+      <c r="J17" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="2" t="n"/>
@@ -1801,7 +1825,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J18" s="101" t="n">
+      <c r="J18" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="n"/>
@@ -1853,7 +1877,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J19" s="102" t="n">
+      <c r="J19" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K19" s="2" t="n"/>
@@ -1905,7 +1929,7 @@
           <t>3 - 3</t>
         </is>
       </c>
-      <c r="J20" s="101" t="n">
+      <c r="J20" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="n"/>
@@ -1957,7 +1981,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J21" s="102" t="n">
+      <c r="J21" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="2" t="n"/>
@@ -2009,7 +2033,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J22" s="101" t="n">
+      <c r="J22" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="n"/>
@@ -2061,7 +2085,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J23" s="102" t="n">
+      <c r="J23" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K23" s="2" t="n"/>
@@ -2113,7 +2137,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J24" s="101" t="n">
+      <c r="J24" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K24" s="2" t="n"/>
@@ -2165,7 +2189,7 @@
           <t>0 - 6</t>
         </is>
       </c>
-      <c r="J25" s="101" t="n">
+      <c r="J25" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K25" s="2" t="n"/>
@@ -2217,7 +2241,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J26" s="101" t="n">
+      <c r="J26" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K26" s="2" t="n"/>
@@ -2269,7 +2293,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J27" s="101" t="n">
+      <c r="J27" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="n"/>
@@ -2321,7 +2345,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J28" s="101" t="n">
+      <c r="J28" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K28" s="2" t="n"/>
@@ -2373,7 +2397,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J29" s="102" t="n">
+      <c r="J29" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K29" s="2" t="n"/>
@@ -2425,7 +2449,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J30" s="101" t="n">
+      <c r="J30" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K30" s="2" t="n"/>
@@ -2477,7 +2501,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J31" s="101" t="n">
+      <c r="J31" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="n"/>
@@ -2529,7 +2553,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J32" s="101" t="n">
+      <c r="J32" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K32" s="2" t="n"/>
@@ -2581,7 +2605,7 @@
           <t>2 - 5</t>
         </is>
       </c>
-      <c r="J33" s="101" t="n">
+      <c r="J33" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K33" s="2" t="n"/>
@@ -2633,7 +2657,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J34" s="102" t="n">
+      <c r="J34" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K34" s="2" t="n"/>
@@ -2685,7 +2709,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J35" s="101" t="n">
+      <c r="J35" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K35" s="2" t="n"/>
@@ -2737,7 +2761,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J36" s="101" t="n">
+      <c r="J36" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K36" s="2" t="n"/>
@@ -2789,7 +2813,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J37" s="101" t="n">
+      <c r="J37" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K37" s="2" t="n"/>
@@ -2841,7 +2865,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J38" s="101" t="n">
+      <c r="J38" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="2" t="n"/>
@@ -2893,7 +2917,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J39" s="101" t="n">
+      <c r="J39" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K39" s="2" t="n"/>
@@ -2945,7 +2969,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J40" s="101" t="n">
+      <c r="J40" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K40" s="2" t="n"/>
@@ -2997,7 +3021,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J41" s="101" t="n">
+      <c r="J41" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K41" s="2" t="n"/>
@@ -3049,7 +3073,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J42" s="101" t="n">
+      <c r="J42" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K42" s="2" t="n"/>
@@ -3101,7 +3125,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J43" s="102" t="n">
+      <c r="J43" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K43" s="2" t="n"/>
@@ -3153,7 +3177,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J44" s="101" t="n">
+      <c r="J44" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K44" s="2" t="n"/>
@@ -3205,7 +3229,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J45" s="102" t="n">
+      <c r="J45" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K45" s="2" t="n"/>
@@ -3257,7 +3281,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J46" s="101" t="n">
+      <c r="J46" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K46" s="2" t="n"/>
@@ -3309,7 +3333,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J47" s="101" t="n">
+      <c r="J47" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K47" s="2" t="n"/>
@@ -3361,7 +3385,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J48" s="102" t="n">
+      <c r="J48" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K48" s="2" t="n"/>
@@ -3413,7 +3437,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J49" s="101" t="n">
+      <c r="J49" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K49" s="2" t="n"/>
@@ -3465,7 +3489,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J50" s="101" t="n">
+      <c r="J50" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K50" s="2" t="n"/>
@@ -3517,7 +3541,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J51" s="101" t="n">
+      <c r="J51" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K51" s="2" t="n"/>
@@ -3569,7 +3593,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J52" s="102" t="n">
+      <c r="J52" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K52" s="2" t="n"/>
@@ -3621,7 +3645,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J53" s="101" t="n">
+      <c r="J53" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K53" s="2" t="n"/>
@@ -3673,7 +3697,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J54" s="102" t="n">
+      <c r="J54" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K54" s="2" t="n"/>
@@ -3725,7 +3749,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J55" s="102" t="n">
+      <c r="J55" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K55" s="2" t="n"/>
@@ -3777,7 +3801,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J56" s="101" t="n">
+      <c r="J56" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K56" s="2" t="n"/>
@@ -3829,7 +3853,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J57" s="101" t="n">
+      <c r="J57" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K57" s="2" t="n"/>
@@ -3881,7 +3905,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J58" s="101" t="n">
+      <c r="J58" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K58" s="2" t="n"/>
@@ -3933,7 +3957,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J59" s="102" t="n">
+      <c r="J59" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K59" s="2" t="n"/>
@@ -3985,7 +4009,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J60" s="102" t="n">
+      <c r="J60" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K60" s="2" t="n"/>
@@ -4037,7 +4061,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J61" s="102" t="n">
+      <c r="J61" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K61" s="2" t="n"/>
@@ -4089,7 +4113,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J62" s="101" t="n">
+      <c r="J62" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K62" s="2" t="n"/>
@@ -4141,7 +4165,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J63" s="101" t="n">
+      <c r="J63" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K63" s="2" t="n"/>
@@ -4193,7 +4217,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J64" s="101" t="n">
+      <c r="J64" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K64" s="2" t="n"/>
@@ -4245,7 +4269,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J65" s="101" t="n">
+      <c r="J65" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K65" s="2" t="n"/>
@@ -4297,7 +4321,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J66" s="102" t="n">
+      <c r="J66" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K66" s="2" t="n"/>
@@ -4349,7 +4373,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J67" s="101" t="n">
+      <c r="J67" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K67" s="2" t="n"/>
@@ -4401,7 +4425,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J68" s="101" t="n">
+      <c r="J68" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K68" s="2" t="n"/>
@@ -4453,7 +4477,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J69" s="101" t="n">
+      <c r="J69" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K69" s="2" t="n"/>
@@ -4505,7 +4529,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="J70" s="101" t="n">
+      <c r="J70" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K70" s="2" t="n"/>
@@ -4557,7 +4581,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J71" s="102" t="n">
+      <c r="J71" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K71" s="2" t="n"/>
@@ -4609,7 +4633,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J72" s="101" t="n">
+      <c r="J72" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K72" s="2" t="n"/>
@@ -4661,7 +4685,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J73" s="101" t="n">
+      <c r="J73" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K73" s="2" t="n"/>
@@ -4713,7 +4737,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J74" s="101" t="n">
+      <c r="J74" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K74" s="2" t="n"/>
@@ -4765,7 +4789,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J75" s="101" t="n">
+      <c r="J75" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K75" s="2" t="n"/>
@@ -4817,7 +4841,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J76" s="101" t="n">
+      <c r="J76" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K76" s="2" t="n"/>
@@ -4869,7 +4893,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J77" s="102" t="n">
+      <c r="J77" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K77" s="2" t="n"/>
@@ -4921,7 +4945,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J78" s="102" t="n">
+      <c r="J78" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K78" s="2" t="n"/>
@@ -4973,7 +4997,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J79" s="101" t="n">
+      <c r="J79" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K79" s="2" t="n"/>
@@ -5025,7 +5049,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J80" s="102" t="n">
+      <c r="J80" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K80" s="2" t="n"/>
@@ -5077,7 +5101,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J81" s="101" t="n">
+      <c r="J81" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K81" s="2" t="n"/>
@@ -5129,7 +5153,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J82" s="101" t="n">
+      <c r="J82" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K82" s="2" t="n"/>
@@ -5181,7 +5205,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J83" s="102" t="n">
+      <c r="J83" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K83" s="2" t="n"/>
@@ -5233,7 +5257,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J84" s="102" t="n">
+      <c r="J84" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K84" s="2" t="n"/>
@@ -5285,7 +5309,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J85" s="101" t="n">
+      <c r="J85" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K85" s="2" t="n"/>
@@ -5337,7 +5361,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J86" s="101" t="n">
+      <c r="J86" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K86" s="2" t="n"/>
@@ -5389,7 +5413,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J87" s="101" t="n">
+      <c r="J87" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K87" s="2" t="n"/>
@@ -5441,7 +5465,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J88" s="101" t="n">
+      <c r="J88" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K88" s="2" t="n"/>
@@ -5493,7 +5517,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J89" s="101" t="n">
+      <c r="J89" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K89" s="2" t="n"/>
@@ -5545,7 +5569,7 @@
           <t>1 - 6</t>
         </is>
       </c>
-      <c r="J90" s="101" t="n">
+      <c r="J90" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K90" s="2" t="n"/>
@@ -5597,7 +5621,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J91" s="101" t="n">
+      <c r="J91" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K91" s="2" t="n"/>
@@ -5649,7 +5673,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J92" s="101" t="n">
+      <c r="J92" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K92" s="2" t="n"/>
@@ -5701,7 +5725,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J93" s="101" t="n">
+      <c r="J93" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K93" s="2" t="n"/>
@@ -5753,7 +5777,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J94" s="101" t="n">
+      <c r="J94" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K94" s="2" t="n"/>
@@ -5805,7 +5829,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J95" s="101" t="n">
+      <c r="J95" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K95" s="2" t="n"/>
@@ -5857,7 +5881,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J96" s="101" t="n">
+      <c r="J96" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K96" s="2" t="n"/>
@@ -5909,7 +5933,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J97" s="101" t="n">
+      <c r="J97" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K97" s="2" t="n"/>
@@ -5961,7 +5985,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J98" s="101" t="n">
+      <c r="J98" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K98" s="2" t="n"/>
@@ -6013,7 +6037,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J99" s="102" t="n">
+      <c r="J99" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K99" s="2" t="n"/>
@@ -6065,7 +6089,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J100" s="101" t="n">
+      <c r="J100" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K100" s="2" t="n"/>
@@ -6117,7 +6141,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J101" s="101" t="n">
+      <c r="J101" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K101" s="2" t="n"/>
@@ -6169,7 +6193,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J102" s="101" t="n">
+      <c r="J102" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K102" s="2" t="n"/>
@@ -6221,7 +6245,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J103" s="102" t="n">
+      <c r="J103" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K103" s="2" t="n"/>
@@ -6273,7 +6297,7 @@
           <t>5 - 2</t>
         </is>
       </c>
-      <c r="J104" s="101" t="n">
+      <c r="J104" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K104" s="2" t="n"/>
@@ -6325,7 +6349,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J105" s="101" t="n">
+      <c r="J105" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K105" s="2" t="n"/>
@@ -6377,7 +6401,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J106" s="101" t="n">
+      <c r="J106" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K106" s="2" t="n"/>
@@ -6429,7 +6453,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J107" s="101" t="n">
+      <c r="J107" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K107" s="2" t="n"/>
@@ -6481,7 +6505,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J108" s="101" t="n">
+      <c r="J108" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K108" s="2" t="n"/>
@@ -6533,7 +6557,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J109" s="102" t="n">
+      <c r="J109" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K109" s="2" t="n"/>
@@ -6585,7 +6609,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J110" s="101" t="n">
+      <c r="J110" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K110" s="2" t="n"/>
@@ -6637,7 +6661,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J111" s="101" t="n">
+      <c r="J111" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K111" s="2" t="n"/>
@@ -6689,7 +6713,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J112" s="101" t="n">
+      <c r="J112" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K112" s="2" t="n"/>
@@ -6741,7 +6765,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J113" s="101" t="n">
+      <c r="J113" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K113" s="2" t="n"/>
@@ -6793,7 +6817,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J114" s="101" t="n">
+      <c r="J114" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K114" s="2" t="n"/>
@@ -6845,7 +6869,7 @@
           <t>4 - 3</t>
         </is>
       </c>
-      <c r="J115" s="101" t="n">
+      <c r="J115" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K115" s="2" t="n"/>
@@ -6897,7 +6921,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J116" s="101" t="n">
+      <c r="J116" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K116" s="2" t="n"/>
@@ -6949,7 +6973,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J117" s="101" t="n">
+      <c r="J117" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K117" s="2" t="n"/>
@@ -7001,7 +7025,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J118" s="101" t="n">
+      <c r="J118" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K118" s="2" t="n"/>
@@ -7053,7 +7077,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J119" s="102" t="n">
+      <c r="J119" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K119" s="2" t="n"/>
@@ -7105,7 +7129,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J120" s="101" t="n">
+      <c r="J120" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K120" s="2" t="n"/>
@@ -7157,7 +7181,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J121" s="101" t="n">
+      <c r="J121" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K121" s="2" t="n"/>
@@ -7209,7 +7233,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J122" s="102" t="n">
+      <c r="J122" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K122" s="2" t="n"/>
@@ -7261,7 +7285,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J123" s="101" t="n">
+      <c r="J123" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K123" s="2" t="n"/>
@@ -7313,7 +7337,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J124" s="101" t="n">
+      <c r="J124" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K124" s="2" t="n"/>
@@ -7365,7 +7389,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J125" s="101" t="n">
+      <c r="J125" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K125" s="2" t="n"/>
@@ -7417,7 +7441,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J126" s="102" t="n">
+      <c r="J126" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K126" s="2" t="n"/>
@@ -7469,7 +7493,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J127" s="101" t="n">
+      <c r="J127" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K127" s="2" t="n"/>
@@ -7521,7 +7545,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J128" s="101" t="n">
+      <c r="J128" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K128" s="2" t="n"/>
@@ -7573,7 +7597,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J129" s="101" t="n">
+      <c r="J129" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K129" s="2" t="n"/>
@@ -7625,7 +7649,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J130" s="102" t="n">
+      <c r="J130" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K130" s="2" t="n"/>
@@ -7677,7 +7701,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J131" s="101" t="n">
+      <c r="J131" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K131" s="2" t="n"/>
@@ -7729,7 +7753,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J132" s="101" t="n">
+      <c r="J132" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K132" s="2" t="n"/>
@@ -7781,7 +7805,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J133" s="101" t="n">
+      <c r="J133" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K133" s="2" t="n"/>
@@ -7833,7 +7857,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J134" s="101" t="n">
+      <c r="J134" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K134" s="2" t="n"/>
@@ -7885,7 +7909,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J135" s="101" t="n">
+      <c r="J135" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K135" s="2" t="n"/>
@@ -7937,7 +7961,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J136" s="101" t="n">
+      <c r="J136" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K136" s="2" t="n"/>
@@ -7989,7 +8013,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J137" s="101" t="n">
+      <c r="J137" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K137" s="2" t="n"/>
@@ -8041,7 +8065,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J138" s="101" t="n">
+      <c r="J138" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K138" s="2" t="n"/>
@@ -8093,7 +8117,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="J139" s="101" t="n">
+      <c r="J139" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K139" s="2" t="n"/>
@@ -8145,7 +8169,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J140" s="101" t="n">
+      <c r="J140" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K140" s="2" t="n"/>
@@ -8197,7 +8221,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J141" s="101" t="n">
+      <c r="J141" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K141" s="2" t="n"/>
@@ -8249,7 +8273,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J142" s="101" t="n">
+      <c r="J142" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K142" s="2" t="n"/>
@@ -8301,7 +8325,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J143" s="102" t="n">
+      <c r="J143" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K143" s="2" t="n"/>
@@ -8353,7 +8377,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J144" s="101" t="n">
+      <c r="J144" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K144" s="2" t="n"/>
@@ -8405,7 +8429,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J145" s="102" t="n">
+      <c r="J145" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K145" s="2" t="n"/>
@@ -8457,7 +8481,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J146" s="101" t="n">
+      <c r="J146" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K146" s="2" t="n"/>
@@ -8509,7 +8533,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J147" s="101" t="n">
+      <c r="J147" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K147" s="2" t="n"/>
@@ -8561,7 +8585,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J148" s="101" t="n">
+      <c r="J148" s="110" t="n">
         <v>1</v>
       </c>
       <c r="K148" s="2" t="n"/>
@@ -8613,7 +8637,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J149" s="102" t="n">
+      <c r="J149" s="108" t="n">
         <v>0</v>
       </c>
       <c r="K149" s="2" t="n"/>
@@ -8626,6 +8650,526 @@
       <c r="R149" s="2" t="n"/>
       <c r="S149" s="2" t="n"/>
       <c r="T149" s="2" t="n"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>19.09.2025</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>St.Pauli</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="inlineStr">
+        <is>
+          <t>IX</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F150" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G150" s="2" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="H150" s="2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I150" s="2" t="inlineStr">
+        <is>
+          <t>2 - 0</t>
+        </is>
+      </c>
+      <c r="J150" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K150" s="2" t="n"/>
+      <c r="L150" s="2" t="n"/>
+      <c r="M150" s="2" t="n"/>
+      <c r="N150" s="2" t="n"/>
+      <c r="O150" s="2" t="n"/>
+      <c r="P150" s="2" t="n"/>
+      <c r="Q150" s="2" t="n"/>
+      <c r="R150" s="2" t="n"/>
+      <c r="S150" s="2" t="n"/>
+      <c r="T150" s="2" t="n"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>20.09.2025</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C151" s="2" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D151" s="2" t="inlineStr">
+        <is>
+          <t>1X</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F151" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G151" s="2" t="n">
+        <v>57.49999999999999</v>
+      </c>
+      <c r="H151" s="2" t="n">
+        <v>7.499999999999993</v>
+      </c>
+      <c r="I151" s="2" t="inlineStr">
+        <is>
+          <t>2 - 1</t>
+        </is>
+      </c>
+      <c r="J151" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" s="2" t="n"/>
+      <c r="L151" s="2" t="n"/>
+      <c r="M151" s="2" t="n"/>
+      <c r="N151" s="2" t="n"/>
+      <c r="O151" s="2" t="n"/>
+      <c r="P151" s="2" t="n"/>
+      <c r="Q151" s="2" t="n"/>
+      <c r="R151" s="2" t="n"/>
+      <c r="S151" s="2" t="n"/>
+      <c r="T151" s="2" t="n"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>20.09.2025</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>Bayern Munchen</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F152" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G152" s="2" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="H152" s="2" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="I152" s="2" t="inlineStr">
+        <is>
+          <t>1 - 4</t>
+        </is>
+      </c>
+      <c r="J152" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K152" s="2" t="n"/>
+      <c r="L152" s="2" t="n"/>
+      <c r="M152" s="2" t="n"/>
+      <c r="N152" s="2" t="n"/>
+      <c r="O152" s="2" t="n"/>
+      <c r="P152" s="2" t="n"/>
+      <c r="Q152" s="2" t="n"/>
+      <c r="R152" s="2" t="n"/>
+      <c r="S152" s="2" t="n"/>
+      <c r="T152" s="2" t="n"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>20.09.2025</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="C153" s="2" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D153" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="F153" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="H153" s="2" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="I153" s="2" t="inlineStr">
+        <is>
+          <t>2 - 1</t>
+        </is>
+      </c>
+      <c r="J153" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" s="2" t="n"/>
+      <c r="L153" s="2" t="n"/>
+      <c r="M153" s="2" t="n"/>
+      <c r="N153" s="2" t="n"/>
+      <c r="O153" s="2" t="n"/>
+      <c r="P153" s="2" t="n"/>
+      <c r="Q153" s="2" t="n"/>
+      <c r="R153" s="2" t="n"/>
+      <c r="S153" s="2" t="n"/>
+      <c r="T153" s="2" t="n"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>20.09.2025</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F154" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G154" s="2" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="H154" s="2" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="I154" s="2" t="inlineStr">
+        <is>
+          <t>4 - 1</t>
+        </is>
+      </c>
+      <c r="J154" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" s="2" t="n"/>
+      <c r="L154" s="2" t="n"/>
+      <c r="M154" s="2" t="n"/>
+      <c r="N154" s="2" t="n"/>
+      <c r="O154" s="2" t="n"/>
+      <c r="P154" s="2" t="n"/>
+      <c r="Q154" s="2" t="n"/>
+      <c r="R154" s="2" t="n"/>
+      <c r="S154" s="2" t="n"/>
+      <c r="T154" s="2" t="n"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>20.09.2025</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="C155" s="2" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F155" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G155" s="2" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="H155" s="2" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="I155" s="2" t="inlineStr">
+        <is>
+          <t>3 - 0</t>
+        </is>
+      </c>
+      <c r="J155" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" s="2" t="n"/>
+      <c r="L155" s="2" t="n"/>
+      <c r="M155" s="2" t="n"/>
+      <c r="N155" s="2" t="n"/>
+      <c r="O155" s="2" t="n"/>
+      <c r="P155" s="2" t="n"/>
+      <c r="Q155" s="2" t="n"/>
+      <c r="R155" s="2" t="n"/>
+      <c r="S155" s="2" t="n"/>
+      <c r="T155" s="2" t="n"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>21.09.2025</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="inlineStr">
+        <is>
+          <t>1X</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F156" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G156" s="2" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="H156" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I156" s="2" t="inlineStr">
+        <is>
+          <t>3 - 4</t>
+        </is>
+      </c>
+      <c r="J156" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" s="2" t="n"/>
+      <c r="L156" s="2" t="n"/>
+      <c r="M156" s="2" t="n"/>
+      <c r="N156" s="2" t="n"/>
+      <c r="O156" s="2" t="n"/>
+      <c r="P156" s="2" t="n"/>
+      <c r="Q156" s="2" t="n"/>
+      <c r="R156" s="2" t="n"/>
+      <c r="S156" s="2" t="n"/>
+      <c r="T156" s="2" t="n"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>21.09.2025</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="C157" s="2" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="D157" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F157" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G157" s="2" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="H157" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I157" s="2" t="inlineStr">
+        <is>
+          <t>1 - 1</t>
+        </is>
+      </c>
+      <c r="J157" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K157" s="2" t="n"/>
+      <c r="L157" s="2" t="n"/>
+      <c r="M157" s="2" t="n"/>
+      <c r="N157" s="2" t="n"/>
+      <c r="O157" s="2" t="n"/>
+      <c r="P157" s="2" t="n"/>
+      <c r="Q157" s="2" t="n"/>
+      <c r="R157" s="2" t="n"/>
+      <c r="S157" s="2" t="n"/>
+      <c r="T157" s="2" t="n"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>21.09.2025</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F158" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G158" s="2" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="H158" s="2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I158" s="2" t="inlineStr">
+        <is>
+          <t>5 - 2</t>
+        </is>
+      </c>
+      <c r="J158" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K158" s="2" t="n"/>
+      <c r="L158" s="2" t="n"/>
+      <c r="M158" s="2" t="n"/>
+      <c r="N158" s="2" t="n"/>
+      <c r="O158" s="2" t="n"/>
+      <c r="P158" s="2" t="n"/>
+      <c r="Q158" s="2" t="n"/>
+      <c r="R158" s="2" t="n"/>
+      <c r="S158" s="2" t="n"/>
+      <c r="T158" s="2" t="n"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="inlineStr">
+        <is>
+          <t>21.09.2025</t>
+        </is>
+      </c>
+      <c r="B159" s="2" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="C159" s="2" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="D159" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F159" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G159" s="2" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="H159" s="2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I159" s="2" t="inlineStr">
+        <is>
+          <t>2 - 1</t>
+        </is>
+      </c>
+      <c r="J159" s="110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K159" s="2" t="n"/>
+      <c r="L159" s="2" t="n"/>
+      <c r="M159" s="2" t="n"/>
+      <c r="N159" s="2" t="n"/>
+      <c r="O159" s="2" t="n"/>
+      <c r="P159" s="2" t="n"/>
+      <c r="Q159" s="2" t="n"/>
+      <c r="R159" s="2" t="n"/>
+      <c r="S159" s="2" t="n"/>
+      <c r="T159" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8699,14 +9243,14 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>25.0%</t>
         </is>
       </c>
     </row>
@@ -8717,14 +9261,14 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>7</v>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>70.0%</t>
         </is>
       </c>
     </row>
@@ -8753,14 +9297,14 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
@@ -8771,14 +9315,14 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>54.55%</t>
         </is>
       </c>
     </row>
@@ -8843,14 +9387,14 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>6</v>
-      </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>87.5%</t>
         </is>
       </c>
     </row>
@@ -8879,14 +9423,14 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -8933,10 +9477,10 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
@@ -8969,14 +9513,14 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>10</v>
-      </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>90.91%</t>
+          <t>91.67%</t>
         </is>
       </c>
     </row>
@@ -9059,14 +9603,14 @@
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -9113,14 +9657,14 @@
         </is>
       </c>
       <c r="B26" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>75.0%</t>
         </is>
       </c>
     </row>
@@ -9131,14 +9675,14 @@
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
     </row>

--- a/app/placed_bets.xlsx
+++ b/app/placed_bets.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -434,6 +434,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -807,7 +822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T159"/>
+  <dimension ref="A1:T164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -889,12 +904,12 @@
         </is>
       </c>
       <c r="K1" s="2" t="n"/>
-      <c r="L1" s="110" t="inlineStr">
+      <c r="L1" s="115" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="M1" s="108" t="inlineStr">
+      <c r="M1" s="114" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
@@ -973,38 +988,38 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J2" s="110" t="n">
+      <c r="J2" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>74.68000000000001</v>
+        <v>74.23</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>10800</v>
+        <v>11010</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>10026.5</v>
+        <v>10220.5</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>-773.5</v>
+        <v>-789.5</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>-0.75%</t>
+          <t>-0.76%</t>
         </is>
       </c>
       <c r="S2" s="2" t="n">
         <v>1.31</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>246.5</v>
+        <v>240.5</v>
       </c>
     </row>
     <row r="3">
@@ -1045,7 +1060,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J3" s="108" t="n">
+      <c r="J3" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="2" t="n"/>
@@ -1097,7 +1112,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J4" s="110" t="n">
+      <c r="J4" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="n"/>
@@ -1149,7 +1164,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J5" s="110" t="n">
+      <c r="J5" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="n"/>
@@ -1201,7 +1216,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J6" s="110" t="n">
+      <c r="J6" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="n"/>
@@ -1253,7 +1268,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J7" s="108" t="n">
+      <c r="J7" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="n"/>
@@ -1305,7 +1320,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J8" s="110" t="n">
+      <c r="J8" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="n"/>
@@ -1357,7 +1372,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J9" s="108" t="n">
+      <c r="J9" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="2" t="n"/>
@@ -1409,7 +1424,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J10" s="110" t="n">
+      <c r="J10" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="n"/>
@@ -1461,7 +1476,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J11" s="110" t="n">
+      <c r="J11" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="n"/>
@@ -1513,7 +1528,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J12" s="108" t="n">
+      <c r="J12" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="n"/>
@@ -1565,7 +1580,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J13" s="110" t="n">
+      <c r="J13" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="n"/>
@@ -1617,7 +1632,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J14" s="110" t="n">
+      <c r="J14" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="n"/>
@@ -1669,7 +1684,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J15" s="110" t="n">
+      <c r="J15" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="n"/>
@@ -1721,7 +1736,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J16" s="110" t="n">
+      <c r="J16" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="n"/>
@@ -1773,7 +1788,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J17" s="108" t="n">
+      <c r="J17" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="2" t="n"/>
@@ -1825,7 +1840,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J18" s="110" t="n">
+      <c r="J18" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="n"/>
@@ -1877,7 +1892,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J19" s="108" t="n">
+      <c r="J19" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K19" s="2" t="n"/>
@@ -1929,7 +1944,7 @@
           <t>3 - 3</t>
         </is>
       </c>
-      <c r="J20" s="110" t="n">
+      <c r="J20" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="n"/>
@@ -1981,7 +1996,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J21" s="108" t="n">
+      <c r="J21" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="2" t="n"/>
@@ -2033,7 +2048,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J22" s="110" t="n">
+      <c r="J22" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="n"/>
@@ -2085,7 +2100,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J23" s="108" t="n">
+      <c r="J23" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K23" s="2" t="n"/>
@@ -2137,7 +2152,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J24" s="110" t="n">
+      <c r="J24" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K24" s="2" t="n"/>
@@ -2189,7 +2204,7 @@
           <t>0 - 6</t>
         </is>
       </c>
-      <c r="J25" s="110" t="n">
+      <c r="J25" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K25" s="2" t="n"/>
@@ -2241,7 +2256,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J26" s="110" t="n">
+      <c r="J26" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K26" s="2" t="n"/>
@@ -2293,7 +2308,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J27" s="110" t="n">
+      <c r="J27" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="n"/>
@@ -2345,7 +2360,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J28" s="110" t="n">
+      <c r="J28" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K28" s="2" t="n"/>
@@ -2397,7 +2412,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J29" s="108" t="n">
+      <c r="J29" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K29" s="2" t="n"/>
@@ -2449,7 +2464,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J30" s="110" t="n">
+      <c r="J30" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K30" s="2" t="n"/>
@@ -2501,7 +2516,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J31" s="110" t="n">
+      <c r="J31" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="n"/>
@@ -2553,7 +2568,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J32" s="110" t="n">
+      <c r="J32" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K32" s="2" t="n"/>
@@ -2605,7 +2620,7 @@
           <t>2 - 5</t>
         </is>
       </c>
-      <c r="J33" s="110" t="n">
+      <c r="J33" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K33" s="2" t="n"/>
@@ -2657,7 +2672,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J34" s="108" t="n">
+      <c r="J34" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K34" s="2" t="n"/>
@@ -2709,7 +2724,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J35" s="110" t="n">
+      <c r="J35" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K35" s="2" t="n"/>
@@ -2761,7 +2776,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J36" s="110" t="n">
+      <c r="J36" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K36" s="2" t="n"/>
@@ -2813,7 +2828,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J37" s="110" t="n">
+      <c r="J37" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K37" s="2" t="n"/>
@@ -2865,7 +2880,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J38" s="110" t="n">
+      <c r="J38" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="2" t="n"/>
@@ -2917,7 +2932,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J39" s="110" t="n">
+      <c r="J39" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K39" s="2" t="n"/>
@@ -2969,7 +2984,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J40" s="110" t="n">
+      <c r="J40" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K40" s="2" t="n"/>
@@ -3021,7 +3036,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J41" s="110" t="n">
+      <c r="J41" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K41" s="2" t="n"/>
@@ -3073,7 +3088,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J42" s="110" t="n">
+      <c r="J42" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K42" s="2" t="n"/>
@@ -3125,7 +3140,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J43" s="108" t="n">
+      <c r="J43" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K43" s="2" t="n"/>
@@ -3177,7 +3192,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J44" s="110" t="n">
+      <c r="J44" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K44" s="2" t="n"/>
@@ -3229,7 +3244,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J45" s="108" t="n">
+      <c r="J45" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K45" s="2" t="n"/>
@@ -3281,7 +3296,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J46" s="110" t="n">
+      <c r="J46" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K46" s="2" t="n"/>
@@ -3333,7 +3348,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J47" s="110" t="n">
+      <c r="J47" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K47" s="2" t="n"/>
@@ -3385,7 +3400,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J48" s="108" t="n">
+      <c r="J48" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K48" s="2" t="n"/>
@@ -3437,7 +3452,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J49" s="110" t="n">
+      <c r="J49" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K49" s="2" t="n"/>
@@ -3489,7 +3504,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J50" s="110" t="n">
+      <c r="J50" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K50" s="2" t="n"/>
@@ -3541,7 +3556,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J51" s="110" t="n">
+      <c r="J51" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K51" s="2" t="n"/>
@@ -3593,7 +3608,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J52" s="108" t="n">
+      <c r="J52" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K52" s="2" t="n"/>
@@ -3645,7 +3660,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J53" s="110" t="n">
+      <c r="J53" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K53" s="2" t="n"/>
@@ -3697,7 +3712,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J54" s="108" t="n">
+      <c r="J54" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K54" s="2" t="n"/>
@@ -3749,7 +3764,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J55" s="108" t="n">
+      <c r="J55" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K55" s="2" t="n"/>
@@ -3801,7 +3816,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J56" s="110" t="n">
+      <c r="J56" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K56" s="2" t="n"/>
@@ -3853,7 +3868,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J57" s="110" t="n">
+      <c r="J57" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K57" s="2" t="n"/>
@@ -3905,7 +3920,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J58" s="110" t="n">
+      <c r="J58" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K58" s="2" t="n"/>
@@ -3957,7 +3972,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J59" s="108" t="n">
+      <c r="J59" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K59" s="2" t="n"/>
@@ -4009,7 +4024,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J60" s="108" t="n">
+      <c r="J60" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K60" s="2" t="n"/>
@@ -4061,7 +4076,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J61" s="108" t="n">
+      <c r="J61" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K61" s="2" t="n"/>
@@ -4113,7 +4128,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J62" s="110" t="n">
+      <c r="J62" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K62" s="2" t="n"/>
@@ -4165,7 +4180,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J63" s="110" t="n">
+      <c r="J63" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K63" s="2" t="n"/>
@@ -4217,7 +4232,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J64" s="110" t="n">
+      <c r="J64" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K64" s="2" t="n"/>
@@ -4269,7 +4284,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J65" s="110" t="n">
+      <c r="J65" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K65" s="2" t="n"/>
@@ -4321,7 +4336,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J66" s="108" t="n">
+      <c r="J66" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K66" s="2" t="n"/>
@@ -4373,7 +4388,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J67" s="110" t="n">
+      <c r="J67" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K67" s="2" t="n"/>
@@ -4425,7 +4440,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J68" s="110" t="n">
+      <c r="J68" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K68" s="2" t="n"/>
@@ -4477,7 +4492,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J69" s="110" t="n">
+      <c r="J69" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K69" s="2" t="n"/>
@@ -4529,7 +4544,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="J70" s="110" t="n">
+      <c r="J70" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K70" s="2" t="n"/>
@@ -4581,7 +4596,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J71" s="108" t="n">
+      <c r="J71" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K71" s="2" t="n"/>
@@ -4633,7 +4648,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J72" s="110" t="n">
+      <c r="J72" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K72" s="2" t="n"/>
@@ -4685,7 +4700,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J73" s="110" t="n">
+      <c r="J73" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K73" s="2" t="n"/>
@@ -4737,7 +4752,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J74" s="110" t="n">
+      <c r="J74" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K74" s="2" t="n"/>
@@ -4789,7 +4804,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J75" s="110" t="n">
+      <c r="J75" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K75" s="2" t="n"/>
@@ -4841,7 +4856,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J76" s="110" t="n">
+      <c r="J76" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K76" s="2" t="n"/>
@@ -4893,7 +4908,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J77" s="108" t="n">
+      <c r="J77" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K77" s="2" t="n"/>
@@ -4945,7 +4960,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J78" s="108" t="n">
+      <c r="J78" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K78" s="2" t="n"/>
@@ -4997,7 +5012,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J79" s="110" t="n">
+      <c r="J79" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K79" s="2" t="n"/>
@@ -5049,7 +5064,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J80" s="108" t="n">
+      <c r="J80" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K80" s="2" t="n"/>
@@ -5101,7 +5116,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J81" s="110" t="n">
+      <c r="J81" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K81" s="2" t="n"/>
@@ -5153,7 +5168,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J82" s="110" t="n">
+      <c r="J82" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K82" s="2" t="n"/>
@@ -5205,7 +5220,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J83" s="108" t="n">
+      <c r="J83" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K83" s="2" t="n"/>
@@ -5257,7 +5272,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J84" s="108" t="n">
+      <c r="J84" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K84" s="2" t="n"/>
@@ -5309,7 +5324,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J85" s="110" t="n">
+      <c r="J85" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K85" s="2" t="n"/>
@@ -5361,7 +5376,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J86" s="110" t="n">
+      <c r="J86" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K86" s="2" t="n"/>
@@ -5413,7 +5428,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J87" s="110" t="n">
+      <c r="J87" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K87" s="2" t="n"/>
@@ -5465,7 +5480,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J88" s="110" t="n">
+      <c r="J88" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K88" s="2" t="n"/>
@@ -5517,7 +5532,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J89" s="110" t="n">
+      <c r="J89" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K89" s="2" t="n"/>
@@ -5569,7 +5584,7 @@
           <t>1 - 6</t>
         </is>
       </c>
-      <c r="J90" s="110" t="n">
+      <c r="J90" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K90" s="2" t="n"/>
@@ -5621,7 +5636,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J91" s="110" t="n">
+      <c r="J91" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K91" s="2" t="n"/>
@@ -5673,7 +5688,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J92" s="110" t="n">
+      <c r="J92" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K92" s="2" t="n"/>
@@ -5725,7 +5740,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J93" s="110" t="n">
+      <c r="J93" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K93" s="2" t="n"/>
@@ -5777,7 +5792,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J94" s="110" t="n">
+      <c r="J94" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K94" s="2" t="n"/>
@@ -5829,7 +5844,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J95" s="110" t="n">
+      <c r="J95" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K95" s="2" t="n"/>
@@ -5881,7 +5896,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J96" s="110" t="n">
+      <c r="J96" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K96" s="2" t="n"/>
@@ -5933,7 +5948,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J97" s="110" t="n">
+      <c r="J97" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K97" s="2" t="n"/>
@@ -5985,7 +6000,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J98" s="110" t="n">
+      <c r="J98" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K98" s="2" t="n"/>
@@ -6037,7 +6052,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J99" s="108" t="n">
+      <c r="J99" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K99" s="2" t="n"/>
@@ -6089,7 +6104,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J100" s="110" t="n">
+      <c r="J100" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K100" s="2" t="n"/>
@@ -6141,7 +6156,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J101" s="110" t="n">
+      <c r="J101" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K101" s="2" t="n"/>
@@ -6193,7 +6208,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J102" s="110" t="n">
+      <c r="J102" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K102" s="2" t="n"/>
@@ -6245,7 +6260,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J103" s="108" t="n">
+      <c r="J103" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K103" s="2" t="n"/>
@@ -6297,7 +6312,7 @@
           <t>5 - 2</t>
         </is>
       </c>
-      <c r="J104" s="110" t="n">
+      <c r="J104" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K104" s="2" t="n"/>
@@ -6349,7 +6364,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J105" s="110" t="n">
+      <c r="J105" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K105" s="2" t="n"/>
@@ -6401,7 +6416,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J106" s="110" t="n">
+      <c r="J106" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K106" s="2" t="n"/>
@@ -6453,7 +6468,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J107" s="110" t="n">
+      <c r="J107" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K107" s="2" t="n"/>
@@ -6505,7 +6520,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J108" s="110" t="n">
+      <c r="J108" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K108" s="2" t="n"/>
@@ -6557,7 +6572,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J109" s="108" t="n">
+      <c r="J109" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K109" s="2" t="n"/>
@@ -6609,7 +6624,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J110" s="110" t="n">
+      <c r="J110" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K110" s="2" t="n"/>
@@ -6661,7 +6676,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J111" s="110" t="n">
+      <c r="J111" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K111" s="2" t="n"/>
@@ -6713,7 +6728,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J112" s="110" t="n">
+      <c r="J112" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K112" s="2" t="n"/>
@@ -6765,7 +6780,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J113" s="110" t="n">
+      <c r="J113" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K113" s="2" t="n"/>
@@ -6817,7 +6832,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J114" s="110" t="n">
+      <c r="J114" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K114" s="2" t="n"/>
@@ -6869,7 +6884,7 @@
           <t>4 - 3</t>
         </is>
       </c>
-      <c r="J115" s="110" t="n">
+      <c r="J115" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K115" s="2" t="n"/>
@@ -6921,7 +6936,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J116" s="110" t="n">
+      <c r="J116" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K116" s="2" t="n"/>
@@ -6973,7 +6988,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J117" s="110" t="n">
+      <c r="J117" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K117" s="2" t="n"/>
@@ -7025,7 +7040,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J118" s="110" t="n">
+      <c r="J118" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K118" s="2" t="n"/>
@@ -7077,7 +7092,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J119" s="108" t="n">
+      <c r="J119" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K119" s="2" t="n"/>
@@ -7129,7 +7144,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J120" s="110" t="n">
+      <c r="J120" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K120" s="2" t="n"/>
@@ -7181,7 +7196,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J121" s="110" t="n">
+      <c r="J121" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K121" s="2" t="n"/>
@@ -7233,7 +7248,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J122" s="108" t="n">
+      <c r="J122" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K122" s="2" t="n"/>
@@ -7285,7 +7300,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J123" s="110" t="n">
+      <c r="J123" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K123" s="2" t="n"/>
@@ -7337,7 +7352,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J124" s="110" t="n">
+      <c r="J124" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K124" s="2" t="n"/>
@@ -7389,7 +7404,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J125" s="110" t="n">
+      <c r="J125" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K125" s="2" t="n"/>
@@ -7441,7 +7456,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J126" s="108" t="n">
+      <c r="J126" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K126" s="2" t="n"/>
@@ -7493,7 +7508,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J127" s="110" t="n">
+      <c r="J127" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K127" s="2" t="n"/>
@@ -7545,7 +7560,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J128" s="110" t="n">
+      <c r="J128" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K128" s="2" t="n"/>
@@ -7597,7 +7612,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J129" s="110" t="n">
+      <c r="J129" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K129" s="2" t="n"/>
@@ -7649,7 +7664,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J130" s="108" t="n">
+      <c r="J130" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K130" s="2" t="n"/>
@@ -7701,7 +7716,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J131" s="110" t="n">
+      <c r="J131" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K131" s="2" t="n"/>
@@ -7753,7 +7768,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J132" s="110" t="n">
+      <c r="J132" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K132" s="2" t="n"/>
@@ -7805,7 +7820,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J133" s="110" t="n">
+      <c r="J133" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K133" s="2" t="n"/>
@@ -7857,7 +7872,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J134" s="110" t="n">
+      <c r="J134" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K134" s="2" t="n"/>
@@ -7909,7 +7924,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J135" s="110" t="n">
+      <c r="J135" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K135" s="2" t="n"/>
@@ -7961,7 +7976,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J136" s="110" t="n">
+      <c r="J136" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K136" s="2" t="n"/>
@@ -8013,7 +8028,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J137" s="110" t="n">
+      <c r="J137" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K137" s="2" t="n"/>
@@ -8065,7 +8080,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J138" s="110" t="n">
+      <c r="J138" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K138" s="2" t="n"/>
@@ -8117,7 +8132,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="J139" s="110" t="n">
+      <c r="J139" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K139" s="2" t="n"/>
@@ -8169,7 +8184,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J140" s="110" t="n">
+      <c r="J140" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K140" s="2" t="n"/>
@@ -8221,7 +8236,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J141" s="110" t="n">
+      <c r="J141" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K141" s="2" t="n"/>
@@ -8273,7 +8288,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J142" s="110" t="n">
+      <c r="J142" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K142" s="2" t="n"/>
@@ -8325,7 +8340,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J143" s="108" t="n">
+      <c r="J143" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K143" s="2" t="n"/>
@@ -8377,7 +8392,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J144" s="110" t="n">
+      <c r="J144" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K144" s="2" t="n"/>
@@ -8429,7 +8444,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J145" s="108" t="n">
+      <c r="J145" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K145" s="2" t="n"/>
@@ -8481,7 +8496,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J146" s="110" t="n">
+      <c r="J146" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K146" s="2" t="n"/>
@@ -8533,7 +8548,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J147" s="110" t="n">
+      <c r="J147" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K147" s="2" t="n"/>
@@ -8585,7 +8600,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J148" s="110" t="n">
+      <c r="J148" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K148" s="2" t="n"/>
@@ -8637,7 +8652,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J149" s="108" t="n">
+      <c r="J149" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K149" s="2" t="n"/>
@@ -8689,7 +8704,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J150" s="110" t="n">
+      <c r="J150" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K150" s="2" t="n"/>
@@ -8741,7 +8756,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J151" s="110" t="n">
+      <c r="J151" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K151" s="2" t="n"/>
@@ -8793,7 +8808,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J152" s="110" t="n">
+      <c r="J152" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K152" s="2" t="n"/>
@@ -8845,7 +8860,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J153" s="108" t="n">
+      <c r="J153" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K153" s="2" t="n"/>
@@ -8897,7 +8912,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J154" s="108" t="n">
+      <c r="J154" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K154" s="2" t="n"/>
@@ -8949,7 +8964,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J155" s="108" t="n">
+      <c r="J155" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K155" s="2" t="n"/>
@@ -9001,7 +9016,7 @@
           <t>3 - 4</t>
         </is>
       </c>
-      <c r="J156" s="108" t="n">
+      <c r="J156" s="114" t="n">
         <v>0</v>
       </c>
       <c r="K156" s="2" t="n"/>
@@ -9053,7 +9068,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J157" s="110" t="n">
+      <c r="J157" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K157" s="2" t="n"/>
@@ -9105,7 +9120,7 @@
           <t>5 - 2</t>
         </is>
       </c>
-      <c r="J158" s="110" t="n">
+      <c r="J158" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K158" s="2" t="n"/>
@@ -9157,7 +9172,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J159" s="110" t="n">
+      <c r="J159" s="115" t="n">
         <v>1</v>
       </c>
       <c r="K159" s="2" t="n"/>
@@ -9170,6 +9185,266 @@
       <c r="R159" s="2" t="n"/>
       <c r="S159" s="2" t="n"/>
       <c r="T159" s="2" t="n"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>24.09.2025</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="F160" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G160" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="H160" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="I160" s="2" t="inlineStr">
+        <is>
+          <t>3 - 2</t>
+        </is>
+      </c>
+      <c r="J160" s="115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K160" s="2" t="n"/>
+      <c r="L160" s="2" t="n"/>
+      <c r="M160" s="2" t="n"/>
+      <c r="N160" s="2" t="n"/>
+      <c r="O160" s="2" t="n"/>
+      <c r="P160" s="2" t="n"/>
+      <c r="Q160" s="2" t="n"/>
+      <c r="R160" s="2" t="n"/>
+      <c r="S160" s="2" t="n"/>
+      <c r="T160" s="2" t="n"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="inlineStr">
+        <is>
+          <t>27.09.2025</t>
+        </is>
+      </c>
+      <c r="B161" s="2" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C161" s="2" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F161" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="H161" s="2" t="n">
+        <v>8.799999999999997</v>
+      </c>
+      <c r="I161" s="2" t="inlineStr">
+        <is>
+          <t>2 - 1</t>
+        </is>
+      </c>
+      <c r="J161" s="114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" s="2" t="n"/>
+      <c r="L161" s="2" t="n"/>
+      <c r="M161" s="2" t="n"/>
+      <c r="N161" s="2" t="n"/>
+      <c r="O161" s="2" t="n"/>
+      <c r="P161" s="2" t="n"/>
+      <c r="Q161" s="2" t="n"/>
+      <c r="R161" s="2" t="n"/>
+      <c r="S161" s="2" t="n"/>
+      <c r="T161" s="2" t="n"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>27.09.2025</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F162" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G162" s="2" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="H162" s="2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I162" s="2" t="inlineStr">
+        <is>
+          <t>3 - 1</t>
+        </is>
+      </c>
+      <c r="J162" s="114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" s="2" t="n"/>
+      <c r="L162" s="2" t="n"/>
+      <c r="M162" s="2" t="n"/>
+      <c r="N162" s="2" t="n"/>
+      <c r="O162" s="2" t="n"/>
+      <c r="P162" s="2" t="n"/>
+      <c r="Q162" s="2" t="n"/>
+      <c r="R162" s="2" t="n"/>
+      <c r="S162" s="2" t="n"/>
+      <c r="T162" s="2" t="n"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>27.09.2025</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="C163" s="2" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="D163" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F163" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G163" s="2" t="n">
+        <v>56.99999999999999</v>
+      </c>
+      <c r="H163" s="2" t="n">
+        <v>6.999999999999993</v>
+      </c>
+      <c r="I163" s="2" t="inlineStr">
+        <is>
+          <t>0 - 2</t>
+        </is>
+      </c>
+      <c r="J163" s="115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K163" s="2" t="n"/>
+      <c r="L163" s="2" t="n"/>
+      <c r="M163" s="2" t="n"/>
+      <c r="N163" s="2" t="n"/>
+      <c r="O163" s="2" t="n"/>
+      <c r="P163" s="2" t="n"/>
+      <c r="Q163" s="2" t="n"/>
+      <c r="R163" s="2" t="n"/>
+      <c r="S163" s="2" t="n"/>
+      <c r="T163" s="2" t="n"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>27.09.2025</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F164" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G164" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="H164" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="I164" s="2" t="inlineStr">
+        <is>
+          <t>2 - 0</t>
+        </is>
+      </c>
+      <c r="J164" s="115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K164" s="2" t="n"/>
+      <c r="L164" s="2" t="n"/>
+      <c r="M164" s="2" t="n"/>
+      <c r="N164" s="2" t="n"/>
+      <c r="O164" s="2" t="n"/>
+      <c r="P164" s="2" t="n"/>
+      <c r="Q164" s="2" t="n"/>
+      <c r="R164" s="2" t="n"/>
+      <c r="S164" s="2" t="n"/>
+      <c r="T164" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9261,14 +9536,14 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>7</v>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>70.0%</t>
+          <t>63.64%</t>
         </is>
       </c>
     </row>
@@ -9315,14 +9590,14 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>54.55%</t>
+          <t>58.33%</t>
         </is>
       </c>
     </row>
@@ -9513,14 +9788,14 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>11</v>
-      </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>91.67%</t>
+          <t>92.31%</t>
         </is>
       </c>
     </row>
@@ -9657,14 +9932,14 @@
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3</v>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
     </row>
@@ -9693,14 +9968,14 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>84.62%</t>
+          <t>85.71%</t>
         </is>
       </c>
     </row>

--- a/app/placed_bets.xlsx
+++ b/app/placed_bets.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -446,6 +446,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -822,7 +840,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T164"/>
+  <dimension ref="A1:T170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -904,12 +922,12 @@
         </is>
       </c>
       <c r="K1" s="2" t="n"/>
-      <c r="L1" s="115" t="inlineStr">
+      <c r="L1" s="121" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="M1" s="114" t="inlineStr">
+      <c r="M1" s="120" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
@@ -988,38 +1006,38 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J2" s="115" t="n">
+      <c r="J2" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>74.23</v>
+        <v>73.95999999999999</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>11010</v>
+        <v>11310</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>10220.5</v>
+        <v>10490.5</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>-789.5</v>
+        <v>-819.5</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>-0.76%</t>
+          <t>-0.79%</t>
         </is>
       </c>
       <c r="S2" s="2" t="n">
         <v>1.31</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>240.5</v>
+        <v>210.5</v>
       </c>
     </row>
     <row r="3">
@@ -1060,7 +1078,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J3" s="114" t="n">
+      <c r="J3" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="2" t="n"/>
@@ -1112,7 +1130,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J4" s="115" t="n">
+      <c r="J4" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="n"/>
@@ -1164,7 +1182,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J5" s="115" t="n">
+      <c r="J5" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="n"/>
@@ -1216,7 +1234,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J6" s="115" t="n">
+      <c r="J6" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="n"/>
@@ -1268,7 +1286,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J7" s="114" t="n">
+      <c r="J7" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="n"/>
@@ -1320,7 +1338,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J8" s="115" t="n">
+      <c r="J8" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="n"/>
@@ -1372,7 +1390,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J9" s="114" t="n">
+      <c r="J9" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="2" t="n"/>
@@ -1424,7 +1442,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J10" s="115" t="n">
+      <c r="J10" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="n"/>
@@ -1476,7 +1494,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J11" s="115" t="n">
+      <c r="J11" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="n"/>
@@ -1528,7 +1546,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J12" s="114" t="n">
+      <c r="J12" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="n"/>
@@ -1580,7 +1598,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J13" s="115" t="n">
+      <c r="J13" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="n"/>
@@ -1632,7 +1650,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J14" s="115" t="n">
+      <c r="J14" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="n"/>
@@ -1684,7 +1702,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J15" s="115" t="n">
+      <c r="J15" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="n"/>
@@ -1736,7 +1754,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J16" s="115" t="n">
+      <c r="J16" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="n"/>
@@ -1788,7 +1806,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J17" s="114" t="n">
+      <c r="J17" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="2" t="n"/>
@@ -1840,7 +1858,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J18" s="115" t="n">
+      <c r="J18" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="n"/>
@@ -1892,7 +1910,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J19" s="114" t="n">
+      <c r="J19" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K19" s="2" t="n"/>
@@ -1944,7 +1962,7 @@
           <t>3 - 3</t>
         </is>
       </c>
-      <c r="J20" s="115" t="n">
+      <c r="J20" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="n"/>
@@ -1996,7 +2014,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J21" s="114" t="n">
+      <c r="J21" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="2" t="n"/>
@@ -2048,7 +2066,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J22" s="115" t="n">
+      <c r="J22" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="n"/>
@@ -2100,7 +2118,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J23" s="114" t="n">
+      <c r="J23" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K23" s="2" t="n"/>
@@ -2152,7 +2170,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J24" s="115" t="n">
+      <c r="J24" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K24" s="2" t="n"/>
@@ -2204,7 +2222,7 @@
           <t>0 - 6</t>
         </is>
       </c>
-      <c r="J25" s="115" t="n">
+      <c r="J25" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K25" s="2" t="n"/>
@@ -2256,7 +2274,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J26" s="115" t="n">
+      <c r="J26" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K26" s="2" t="n"/>
@@ -2308,7 +2326,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J27" s="115" t="n">
+      <c r="J27" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="n"/>
@@ -2360,7 +2378,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J28" s="115" t="n">
+      <c r="J28" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K28" s="2" t="n"/>
@@ -2412,7 +2430,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J29" s="114" t="n">
+      <c r="J29" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K29" s="2" t="n"/>
@@ -2464,7 +2482,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J30" s="115" t="n">
+      <c r="J30" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K30" s="2" t="n"/>
@@ -2516,7 +2534,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J31" s="115" t="n">
+      <c r="J31" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="n"/>
@@ -2568,7 +2586,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J32" s="115" t="n">
+      <c r="J32" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K32" s="2" t="n"/>
@@ -2620,7 +2638,7 @@
           <t>2 - 5</t>
         </is>
       </c>
-      <c r="J33" s="115" t="n">
+      <c r="J33" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K33" s="2" t="n"/>
@@ -2672,7 +2690,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J34" s="114" t="n">
+      <c r="J34" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K34" s="2" t="n"/>
@@ -2724,7 +2742,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J35" s="115" t="n">
+      <c r="J35" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K35" s="2" t="n"/>
@@ -2776,7 +2794,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J36" s="115" t="n">
+      <c r="J36" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K36" s="2" t="n"/>
@@ -2828,7 +2846,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J37" s="115" t="n">
+      <c r="J37" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K37" s="2" t="n"/>
@@ -2880,7 +2898,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J38" s="115" t="n">
+      <c r="J38" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="2" t="n"/>
@@ -2932,7 +2950,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J39" s="115" t="n">
+      <c r="J39" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K39" s="2" t="n"/>
@@ -2984,7 +3002,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J40" s="115" t="n">
+      <c r="J40" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K40" s="2" t="n"/>
@@ -3036,7 +3054,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J41" s="115" t="n">
+      <c r="J41" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K41" s="2" t="n"/>
@@ -3088,7 +3106,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J42" s="115" t="n">
+      <c r="J42" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K42" s="2" t="n"/>
@@ -3140,7 +3158,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J43" s="114" t="n">
+      <c r="J43" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K43" s="2" t="n"/>
@@ -3192,7 +3210,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J44" s="115" t="n">
+      <c r="J44" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K44" s="2" t="n"/>
@@ -3244,7 +3262,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J45" s="114" t="n">
+      <c r="J45" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K45" s="2" t="n"/>
@@ -3296,7 +3314,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J46" s="115" t="n">
+      <c r="J46" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K46" s="2" t="n"/>
@@ -3348,7 +3366,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J47" s="115" t="n">
+      <c r="J47" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K47" s="2" t="n"/>
@@ -3400,7 +3418,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J48" s="114" t="n">
+      <c r="J48" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K48" s="2" t="n"/>
@@ -3452,7 +3470,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J49" s="115" t="n">
+      <c r="J49" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K49" s="2" t="n"/>
@@ -3504,7 +3522,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J50" s="115" t="n">
+      <c r="J50" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K50" s="2" t="n"/>
@@ -3556,7 +3574,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J51" s="115" t="n">
+      <c r="J51" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K51" s="2" t="n"/>
@@ -3608,7 +3626,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J52" s="114" t="n">
+      <c r="J52" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K52" s="2" t="n"/>
@@ -3660,7 +3678,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J53" s="115" t="n">
+      <c r="J53" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K53" s="2" t="n"/>
@@ -3712,7 +3730,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J54" s="114" t="n">
+      <c r="J54" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K54" s="2" t="n"/>
@@ -3764,7 +3782,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J55" s="114" t="n">
+      <c r="J55" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K55" s="2" t="n"/>
@@ -3816,7 +3834,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J56" s="115" t="n">
+      <c r="J56" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K56" s="2" t="n"/>
@@ -3868,7 +3886,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J57" s="115" t="n">
+      <c r="J57" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K57" s="2" t="n"/>
@@ -3920,7 +3938,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J58" s="115" t="n">
+      <c r="J58" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K58" s="2" t="n"/>
@@ -3972,7 +3990,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J59" s="114" t="n">
+      <c r="J59" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K59" s="2" t="n"/>
@@ -4024,7 +4042,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J60" s="114" t="n">
+      <c r="J60" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K60" s="2" t="n"/>
@@ -4076,7 +4094,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J61" s="114" t="n">
+      <c r="J61" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K61" s="2" t="n"/>
@@ -4128,7 +4146,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J62" s="115" t="n">
+      <c r="J62" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K62" s="2" t="n"/>
@@ -4180,7 +4198,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J63" s="115" t="n">
+      <c r="J63" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K63" s="2" t="n"/>
@@ -4232,7 +4250,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J64" s="115" t="n">
+      <c r="J64" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K64" s="2" t="n"/>
@@ -4284,7 +4302,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J65" s="115" t="n">
+      <c r="J65" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K65" s="2" t="n"/>
@@ -4336,7 +4354,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J66" s="114" t="n">
+      <c r="J66" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K66" s="2" t="n"/>
@@ -4388,7 +4406,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J67" s="115" t="n">
+      <c r="J67" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K67" s="2" t="n"/>
@@ -4440,7 +4458,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J68" s="115" t="n">
+      <c r="J68" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K68" s="2" t="n"/>
@@ -4492,7 +4510,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J69" s="115" t="n">
+      <c r="J69" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K69" s="2" t="n"/>
@@ -4544,7 +4562,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="J70" s="115" t="n">
+      <c r="J70" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K70" s="2" t="n"/>
@@ -4596,7 +4614,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J71" s="114" t="n">
+      <c r="J71" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K71" s="2" t="n"/>
@@ -4648,7 +4666,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J72" s="115" t="n">
+      <c r="J72" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K72" s="2" t="n"/>
@@ -4700,7 +4718,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J73" s="115" t="n">
+      <c r="J73" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K73" s="2" t="n"/>
@@ -4752,7 +4770,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J74" s="115" t="n">
+      <c r="J74" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K74" s="2" t="n"/>
@@ -4804,7 +4822,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J75" s="115" t="n">
+      <c r="J75" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K75" s="2" t="n"/>
@@ -4856,7 +4874,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J76" s="115" t="n">
+      <c r="J76" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K76" s="2" t="n"/>
@@ -4908,7 +4926,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J77" s="114" t="n">
+      <c r="J77" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K77" s="2" t="n"/>
@@ -4960,7 +4978,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J78" s="114" t="n">
+      <c r="J78" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K78" s="2" t="n"/>
@@ -5012,7 +5030,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J79" s="115" t="n">
+      <c r="J79" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K79" s="2" t="n"/>
@@ -5064,7 +5082,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J80" s="114" t="n">
+      <c r="J80" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K80" s="2" t="n"/>
@@ -5116,7 +5134,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J81" s="115" t="n">
+      <c r="J81" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K81" s="2" t="n"/>
@@ -5168,7 +5186,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J82" s="115" t="n">
+      <c r="J82" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K82" s="2" t="n"/>
@@ -5220,7 +5238,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J83" s="114" t="n">
+      <c r="J83" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K83" s="2" t="n"/>
@@ -5272,7 +5290,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J84" s="114" t="n">
+      <c r="J84" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K84" s="2" t="n"/>
@@ -5324,7 +5342,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J85" s="115" t="n">
+      <c r="J85" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K85" s="2" t="n"/>
@@ -5376,7 +5394,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J86" s="115" t="n">
+      <c r="J86" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K86" s="2" t="n"/>
@@ -5428,7 +5446,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J87" s="115" t="n">
+      <c r="J87" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K87" s="2" t="n"/>
@@ -5480,7 +5498,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J88" s="115" t="n">
+      <c r="J88" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K88" s="2" t="n"/>
@@ -5532,7 +5550,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J89" s="115" t="n">
+      <c r="J89" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K89" s="2" t="n"/>
@@ -5584,7 +5602,7 @@
           <t>1 - 6</t>
         </is>
       </c>
-      <c r="J90" s="115" t="n">
+      <c r="J90" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K90" s="2" t="n"/>
@@ -5636,7 +5654,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J91" s="115" t="n">
+      <c r="J91" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K91" s="2" t="n"/>
@@ -5688,7 +5706,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J92" s="115" t="n">
+      <c r="J92" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K92" s="2" t="n"/>
@@ -5740,7 +5758,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J93" s="115" t="n">
+      <c r="J93" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K93" s="2" t="n"/>
@@ -5792,7 +5810,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J94" s="115" t="n">
+      <c r="J94" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K94" s="2" t="n"/>
@@ -5844,7 +5862,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J95" s="115" t="n">
+      <c r="J95" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K95" s="2" t="n"/>
@@ -5896,7 +5914,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J96" s="115" t="n">
+      <c r="J96" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K96" s="2" t="n"/>
@@ -5948,7 +5966,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J97" s="115" t="n">
+      <c r="J97" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K97" s="2" t="n"/>
@@ -6000,7 +6018,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J98" s="115" t="n">
+      <c r="J98" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K98" s="2" t="n"/>
@@ -6052,7 +6070,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J99" s="114" t="n">
+      <c r="J99" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K99" s="2" t="n"/>
@@ -6104,7 +6122,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J100" s="115" t="n">
+      <c r="J100" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K100" s="2" t="n"/>
@@ -6156,7 +6174,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J101" s="115" t="n">
+      <c r="J101" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K101" s="2" t="n"/>
@@ -6208,7 +6226,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J102" s="115" t="n">
+      <c r="J102" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K102" s="2" t="n"/>
@@ -6260,7 +6278,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J103" s="114" t="n">
+      <c r="J103" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K103" s="2" t="n"/>
@@ -6312,7 +6330,7 @@
           <t>5 - 2</t>
         </is>
       </c>
-      <c r="J104" s="115" t="n">
+      <c r="J104" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K104" s="2" t="n"/>
@@ -6364,7 +6382,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J105" s="115" t="n">
+      <c r="J105" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K105" s="2" t="n"/>
@@ -6416,7 +6434,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J106" s="115" t="n">
+      <c r="J106" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K106" s="2" t="n"/>
@@ -6468,7 +6486,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J107" s="115" t="n">
+      <c r="J107" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K107" s="2" t="n"/>
@@ -6520,7 +6538,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J108" s="115" t="n">
+      <c r="J108" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K108" s="2" t="n"/>
@@ -6572,7 +6590,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J109" s="114" t="n">
+      <c r="J109" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K109" s="2" t="n"/>
@@ -6624,7 +6642,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J110" s="115" t="n">
+      <c r="J110" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K110" s="2" t="n"/>
@@ -6676,7 +6694,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J111" s="115" t="n">
+      <c r="J111" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K111" s="2" t="n"/>
@@ -6728,7 +6746,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J112" s="115" t="n">
+      <c r="J112" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K112" s="2" t="n"/>
@@ -6780,7 +6798,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J113" s="115" t="n">
+      <c r="J113" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K113" s="2" t="n"/>
@@ -6832,7 +6850,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J114" s="115" t="n">
+      <c r="J114" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K114" s="2" t="n"/>
@@ -6884,7 +6902,7 @@
           <t>4 - 3</t>
         </is>
       </c>
-      <c r="J115" s="115" t="n">
+      <c r="J115" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K115" s="2" t="n"/>
@@ -6936,7 +6954,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J116" s="115" t="n">
+      <c r="J116" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K116" s="2" t="n"/>
@@ -6988,7 +7006,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J117" s="115" t="n">
+      <c r="J117" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K117" s="2" t="n"/>
@@ -7040,7 +7058,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J118" s="115" t="n">
+      <c r="J118" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K118" s="2" t="n"/>
@@ -7092,7 +7110,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J119" s="114" t="n">
+      <c r="J119" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K119" s="2" t="n"/>
@@ -7144,7 +7162,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J120" s="115" t="n">
+      <c r="J120" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K120" s="2" t="n"/>
@@ -7196,7 +7214,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J121" s="115" t="n">
+      <c r="J121" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K121" s="2" t="n"/>
@@ -7248,7 +7266,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J122" s="114" t="n">
+      <c r="J122" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K122" s="2" t="n"/>
@@ -7300,7 +7318,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J123" s="115" t="n">
+      <c r="J123" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K123" s="2" t="n"/>
@@ -7352,7 +7370,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J124" s="115" t="n">
+      <c r="J124" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K124" s="2" t="n"/>
@@ -7404,7 +7422,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J125" s="115" t="n">
+      <c r="J125" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K125" s="2" t="n"/>
@@ -7456,7 +7474,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J126" s="114" t="n">
+      <c r="J126" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K126" s="2" t="n"/>
@@ -7508,7 +7526,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J127" s="115" t="n">
+      <c r="J127" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K127" s="2" t="n"/>
@@ -7560,7 +7578,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J128" s="115" t="n">
+      <c r="J128" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K128" s="2" t="n"/>
@@ -7612,7 +7630,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J129" s="115" t="n">
+      <c r="J129" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K129" s="2" t="n"/>
@@ -7664,7 +7682,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J130" s="114" t="n">
+      <c r="J130" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K130" s="2" t="n"/>
@@ -7716,7 +7734,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J131" s="115" t="n">
+      <c r="J131" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K131" s="2" t="n"/>
@@ -7768,7 +7786,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J132" s="115" t="n">
+      <c r="J132" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K132" s="2" t="n"/>
@@ -7820,7 +7838,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J133" s="115" t="n">
+      <c r="J133" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K133" s="2" t="n"/>
@@ -7872,7 +7890,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J134" s="115" t="n">
+      <c r="J134" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K134" s="2" t="n"/>
@@ -7924,7 +7942,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J135" s="115" t="n">
+      <c r="J135" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K135" s="2" t="n"/>
@@ -7976,7 +7994,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J136" s="115" t="n">
+      <c r="J136" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K136" s="2" t="n"/>
@@ -8028,7 +8046,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J137" s="115" t="n">
+      <c r="J137" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K137" s="2" t="n"/>
@@ -8080,7 +8098,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J138" s="115" t="n">
+      <c r="J138" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K138" s="2" t="n"/>
@@ -8132,7 +8150,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="J139" s="115" t="n">
+      <c r="J139" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K139" s="2" t="n"/>
@@ -8184,7 +8202,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J140" s="115" t="n">
+      <c r="J140" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K140" s="2" t="n"/>
@@ -8236,7 +8254,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J141" s="115" t="n">
+      <c r="J141" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K141" s="2" t="n"/>
@@ -8288,7 +8306,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J142" s="115" t="n">
+      <c r="J142" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K142" s="2" t="n"/>
@@ -8340,7 +8358,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J143" s="114" t="n">
+      <c r="J143" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K143" s="2" t="n"/>
@@ -8392,7 +8410,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J144" s="115" t="n">
+      <c r="J144" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K144" s="2" t="n"/>
@@ -8444,7 +8462,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J145" s="114" t="n">
+      <c r="J145" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K145" s="2" t="n"/>
@@ -8496,7 +8514,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J146" s="115" t="n">
+      <c r="J146" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K146" s="2" t="n"/>
@@ -8548,7 +8566,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J147" s="115" t="n">
+      <c r="J147" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K147" s="2" t="n"/>
@@ -8600,7 +8618,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J148" s="115" t="n">
+      <c r="J148" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K148" s="2" t="n"/>
@@ -8652,7 +8670,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J149" s="114" t="n">
+      <c r="J149" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K149" s="2" t="n"/>
@@ -8704,7 +8722,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J150" s="115" t="n">
+      <c r="J150" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K150" s="2" t="n"/>
@@ -8756,7 +8774,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J151" s="115" t="n">
+      <c r="J151" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K151" s="2" t="n"/>
@@ -8808,7 +8826,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J152" s="115" t="n">
+      <c r="J152" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K152" s="2" t="n"/>
@@ -8860,7 +8878,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J153" s="114" t="n">
+      <c r="J153" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K153" s="2" t="n"/>
@@ -8912,7 +8930,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J154" s="114" t="n">
+      <c r="J154" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K154" s="2" t="n"/>
@@ -8964,7 +8982,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J155" s="114" t="n">
+      <c r="J155" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K155" s="2" t="n"/>
@@ -9016,7 +9034,7 @@
           <t>3 - 4</t>
         </is>
       </c>
-      <c r="J156" s="114" t="n">
+      <c r="J156" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K156" s="2" t="n"/>
@@ -9068,7 +9086,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J157" s="115" t="n">
+      <c r="J157" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K157" s="2" t="n"/>
@@ -9120,7 +9138,7 @@
           <t>5 - 2</t>
         </is>
       </c>
-      <c r="J158" s="115" t="n">
+      <c r="J158" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K158" s="2" t="n"/>
@@ -9172,7 +9190,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J159" s="115" t="n">
+      <c r="J159" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K159" s="2" t="n"/>
@@ -9224,7 +9242,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J160" s="115" t="n">
+      <c r="J160" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K160" s="2" t="n"/>
@@ -9276,7 +9294,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J161" s="114" t="n">
+      <c r="J161" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K161" s="2" t="n"/>
@@ -9328,7 +9346,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J162" s="114" t="n">
+      <c r="J162" s="120" t="n">
         <v>0</v>
       </c>
       <c r="K162" s="2" t="n"/>
@@ -9380,7 +9398,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J163" s="115" t="n">
+      <c r="J163" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K163" s="2" t="n"/>
@@ -9432,7 +9450,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J164" s="115" t="n">
+      <c r="J164" s="121" t="n">
         <v>1</v>
       </c>
       <c r="K164" s="2" t="n"/>
@@ -9445,6 +9463,318 @@
       <c r="R164" s="2" t="n"/>
       <c r="S164" s="2" t="n"/>
       <c r="T164" s="2" t="n"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="inlineStr">
+        <is>
+          <t>04.10.2025</t>
+        </is>
+      </c>
+      <c r="B165" s="2" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="C165" s="2" t="inlineStr">
+        <is>
+          <t>Olympique Marseille</t>
+        </is>
+      </c>
+      <c r="D165" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F165" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G165" s="2" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="H165" s="2" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="I165" s="2" t="inlineStr">
+        <is>
+          <t>0 - 3</t>
+        </is>
+      </c>
+      <c r="J165" s="121" t="n">
+        <v>1</v>
+      </c>
+      <c r="K165" s="2" t="n"/>
+      <c r="L165" s="2" t="n"/>
+      <c r="M165" s="2" t="n"/>
+      <c r="N165" s="2" t="n"/>
+      <c r="O165" s="2" t="n"/>
+      <c r="P165" s="2" t="n"/>
+      <c r="Q165" s="2" t="n"/>
+      <c r="R165" s="2" t="n"/>
+      <c r="S165" s="2" t="n"/>
+      <c r="T165" s="2" t="n"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>05.10.2025</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>Olympique Lyon</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F166" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G166" s="2" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="H166" s="2" t="n">
+        <v>53.49999999999999</v>
+      </c>
+      <c r="I166" s="2" t="inlineStr">
+        <is>
+          <t>1 - 2</t>
+        </is>
+      </c>
+      <c r="J166" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" s="2" t="n"/>
+      <c r="L166" s="2" t="n"/>
+      <c r="M166" s="2" t="n"/>
+      <c r="N166" s="2" t="n"/>
+      <c r="O166" s="2" t="n"/>
+      <c r="P166" s="2" t="n"/>
+      <c r="Q166" s="2" t="n"/>
+      <c r="R166" s="2" t="n"/>
+      <c r="S166" s="2" t="n"/>
+      <c r="T166" s="2" t="n"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="inlineStr">
+        <is>
+          <t>05.10.2025</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="C167" s="2" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="D167" s="2" t="inlineStr">
+        <is>
+          <t>1X</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F167" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G167" s="2" t="n">
+        <v>55.50000000000001</v>
+      </c>
+      <c r="H167" s="2" t="n">
+        <v>5.500000000000007</v>
+      </c>
+      <c r="I167" s="2" t="inlineStr">
+        <is>
+          <t>1 - 0</t>
+        </is>
+      </c>
+      <c r="J167" s="121" t="n">
+        <v>1</v>
+      </c>
+      <c r="K167" s="2" t="n"/>
+      <c r="L167" s="2" t="n"/>
+      <c r="M167" s="2" t="n"/>
+      <c r="N167" s="2" t="n"/>
+      <c r="O167" s="2" t="n"/>
+      <c r="P167" s="2" t="n"/>
+      <c r="Q167" s="2" t="n"/>
+      <c r="R167" s="2" t="n"/>
+      <c r="S167" s="2" t="n"/>
+      <c r="T167" s="2" t="n"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>05.10.2025</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F168" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G168" s="2" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="H168" s="2" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="I168" s="2" t="inlineStr">
+        <is>
+          <t>4 - 1</t>
+        </is>
+      </c>
+      <c r="J168" s="120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" s="2" t="n"/>
+      <c r="L168" s="2" t="n"/>
+      <c r="M168" s="2" t="n"/>
+      <c r="N168" s="2" t="n"/>
+      <c r="O168" s="2" t="n"/>
+      <c r="P168" s="2" t="n"/>
+      <c r="Q168" s="2" t="n"/>
+      <c r="R168" s="2" t="n"/>
+      <c r="S168" s="2" t="n"/>
+      <c r="T168" s="2" t="n"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="inlineStr">
+        <is>
+          <t>05.10.2025</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C169" s="2" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="D169" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="F169" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G169" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="H169" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="I169" s="2" t="inlineStr">
+        <is>
+          <t>2 - 1</t>
+        </is>
+      </c>
+      <c r="J169" s="121" t="n">
+        <v>1</v>
+      </c>
+      <c r="K169" s="2" t="n"/>
+      <c r="L169" s="2" t="n"/>
+      <c r="M169" s="2" t="n"/>
+      <c r="N169" s="2" t="n"/>
+      <c r="O169" s="2" t="n"/>
+      <c r="P169" s="2" t="n"/>
+      <c r="Q169" s="2" t="n"/>
+      <c r="R169" s="2" t="n"/>
+      <c r="S169" s="2" t="n"/>
+      <c r="T169" s="2" t="n"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>05.10.2025</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F170" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G170" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="H170" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="I170" s="2" t="inlineStr">
+        <is>
+          <t>1 - 1</t>
+        </is>
+      </c>
+      <c r="J170" s="121" t="n">
+        <v>1</v>
+      </c>
+      <c r="K170" s="2" t="n"/>
+      <c r="L170" s="2" t="n"/>
+      <c r="M170" s="2" t="n"/>
+      <c r="N170" s="2" t="n"/>
+      <c r="O170" s="2" t="n"/>
+      <c r="P170" s="2" t="n"/>
+      <c r="Q170" s="2" t="n"/>
+      <c r="R170" s="2" t="n"/>
+      <c r="S170" s="2" t="n"/>
+      <c r="T170" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9590,14 +9920,14 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>58.33%</t>
+          <t>61.54%</t>
         </is>
       </c>
     </row>
@@ -9608,14 +9938,14 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>69.23%</t>
         </is>
       </c>
     </row>
@@ -9752,14 +10082,14 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -9842,14 +10172,14 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>77.78%</t>
         </is>
       </c>
     </row>
@@ -9896,14 +10226,14 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
     </row>
@@ -9914,14 +10244,14 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>75.0%</t>
         </is>
       </c>
     </row>

--- a/app/placed_bets.xlsx
+++ b/app/placed_bets.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -467,6 +467,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -840,7 +846,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T170"/>
+  <dimension ref="A1:T172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -922,7 +928,7 @@
         </is>
       </c>
       <c r="K1" s="2" t="n"/>
-      <c r="L1" s="121" t="inlineStr">
+      <c r="L1" s="123" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
@@ -1006,38 +1012,38 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J2" s="121" t="n">
+      <c r="J2" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M2" s="2" t="n">
         <v>44</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>73.95999999999999</v>
+        <v>74.27</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>11310</v>
+        <v>11410</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>10490.5</v>
+        <v>10631</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>-819.5</v>
+        <v>-779</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>-0.79%</t>
+          <t>-0.75%</t>
         </is>
       </c>
       <c r="S2" s="2" t="n">
         <v>1.31</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>210.5</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3">
@@ -1130,7 +1136,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J4" s="121" t="n">
+      <c r="J4" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="n"/>
@@ -1182,7 +1188,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J5" s="121" t="n">
+      <c r="J5" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="n"/>
@@ -1234,7 +1240,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J6" s="121" t="n">
+      <c r="J6" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="n"/>
@@ -1338,7 +1344,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J8" s="121" t="n">
+      <c r="J8" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="n"/>
@@ -1442,7 +1448,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J10" s="121" t="n">
+      <c r="J10" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="n"/>
@@ -1494,7 +1500,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J11" s="121" t="n">
+      <c r="J11" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="n"/>
@@ -1598,7 +1604,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J13" s="121" t="n">
+      <c r="J13" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="n"/>
@@ -1650,7 +1656,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J14" s="121" t="n">
+      <c r="J14" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="n"/>
@@ -1702,7 +1708,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J15" s="121" t="n">
+      <c r="J15" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="n"/>
@@ -1754,7 +1760,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J16" s="121" t="n">
+      <c r="J16" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="n"/>
@@ -1858,7 +1864,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J18" s="121" t="n">
+      <c r="J18" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="n"/>
@@ -1962,7 +1968,7 @@
           <t>3 - 3</t>
         </is>
       </c>
-      <c r="J20" s="121" t="n">
+      <c r="J20" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="n"/>
@@ -2066,7 +2072,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J22" s="121" t="n">
+      <c r="J22" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="n"/>
@@ -2170,7 +2176,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J24" s="121" t="n">
+      <c r="J24" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K24" s="2" t="n"/>
@@ -2222,7 +2228,7 @@
           <t>0 - 6</t>
         </is>
       </c>
-      <c r="J25" s="121" t="n">
+      <c r="J25" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K25" s="2" t="n"/>
@@ -2274,7 +2280,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J26" s="121" t="n">
+      <c r="J26" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K26" s="2" t="n"/>
@@ -2326,7 +2332,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J27" s="121" t="n">
+      <c r="J27" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="n"/>
@@ -2378,7 +2384,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J28" s="121" t="n">
+      <c r="J28" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K28" s="2" t="n"/>
@@ -2482,7 +2488,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J30" s="121" t="n">
+      <c r="J30" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K30" s="2" t="n"/>
@@ -2534,7 +2540,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J31" s="121" t="n">
+      <c r="J31" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="n"/>
@@ -2586,7 +2592,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J32" s="121" t="n">
+      <c r="J32" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K32" s="2" t="n"/>
@@ -2638,7 +2644,7 @@
           <t>2 - 5</t>
         </is>
       </c>
-      <c r="J33" s="121" t="n">
+      <c r="J33" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K33" s="2" t="n"/>
@@ -2742,7 +2748,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J35" s="121" t="n">
+      <c r="J35" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K35" s="2" t="n"/>
@@ -2794,7 +2800,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J36" s="121" t="n">
+      <c r="J36" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K36" s="2" t="n"/>
@@ -2846,7 +2852,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J37" s="121" t="n">
+      <c r="J37" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K37" s="2" t="n"/>
@@ -2898,7 +2904,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J38" s="121" t="n">
+      <c r="J38" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="2" t="n"/>
@@ -2950,7 +2956,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J39" s="121" t="n">
+      <c r="J39" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K39" s="2" t="n"/>
@@ -3002,7 +3008,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J40" s="121" t="n">
+      <c r="J40" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K40" s="2" t="n"/>
@@ -3054,7 +3060,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J41" s="121" t="n">
+      <c r="J41" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K41" s="2" t="n"/>
@@ -3106,7 +3112,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J42" s="121" t="n">
+      <c r="J42" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K42" s="2" t="n"/>
@@ -3210,7 +3216,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J44" s="121" t="n">
+      <c r="J44" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K44" s="2" t="n"/>
@@ -3314,7 +3320,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J46" s="121" t="n">
+      <c r="J46" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K46" s="2" t="n"/>
@@ -3366,7 +3372,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J47" s="121" t="n">
+      <c r="J47" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K47" s="2" t="n"/>
@@ -3470,7 +3476,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J49" s="121" t="n">
+      <c r="J49" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K49" s="2" t="n"/>
@@ -3522,7 +3528,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J50" s="121" t="n">
+      <c r="J50" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K50" s="2" t="n"/>
@@ -3574,7 +3580,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J51" s="121" t="n">
+      <c r="J51" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K51" s="2" t="n"/>
@@ -3678,7 +3684,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J53" s="121" t="n">
+      <c r="J53" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K53" s="2" t="n"/>
@@ -3834,7 +3840,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J56" s="121" t="n">
+      <c r="J56" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K56" s="2" t="n"/>
@@ -3886,7 +3892,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J57" s="121" t="n">
+      <c r="J57" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K57" s="2" t="n"/>
@@ -3938,7 +3944,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J58" s="121" t="n">
+      <c r="J58" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K58" s="2" t="n"/>
@@ -4146,7 +4152,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J62" s="121" t="n">
+      <c r="J62" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K62" s="2" t="n"/>
@@ -4198,7 +4204,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J63" s="121" t="n">
+      <c r="J63" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K63" s="2" t="n"/>
@@ -4250,7 +4256,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J64" s="121" t="n">
+      <c r="J64" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K64" s="2" t="n"/>
@@ -4302,7 +4308,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J65" s="121" t="n">
+      <c r="J65" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K65" s="2" t="n"/>
@@ -4406,7 +4412,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J67" s="121" t="n">
+      <c r="J67" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K67" s="2" t="n"/>
@@ -4458,7 +4464,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J68" s="121" t="n">
+      <c r="J68" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K68" s="2" t="n"/>
@@ -4510,7 +4516,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J69" s="121" t="n">
+      <c r="J69" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K69" s="2" t="n"/>
@@ -4562,7 +4568,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="J70" s="121" t="n">
+      <c r="J70" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K70" s="2" t="n"/>
@@ -4666,7 +4672,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J72" s="121" t="n">
+      <c r="J72" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K72" s="2" t="n"/>
@@ -4718,7 +4724,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J73" s="121" t="n">
+      <c r="J73" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K73" s="2" t="n"/>
@@ -4770,7 +4776,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J74" s="121" t="n">
+      <c r="J74" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K74" s="2" t="n"/>
@@ -4822,7 +4828,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J75" s="121" t="n">
+      <c r="J75" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K75" s="2" t="n"/>
@@ -4874,7 +4880,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J76" s="121" t="n">
+      <c r="J76" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K76" s="2" t="n"/>
@@ -5030,7 +5036,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J79" s="121" t="n">
+      <c r="J79" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K79" s="2" t="n"/>
@@ -5134,7 +5140,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J81" s="121" t="n">
+      <c r="J81" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K81" s="2" t="n"/>
@@ -5186,7 +5192,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J82" s="121" t="n">
+      <c r="J82" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K82" s="2" t="n"/>
@@ -5342,7 +5348,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J85" s="121" t="n">
+      <c r="J85" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K85" s="2" t="n"/>
@@ -5394,7 +5400,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J86" s="121" t="n">
+      <c r="J86" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K86" s="2" t="n"/>
@@ -5446,7 +5452,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J87" s="121" t="n">
+      <c r="J87" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K87" s="2" t="n"/>
@@ -5498,7 +5504,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J88" s="121" t="n">
+      <c r="J88" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K88" s="2" t="n"/>
@@ -5550,7 +5556,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J89" s="121" t="n">
+      <c r="J89" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K89" s="2" t="n"/>
@@ -5602,7 +5608,7 @@
           <t>1 - 6</t>
         </is>
       </c>
-      <c r="J90" s="121" t="n">
+      <c r="J90" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K90" s="2" t="n"/>
@@ -5654,7 +5660,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J91" s="121" t="n">
+      <c r="J91" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K91" s="2" t="n"/>
@@ -5706,7 +5712,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J92" s="121" t="n">
+      <c r="J92" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K92" s="2" t="n"/>
@@ -5758,7 +5764,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J93" s="121" t="n">
+      <c r="J93" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K93" s="2" t="n"/>
@@ -5810,7 +5816,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J94" s="121" t="n">
+      <c r="J94" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K94" s="2" t="n"/>
@@ -5862,7 +5868,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J95" s="121" t="n">
+      <c r="J95" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K95" s="2" t="n"/>
@@ -5914,7 +5920,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J96" s="121" t="n">
+      <c r="J96" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K96" s="2" t="n"/>
@@ -5966,7 +5972,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J97" s="121" t="n">
+      <c r="J97" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K97" s="2" t="n"/>
@@ -6018,7 +6024,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J98" s="121" t="n">
+      <c r="J98" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K98" s="2" t="n"/>
@@ -6122,7 +6128,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J100" s="121" t="n">
+      <c r="J100" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K100" s="2" t="n"/>
@@ -6174,7 +6180,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J101" s="121" t="n">
+      <c r="J101" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K101" s="2" t="n"/>
@@ -6226,7 +6232,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J102" s="121" t="n">
+      <c r="J102" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K102" s="2" t="n"/>
@@ -6330,7 +6336,7 @@
           <t>5 - 2</t>
         </is>
       </c>
-      <c r="J104" s="121" t="n">
+      <c r="J104" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K104" s="2" t="n"/>
@@ -6382,7 +6388,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J105" s="121" t="n">
+      <c r="J105" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K105" s="2" t="n"/>
@@ -6434,7 +6440,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J106" s="121" t="n">
+      <c r="J106" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K106" s="2" t="n"/>
@@ -6486,7 +6492,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J107" s="121" t="n">
+      <c r="J107" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K107" s="2" t="n"/>
@@ -6538,7 +6544,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J108" s="121" t="n">
+      <c r="J108" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K108" s="2" t="n"/>
@@ -6642,7 +6648,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J110" s="121" t="n">
+      <c r="J110" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K110" s="2" t="n"/>
@@ -6694,7 +6700,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J111" s="121" t="n">
+      <c r="J111" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K111" s="2" t="n"/>
@@ -6746,7 +6752,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J112" s="121" t="n">
+      <c r="J112" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K112" s="2" t="n"/>
@@ -6798,7 +6804,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J113" s="121" t="n">
+      <c r="J113" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K113" s="2" t="n"/>
@@ -6850,7 +6856,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J114" s="121" t="n">
+      <c r="J114" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K114" s="2" t="n"/>
@@ -6902,7 +6908,7 @@
           <t>4 - 3</t>
         </is>
       </c>
-      <c r="J115" s="121" t="n">
+      <c r="J115" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K115" s="2" t="n"/>
@@ -6954,7 +6960,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J116" s="121" t="n">
+      <c r="J116" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K116" s="2" t="n"/>
@@ -7006,7 +7012,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J117" s="121" t="n">
+      <c r="J117" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K117" s="2" t="n"/>
@@ -7058,7 +7064,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J118" s="121" t="n">
+      <c r="J118" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K118" s="2" t="n"/>
@@ -7162,7 +7168,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J120" s="121" t="n">
+      <c r="J120" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K120" s="2" t="n"/>
@@ -7214,7 +7220,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J121" s="121" t="n">
+      <c r="J121" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K121" s="2" t="n"/>
@@ -7318,7 +7324,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J123" s="121" t="n">
+      <c r="J123" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K123" s="2" t="n"/>
@@ -7370,7 +7376,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J124" s="121" t="n">
+      <c r="J124" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K124" s="2" t="n"/>
@@ -7422,7 +7428,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J125" s="121" t="n">
+      <c r="J125" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K125" s="2" t="n"/>
@@ -7526,7 +7532,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J127" s="121" t="n">
+      <c r="J127" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K127" s="2" t="n"/>
@@ -7578,7 +7584,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J128" s="121" t="n">
+      <c r="J128" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K128" s="2" t="n"/>
@@ -7630,7 +7636,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J129" s="121" t="n">
+      <c r="J129" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K129" s="2" t="n"/>
@@ -7734,7 +7740,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J131" s="121" t="n">
+      <c r="J131" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K131" s="2" t="n"/>
@@ -7786,7 +7792,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J132" s="121" t="n">
+      <c r="J132" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K132" s="2" t="n"/>
@@ -7838,7 +7844,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J133" s="121" t="n">
+      <c r="J133" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K133" s="2" t="n"/>
@@ -7890,7 +7896,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J134" s="121" t="n">
+      <c r="J134" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K134" s="2" t="n"/>
@@ -7942,7 +7948,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J135" s="121" t="n">
+      <c r="J135" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K135" s="2" t="n"/>
@@ -7994,7 +8000,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J136" s="121" t="n">
+      <c r="J136" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K136" s="2" t="n"/>
@@ -8046,7 +8052,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J137" s="121" t="n">
+      <c r="J137" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K137" s="2" t="n"/>
@@ -8098,7 +8104,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J138" s="121" t="n">
+      <c r="J138" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K138" s="2" t="n"/>
@@ -8150,7 +8156,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="J139" s="121" t="n">
+      <c r="J139" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K139" s="2" t="n"/>
@@ -8202,7 +8208,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J140" s="121" t="n">
+      <c r="J140" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K140" s="2" t="n"/>
@@ -8254,7 +8260,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J141" s="121" t="n">
+      <c r="J141" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K141" s="2" t="n"/>
@@ -8306,7 +8312,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J142" s="121" t="n">
+      <c r="J142" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K142" s="2" t="n"/>
@@ -8410,7 +8416,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J144" s="121" t="n">
+      <c r="J144" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K144" s="2" t="n"/>
@@ -8514,7 +8520,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J146" s="121" t="n">
+      <c r="J146" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K146" s="2" t="n"/>
@@ -8566,7 +8572,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J147" s="121" t="n">
+      <c r="J147" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K147" s="2" t="n"/>
@@ -8618,7 +8624,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J148" s="121" t="n">
+      <c r="J148" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K148" s="2" t="n"/>
@@ -8722,7 +8728,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J150" s="121" t="n">
+      <c r="J150" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K150" s="2" t="n"/>
@@ -8774,7 +8780,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J151" s="121" t="n">
+      <c r="J151" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K151" s="2" t="n"/>
@@ -8826,7 +8832,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J152" s="121" t="n">
+      <c r="J152" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K152" s="2" t="n"/>
@@ -9086,7 +9092,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J157" s="121" t="n">
+      <c r="J157" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K157" s="2" t="n"/>
@@ -9138,7 +9144,7 @@
           <t>5 - 2</t>
         </is>
       </c>
-      <c r="J158" s="121" t="n">
+      <c r="J158" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K158" s="2" t="n"/>
@@ -9190,7 +9196,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J159" s="121" t="n">
+      <c r="J159" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K159" s="2" t="n"/>
@@ -9242,7 +9248,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J160" s="121" t="n">
+      <c r="J160" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K160" s="2" t="n"/>
@@ -9398,7 +9404,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J163" s="121" t="n">
+      <c r="J163" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K163" s="2" t="n"/>
@@ -9450,7 +9456,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J164" s="121" t="n">
+      <c r="J164" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K164" s="2" t="n"/>
@@ -9502,7 +9508,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J165" s="121" t="n">
+      <c r="J165" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K165" s="2" t="n"/>
@@ -9606,7 +9612,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J167" s="121" t="n">
+      <c r="J167" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K167" s="2" t="n"/>
@@ -9710,7 +9716,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J169" s="121" t="n">
+      <c r="J169" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K169" s="2" t="n"/>
@@ -9762,7 +9768,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J170" s="121" t="n">
+      <c r="J170" s="123" t="n">
         <v>1</v>
       </c>
       <c r="K170" s="2" t="n"/>
@@ -9775,6 +9781,110 @@
       <c r="R170" s="2" t="n"/>
       <c r="S170" s="2" t="n"/>
       <c r="T170" s="2" t="n"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>18.10.2025</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="C171" s="2" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F171" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G171" s="2" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="H171" s="2" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="I171" s="2" t="inlineStr">
+        <is>
+          <t>0 - 3</t>
+        </is>
+      </c>
+      <c r="J171" s="123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K171" s="2" t="n"/>
+      <c r="L171" s="2" t="n"/>
+      <c r="M171" s="2" t="n"/>
+      <c r="N171" s="2" t="n"/>
+      <c r="O171" s="2" t="n"/>
+      <c r="P171" s="2" t="n"/>
+      <c r="Q171" s="2" t="n"/>
+      <c r="R171" s="2" t="n"/>
+      <c r="S171" s="2" t="n"/>
+      <c r="T171" s="2" t="n"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>18.10.2025</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>Olympique Marseille</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F172" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G172" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="H172" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I172" s="2" t="inlineStr">
+        <is>
+          <t>6 - 2</t>
+        </is>
+      </c>
+      <c r="J172" s="123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K172" s="2" t="n"/>
+      <c r="L172" s="2" t="n"/>
+      <c r="M172" s="2" t="n"/>
+      <c r="N172" s="2" t="n"/>
+      <c r="O172" s="2" t="n"/>
+      <c r="P172" s="2" t="n"/>
+      <c r="Q172" s="2" t="n"/>
+      <c r="R172" s="2" t="n"/>
+      <c r="S172" s="2" t="n"/>
+      <c r="T172" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10082,14 +10192,14 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>75.0%</t>
         </is>
       </c>
     </row>
@@ -10244,14 +10354,14 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>77.78%</t>
         </is>
       </c>
     </row>

--- a/app/placed_bets.xlsx
+++ b/app/placed_bets.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -479,6 +479,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -846,7 +861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T172"/>
+  <dimension ref="A1:T177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -928,12 +943,12 @@
         </is>
       </c>
       <c r="K1" s="2" t="n"/>
-      <c r="L1" s="123" t="inlineStr">
+      <c r="L1" s="128" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="M1" s="120" t="inlineStr">
+      <c r="M1" s="127" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
@@ -1012,38 +1027,38 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J2" s="123" t="n">
+      <c r="J2" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>74.27</v>
+        <v>73.86</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>11410</v>
+        <v>11660</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>10631</v>
+        <v>10828.5</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>-779</v>
+        <v>-831.5</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>-0.75%</t>
+          <t>-0.8%</t>
         </is>
       </c>
       <c r="S2" s="2" t="n">
         <v>1.31</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>251</v>
+        <v>198.5</v>
       </c>
     </row>
     <row r="3">
@@ -1084,7 +1099,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J3" s="120" t="n">
+      <c r="J3" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="2" t="n"/>
@@ -1136,7 +1151,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J4" s="123" t="n">
+      <c r="J4" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="n"/>
@@ -1188,7 +1203,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J5" s="123" t="n">
+      <c r="J5" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="n"/>
@@ -1240,7 +1255,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J6" s="123" t="n">
+      <c r="J6" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="n"/>
@@ -1292,7 +1307,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J7" s="120" t="n">
+      <c r="J7" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="n"/>
@@ -1344,7 +1359,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J8" s="123" t="n">
+      <c r="J8" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="n"/>
@@ -1396,7 +1411,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J9" s="120" t="n">
+      <c r="J9" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="2" t="n"/>
@@ -1448,7 +1463,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J10" s="123" t="n">
+      <c r="J10" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="n"/>
@@ -1500,7 +1515,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J11" s="123" t="n">
+      <c r="J11" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="n"/>
@@ -1552,7 +1567,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J12" s="120" t="n">
+      <c r="J12" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="n"/>
@@ -1604,7 +1619,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J13" s="123" t="n">
+      <c r="J13" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="n"/>
@@ -1656,7 +1671,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J14" s="123" t="n">
+      <c r="J14" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="n"/>
@@ -1708,7 +1723,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J15" s="123" t="n">
+      <c r="J15" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="n"/>
@@ -1760,7 +1775,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J16" s="123" t="n">
+      <c r="J16" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="n"/>
@@ -1812,7 +1827,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J17" s="120" t="n">
+      <c r="J17" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="2" t="n"/>
@@ -1864,7 +1879,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J18" s="123" t="n">
+      <c r="J18" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="n"/>
@@ -1916,7 +1931,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J19" s="120" t="n">
+      <c r="J19" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K19" s="2" t="n"/>
@@ -1968,7 +1983,7 @@
           <t>3 - 3</t>
         </is>
       </c>
-      <c r="J20" s="123" t="n">
+      <c r="J20" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="n"/>
@@ -2020,7 +2035,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J21" s="120" t="n">
+      <c r="J21" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="2" t="n"/>
@@ -2072,7 +2087,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J22" s="123" t="n">
+      <c r="J22" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="n"/>
@@ -2124,7 +2139,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J23" s="120" t="n">
+      <c r="J23" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K23" s="2" t="n"/>
@@ -2176,7 +2191,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J24" s="123" t="n">
+      <c r="J24" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K24" s="2" t="n"/>
@@ -2228,7 +2243,7 @@
           <t>0 - 6</t>
         </is>
       </c>
-      <c r="J25" s="123" t="n">
+      <c r="J25" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K25" s="2" t="n"/>
@@ -2280,7 +2295,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J26" s="123" t="n">
+      <c r="J26" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K26" s="2" t="n"/>
@@ -2332,7 +2347,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J27" s="123" t="n">
+      <c r="J27" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="n"/>
@@ -2384,7 +2399,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J28" s="123" t="n">
+      <c r="J28" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K28" s="2" t="n"/>
@@ -2436,7 +2451,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J29" s="120" t="n">
+      <c r="J29" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K29" s="2" t="n"/>
@@ -2488,7 +2503,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J30" s="123" t="n">
+      <c r="J30" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K30" s="2" t="n"/>
@@ -2540,7 +2555,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J31" s="123" t="n">
+      <c r="J31" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="n"/>
@@ -2592,7 +2607,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J32" s="123" t="n">
+      <c r="J32" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K32" s="2" t="n"/>
@@ -2644,7 +2659,7 @@
           <t>2 - 5</t>
         </is>
       </c>
-      <c r="J33" s="123" t="n">
+      <c r="J33" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K33" s="2" t="n"/>
@@ -2696,7 +2711,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J34" s="120" t="n">
+      <c r="J34" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K34" s="2" t="n"/>
@@ -2748,7 +2763,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J35" s="123" t="n">
+      <c r="J35" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K35" s="2" t="n"/>
@@ -2800,7 +2815,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J36" s="123" t="n">
+      <c r="J36" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K36" s="2" t="n"/>
@@ -2852,7 +2867,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J37" s="123" t="n">
+      <c r="J37" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K37" s="2" t="n"/>
@@ -2904,7 +2919,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J38" s="123" t="n">
+      <c r="J38" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="2" t="n"/>
@@ -2956,7 +2971,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J39" s="123" t="n">
+      <c r="J39" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K39" s="2" t="n"/>
@@ -3008,7 +3023,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J40" s="123" t="n">
+      <c r="J40" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K40" s="2" t="n"/>
@@ -3060,7 +3075,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J41" s="123" t="n">
+      <c r="J41" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K41" s="2" t="n"/>
@@ -3112,7 +3127,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J42" s="123" t="n">
+      <c r="J42" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K42" s="2" t="n"/>
@@ -3164,7 +3179,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J43" s="120" t="n">
+      <c r="J43" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K43" s="2" t="n"/>
@@ -3216,7 +3231,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J44" s="123" t="n">
+      <c r="J44" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K44" s="2" t="n"/>
@@ -3268,7 +3283,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J45" s="120" t="n">
+      <c r="J45" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K45" s="2" t="n"/>
@@ -3320,7 +3335,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J46" s="123" t="n">
+      <c r="J46" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K46" s="2" t="n"/>
@@ -3372,7 +3387,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J47" s="123" t="n">
+      <c r="J47" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K47" s="2" t="n"/>
@@ -3424,7 +3439,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J48" s="120" t="n">
+      <c r="J48" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K48" s="2" t="n"/>
@@ -3476,7 +3491,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J49" s="123" t="n">
+      <c r="J49" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K49" s="2" t="n"/>
@@ -3528,7 +3543,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J50" s="123" t="n">
+      <c r="J50" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K50" s="2" t="n"/>
@@ -3580,7 +3595,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J51" s="123" t="n">
+      <c r="J51" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K51" s="2" t="n"/>
@@ -3632,7 +3647,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J52" s="120" t="n">
+      <c r="J52" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K52" s="2" t="n"/>
@@ -3684,7 +3699,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J53" s="123" t="n">
+      <c r="J53" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K53" s="2" t="n"/>
@@ -3736,7 +3751,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J54" s="120" t="n">
+      <c r="J54" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K54" s="2" t="n"/>
@@ -3788,7 +3803,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J55" s="120" t="n">
+      <c r="J55" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K55" s="2" t="n"/>
@@ -3840,7 +3855,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J56" s="123" t="n">
+      <c r="J56" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K56" s="2" t="n"/>
@@ -3892,7 +3907,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J57" s="123" t="n">
+      <c r="J57" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K57" s="2" t="n"/>
@@ -3944,7 +3959,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J58" s="123" t="n">
+      <c r="J58" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K58" s="2" t="n"/>
@@ -3996,7 +4011,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J59" s="120" t="n">
+      <c r="J59" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K59" s="2" t="n"/>
@@ -4048,7 +4063,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J60" s="120" t="n">
+      <c r="J60" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K60" s="2" t="n"/>
@@ -4100,7 +4115,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J61" s="120" t="n">
+      <c r="J61" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K61" s="2" t="n"/>
@@ -4152,7 +4167,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J62" s="123" t="n">
+      <c r="J62" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K62" s="2" t="n"/>
@@ -4204,7 +4219,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J63" s="123" t="n">
+      <c r="J63" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K63" s="2" t="n"/>
@@ -4256,7 +4271,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J64" s="123" t="n">
+      <c r="J64" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K64" s="2" t="n"/>
@@ -4308,7 +4323,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J65" s="123" t="n">
+      <c r="J65" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K65" s="2" t="n"/>
@@ -4360,7 +4375,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J66" s="120" t="n">
+      <c r="J66" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K66" s="2" t="n"/>
@@ -4412,7 +4427,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J67" s="123" t="n">
+      <c r="J67" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K67" s="2" t="n"/>
@@ -4464,7 +4479,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J68" s="123" t="n">
+      <c r="J68" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K68" s="2" t="n"/>
@@ -4516,7 +4531,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J69" s="123" t="n">
+      <c r="J69" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K69" s="2" t="n"/>
@@ -4568,7 +4583,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="J70" s="123" t="n">
+      <c r="J70" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K70" s="2" t="n"/>
@@ -4620,7 +4635,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J71" s="120" t="n">
+      <c r="J71" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K71" s="2" t="n"/>
@@ -4672,7 +4687,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J72" s="123" t="n">
+      <c r="J72" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K72" s="2" t="n"/>
@@ -4724,7 +4739,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J73" s="123" t="n">
+      <c r="J73" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K73" s="2" t="n"/>
@@ -4776,7 +4791,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J74" s="123" t="n">
+      <c r="J74" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K74" s="2" t="n"/>
@@ -4828,7 +4843,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J75" s="123" t="n">
+      <c r="J75" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K75" s="2" t="n"/>
@@ -4880,7 +4895,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J76" s="123" t="n">
+      <c r="J76" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K76" s="2" t="n"/>
@@ -4932,7 +4947,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J77" s="120" t="n">
+      <c r="J77" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K77" s="2" t="n"/>
@@ -4984,7 +4999,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J78" s="120" t="n">
+      <c r="J78" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K78" s="2" t="n"/>
@@ -5036,7 +5051,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J79" s="123" t="n">
+      <c r="J79" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K79" s="2" t="n"/>
@@ -5088,7 +5103,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J80" s="120" t="n">
+      <c r="J80" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K80" s="2" t="n"/>
@@ -5140,7 +5155,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J81" s="123" t="n">
+      <c r="J81" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K81" s="2" t="n"/>
@@ -5192,7 +5207,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J82" s="123" t="n">
+      <c r="J82" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K82" s="2" t="n"/>
@@ -5244,7 +5259,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J83" s="120" t="n">
+      <c r="J83" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K83" s="2" t="n"/>
@@ -5296,7 +5311,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J84" s="120" t="n">
+      <c r="J84" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K84" s="2" t="n"/>
@@ -5348,7 +5363,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J85" s="123" t="n">
+      <c r="J85" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K85" s="2" t="n"/>
@@ -5400,7 +5415,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J86" s="123" t="n">
+      <c r="J86" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K86" s="2" t="n"/>
@@ -5452,7 +5467,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J87" s="123" t="n">
+      <c r="J87" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K87" s="2" t="n"/>
@@ -5504,7 +5519,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J88" s="123" t="n">
+      <c r="J88" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K88" s="2" t="n"/>
@@ -5556,7 +5571,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J89" s="123" t="n">
+      <c r="J89" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K89" s="2" t="n"/>
@@ -5608,7 +5623,7 @@
           <t>1 - 6</t>
         </is>
       </c>
-      <c r="J90" s="123" t="n">
+      <c r="J90" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K90" s="2" t="n"/>
@@ -5660,7 +5675,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J91" s="123" t="n">
+      <c r="J91" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K91" s="2" t="n"/>
@@ -5712,7 +5727,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J92" s="123" t="n">
+      <c r="J92" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K92" s="2" t="n"/>
@@ -5764,7 +5779,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J93" s="123" t="n">
+      <c r="J93" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K93" s="2" t="n"/>
@@ -5816,7 +5831,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J94" s="123" t="n">
+      <c r="J94" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K94" s="2" t="n"/>
@@ -5868,7 +5883,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J95" s="123" t="n">
+      <c r="J95" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K95" s="2" t="n"/>
@@ -5920,7 +5935,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J96" s="123" t="n">
+      <c r="J96" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K96" s="2" t="n"/>
@@ -5972,7 +5987,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J97" s="123" t="n">
+      <c r="J97" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K97" s="2" t="n"/>
@@ -6024,7 +6039,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J98" s="123" t="n">
+      <c r="J98" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K98" s="2" t="n"/>
@@ -6076,7 +6091,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J99" s="120" t="n">
+      <c r="J99" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K99" s="2" t="n"/>
@@ -6128,7 +6143,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J100" s="123" t="n">
+      <c r="J100" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K100" s="2" t="n"/>
@@ -6180,7 +6195,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J101" s="123" t="n">
+      <c r="J101" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K101" s="2" t="n"/>
@@ -6232,7 +6247,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J102" s="123" t="n">
+      <c r="J102" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K102" s="2" t="n"/>
@@ -6284,7 +6299,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J103" s="120" t="n">
+      <c r="J103" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K103" s="2" t="n"/>
@@ -6336,7 +6351,7 @@
           <t>5 - 2</t>
         </is>
       </c>
-      <c r="J104" s="123" t="n">
+      <c r="J104" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K104" s="2" t="n"/>
@@ -6388,7 +6403,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J105" s="123" t="n">
+      <c r="J105" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K105" s="2" t="n"/>
@@ -6440,7 +6455,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J106" s="123" t="n">
+      <c r="J106" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K106" s="2" t="n"/>
@@ -6492,7 +6507,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J107" s="123" t="n">
+      <c r="J107" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K107" s="2" t="n"/>
@@ -6544,7 +6559,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J108" s="123" t="n">
+      <c r="J108" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K108" s="2" t="n"/>
@@ -6596,7 +6611,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J109" s="120" t="n">
+      <c r="J109" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K109" s="2" t="n"/>
@@ -6648,7 +6663,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J110" s="123" t="n">
+      <c r="J110" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K110" s="2" t="n"/>
@@ -6700,7 +6715,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J111" s="123" t="n">
+      <c r="J111" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K111" s="2" t="n"/>
@@ -6752,7 +6767,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J112" s="123" t="n">
+      <c r="J112" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K112" s="2" t="n"/>
@@ -6804,7 +6819,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J113" s="123" t="n">
+      <c r="J113" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K113" s="2" t="n"/>
@@ -6856,7 +6871,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J114" s="123" t="n">
+      <c r="J114" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K114" s="2" t="n"/>
@@ -6908,7 +6923,7 @@
           <t>4 - 3</t>
         </is>
       </c>
-      <c r="J115" s="123" t="n">
+      <c r="J115" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K115" s="2" t="n"/>
@@ -6960,7 +6975,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J116" s="123" t="n">
+      <c r="J116" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K116" s="2" t="n"/>
@@ -7012,7 +7027,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J117" s="123" t="n">
+      <c r="J117" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K117" s="2" t="n"/>
@@ -7064,7 +7079,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J118" s="123" t="n">
+      <c r="J118" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K118" s="2" t="n"/>
@@ -7116,7 +7131,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J119" s="120" t="n">
+      <c r="J119" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K119" s="2" t="n"/>
@@ -7168,7 +7183,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J120" s="123" t="n">
+      <c r="J120" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K120" s="2" t="n"/>
@@ -7220,7 +7235,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J121" s="123" t="n">
+      <c r="J121" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K121" s="2" t="n"/>
@@ -7272,7 +7287,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J122" s="120" t="n">
+      <c r="J122" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K122" s="2" t="n"/>
@@ -7324,7 +7339,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J123" s="123" t="n">
+      <c r="J123" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K123" s="2" t="n"/>
@@ -7376,7 +7391,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J124" s="123" t="n">
+      <c r="J124" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K124" s="2" t="n"/>
@@ -7428,7 +7443,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J125" s="123" t="n">
+      <c r="J125" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K125" s="2" t="n"/>
@@ -7480,7 +7495,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J126" s="120" t="n">
+      <c r="J126" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K126" s="2" t="n"/>
@@ -7532,7 +7547,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J127" s="123" t="n">
+      <c r="J127" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K127" s="2" t="n"/>
@@ -7584,7 +7599,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J128" s="123" t="n">
+      <c r="J128" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K128" s="2" t="n"/>
@@ -7636,7 +7651,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J129" s="123" t="n">
+      <c r="J129" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K129" s="2" t="n"/>
@@ -7688,7 +7703,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J130" s="120" t="n">
+      <c r="J130" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K130" s="2" t="n"/>
@@ -7740,7 +7755,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J131" s="123" t="n">
+      <c r="J131" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K131" s="2" t="n"/>
@@ -7792,7 +7807,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J132" s="123" t="n">
+      <c r="J132" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K132" s="2" t="n"/>
@@ -7844,7 +7859,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J133" s="123" t="n">
+      <c r="J133" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K133" s="2" t="n"/>
@@ -7896,7 +7911,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J134" s="123" t="n">
+      <c r="J134" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K134" s="2" t="n"/>
@@ -7948,7 +7963,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J135" s="123" t="n">
+      <c r="J135" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K135" s="2" t="n"/>
@@ -8000,7 +8015,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J136" s="123" t="n">
+      <c r="J136" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K136" s="2" t="n"/>
@@ -8052,7 +8067,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J137" s="123" t="n">
+      <c r="J137" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K137" s="2" t="n"/>
@@ -8104,7 +8119,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J138" s="123" t="n">
+      <c r="J138" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K138" s="2" t="n"/>
@@ -8156,7 +8171,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="J139" s="123" t="n">
+      <c r="J139" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K139" s="2" t="n"/>
@@ -8208,7 +8223,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J140" s="123" t="n">
+      <c r="J140" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K140" s="2" t="n"/>
@@ -8260,7 +8275,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J141" s="123" t="n">
+      <c r="J141" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K141" s="2" t="n"/>
@@ -8312,7 +8327,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J142" s="123" t="n">
+      <c r="J142" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K142" s="2" t="n"/>
@@ -8364,7 +8379,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J143" s="120" t="n">
+      <c r="J143" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K143" s="2" t="n"/>
@@ -8416,7 +8431,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J144" s="123" t="n">
+      <c r="J144" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K144" s="2" t="n"/>
@@ -8468,7 +8483,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J145" s="120" t="n">
+      <c r="J145" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K145" s="2" t="n"/>
@@ -8520,7 +8535,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J146" s="123" t="n">
+      <c r="J146" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K146" s="2" t="n"/>
@@ -8572,7 +8587,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J147" s="123" t="n">
+      <c r="J147" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K147" s="2" t="n"/>
@@ -8624,7 +8639,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J148" s="123" t="n">
+      <c r="J148" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K148" s="2" t="n"/>
@@ -8676,7 +8691,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J149" s="120" t="n">
+      <c r="J149" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K149" s="2" t="n"/>
@@ -8728,7 +8743,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J150" s="123" t="n">
+      <c r="J150" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K150" s="2" t="n"/>
@@ -8780,7 +8795,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J151" s="123" t="n">
+      <c r="J151" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K151" s="2" t="n"/>
@@ -8832,7 +8847,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J152" s="123" t="n">
+      <c r="J152" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K152" s="2" t="n"/>
@@ -8884,7 +8899,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J153" s="120" t="n">
+      <c r="J153" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K153" s="2" t="n"/>
@@ -8936,7 +8951,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J154" s="120" t="n">
+      <c r="J154" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K154" s="2" t="n"/>
@@ -8988,7 +9003,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J155" s="120" t="n">
+      <c r="J155" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K155" s="2" t="n"/>
@@ -9040,7 +9055,7 @@
           <t>3 - 4</t>
         </is>
       </c>
-      <c r="J156" s="120" t="n">
+      <c r="J156" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K156" s="2" t="n"/>
@@ -9092,7 +9107,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J157" s="123" t="n">
+      <c r="J157" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K157" s="2" t="n"/>
@@ -9144,7 +9159,7 @@
           <t>5 - 2</t>
         </is>
       </c>
-      <c r="J158" s="123" t="n">
+      <c r="J158" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K158" s="2" t="n"/>
@@ -9196,7 +9211,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J159" s="123" t="n">
+      <c r="J159" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K159" s="2" t="n"/>
@@ -9248,7 +9263,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J160" s="123" t="n">
+      <c r="J160" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K160" s="2" t="n"/>
@@ -9300,7 +9315,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J161" s="120" t="n">
+      <c r="J161" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K161" s="2" t="n"/>
@@ -9352,7 +9367,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J162" s="120" t="n">
+      <c r="J162" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K162" s="2" t="n"/>
@@ -9404,7 +9419,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J163" s="123" t="n">
+      <c r="J163" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K163" s="2" t="n"/>
@@ -9456,7 +9471,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J164" s="123" t="n">
+      <c r="J164" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K164" s="2" t="n"/>
@@ -9508,7 +9523,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J165" s="123" t="n">
+      <c r="J165" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K165" s="2" t="n"/>
@@ -9560,7 +9575,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J166" s="120" t="n">
+      <c r="J166" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K166" s="2" t="n"/>
@@ -9612,7 +9627,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J167" s="123" t="n">
+      <c r="J167" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K167" s="2" t="n"/>
@@ -9664,7 +9679,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J168" s="120" t="n">
+      <c r="J168" s="127" t="n">
         <v>0</v>
       </c>
       <c r="K168" s="2" t="n"/>
@@ -9716,7 +9731,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J169" s="123" t="n">
+      <c r="J169" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K169" s="2" t="n"/>
@@ -9768,7 +9783,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J170" s="123" t="n">
+      <c r="J170" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K170" s="2" t="n"/>
@@ -9820,7 +9835,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J171" s="123" t="n">
+      <c r="J171" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K171" s="2" t="n"/>
@@ -9872,7 +9887,7 @@
           <t>6 - 2</t>
         </is>
       </c>
-      <c r="J172" s="123" t="n">
+      <c r="J172" s="128" t="n">
         <v>1</v>
       </c>
       <c r="K172" s="2" t="n"/>
@@ -9885,6 +9900,266 @@
       <c r="R172" s="2" t="n"/>
       <c r="S172" s="2" t="n"/>
       <c r="T172" s="2" t="n"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t>25.10.2025</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="C173" s="2" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F173" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G173" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="H173" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="I173" s="2" t="inlineStr">
+        <is>
+          <t>0 - 6</t>
+        </is>
+      </c>
+      <c r="J173" s="128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K173" s="2" t="n"/>
+      <c r="L173" s="2" t="n"/>
+      <c r="M173" s="2" t="n"/>
+      <c r="N173" s="2" t="n"/>
+      <c r="O173" s="2" t="n"/>
+      <c r="P173" s="2" t="n"/>
+      <c r="Q173" s="2" t="n"/>
+      <c r="R173" s="2" t="n"/>
+      <c r="S173" s="2" t="n"/>
+      <c r="T173" s="2" t="n"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>25.10.2025</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F174" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G174" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="H174" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="I174" s="2" t="inlineStr">
+        <is>
+          <t>0 - 3</t>
+        </is>
+      </c>
+      <c r="J174" s="128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K174" s="2" t="n"/>
+      <c r="L174" s="2" t="n"/>
+      <c r="M174" s="2" t="n"/>
+      <c r="N174" s="2" t="n"/>
+      <c r="O174" s="2" t="n"/>
+      <c r="P174" s="2" t="n"/>
+      <c r="Q174" s="2" t="n"/>
+      <c r="R174" s="2" t="n"/>
+      <c r="S174" s="2" t="n"/>
+      <c r="T174" s="2" t="n"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="inlineStr">
+        <is>
+          <t>25.10.2025</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C175" s="2" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D175" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F175" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G175" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="H175" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="I175" s="2" t="inlineStr">
+        <is>
+          <t>3 - 2</t>
+        </is>
+      </c>
+      <c r="J175" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" s="2" t="n"/>
+      <c r="L175" s="2" t="n"/>
+      <c r="M175" s="2" t="n"/>
+      <c r="N175" s="2" t="n"/>
+      <c r="O175" s="2" t="n"/>
+      <c r="P175" s="2" t="n"/>
+      <c r="Q175" s="2" t="n"/>
+      <c r="R175" s="2" t="n"/>
+      <c r="S175" s="2" t="n"/>
+      <c r="T175" s="2" t="n"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>26.10.2025</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="C176" s="2" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F176" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G176" s="2" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="H176" s="2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I176" s="2" t="inlineStr">
+        <is>
+          <t>6 - 1</t>
+        </is>
+      </c>
+      <c r="J176" s="128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K176" s="2" t="n"/>
+      <c r="L176" s="2" t="n"/>
+      <c r="M176" s="2" t="n"/>
+      <c r="N176" s="2" t="n"/>
+      <c r="O176" s="2" t="n"/>
+      <c r="P176" s="2" t="n"/>
+      <c r="Q176" s="2" t="n"/>
+      <c r="R176" s="2" t="n"/>
+      <c r="S176" s="2" t="n"/>
+      <c r="T176" s="2" t="n"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="inlineStr">
+        <is>
+          <t>26.10.2025</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="C177" s="2" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F177" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G177" s="2" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="H177" s="2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I177" s="2" t="inlineStr">
+        <is>
+          <t>1 - 0</t>
+        </is>
+      </c>
+      <c r="J177" s="127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" s="2" t="n"/>
+      <c r="L177" s="2" t="n"/>
+      <c r="M177" s="2" t="n"/>
+      <c r="N177" s="2" t="n"/>
+      <c r="O177" s="2" t="n"/>
+      <c r="P177" s="2" t="n"/>
+      <c r="Q177" s="2" t="n"/>
+      <c r="R177" s="2" t="n"/>
+      <c r="S177" s="2" t="n"/>
+      <c r="T177" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9976,14 +10251,14 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>7</v>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>63.64%</t>
+          <t>58.33%</t>
         </is>
       </c>
     </row>
@@ -9994,14 +10269,14 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
     </row>
@@ -10174,14 +10449,14 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>80.0%</t>
         </is>
       </c>
     </row>
@@ -10318,14 +10593,14 @@
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>50.0%</t>
         </is>
       </c>
     </row>
@@ -10408,14 +10683,14 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>86.67%</t>
         </is>
       </c>
     </row>

--- a/app/placed_bets.xlsx
+++ b/app/placed_bets.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -494,6 +494,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -861,7 +873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T177"/>
+  <dimension ref="A1:T181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -943,12 +955,12 @@
         </is>
       </c>
       <c r="K1" s="2" t="n"/>
-      <c r="L1" s="128" t="inlineStr">
+      <c r="L1" s="132" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="M1" s="127" t="inlineStr">
+      <c r="M1" s="129" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
@@ -1027,38 +1039,38 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J2" s="128" t="n">
+      <c r="J2" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M2" s="2" t="n">
         <v>46</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>73.86</v>
+        <v>74.44</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>11660</v>
+        <v>11860</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>10828.5</v>
+        <v>11108.5</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>-831.5</v>
+        <v>-751.5</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>-0.8%</t>
+          <t>-0.72%</t>
         </is>
       </c>
       <c r="S2" s="2" t="n">
         <v>1.31</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>198.5</v>
+        <v>278.5</v>
       </c>
     </row>
     <row r="3">
@@ -1099,7 +1111,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J3" s="127" t="n">
+      <c r="J3" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="2" t="n"/>
@@ -1151,7 +1163,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J4" s="128" t="n">
+      <c r="J4" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="n"/>
@@ -1203,7 +1215,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J5" s="128" t="n">
+      <c r="J5" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="n"/>
@@ -1255,7 +1267,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J6" s="128" t="n">
+      <c r="J6" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="n"/>
@@ -1307,7 +1319,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J7" s="127" t="n">
+      <c r="J7" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="n"/>
@@ -1359,7 +1371,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J8" s="128" t="n">
+      <c r="J8" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="n"/>
@@ -1411,7 +1423,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J9" s="127" t="n">
+      <c r="J9" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="2" t="n"/>
@@ -1463,7 +1475,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J10" s="128" t="n">
+      <c r="J10" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="n"/>
@@ -1515,7 +1527,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J11" s="128" t="n">
+      <c r="J11" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="n"/>
@@ -1567,7 +1579,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J12" s="127" t="n">
+      <c r="J12" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="n"/>
@@ -1619,7 +1631,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J13" s="128" t="n">
+      <c r="J13" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="n"/>
@@ -1671,7 +1683,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J14" s="128" t="n">
+      <c r="J14" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="n"/>
@@ -1723,7 +1735,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J15" s="128" t="n">
+      <c r="J15" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="n"/>
@@ -1775,7 +1787,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J16" s="128" t="n">
+      <c r="J16" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="n"/>
@@ -1827,7 +1839,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J17" s="127" t="n">
+      <c r="J17" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="2" t="n"/>
@@ -1879,7 +1891,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J18" s="128" t="n">
+      <c r="J18" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="n"/>
@@ -1931,7 +1943,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J19" s="127" t="n">
+      <c r="J19" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K19" s="2" t="n"/>
@@ -1983,7 +1995,7 @@
           <t>3 - 3</t>
         </is>
       </c>
-      <c r="J20" s="128" t="n">
+      <c r="J20" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="n"/>
@@ -2035,7 +2047,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J21" s="127" t="n">
+      <c r="J21" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="2" t="n"/>
@@ -2087,7 +2099,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J22" s="128" t="n">
+      <c r="J22" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="n"/>
@@ -2139,7 +2151,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J23" s="127" t="n">
+      <c r="J23" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K23" s="2" t="n"/>
@@ -2191,7 +2203,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J24" s="128" t="n">
+      <c r="J24" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K24" s="2" t="n"/>
@@ -2243,7 +2255,7 @@
           <t>0 - 6</t>
         </is>
       </c>
-      <c r="J25" s="128" t="n">
+      <c r="J25" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K25" s="2" t="n"/>
@@ -2295,7 +2307,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J26" s="128" t="n">
+      <c r="J26" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K26" s="2" t="n"/>
@@ -2347,7 +2359,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J27" s="128" t="n">
+      <c r="J27" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="n"/>
@@ -2399,7 +2411,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J28" s="128" t="n">
+      <c r="J28" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K28" s="2" t="n"/>
@@ -2451,7 +2463,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J29" s="127" t="n">
+      <c r="J29" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K29" s="2" t="n"/>
@@ -2503,7 +2515,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J30" s="128" t="n">
+      <c r="J30" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K30" s="2" t="n"/>
@@ -2555,7 +2567,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J31" s="128" t="n">
+      <c r="J31" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="n"/>
@@ -2607,7 +2619,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J32" s="128" t="n">
+      <c r="J32" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K32" s="2" t="n"/>
@@ -2659,7 +2671,7 @@
           <t>2 - 5</t>
         </is>
       </c>
-      <c r="J33" s="128" t="n">
+      <c r="J33" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K33" s="2" t="n"/>
@@ -2711,7 +2723,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J34" s="127" t="n">
+      <c r="J34" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K34" s="2" t="n"/>
@@ -2763,7 +2775,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J35" s="128" t="n">
+      <c r="J35" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K35" s="2" t="n"/>
@@ -2815,7 +2827,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J36" s="128" t="n">
+      <c r="J36" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K36" s="2" t="n"/>
@@ -2867,7 +2879,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J37" s="128" t="n">
+      <c r="J37" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K37" s="2" t="n"/>
@@ -2919,7 +2931,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J38" s="128" t="n">
+      <c r="J38" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="2" t="n"/>
@@ -2971,7 +2983,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J39" s="128" t="n">
+      <c r="J39" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K39" s="2" t="n"/>
@@ -3023,7 +3035,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J40" s="128" t="n">
+      <c r="J40" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K40" s="2" t="n"/>
@@ -3075,7 +3087,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J41" s="128" t="n">
+      <c r="J41" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K41" s="2" t="n"/>
@@ -3127,7 +3139,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J42" s="128" t="n">
+      <c r="J42" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K42" s="2" t="n"/>
@@ -3179,7 +3191,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J43" s="127" t="n">
+      <c r="J43" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K43" s="2" t="n"/>
@@ -3231,7 +3243,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J44" s="128" t="n">
+      <c r="J44" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K44" s="2" t="n"/>
@@ -3283,7 +3295,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J45" s="127" t="n">
+      <c r="J45" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K45" s="2" t="n"/>
@@ -3335,7 +3347,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J46" s="128" t="n">
+      <c r="J46" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K46" s="2" t="n"/>
@@ -3387,7 +3399,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J47" s="128" t="n">
+      <c r="J47" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K47" s="2" t="n"/>
@@ -3439,7 +3451,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J48" s="127" t="n">
+      <c r="J48" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K48" s="2" t="n"/>
@@ -3491,7 +3503,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J49" s="128" t="n">
+      <c r="J49" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K49" s="2" t="n"/>
@@ -3543,7 +3555,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J50" s="128" t="n">
+      <c r="J50" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K50" s="2" t="n"/>
@@ -3595,7 +3607,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J51" s="128" t="n">
+      <c r="J51" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K51" s="2" t="n"/>
@@ -3647,7 +3659,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J52" s="127" t="n">
+      <c r="J52" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K52" s="2" t="n"/>
@@ -3699,7 +3711,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J53" s="128" t="n">
+      <c r="J53" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K53" s="2" t="n"/>
@@ -3751,7 +3763,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J54" s="127" t="n">
+      <c r="J54" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K54" s="2" t="n"/>
@@ -3803,7 +3815,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J55" s="127" t="n">
+      <c r="J55" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K55" s="2" t="n"/>
@@ -3855,7 +3867,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J56" s="128" t="n">
+      <c r="J56" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K56" s="2" t="n"/>
@@ -3907,7 +3919,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J57" s="128" t="n">
+      <c r="J57" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K57" s="2" t="n"/>
@@ -3959,7 +3971,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J58" s="128" t="n">
+      <c r="J58" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K58" s="2" t="n"/>
@@ -4011,7 +4023,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J59" s="127" t="n">
+      <c r="J59" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K59" s="2" t="n"/>
@@ -4063,7 +4075,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J60" s="127" t="n">
+      <c r="J60" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K60" s="2" t="n"/>
@@ -4115,7 +4127,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J61" s="127" t="n">
+      <c r="J61" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K61" s="2" t="n"/>
@@ -4167,7 +4179,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J62" s="128" t="n">
+      <c r="J62" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K62" s="2" t="n"/>
@@ -4219,7 +4231,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J63" s="128" t="n">
+      <c r="J63" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K63" s="2" t="n"/>
@@ -4271,7 +4283,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J64" s="128" t="n">
+      <c r="J64" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K64" s="2" t="n"/>
@@ -4323,7 +4335,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J65" s="128" t="n">
+      <c r="J65" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K65" s="2" t="n"/>
@@ -4375,7 +4387,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J66" s="127" t="n">
+      <c r="J66" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K66" s="2" t="n"/>
@@ -4427,7 +4439,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J67" s="128" t="n">
+      <c r="J67" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K67" s="2" t="n"/>
@@ -4479,7 +4491,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J68" s="128" t="n">
+      <c r="J68" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K68" s="2" t="n"/>
@@ -4531,7 +4543,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J69" s="128" t="n">
+      <c r="J69" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K69" s="2" t="n"/>
@@ -4583,7 +4595,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="J70" s="128" t="n">
+      <c r="J70" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K70" s="2" t="n"/>
@@ -4635,7 +4647,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J71" s="127" t="n">
+      <c r="J71" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K71" s="2" t="n"/>
@@ -4687,7 +4699,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J72" s="128" t="n">
+      <c r="J72" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K72" s="2" t="n"/>
@@ -4739,7 +4751,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J73" s="128" t="n">
+      <c r="J73" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K73" s="2" t="n"/>
@@ -4791,7 +4803,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J74" s="128" t="n">
+      <c r="J74" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K74" s="2" t="n"/>
@@ -4843,7 +4855,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J75" s="128" t="n">
+      <c r="J75" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K75" s="2" t="n"/>
@@ -4895,7 +4907,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J76" s="128" t="n">
+      <c r="J76" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K76" s="2" t="n"/>
@@ -4947,7 +4959,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J77" s="127" t="n">
+      <c r="J77" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K77" s="2" t="n"/>
@@ -4999,7 +5011,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J78" s="127" t="n">
+      <c r="J78" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K78" s="2" t="n"/>
@@ -5051,7 +5063,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J79" s="128" t="n">
+      <c r="J79" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K79" s="2" t="n"/>
@@ -5103,7 +5115,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J80" s="127" t="n">
+      <c r="J80" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K80" s="2" t="n"/>
@@ -5155,7 +5167,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J81" s="128" t="n">
+      <c r="J81" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K81" s="2" t="n"/>
@@ -5207,7 +5219,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J82" s="128" t="n">
+      <c r="J82" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K82" s="2" t="n"/>
@@ -5259,7 +5271,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J83" s="127" t="n">
+      <c r="J83" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K83" s="2" t="n"/>
@@ -5311,7 +5323,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J84" s="127" t="n">
+      <c r="J84" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K84" s="2" t="n"/>
@@ -5363,7 +5375,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J85" s="128" t="n">
+      <c r="J85" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K85" s="2" t="n"/>
@@ -5415,7 +5427,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J86" s="128" t="n">
+      <c r="J86" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K86" s="2" t="n"/>
@@ -5467,7 +5479,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J87" s="128" t="n">
+      <c r="J87" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K87" s="2" t="n"/>
@@ -5519,7 +5531,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J88" s="128" t="n">
+      <c r="J88" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K88" s="2" t="n"/>
@@ -5571,7 +5583,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J89" s="128" t="n">
+      <c r="J89" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K89" s="2" t="n"/>
@@ -5623,7 +5635,7 @@
           <t>1 - 6</t>
         </is>
       </c>
-      <c r="J90" s="128" t="n">
+      <c r="J90" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K90" s="2" t="n"/>
@@ -5675,7 +5687,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J91" s="128" t="n">
+      <c r="J91" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K91" s="2" t="n"/>
@@ -5727,7 +5739,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J92" s="128" t="n">
+      <c r="J92" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K92" s="2" t="n"/>
@@ -5779,7 +5791,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J93" s="128" t="n">
+      <c r="J93" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K93" s="2" t="n"/>
@@ -5831,7 +5843,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J94" s="128" t="n">
+      <c r="J94" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K94" s="2" t="n"/>
@@ -5883,7 +5895,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J95" s="128" t="n">
+      <c r="J95" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K95" s="2" t="n"/>
@@ -5935,7 +5947,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J96" s="128" t="n">
+      <c r="J96" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K96" s="2" t="n"/>
@@ -5987,7 +5999,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J97" s="128" t="n">
+      <c r="J97" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K97" s="2" t="n"/>
@@ -6039,7 +6051,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J98" s="128" t="n">
+      <c r="J98" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K98" s="2" t="n"/>
@@ -6091,7 +6103,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J99" s="127" t="n">
+      <c r="J99" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K99" s="2" t="n"/>
@@ -6143,7 +6155,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J100" s="128" t="n">
+      <c r="J100" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K100" s="2" t="n"/>
@@ -6195,7 +6207,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J101" s="128" t="n">
+      <c r="J101" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K101" s="2" t="n"/>
@@ -6247,7 +6259,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J102" s="128" t="n">
+      <c r="J102" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K102" s="2" t="n"/>
@@ -6299,7 +6311,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J103" s="127" t="n">
+      <c r="J103" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K103" s="2" t="n"/>
@@ -6351,7 +6363,7 @@
           <t>5 - 2</t>
         </is>
       </c>
-      <c r="J104" s="128" t="n">
+      <c r="J104" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K104" s="2" t="n"/>
@@ -6403,7 +6415,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J105" s="128" t="n">
+      <c r="J105" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K105" s="2" t="n"/>
@@ -6455,7 +6467,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J106" s="128" t="n">
+      <c r="J106" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K106" s="2" t="n"/>
@@ -6507,7 +6519,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J107" s="128" t="n">
+      <c r="J107" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K107" s="2" t="n"/>
@@ -6559,7 +6571,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J108" s="128" t="n">
+      <c r="J108" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K108" s="2" t="n"/>
@@ -6611,7 +6623,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J109" s="127" t="n">
+      <c r="J109" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K109" s="2" t="n"/>
@@ -6663,7 +6675,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J110" s="128" t="n">
+      <c r="J110" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K110" s="2" t="n"/>
@@ -6715,7 +6727,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J111" s="128" t="n">
+      <c r="J111" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K111" s="2" t="n"/>
@@ -6767,7 +6779,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J112" s="128" t="n">
+      <c r="J112" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K112" s="2" t="n"/>
@@ -6819,7 +6831,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J113" s="128" t="n">
+      <c r="J113" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K113" s="2" t="n"/>
@@ -6871,7 +6883,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J114" s="128" t="n">
+      <c r="J114" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K114" s="2" t="n"/>
@@ -6923,7 +6935,7 @@
           <t>4 - 3</t>
         </is>
       </c>
-      <c r="J115" s="128" t="n">
+      <c r="J115" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K115" s="2" t="n"/>
@@ -6975,7 +6987,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J116" s="128" t="n">
+      <c r="J116" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K116" s="2" t="n"/>
@@ -7027,7 +7039,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J117" s="128" t="n">
+      <c r="J117" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K117" s="2" t="n"/>
@@ -7079,7 +7091,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J118" s="128" t="n">
+      <c r="J118" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K118" s="2" t="n"/>
@@ -7131,7 +7143,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J119" s="127" t="n">
+      <c r="J119" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K119" s="2" t="n"/>
@@ -7183,7 +7195,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J120" s="128" t="n">
+      <c r="J120" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K120" s="2" t="n"/>
@@ -7235,7 +7247,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J121" s="128" t="n">
+      <c r="J121" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K121" s="2" t="n"/>
@@ -7287,7 +7299,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J122" s="127" t="n">
+      <c r="J122" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K122" s="2" t="n"/>
@@ -7339,7 +7351,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J123" s="128" t="n">
+      <c r="J123" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K123" s="2" t="n"/>
@@ -7391,7 +7403,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J124" s="128" t="n">
+      <c r="J124" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K124" s="2" t="n"/>
@@ -7443,7 +7455,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J125" s="128" t="n">
+      <c r="J125" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K125" s="2" t="n"/>
@@ -7495,7 +7507,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J126" s="127" t="n">
+      <c r="J126" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K126" s="2" t="n"/>
@@ -7547,7 +7559,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J127" s="128" t="n">
+      <c r="J127" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K127" s="2" t="n"/>
@@ -7599,7 +7611,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J128" s="128" t="n">
+      <c r="J128" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K128" s="2" t="n"/>
@@ -7651,7 +7663,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J129" s="128" t="n">
+      <c r="J129" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K129" s="2" t="n"/>
@@ -7703,7 +7715,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J130" s="127" t="n">
+      <c r="J130" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K130" s="2" t="n"/>
@@ -7755,7 +7767,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J131" s="128" t="n">
+      <c r="J131" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K131" s="2" t="n"/>
@@ -7807,7 +7819,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J132" s="128" t="n">
+      <c r="J132" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K132" s="2" t="n"/>
@@ -7859,7 +7871,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J133" s="128" t="n">
+      <c r="J133" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K133" s="2" t="n"/>
@@ -7911,7 +7923,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J134" s="128" t="n">
+      <c r="J134" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K134" s="2" t="n"/>
@@ -7963,7 +7975,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J135" s="128" t="n">
+      <c r="J135" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K135" s="2" t="n"/>
@@ -8015,7 +8027,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J136" s="128" t="n">
+      <c r="J136" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K136" s="2" t="n"/>
@@ -8067,7 +8079,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J137" s="128" t="n">
+      <c r="J137" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K137" s="2" t="n"/>
@@ -8119,7 +8131,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J138" s="128" t="n">
+      <c r="J138" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K138" s="2" t="n"/>
@@ -8171,7 +8183,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="J139" s="128" t="n">
+      <c r="J139" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K139" s="2" t="n"/>
@@ -8223,7 +8235,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J140" s="128" t="n">
+      <c r="J140" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K140" s="2" t="n"/>
@@ -8275,7 +8287,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J141" s="128" t="n">
+      <c r="J141" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K141" s="2" t="n"/>
@@ -8327,7 +8339,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J142" s="128" t="n">
+      <c r="J142" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K142" s="2" t="n"/>
@@ -8379,7 +8391,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J143" s="127" t="n">
+      <c r="J143" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K143" s="2" t="n"/>
@@ -8431,7 +8443,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J144" s="128" t="n">
+      <c r="J144" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K144" s="2" t="n"/>
@@ -8483,7 +8495,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J145" s="127" t="n">
+      <c r="J145" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K145" s="2" t="n"/>
@@ -8535,7 +8547,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J146" s="128" t="n">
+      <c r="J146" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K146" s="2" t="n"/>
@@ -8587,7 +8599,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J147" s="128" t="n">
+      <c r="J147" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K147" s="2" t="n"/>
@@ -8639,7 +8651,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J148" s="128" t="n">
+      <c r="J148" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K148" s="2" t="n"/>
@@ -8691,7 +8703,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J149" s="127" t="n">
+      <c r="J149" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K149" s="2" t="n"/>
@@ -8743,7 +8755,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J150" s="128" t="n">
+      <c r="J150" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K150" s="2" t="n"/>
@@ -8795,7 +8807,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J151" s="128" t="n">
+      <c r="J151" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K151" s="2" t="n"/>
@@ -8847,7 +8859,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J152" s="128" t="n">
+      <c r="J152" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K152" s="2" t="n"/>
@@ -8899,7 +8911,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J153" s="127" t="n">
+      <c r="J153" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K153" s="2" t="n"/>
@@ -8951,7 +8963,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J154" s="127" t="n">
+      <c r="J154" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K154" s="2" t="n"/>
@@ -9003,7 +9015,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J155" s="127" t="n">
+      <c r="J155" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K155" s="2" t="n"/>
@@ -9055,7 +9067,7 @@
           <t>3 - 4</t>
         </is>
       </c>
-      <c r="J156" s="127" t="n">
+      <c r="J156" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K156" s="2" t="n"/>
@@ -9107,7 +9119,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J157" s="128" t="n">
+      <c r="J157" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K157" s="2" t="n"/>
@@ -9159,7 +9171,7 @@
           <t>5 - 2</t>
         </is>
       </c>
-      <c r="J158" s="128" t="n">
+      <c r="J158" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K158" s="2" t="n"/>
@@ -9211,7 +9223,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J159" s="128" t="n">
+      <c r="J159" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K159" s="2" t="n"/>
@@ -9263,7 +9275,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J160" s="128" t="n">
+      <c r="J160" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K160" s="2" t="n"/>
@@ -9315,7 +9327,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J161" s="127" t="n">
+      <c r="J161" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K161" s="2" t="n"/>
@@ -9367,7 +9379,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J162" s="127" t="n">
+      <c r="J162" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K162" s="2" t="n"/>
@@ -9419,7 +9431,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J163" s="128" t="n">
+      <c r="J163" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K163" s="2" t="n"/>
@@ -9471,7 +9483,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J164" s="128" t="n">
+      <c r="J164" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K164" s="2" t="n"/>
@@ -9523,7 +9535,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J165" s="128" t="n">
+      <c r="J165" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K165" s="2" t="n"/>
@@ -9575,7 +9587,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J166" s="127" t="n">
+      <c r="J166" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K166" s="2" t="n"/>
@@ -9627,7 +9639,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J167" s="128" t="n">
+      <c r="J167" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K167" s="2" t="n"/>
@@ -9679,7 +9691,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J168" s="127" t="n">
+      <c r="J168" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K168" s="2" t="n"/>
@@ -9731,7 +9743,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J169" s="128" t="n">
+      <c r="J169" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K169" s="2" t="n"/>
@@ -9783,7 +9795,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J170" s="128" t="n">
+      <c r="J170" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K170" s="2" t="n"/>
@@ -9835,7 +9847,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J171" s="128" t="n">
+      <c r="J171" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K171" s="2" t="n"/>
@@ -9887,7 +9899,7 @@
           <t>6 - 2</t>
         </is>
       </c>
-      <c r="J172" s="128" t="n">
+      <c r="J172" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K172" s="2" t="n"/>
@@ -9939,7 +9951,7 @@
           <t>0 - 6</t>
         </is>
       </c>
-      <c r="J173" s="128" t="n">
+      <c r="J173" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K173" s="2" t="n"/>
@@ -9991,7 +10003,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J174" s="128" t="n">
+      <c r="J174" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K174" s="2" t="n"/>
@@ -10043,7 +10055,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J175" s="127" t="n">
+      <c r="J175" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K175" s="2" t="n"/>
@@ -10095,7 +10107,7 @@
           <t>6 - 1</t>
         </is>
       </c>
-      <c r="J176" s="128" t="n">
+      <c r="J176" s="132" t="n">
         <v>1</v>
       </c>
       <c r="K176" s="2" t="n"/>
@@ -10147,7 +10159,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J177" s="127" t="n">
+      <c r="J177" s="129" t="n">
         <v>0</v>
       </c>
       <c r="K177" s="2" t="n"/>
@@ -10160,6 +10172,214 @@
       <c r="R177" s="2" t="n"/>
       <c r="S177" s="2" t="n"/>
       <c r="T177" s="2" t="n"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>01.11.2025</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>Olympique Marseille</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F178" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G178" s="2" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="H178" s="2" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="I178" s="2" t="inlineStr">
+        <is>
+          <t>0 - 1</t>
+        </is>
+      </c>
+      <c r="J178" s="132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K178" s="2" t="n"/>
+      <c r="L178" s="2" t="n"/>
+      <c r="M178" s="2" t="n"/>
+      <c r="N178" s="2" t="n"/>
+      <c r="O178" s="2" t="n"/>
+      <c r="P178" s="2" t="n"/>
+      <c r="Q178" s="2" t="n"/>
+      <c r="R178" s="2" t="n"/>
+      <c r="S178" s="2" t="n"/>
+      <c r="T178" s="2" t="n"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="inlineStr">
+        <is>
+          <t>02.11.2025</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C179" s="2" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F179" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G179" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="H179" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I179" s="2" t="inlineStr">
+        <is>
+          <t>1 - 2</t>
+        </is>
+      </c>
+      <c r="J179" s="132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K179" s="2" t="n"/>
+      <c r="L179" s="2" t="n"/>
+      <c r="M179" s="2" t="n"/>
+      <c r="N179" s="2" t="n"/>
+      <c r="O179" s="2" t="n"/>
+      <c r="P179" s="2" t="n"/>
+      <c r="Q179" s="2" t="n"/>
+      <c r="R179" s="2" t="n"/>
+      <c r="S179" s="2" t="n"/>
+      <c r="T179" s="2" t="n"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>02.11.2025</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="C180" s="2" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F180" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G180" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="H180" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="I180" s="2" t="inlineStr">
+        <is>
+          <t>1 - 0</t>
+        </is>
+      </c>
+      <c r="J180" s="132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K180" s="2" t="n"/>
+      <c r="L180" s="2" t="n"/>
+      <c r="M180" s="2" t="n"/>
+      <c r="N180" s="2" t="n"/>
+      <c r="O180" s="2" t="n"/>
+      <c r="P180" s="2" t="n"/>
+      <c r="Q180" s="2" t="n"/>
+      <c r="R180" s="2" t="n"/>
+      <c r="S180" s="2" t="n"/>
+      <c r="T180" s="2" t="n"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="inlineStr">
+        <is>
+          <t>02.11.2025</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="C181" s="2" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="inlineStr">
+        <is>
+          <t>1X</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F181" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G181" s="2" t="n">
+        <v>56.49999999999999</v>
+      </c>
+      <c r="H181" s="2" t="n">
+        <v>6.499999999999993</v>
+      </c>
+      <c r="I181" s="2" t="inlineStr">
+        <is>
+          <t>3 - 1</t>
+        </is>
+      </c>
+      <c r="J181" s="132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K181" s="2" t="n"/>
+      <c r="L181" s="2" t="n"/>
+      <c r="M181" s="2" t="n"/>
+      <c r="N181" s="2" t="n"/>
+      <c r="O181" s="2" t="n"/>
+      <c r="P181" s="2" t="n"/>
+      <c r="Q181" s="2" t="n"/>
+      <c r="R181" s="2" t="n"/>
+      <c r="S181" s="2" t="n"/>
+      <c r="T181" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10269,14 +10489,14 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -10503,14 +10723,14 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>12</v>
-      </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>92.31%</t>
+          <t>92.86%</t>
         </is>
       </c>
     </row>
@@ -10593,14 +10813,14 @@
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
     </row>
@@ -10629,14 +10849,14 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>80.0%</t>
         </is>
       </c>
     </row>

--- a/app/placed_bets.xlsx
+++ b/app/placed_bets.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -503,6 +503,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -873,7 +882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T181"/>
+  <dimension ref="A1:T184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,12 +964,12 @@
         </is>
       </c>
       <c r="K1" s="2" t="n"/>
-      <c r="L1" s="132" t="inlineStr">
+      <c r="L1" s="134" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="M1" s="129" t="inlineStr">
+      <c r="M1" s="135" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
@@ -1039,38 +1048,38 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J2" s="132" t="n">
+      <c r="J2" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>74.44</v>
+        <v>74.31999999999999</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>11860</v>
+        <v>12010</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>11108.5</v>
+        <v>11241</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>-751.5</v>
+        <v>-769</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>-0.72%</t>
+          <t>-0.74%</t>
         </is>
       </c>
       <c r="S2" s="2" t="n">
         <v>1.31</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>278.5</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3">
@@ -1111,7 +1120,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J3" s="129" t="n">
+      <c r="J3" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="2" t="n"/>
@@ -1163,7 +1172,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J4" s="132" t="n">
+      <c r="J4" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="n"/>
@@ -1215,7 +1224,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J5" s="132" t="n">
+      <c r="J5" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="n"/>
@@ -1267,7 +1276,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J6" s="132" t="n">
+      <c r="J6" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="n"/>
@@ -1319,7 +1328,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J7" s="129" t="n">
+      <c r="J7" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="n"/>
@@ -1371,7 +1380,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J8" s="132" t="n">
+      <c r="J8" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="n"/>
@@ -1423,7 +1432,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J9" s="129" t="n">
+      <c r="J9" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="2" t="n"/>
@@ -1475,7 +1484,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J10" s="132" t="n">
+      <c r="J10" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="n"/>
@@ -1527,7 +1536,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J11" s="132" t="n">
+      <c r="J11" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="n"/>
@@ -1579,7 +1588,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J12" s="129" t="n">
+      <c r="J12" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="n"/>
@@ -1631,7 +1640,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J13" s="132" t="n">
+      <c r="J13" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="n"/>
@@ -1683,7 +1692,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J14" s="132" t="n">
+      <c r="J14" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="n"/>
@@ -1735,7 +1744,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J15" s="132" t="n">
+      <c r="J15" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="n"/>
@@ -1787,7 +1796,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J16" s="132" t="n">
+      <c r="J16" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="n"/>
@@ -1839,7 +1848,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J17" s="129" t="n">
+      <c r="J17" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="2" t="n"/>
@@ -1891,7 +1900,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J18" s="132" t="n">
+      <c r="J18" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="n"/>
@@ -1943,7 +1952,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J19" s="129" t="n">
+      <c r="J19" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K19" s="2" t="n"/>
@@ -1995,7 +2004,7 @@
           <t>3 - 3</t>
         </is>
       </c>
-      <c r="J20" s="132" t="n">
+      <c r="J20" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="n"/>
@@ -2047,7 +2056,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J21" s="129" t="n">
+      <c r="J21" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="2" t="n"/>
@@ -2099,7 +2108,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J22" s="132" t="n">
+      <c r="J22" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="n"/>
@@ -2151,7 +2160,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J23" s="129" t="n">
+      <c r="J23" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K23" s="2" t="n"/>
@@ -2203,7 +2212,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J24" s="132" t="n">
+      <c r="J24" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K24" s="2" t="n"/>
@@ -2255,7 +2264,7 @@
           <t>0 - 6</t>
         </is>
       </c>
-      <c r="J25" s="132" t="n">
+      <c r="J25" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K25" s="2" t="n"/>
@@ -2307,7 +2316,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J26" s="132" t="n">
+      <c r="J26" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K26" s="2" t="n"/>
@@ -2359,7 +2368,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J27" s="132" t="n">
+      <c r="J27" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="n"/>
@@ -2411,7 +2420,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J28" s="132" t="n">
+      <c r="J28" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K28" s="2" t="n"/>
@@ -2463,7 +2472,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J29" s="129" t="n">
+      <c r="J29" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K29" s="2" t="n"/>
@@ -2515,7 +2524,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J30" s="132" t="n">
+      <c r="J30" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K30" s="2" t="n"/>
@@ -2567,7 +2576,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J31" s="132" t="n">
+      <c r="J31" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="n"/>
@@ -2619,7 +2628,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J32" s="132" t="n">
+      <c r="J32" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K32" s="2" t="n"/>
@@ -2671,7 +2680,7 @@
           <t>2 - 5</t>
         </is>
       </c>
-      <c r="J33" s="132" t="n">
+      <c r="J33" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K33" s="2" t="n"/>
@@ -2723,7 +2732,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J34" s="129" t="n">
+      <c r="J34" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K34" s="2" t="n"/>
@@ -2775,7 +2784,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J35" s="132" t="n">
+      <c r="J35" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K35" s="2" t="n"/>
@@ -2827,7 +2836,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J36" s="132" t="n">
+      <c r="J36" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K36" s="2" t="n"/>
@@ -2879,7 +2888,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J37" s="132" t="n">
+      <c r="J37" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K37" s="2" t="n"/>
@@ -2931,7 +2940,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J38" s="132" t="n">
+      <c r="J38" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="2" t="n"/>
@@ -2983,7 +2992,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J39" s="132" t="n">
+      <c r="J39" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K39" s="2" t="n"/>
@@ -3035,7 +3044,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J40" s="132" t="n">
+      <c r="J40" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K40" s="2" t="n"/>
@@ -3087,7 +3096,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J41" s="132" t="n">
+      <c r="J41" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K41" s="2" t="n"/>
@@ -3139,7 +3148,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J42" s="132" t="n">
+      <c r="J42" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K42" s="2" t="n"/>
@@ -3191,7 +3200,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J43" s="129" t="n">
+      <c r="J43" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K43" s="2" t="n"/>
@@ -3243,7 +3252,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J44" s="132" t="n">
+      <c r="J44" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K44" s="2" t="n"/>
@@ -3295,7 +3304,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J45" s="129" t="n">
+      <c r="J45" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K45" s="2" t="n"/>
@@ -3347,7 +3356,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J46" s="132" t="n">
+      <c r="J46" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K46" s="2" t="n"/>
@@ -3399,7 +3408,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J47" s="132" t="n">
+      <c r="J47" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K47" s="2" t="n"/>
@@ -3451,7 +3460,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J48" s="129" t="n">
+      <c r="J48" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K48" s="2" t="n"/>
@@ -3503,7 +3512,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J49" s="132" t="n">
+      <c r="J49" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K49" s="2" t="n"/>
@@ -3555,7 +3564,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J50" s="132" t="n">
+      <c r="J50" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K50" s="2" t="n"/>
@@ -3607,7 +3616,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J51" s="132" t="n">
+      <c r="J51" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K51" s="2" t="n"/>
@@ -3659,7 +3668,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J52" s="129" t="n">
+      <c r="J52" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K52" s="2" t="n"/>
@@ -3711,7 +3720,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J53" s="132" t="n">
+      <c r="J53" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K53" s="2" t="n"/>
@@ -3763,7 +3772,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J54" s="129" t="n">
+      <c r="J54" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K54" s="2" t="n"/>
@@ -3815,7 +3824,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J55" s="129" t="n">
+      <c r="J55" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K55" s="2" t="n"/>
@@ -3867,7 +3876,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J56" s="132" t="n">
+      <c r="J56" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K56" s="2" t="n"/>
@@ -3919,7 +3928,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J57" s="132" t="n">
+      <c r="J57" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K57" s="2" t="n"/>
@@ -3971,7 +3980,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J58" s="132" t="n">
+      <c r="J58" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K58" s="2" t="n"/>
@@ -4023,7 +4032,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J59" s="129" t="n">
+      <c r="J59" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K59" s="2" t="n"/>
@@ -4075,7 +4084,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J60" s="129" t="n">
+      <c r="J60" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K60" s="2" t="n"/>
@@ -4127,7 +4136,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J61" s="129" t="n">
+      <c r="J61" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K61" s="2" t="n"/>
@@ -4179,7 +4188,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J62" s="132" t="n">
+      <c r="J62" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K62" s="2" t="n"/>
@@ -4231,7 +4240,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J63" s="132" t="n">
+      <c r="J63" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K63" s="2" t="n"/>
@@ -4283,7 +4292,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J64" s="132" t="n">
+      <c r="J64" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K64" s="2" t="n"/>
@@ -4335,7 +4344,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J65" s="132" t="n">
+      <c r="J65" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K65" s="2" t="n"/>
@@ -4387,7 +4396,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J66" s="129" t="n">
+      <c r="J66" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K66" s="2" t="n"/>
@@ -4439,7 +4448,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J67" s="132" t="n">
+      <c r="J67" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K67" s="2" t="n"/>
@@ -4491,7 +4500,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J68" s="132" t="n">
+      <c r="J68" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K68" s="2" t="n"/>
@@ -4543,7 +4552,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J69" s="132" t="n">
+      <c r="J69" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K69" s="2" t="n"/>
@@ -4595,7 +4604,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="J70" s="132" t="n">
+      <c r="J70" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K70" s="2" t="n"/>
@@ -4647,7 +4656,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J71" s="129" t="n">
+      <c r="J71" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K71" s="2" t="n"/>
@@ -4699,7 +4708,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J72" s="132" t="n">
+      <c r="J72" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K72" s="2" t="n"/>
@@ -4751,7 +4760,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J73" s="132" t="n">
+      <c r="J73" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K73" s="2" t="n"/>
@@ -4803,7 +4812,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J74" s="132" t="n">
+      <c r="J74" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K74" s="2" t="n"/>
@@ -4855,7 +4864,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J75" s="132" t="n">
+      <c r="J75" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K75" s="2" t="n"/>
@@ -4907,7 +4916,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J76" s="132" t="n">
+      <c r="J76" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K76" s="2" t="n"/>
@@ -4959,7 +4968,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J77" s="129" t="n">
+      <c r="J77" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K77" s="2" t="n"/>
@@ -5011,7 +5020,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J78" s="129" t="n">
+      <c r="J78" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K78" s="2" t="n"/>
@@ -5063,7 +5072,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J79" s="132" t="n">
+      <c r="J79" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K79" s="2" t="n"/>
@@ -5115,7 +5124,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J80" s="129" t="n">
+      <c r="J80" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K80" s="2" t="n"/>
@@ -5167,7 +5176,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J81" s="132" t="n">
+      <c r="J81" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K81" s="2" t="n"/>
@@ -5219,7 +5228,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J82" s="132" t="n">
+      <c r="J82" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K82" s="2" t="n"/>
@@ -5271,7 +5280,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J83" s="129" t="n">
+      <c r="J83" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K83" s="2" t="n"/>
@@ -5323,7 +5332,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J84" s="129" t="n">
+      <c r="J84" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K84" s="2" t="n"/>
@@ -5375,7 +5384,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J85" s="132" t="n">
+      <c r="J85" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K85" s="2" t="n"/>
@@ -5427,7 +5436,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J86" s="132" t="n">
+      <c r="J86" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K86" s="2" t="n"/>
@@ -5479,7 +5488,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J87" s="132" t="n">
+      <c r="J87" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K87" s="2" t="n"/>
@@ -5531,7 +5540,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J88" s="132" t="n">
+      <c r="J88" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K88" s="2" t="n"/>
@@ -5583,7 +5592,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J89" s="132" t="n">
+      <c r="J89" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K89" s="2" t="n"/>
@@ -5635,7 +5644,7 @@
           <t>1 - 6</t>
         </is>
       </c>
-      <c r="J90" s="132" t="n">
+      <c r="J90" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K90" s="2" t="n"/>
@@ -5687,7 +5696,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J91" s="132" t="n">
+      <c r="J91" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K91" s="2" t="n"/>
@@ -5739,7 +5748,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J92" s="132" t="n">
+      <c r="J92" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K92" s="2" t="n"/>
@@ -5791,7 +5800,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J93" s="132" t="n">
+      <c r="J93" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K93" s="2" t="n"/>
@@ -5843,7 +5852,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J94" s="132" t="n">
+      <c r="J94" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K94" s="2" t="n"/>
@@ -5895,7 +5904,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J95" s="132" t="n">
+      <c r="J95" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K95" s="2" t="n"/>
@@ -5947,7 +5956,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J96" s="132" t="n">
+      <c r="J96" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K96" s="2" t="n"/>
@@ -5999,7 +6008,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J97" s="132" t="n">
+      <c r="J97" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K97" s="2" t="n"/>
@@ -6051,7 +6060,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J98" s="132" t="n">
+      <c r="J98" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K98" s="2" t="n"/>
@@ -6103,7 +6112,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J99" s="129" t="n">
+      <c r="J99" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K99" s="2" t="n"/>
@@ -6155,7 +6164,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J100" s="132" t="n">
+      <c r="J100" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K100" s="2" t="n"/>
@@ -6207,7 +6216,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J101" s="132" t="n">
+      <c r="J101" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K101" s="2" t="n"/>
@@ -6259,7 +6268,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J102" s="132" t="n">
+      <c r="J102" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K102" s="2" t="n"/>
@@ -6311,7 +6320,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J103" s="129" t="n">
+      <c r="J103" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K103" s="2" t="n"/>
@@ -6363,7 +6372,7 @@
           <t>5 - 2</t>
         </is>
       </c>
-      <c r="J104" s="132" t="n">
+      <c r="J104" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K104" s="2" t="n"/>
@@ -6415,7 +6424,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J105" s="132" t="n">
+      <c r="J105" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K105" s="2" t="n"/>
@@ -6467,7 +6476,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J106" s="132" t="n">
+      <c r="J106" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K106" s="2" t="n"/>
@@ -6519,7 +6528,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J107" s="132" t="n">
+      <c r="J107" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K107" s="2" t="n"/>
@@ -6571,7 +6580,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J108" s="132" t="n">
+      <c r="J108" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K108" s="2" t="n"/>
@@ -6623,7 +6632,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J109" s="129" t="n">
+      <c r="J109" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K109" s="2" t="n"/>
@@ -6675,7 +6684,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J110" s="132" t="n">
+      <c r="J110" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K110" s="2" t="n"/>
@@ -6727,7 +6736,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J111" s="132" t="n">
+      <c r="J111" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K111" s="2" t="n"/>
@@ -6779,7 +6788,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J112" s="132" t="n">
+      <c r="J112" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K112" s="2" t="n"/>
@@ -6831,7 +6840,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J113" s="132" t="n">
+      <c r="J113" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K113" s="2" t="n"/>
@@ -6883,7 +6892,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J114" s="132" t="n">
+      <c r="J114" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K114" s="2" t="n"/>
@@ -6935,7 +6944,7 @@
           <t>4 - 3</t>
         </is>
       </c>
-      <c r="J115" s="132" t="n">
+      <c r="J115" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K115" s="2" t="n"/>
@@ -6987,7 +6996,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J116" s="132" t="n">
+      <c r="J116" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K116" s="2" t="n"/>
@@ -7039,7 +7048,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J117" s="132" t="n">
+      <c r="J117" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K117" s="2" t="n"/>
@@ -7091,7 +7100,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J118" s="132" t="n">
+      <c r="J118" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K118" s="2" t="n"/>
@@ -7143,7 +7152,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J119" s="129" t="n">
+      <c r="J119" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K119" s="2" t="n"/>
@@ -7195,7 +7204,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J120" s="132" t="n">
+      <c r="J120" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K120" s="2" t="n"/>
@@ -7247,7 +7256,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J121" s="132" t="n">
+      <c r="J121" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K121" s="2" t="n"/>
@@ -7299,7 +7308,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J122" s="129" t="n">
+      <c r="J122" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K122" s="2" t="n"/>
@@ -7351,7 +7360,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J123" s="132" t="n">
+      <c r="J123" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K123" s="2" t="n"/>
@@ -7403,7 +7412,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J124" s="132" t="n">
+      <c r="J124" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K124" s="2" t="n"/>
@@ -7455,7 +7464,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J125" s="132" t="n">
+      <c r="J125" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K125" s="2" t="n"/>
@@ -7507,7 +7516,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J126" s="129" t="n">
+      <c r="J126" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K126" s="2" t="n"/>
@@ -7559,7 +7568,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J127" s="132" t="n">
+      <c r="J127" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K127" s="2" t="n"/>
@@ -7611,7 +7620,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J128" s="132" t="n">
+      <c r="J128" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K128" s="2" t="n"/>
@@ -7663,7 +7672,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J129" s="132" t="n">
+      <c r="J129" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K129" s="2" t="n"/>
@@ -7715,7 +7724,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J130" s="129" t="n">
+      <c r="J130" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K130" s="2" t="n"/>
@@ -7767,7 +7776,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J131" s="132" t="n">
+      <c r="J131" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K131" s="2" t="n"/>
@@ -7819,7 +7828,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J132" s="132" t="n">
+      <c r="J132" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K132" s="2" t="n"/>
@@ -7871,7 +7880,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J133" s="132" t="n">
+      <c r="J133" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K133" s="2" t="n"/>
@@ -7923,7 +7932,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J134" s="132" t="n">
+      <c r="J134" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K134" s="2" t="n"/>
@@ -7975,7 +7984,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J135" s="132" t="n">
+      <c r="J135" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K135" s="2" t="n"/>
@@ -8027,7 +8036,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J136" s="132" t="n">
+      <c r="J136" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K136" s="2" t="n"/>
@@ -8079,7 +8088,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J137" s="132" t="n">
+      <c r="J137" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K137" s="2" t="n"/>
@@ -8131,7 +8140,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J138" s="132" t="n">
+      <c r="J138" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K138" s="2" t="n"/>
@@ -8183,7 +8192,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="J139" s="132" t="n">
+      <c r="J139" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K139" s="2" t="n"/>
@@ -8235,7 +8244,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J140" s="132" t="n">
+      <c r="J140" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K140" s="2" t="n"/>
@@ -8287,7 +8296,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J141" s="132" t="n">
+      <c r="J141" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K141" s="2" t="n"/>
@@ -8339,7 +8348,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J142" s="132" t="n">
+      <c r="J142" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K142" s="2" t="n"/>
@@ -8391,7 +8400,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J143" s="129" t="n">
+      <c r="J143" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K143" s="2" t="n"/>
@@ -8443,7 +8452,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J144" s="132" t="n">
+      <c r="J144" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K144" s="2" t="n"/>
@@ -8495,7 +8504,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J145" s="129" t="n">
+      <c r="J145" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K145" s="2" t="n"/>
@@ -8547,7 +8556,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J146" s="132" t="n">
+      <c r="J146" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K146" s="2" t="n"/>
@@ -8599,7 +8608,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J147" s="132" t="n">
+      <c r="J147" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K147" s="2" t="n"/>
@@ -8651,7 +8660,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J148" s="132" t="n">
+      <c r="J148" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K148" s="2" t="n"/>
@@ -8703,7 +8712,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J149" s="129" t="n">
+      <c r="J149" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K149" s="2" t="n"/>
@@ -8755,7 +8764,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J150" s="132" t="n">
+      <c r="J150" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K150" s="2" t="n"/>
@@ -8807,7 +8816,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J151" s="132" t="n">
+      <c r="J151" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K151" s="2" t="n"/>
@@ -8859,7 +8868,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J152" s="132" t="n">
+      <c r="J152" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K152" s="2" t="n"/>
@@ -8911,7 +8920,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J153" s="129" t="n">
+      <c r="J153" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K153" s="2" t="n"/>
@@ -8963,7 +8972,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J154" s="129" t="n">
+      <c r="J154" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K154" s="2" t="n"/>
@@ -9015,7 +9024,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J155" s="129" t="n">
+      <c r="J155" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K155" s="2" t="n"/>
@@ -9067,7 +9076,7 @@
           <t>3 - 4</t>
         </is>
       </c>
-      <c r="J156" s="129" t="n">
+      <c r="J156" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K156" s="2" t="n"/>
@@ -9119,7 +9128,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J157" s="132" t="n">
+      <c r="J157" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K157" s="2" t="n"/>
@@ -9171,7 +9180,7 @@
           <t>5 - 2</t>
         </is>
       </c>
-      <c r="J158" s="132" t="n">
+      <c r="J158" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K158" s="2" t="n"/>
@@ -9223,7 +9232,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J159" s="132" t="n">
+      <c r="J159" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K159" s="2" t="n"/>
@@ -9275,7 +9284,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J160" s="132" t="n">
+      <c r="J160" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K160" s="2" t="n"/>
@@ -9327,7 +9336,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J161" s="129" t="n">
+      <c r="J161" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K161" s="2" t="n"/>
@@ -9379,7 +9388,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J162" s="129" t="n">
+      <c r="J162" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K162" s="2" t="n"/>
@@ -9431,7 +9440,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J163" s="132" t="n">
+      <c r="J163" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K163" s="2" t="n"/>
@@ -9483,7 +9492,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J164" s="132" t="n">
+      <c r="J164" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K164" s="2" t="n"/>
@@ -9535,7 +9544,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J165" s="132" t="n">
+      <c r="J165" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K165" s="2" t="n"/>
@@ -9587,7 +9596,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J166" s="129" t="n">
+      <c r="J166" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K166" s="2" t="n"/>
@@ -9639,7 +9648,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J167" s="132" t="n">
+      <c r="J167" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K167" s="2" t="n"/>
@@ -9691,7 +9700,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J168" s="129" t="n">
+      <c r="J168" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K168" s="2" t="n"/>
@@ -9743,7 +9752,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J169" s="132" t="n">
+      <c r="J169" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K169" s="2" t="n"/>
@@ -9795,7 +9804,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J170" s="132" t="n">
+      <c r="J170" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K170" s="2" t="n"/>
@@ -9847,7 +9856,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J171" s="132" t="n">
+      <c r="J171" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K171" s="2" t="n"/>
@@ -9899,7 +9908,7 @@
           <t>6 - 2</t>
         </is>
       </c>
-      <c r="J172" s="132" t="n">
+      <c r="J172" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K172" s="2" t="n"/>
@@ -9951,7 +9960,7 @@
           <t>0 - 6</t>
         </is>
       </c>
-      <c r="J173" s="132" t="n">
+      <c r="J173" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K173" s="2" t="n"/>
@@ -10003,7 +10012,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J174" s="132" t="n">
+      <c r="J174" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K174" s="2" t="n"/>
@@ -10055,7 +10064,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J175" s="129" t="n">
+      <c r="J175" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K175" s="2" t="n"/>
@@ -10107,7 +10116,7 @@
           <t>6 - 1</t>
         </is>
       </c>
-      <c r="J176" s="132" t="n">
+      <c r="J176" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K176" s="2" t="n"/>
@@ -10159,7 +10168,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J177" s="129" t="n">
+      <c r="J177" s="135" t="n">
         <v>0</v>
       </c>
       <c r="K177" s="2" t="n"/>
@@ -10211,7 +10220,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J178" s="132" t="n">
+      <c r="J178" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K178" s="2" t="n"/>
@@ -10263,7 +10272,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J179" s="132" t="n">
+      <c r="J179" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K179" s="2" t="n"/>
@@ -10315,7 +10324,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J180" s="132" t="n">
+      <c r="J180" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K180" s="2" t="n"/>
@@ -10367,7 +10376,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J181" s="132" t="n">
+      <c r="J181" s="134" t="n">
         <v>1</v>
       </c>
       <c r="K181" s="2" t="n"/>
@@ -10380,6 +10389,162 @@
       <c r="R181" s="2" t="n"/>
       <c r="S181" s="2" t="n"/>
       <c r="T181" s="2" t="n"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>08.11.2025</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F182" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G182" s="2" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="H182" s="2" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="I182" s="2" t="inlineStr">
+        <is>
+          <t>6 - 0</t>
+        </is>
+      </c>
+      <c r="J182" s="134" t="n">
+        <v>1</v>
+      </c>
+      <c r="K182" s="2" t="n"/>
+      <c r="L182" s="2" t="n"/>
+      <c r="M182" s="2" t="n"/>
+      <c r="N182" s="2" t="n"/>
+      <c r="O182" s="2" t="n"/>
+      <c r="P182" s="2" t="n"/>
+      <c r="Q182" s="2" t="n"/>
+      <c r="R182" s="2" t="n"/>
+      <c r="S182" s="2" t="n"/>
+      <c r="T182" s="2" t="n"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="inlineStr">
+        <is>
+          <t>09.11.2025</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="C183" s="2" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F183" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G183" s="2" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="H183" s="2" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="I183" s="2" t="inlineStr">
+        <is>
+          <t>2 - 1</t>
+        </is>
+      </c>
+      <c r="J183" s="135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" s="2" t="n"/>
+      <c r="L183" s="2" t="n"/>
+      <c r="M183" s="2" t="n"/>
+      <c r="N183" s="2" t="n"/>
+      <c r="O183" s="2" t="n"/>
+      <c r="P183" s="2" t="n"/>
+      <c r="Q183" s="2" t="n"/>
+      <c r="R183" s="2" t="n"/>
+      <c r="S183" s="2" t="n"/>
+      <c r="T183" s="2" t="n"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="inlineStr">
+        <is>
+          <t>09.11.2025</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="C184" s="2" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F184" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G184" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="H184" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="I184" s="2" t="inlineStr">
+        <is>
+          <t>2 - 4</t>
+        </is>
+      </c>
+      <c r="J184" s="134" t="n">
+        <v>1</v>
+      </c>
+      <c r="K184" s="2" t="n"/>
+      <c r="L184" s="2" t="n"/>
+      <c r="M184" s="2" t="n"/>
+      <c r="N184" s="2" t="n"/>
+      <c r="O184" s="2" t="n"/>
+      <c r="P184" s="2" t="n"/>
+      <c r="Q184" s="2" t="n"/>
+      <c r="R184" s="2" t="n"/>
+      <c r="S184" s="2" t="n"/>
+      <c r="T184" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10543,14 +10708,14 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>69.23%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -10579,14 +10744,14 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>75.0%</t>
         </is>
       </c>
     </row>
@@ -10885,14 +11050,14 @@
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>

--- a/app/placed_bets.xlsx
+++ b/app/placed_bets.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -515,6 +515,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -882,7 +903,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T184"/>
+  <dimension ref="A1:T191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,12 +985,12 @@
         </is>
       </c>
       <c r="K1" s="2" t="n"/>
-      <c r="L1" s="134" t="inlineStr">
+      <c r="L1" s="142" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="M1" s="135" t="inlineStr">
+      <c r="M1" s="140" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
@@ -1048,38 +1069,38 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J2" s="134" t="n">
+      <c r="J2" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>74.31999999999999</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>12010</v>
+        <v>12360</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>11241</v>
+        <v>11517.5</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>-769</v>
+        <v>-842.5</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>-0.74%</t>
+          <t>-0.81%</t>
         </is>
       </c>
       <c r="S2" s="2" t="n">
         <v>1.31</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>261</v>
+        <v>187.5</v>
       </c>
     </row>
     <row r="3">
@@ -1120,7 +1141,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J3" s="135" t="n">
+      <c r="J3" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="2" t="n"/>
@@ -1172,7 +1193,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J4" s="134" t="n">
+      <c r="J4" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="n"/>
@@ -1224,7 +1245,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J5" s="134" t="n">
+      <c r="J5" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="n"/>
@@ -1276,7 +1297,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J6" s="134" t="n">
+      <c r="J6" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="n"/>
@@ -1328,7 +1349,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J7" s="135" t="n">
+      <c r="J7" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="n"/>
@@ -1380,7 +1401,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J8" s="134" t="n">
+      <c r="J8" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="n"/>
@@ -1432,7 +1453,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J9" s="135" t="n">
+      <c r="J9" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="2" t="n"/>
@@ -1484,7 +1505,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J10" s="134" t="n">
+      <c r="J10" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="n"/>
@@ -1536,7 +1557,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J11" s="134" t="n">
+      <c r="J11" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="n"/>
@@ -1588,7 +1609,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J12" s="135" t="n">
+      <c r="J12" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="n"/>
@@ -1640,7 +1661,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J13" s="134" t="n">
+      <c r="J13" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="n"/>
@@ -1692,7 +1713,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J14" s="134" t="n">
+      <c r="J14" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="n"/>
@@ -1744,7 +1765,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J15" s="134" t="n">
+      <c r="J15" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="n"/>
@@ -1796,7 +1817,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J16" s="134" t="n">
+      <c r="J16" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="n"/>
@@ -1848,7 +1869,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J17" s="135" t="n">
+      <c r="J17" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="2" t="n"/>
@@ -1900,7 +1921,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J18" s="134" t="n">
+      <c r="J18" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="n"/>
@@ -1952,7 +1973,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J19" s="135" t="n">
+      <c r="J19" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K19" s="2" t="n"/>
@@ -2004,7 +2025,7 @@
           <t>3 - 3</t>
         </is>
       </c>
-      <c r="J20" s="134" t="n">
+      <c r="J20" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="n"/>
@@ -2056,7 +2077,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J21" s="135" t="n">
+      <c r="J21" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="2" t="n"/>
@@ -2108,7 +2129,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J22" s="134" t="n">
+      <c r="J22" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="n"/>
@@ -2160,7 +2181,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J23" s="135" t="n">
+      <c r="J23" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K23" s="2" t="n"/>
@@ -2212,7 +2233,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J24" s="134" t="n">
+      <c r="J24" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K24" s="2" t="n"/>
@@ -2264,7 +2285,7 @@
           <t>0 - 6</t>
         </is>
       </c>
-      <c r="J25" s="134" t="n">
+      <c r="J25" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K25" s="2" t="n"/>
@@ -2316,7 +2337,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J26" s="134" t="n">
+      <c r="J26" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K26" s="2" t="n"/>
@@ -2368,7 +2389,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J27" s="134" t="n">
+      <c r="J27" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="n"/>
@@ -2420,7 +2441,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J28" s="134" t="n">
+      <c r="J28" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K28" s="2" t="n"/>
@@ -2472,7 +2493,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J29" s="135" t="n">
+      <c r="J29" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K29" s="2" t="n"/>
@@ -2524,7 +2545,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J30" s="134" t="n">
+      <c r="J30" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K30" s="2" t="n"/>
@@ -2576,7 +2597,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J31" s="134" t="n">
+      <c r="J31" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="n"/>
@@ -2628,7 +2649,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J32" s="134" t="n">
+      <c r="J32" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K32" s="2" t="n"/>
@@ -2680,7 +2701,7 @@
           <t>2 - 5</t>
         </is>
       </c>
-      <c r="J33" s="134" t="n">
+      <c r="J33" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K33" s="2" t="n"/>
@@ -2732,7 +2753,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J34" s="135" t="n">
+      <c r="J34" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K34" s="2" t="n"/>
@@ -2784,7 +2805,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J35" s="134" t="n">
+      <c r="J35" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K35" s="2" t="n"/>
@@ -2836,7 +2857,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J36" s="134" t="n">
+      <c r="J36" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K36" s="2" t="n"/>
@@ -2888,7 +2909,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J37" s="134" t="n">
+      <c r="J37" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K37" s="2" t="n"/>
@@ -2940,7 +2961,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J38" s="134" t="n">
+      <c r="J38" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="2" t="n"/>
@@ -2992,7 +3013,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J39" s="134" t="n">
+      <c r="J39" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K39" s="2" t="n"/>
@@ -3044,7 +3065,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J40" s="134" t="n">
+      <c r="J40" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K40" s="2" t="n"/>
@@ -3096,7 +3117,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J41" s="134" t="n">
+      <c r="J41" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K41" s="2" t="n"/>
@@ -3148,7 +3169,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J42" s="134" t="n">
+      <c r="J42" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K42" s="2" t="n"/>
@@ -3200,7 +3221,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J43" s="135" t="n">
+      <c r="J43" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K43" s="2" t="n"/>
@@ -3252,7 +3273,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J44" s="134" t="n">
+      <c r="J44" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K44" s="2" t="n"/>
@@ -3304,7 +3325,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J45" s="135" t="n">
+      <c r="J45" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K45" s="2" t="n"/>
@@ -3356,7 +3377,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J46" s="134" t="n">
+      <c r="J46" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K46" s="2" t="n"/>
@@ -3408,7 +3429,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J47" s="134" t="n">
+      <c r="J47" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K47" s="2" t="n"/>
@@ -3460,7 +3481,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J48" s="135" t="n">
+      <c r="J48" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K48" s="2" t="n"/>
@@ -3512,7 +3533,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J49" s="134" t="n">
+      <c r="J49" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K49" s="2" t="n"/>
@@ -3564,7 +3585,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J50" s="134" t="n">
+      <c r="J50" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K50" s="2" t="n"/>
@@ -3616,7 +3637,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J51" s="134" t="n">
+      <c r="J51" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K51" s="2" t="n"/>
@@ -3668,7 +3689,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J52" s="135" t="n">
+      <c r="J52" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K52" s="2" t="n"/>
@@ -3720,7 +3741,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J53" s="134" t="n">
+      <c r="J53" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K53" s="2" t="n"/>
@@ -3772,7 +3793,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J54" s="135" t="n">
+      <c r="J54" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K54" s="2" t="n"/>
@@ -3824,7 +3845,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J55" s="135" t="n">
+      <c r="J55" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K55" s="2" t="n"/>
@@ -3876,7 +3897,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J56" s="134" t="n">
+      <c r="J56" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K56" s="2" t="n"/>
@@ -3928,7 +3949,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J57" s="134" t="n">
+      <c r="J57" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K57" s="2" t="n"/>
@@ -3980,7 +4001,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J58" s="134" t="n">
+      <c r="J58" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K58" s="2" t="n"/>
@@ -4032,7 +4053,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J59" s="135" t="n">
+      <c r="J59" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K59" s="2" t="n"/>
@@ -4084,7 +4105,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J60" s="135" t="n">
+      <c r="J60" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K60" s="2" t="n"/>
@@ -4136,7 +4157,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J61" s="135" t="n">
+      <c r="J61" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K61" s="2" t="n"/>
@@ -4188,7 +4209,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J62" s="134" t="n">
+      <c r="J62" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K62" s="2" t="n"/>
@@ -4240,7 +4261,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J63" s="134" t="n">
+      <c r="J63" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K63" s="2" t="n"/>
@@ -4292,7 +4313,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J64" s="134" t="n">
+      <c r="J64" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K64" s="2" t="n"/>
@@ -4344,7 +4365,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J65" s="134" t="n">
+      <c r="J65" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K65" s="2" t="n"/>
@@ -4396,7 +4417,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J66" s="135" t="n">
+      <c r="J66" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K66" s="2" t="n"/>
@@ -4448,7 +4469,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J67" s="134" t="n">
+      <c r="J67" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K67" s="2" t="n"/>
@@ -4500,7 +4521,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J68" s="134" t="n">
+      <c r="J68" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K68" s="2" t="n"/>
@@ -4552,7 +4573,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J69" s="134" t="n">
+      <c r="J69" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K69" s="2" t="n"/>
@@ -4604,7 +4625,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="J70" s="134" t="n">
+      <c r="J70" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K70" s="2" t="n"/>
@@ -4656,7 +4677,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J71" s="135" t="n">
+      <c r="J71" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K71" s="2" t="n"/>
@@ -4708,7 +4729,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J72" s="134" t="n">
+      <c r="J72" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K72" s="2" t="n"/>
@@ -4760,7 +4781,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J73" s="134" t="n">
+      <c r="J73" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K73" s="2" t="n"/>
@@ -4812,7 +4833,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J74" s="134" t="n">
+      <c r="J74" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K74" s="2" t="n"/>
@@ -4864,7 +4885,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J75" s="134" t="n">
+      <c r="J75" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K75" s="2" t="n"/>
@@ -4916,7 +4937,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J76" s="134" t="n">
+      <c r="J76" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K76" s="2" t="n"/>
@@ -4968,7 +4989,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J77" s="135" t="n">
+      <c r="J77" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K77" s="2" t="n"/>
@@ -5020,7 +5041,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J78" s="135" t="n">
+      <c r="J78" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K78" s="2" t="n"/>
@@ -5072,7 +5093,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J79" s="134" t="n">
+      <c r="J79" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K79" s="2" t="n"/>
@@ -5124,7 +5145,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J80" s="135" t="n">
+      <c r="J80" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K80" s="2" t="n"/>
@@ -5176,7 +5197,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J81" s="134" t="n">
+      <c r="J81" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K81" s="2" t="n"/>
@@ -5228,7 +5249,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J82" s="134" t="n">
+      <c r="J82" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K82" s="2" t="n"/>
@@ -5280,7 +5301,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J83" s="135" t="n">
+      <c r="J83" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K83" s="2" t="n"/>
@@ -5332,7 +5353,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J84" s="135" t="n">
+      <c r="J84" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K84" s="2" t="n"/>
@@ -5384,7 +5405,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J85" s="134" t="n">
+      <c r="J85" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K85" s="2" t="n"/>
@@ -5436,7 +5457,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J86" s="134" t="n">
+      <c r="J86" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K86" s="2" t="n"/>
@@ -5488,7 +5509,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J87" s="134" t="n">
+      <c r="J87" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K87" s="2" t="n"/>
@@ -5540,7 +5561,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J88" s="134" t="n">
+      <c r="J88" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K88" s="2" t="n"/>
@@ -5592,7 +5613,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J89" s="134" t="n">
+      <c r="J89" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K89" s="2" t="n"/>
@@ -5644,7 +5665,7 @@
           <t>1 - 6</t>
         </is>
       </c>
-      <c r="J90" s="134" t="n">
+      <c r="J90" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K90" s="2" t="n"/>
@@ -5696,7 +5717,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J91" s="134" t="n">
+      <c r="J91" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K91" s="2" t="n"/>
@@ -5748,7 +5769,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J92" s="134" t="n">
+      <c r="J92" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K92" s="2" t="n"/>
@@ -5800,7 +5821,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J93" s="134" t="n">
+      <c r="J93" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K93" s="2" t="n"/>
@@ -5852,7 +5873,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J94" s="134" t="n">
+      <c r="J94" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K94" s="2" t="n"/>
@@ -5904,7 +5925,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J95" s="134" t="n">
+      <c r="J95" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K95" s="2" t="n"/>
@@ -5956,7 +5977,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J96" s="134" t="n">
+      <c r="J96" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K96" s="2" t="n"/>
@@ -6008,7 +6029,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J97" s="134" t="n">
+      <c r="J97" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K97" s="2" t="n"/>
@@ -6060,7 +6081,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J98" s="134" t="n">
+      <c r="J98" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K98" s="2" t="n"/>
@@ -6112,7 +6133,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J99" s="135" t="n">
+      <c r="J99" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K99" s="2" t="n"/>
@@ -6164,7 +6185,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J100" s="134" t="n">
+      <c r="J100" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K100" s="2" t="n"/>
@@ -6216,7 +6237,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J101" s="134" t="n">
+      <c r="J101" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K101" s="2" t="n"/>
@@ -6268,7 +6289,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J102" s="134" t="n">
+      <c r="J102" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K102" s="2" t="n"/>
@@ -6320,7 +6341,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J103" s="135" t="n">
+      <c r="J103" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K103" s="2" t="n"/>
@@ -6372,7 +6393,7 @@
           <t>5 - 2</t>
         </is>
       </c>
-      <c r="J104" s="134" t="n">
+      <c r="J104" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K104" s="2" t="n"/>
@@ -6424,7 +6445,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J105" s="134" t="n">
+      <c r="J105" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K105" s="2" t="n"/>
@@ -6476,7 +6497,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J106" s="134" t="n">
+      <c r="J106" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K106" s="2" t="n"/>
@@ -6528,7 +6549,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J107" s="134" t="n">
+      <c r="J107" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K107" s="2" t="n"/>
@@ -6580,7 +6601,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J108" s="134" t="n">
+      <c r="J108" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K108" s="2" t="n"/>
@@ -6632,7 +6653,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J109" s="135" t="n">
+      <c r="J109" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K109" s="2" t="n"/>
@@ -6684,7 +6705,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J110" s="134" t="n">
+      <c r="J110" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K110" s="2" t="n"/>
@@ -6736,7 +6757,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J111" s="134" t="n">
+      <c r="J111" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K111" s="2" t="n"/>
@@ -6788,7 +6809,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J112" s="134" t="n">
+      <c r="J112" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K112" s="2" t="n"/>
@@ -6840,7 +6861,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J113" s="134" t="n">
+      <c r="J113" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K113" s="2" t="n"/>
@@ -6892,7 +6913,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J114" s="134" t="n">
+      <c r="J114" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K114" s="2" t="n"/>
@@ -6944,7 +6965,7 @@
           <t>4 - 3</t>
         </is>
       </c>
-      <c r="J115" s="134" t="n">
+      <c r="J115" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K115" s="2" t="n"/>
@@ -6996,7 +7017,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J116" s="134" t="n">
+      <c r="J116" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K116" s="2" t="n"/>
@@ -7048,7 +7069,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J117" s="134" t="n">
+      <c r="J117" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K117" s="2" t="n"/>
@@ -7100,7 +7121,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J118" s="134" t="n">
+      <c r="J118" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K118" s="2" t="n"/>
@@ -7152,7 +7173,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J119" s="135" t="n">
+      <c r="J119" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K119" s="2" t="n"/>
@@ -7204,7 +7225,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J120" s="134" t="n">
+      <c r="J120" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K120" s="2" t="n"/>
@@ -7256,7 +7277,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J121" s="134" t="n">
+      <c r="J121" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K121" s="2" t="n"/>
@@ -7308,7 +7329,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J122" s="135" t="n">
+      <c r="J122" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K122" s="2" t="n"/>
@@ -7360,7 +7381,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J123" s="134" t="n">
+      <c r="J123" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K123" s="2" t="n"/>
@@ -7412,7 +7433,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J124" s="134" t="n">
+      <c r="J124" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K124" s="2" t="n"/>
@@ -7464,7 +7485,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J125" s="134" t="n">
+      <c r="J125" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K125" s="2" t="n"/>
@@ -7516,7 +7537,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J126" s="135" t="n">
+      <c r="J126" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K126" s="2" t="n"/>
@@ -7568,7 +7589,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J127" s="134" t="n">
+      <c r="J127" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K127" s="2" t="n"/>
@@ -7620,7 +7641,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J128" s="134" t="n">
+      <c r="J128" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K128" s="2" t="n"/>
@@ -7672,7 +7693,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J129" s="134" t="n">
+      <c r="J129" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K129" s="2" t="n"/>
@@ -7724,7 +7745,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J130" s="135" t="n">
+      <c r="J130" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K130" s="2" t="n"/>
@@ -7776,7 +7797,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J131" s="134" t="n">
+      <c r="J131" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K131" s="2" t="n"/>
@@ -7828,7 +7849,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J132" s="134" t="n">
+      <c r="J132" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K132" s="2" t="n"/>
@@ -7880,7 +7901,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J133" s="134" t="n">
+      <c r="J133" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K133" s="2" t="n"/>
@@ -7932,7 +7953,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J134" s="134" t="n">
+      <c r="J134" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K134" s="2" t="n"/>
@@ -7984,7 +8005,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J135" s="134" t="n">
+      <c r="J135" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K135" s="2" t="n"/>
@@ -8036,7 +8057,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J136" s="134" t="n">
+      <c r="J136" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K136" s="2" t="n"/>
@@ -8088,7 +8109,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J137" s="134" t="n">
+      <c r="J137" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K137" s="2" t="n"/>
@@ -8140,7 +8161,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J138" s="134" t="n">
+      <c r="J138" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K138" s="2" t="n"/>
@@ -8192,7 +8213,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="J139" s="134" t="n">
+      <c r="J139" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K139" s="2" t="n"/>
@@ -8244,7 +8265,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J140" s="134" t="n">
+      <c r="J140" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K140" s="2" t="n"/>
@@ -8296,7 +8317,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J141" s="134" t="n">
+      <c r="J141" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K141" s="2" t="n"/>
@@ -8348,7 +8369,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J142" s="134" t="n">
+      <c r="J142" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K142" s="2" t="n"/>
@@ -8400,7 +8421,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J143" s="135" t="n">
+      <c r="J143" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K143" s="2" t="n"/>
@@ -8452,7 +8473,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J144" s="134" t="n">
+      <c r="J144" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K144" s="2" t="n"/>
@@ -8504,7 +8525,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J145" s="135" t="n">
+      <c r="J145" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K145" s="2" t="n"/>
@@ -8556,7 +8577,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J146" s="134" t="n">
+      <c r="J146" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K146" s="2" t="n"/>
@@ -8608,7 +8629,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J147" s="134" t="n">
+      <c r="J147" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K147" s="2" t="n"/>
@@ -8660,7 +8681,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J148" s="134" t="n">
+      <c r="J148" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K148" s="2" t="n"/>
@@ -8712,7 +8733,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J149" s="135" t="n">
+      <c r="J149" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K149" s="2" t="n"/>
@@ -8764,7 +8785,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J150" s="134" t="n">
+      <c r="J150" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K150" s="2" t="n"/>
@@ -8816,7 +8837,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J151" s="134" t="n">
+      <c r="J151" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K151" s="2" t="n"/>
@@ -8868,7 +8889,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J152" s="134" t="n">
+      <c r="J152" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K152" s="2" t="n"/>
@@ -8920,7 +8941,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J153" s="135" t="n">
+      <c r="J153" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K153" s="2" t="n"/>
@@ -8972,7 +8993,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J154" s="135" t="n">
+      <c r="J154" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K154" s="2" t="n"/>
@@ -9024,7 +9045,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J155" s="135" t="n">
+      <c r="J155" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K155" s="2" t="n"/>
@@ -9076,7 +9097,7 @@
           <t>3 - 4</t>
         </is>
       </c>
-      <c r="J156" s="135" t="n">
+      <c r="J156" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K156" s="2" t="n"/>
@@ -9128,7 +9149,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J157" s="134" t="n">
+      <c r="J157" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K157" s="2" t="n"/>
@@ -9180,7 +9201,7 @@
           <t>5 - 2</t>
         </is>
       </c>
-      <c r="J158" s="134" t="n">
+      <c r="J158" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K158" s="2" t="n"/>
@@ -9232,7 +9253,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J159" s="134" t="n">
+      <c r="J159" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K159" s="2" t="n"/>
@@ -9284,7 +9305,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J160" s="134" t="n">
+      <c r="J160" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K160" s="2" t="n"/>
@@ -9336,7 +9357,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J161" s="135" t="n">
+      <c r="J161" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K161" s="2" t="n"/>
@@ -9388,7 +9409,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J162" s="135" t="n">
+      <c r="J162" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K162" s="2" t="n"/>
@@ -9440,7 +9461,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J163" s="134" t="n">
+      <c r="J163" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K163" s="2" t="n"/>
@@ -9492,7 +9513,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J164" s="134" t="n">
+      <c r="J164" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K164" s="2" t="n"/>
@@ -9544,7 +9565,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J165" s="134" t="n">
+      <c r="J165" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K165" s="2" t="n"/>
@@ -9596,7 +9617,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J166" s="135" t="n">
+      <c r="J166" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K166" s="2" t="n"/>
@@ -9648,7 +9669,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J167" s="134" t="n">
+      <c r="J167" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K167" s="2" t="n"/>
@@ -9700,7 +9721,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J168" s="135" t="n">
+      <c r="J168" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K168" s="2" t="n"/>
@@ -9752,7 +9773,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J169" s="134" t="n">
+      <c r="J169" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K169" s="2" t="n"/>
@@ -9804,7 +9825,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J170" s="134" t="n">
+      <c r="J170" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K170" s="2" t="n"/>
@@ -9856,7 +9877,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J171" s="134" t="n">
+      <c r="J171" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K171" s="2" t="n"/>
@@ -9908,7 +9929,7 @@
           <t>6 - 2</t>
         </is>
       </c>
-      <c r="J172" s="134" t="n">
+      <c r="J172" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K172" s="2" t="n"/>
@@ -9960,7 +9981,7 @@
           <t>0 - 6</t>
         </is>
       </c>
-      <c r="J173" s="134" t="n">
+      <c r="J173" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K173" s="2" t="n"/>
@@ -10012,7 +10033,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J174" s="134" t="n">
+      <c r="J174" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K174" s="2" t="n"/>
@@ -10064,7 +10085,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J175" s="135" t="n">
+      <c r="J175" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K175" s="2" t="n"/>
@@ -10116,7 +10137,7 @@
           <t>6 - 1</t>
         </is>
       </c>
-      <c r="J176" s="134" t="n">
+      <c r="J176" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K176" s="2" t="n"/>
@@ -10168,7 +10189,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J177" s="135" t="n">
+      <c r="J177" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K177" s="2" t="n"/>
@@ -10220,7 +10241,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J178" s="134" t="n">
+      <c r="J178" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K178" s="2" t="n"/>
@@ -10272,7 +10293,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J179" s="134" t="n">
+      <c r="J179" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K179" s="2" t="n"/>
@@ -10324,7 +10345,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J180" s="134" t="n">
+      <c r="J180" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K180" s="2" t="n"/>
@@ -10376,7 +10397,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J181" s="134" t="n">
+      <c r="J181" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K181" s="2" t="n"/>
@@ -10428,7 +10449,7 @@
           <t>6 - 0</t>
         </is>
       </c>
-      <c r="J182" s="134" t="n">
+      <c r="J182" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K182" s="2" t="n"/>
@@ -10480,7 +10501,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J183" s="135" t="n">
+      <c r="J183" s="140" t="n">
         <v>0</v>
       </c>
       <c r="K183" s="2" t="n"/>
@@ -10532,7 +10553,7 @@
           <t>2 - 4</t>
         </is>
       </c>
-      <c r="J184" s="134" t="n">
+      <c r="J184" s="142" t="n">
         <v>1</v>
       </c>
       <c r="K184" s="2" t="n"/>
@@ -10545,6 +10566,370 @@
       <c r="R184" s="2" t="n"/>
       <c r="S184" s="2" t="n"/>
       <c r="T184" s="2" t="n"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="inlineStr">
+        <is>
+          <t>22.11.2025</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="C185" s="2" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F185" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G185" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="H185" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="I185" s="2" t="inlineStr">
+        <is>
+          <t>1 - 3</t>
+        </is>
+      </c>
+      <c r="J185" s="142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K185" s="2" t="n"/>
+      <c r="L185" s="2" t="n"/>
+      <c r="M185" s="2" t="n"/>
+      <c r="N185" s="2" t="n"/>
+      <c r="O185" s="2" t="n"/>
+      <c r="P185" s="2" t="n"/>
+      <c r="Q185" s="2" t="n"/>
+      <c r="R185" s="2" t="n"/>
+      <c r="S185" s="2" t="n"/>
+      <c r="T185" s="2" t="n"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>22.11.2025</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C186" s="2" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F186" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G186" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="H186" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="I186" s="2" t="inlineStr">
+        <is>
+          <t>0 - 3</t>
+        </is>
+      </c>
+      <c r="J186" s="140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" s="2" t="n"/>
+      <c r="L186" s="2" t="n"/>
+      <c r="M186" s="2" t="n"/>
+      <c r="N186" s="2" t="n"/>
+      <c r="O186" s="2" t="n"/>
+      <c r="P186" s="2" t="n"/>
+      <c r="Q186" s="2" t="n"/>
+      <c r="R186" s="2" t="n"/>
+      <c r="S186" s="2" t="n"/>
+      <c r="T186" s="2" t="n"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="inlineStr">
+        <is>
+          <t>22.11.2025</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="C187" s="2" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="D187" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F187" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G187" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="H187" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I187" s="2" t="inlineStr">
+        <is>
+          <t>3 - 0</t>
+        </is>
+      </c>
+      <c r="J187" s="142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K187" s="2" t="n"/>
+      <c r="L187" s="2" t="n"/>
+      <c r="M187" s="2" t="n"/>
+      <c r="N187" s="2" t="n"/>
+      <c r="O187" s="2" t="n"/>
+      <c r="P187" s="2" t="n"/>
+      <c r="Q187" s="2" t="n"/>
+      <c r="R187" s="2" t="n"/>
+      <c r="S187" s="2" t="n"/>
+      <c r="T187" s="2" t="n"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>23.11.2025</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="inlineStr">
+        <is>
+          <t>Olympique Lyon</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F188" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G188" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H188" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I188" s="2" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="J188" s="140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" s="2" t="n"/>
+      <c r="L188" s="2" t="n"/>
+      <c r="M188" s="2" t="n"/>
+      <c r="N188" s="2" t="n"/>
+      <c r="O188" s="2" t="n"/>
+      <c r="P188" s="2" t="n"/>
+      <c r="Q188" s="2" t="n"/>
+      <c r="R188" s="2" t="n"/>
+      <c r="S188" s="2" t="n"/>
+      <c r="T188" s="2" t="n"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="inlineStr">
+        <is>
+          <t>23.11.2025</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="C189" s="2" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="D189" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="F189" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G189" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="H189" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="I189" s="2" t="inlineStr">
+        <is>
+          <t>2 - 0</t>
+        </is>
+      </c>
+      <c r="J189" s="142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K189" s="2" t="n"/>
+      <c r="L189" s="2" t="n"/>
+      <c r="M189" s="2" t="n"/>
+      <c r="N189" s="2" t="n"/>
+      <c r="O189" s="2" t="n"/>
+      <c r="P189" s="2" t="n"/>
+      <c r="Q189" s="2" t="n"/>
+      <c r="R189" s="2" t="n"/>
+      <c r="S189" s="2" t="n"/>
+      <c r="T189" s="2" t="n"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t>23.11.2025</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="C190" s="2" t="inlineStr">
+        <is>
+          <t>Paris FC</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="inlineStr">
+        <is>
+          <t>1X</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F190" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G190" s="2" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="H190" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I190" s="2" t="inlineStr">
+        <is>
+          <t>4 - 2</t>
+        </is>
+      </c>
+      <c r="J190" s="142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K190" s="2" t="n"/>
+      <c r="L190" s="2" t="n"/>
+      <c r="M190" s="2" t="n"/>
+      <c r="N190" s="2" t="n"/>
+      <c r="O190" s="2" t="n"/>
+      <c r="P190" s="2" t="n"/>
+      <c r="Q190" s="2" t="n"/>
+      <c r="R190" s="2" t="n"/>
+      <c r="S190" s="2" t="n"/>
+      <c r="T190" s="2" t="n"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="inlineStr">
+        <is>
+          <t>23.11.2025</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="C191" s="2" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D191" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F191" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G191" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="H191" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="I191" s="2" t="inlineStr">
+        <is>
+          <t>2 - 2</t>
+        </is>
+      </c>
+      <c r="J191" s="140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" s="2" t="n"/>
+      <c r="L191" s="2" t="n"/>
+      <c r="M191" s="2" t="n"/>
+      <c r="N191" s="2" t="n"/>
+      <c r="O191" s="2" t="n"/>
+      <c r="P191" s="2" t="n"/>
+      <c r="Q191" s="2" t="n"/>
+      <c r="R191" s="2" t="n"/>
+      <c r="S191" s="2" t="n"/>
+      <c r="T191" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10636,14 +11021,14 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>7</v>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>58.33%</t>
+          <t>53.85%</t>
         </is>
       </c>
     </row>
@@ -10726,14 +11111,14 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>72.73%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -10744,14 +11129,14 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>77.78%</t>
         </is>
       </c>
     </row>
@@ -10924,14 +11309,14 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
     </row>
@@ -10978,14 +11363,14 @@
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3</v>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
     </row>
@@ -10996,14 +11381,14 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
     </row>
@@ -11068,14 +11453,14 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>86.67%</t>
+          <t>87.5%</t>
         </is>
       </c>
     </row>

--- a/app/placed_bets.xlsx
+++ b/app/placed_bets.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -536,6 +536,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -903,7 +924,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T191"/>
+  <dimension ref="A1:T198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -985,12 +1006,12 @@
         </is>
       </c>
       <c r="K1" s="2" t="n"/>
-      <c r="L1" s="142" t="inlineStr">
+      <c r="L1" s="149" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="M1" s="140" t="inlineStr">
+      <c r="M1" s="148" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
@@ -1069,38 +1090,38 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J2" s="142" t="n">
+      <c r="J2" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>73.68000000000001</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>12360</v>
+        <v>12710</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>11517.5</v>
+        <v>11826</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>-842.5</v>
+        <v>-884</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>-0.81%</t>
+          <t>-0.85%</t>
         </is>
       </c>
       <c r="S2" s="2" t="n">
         <v>1.31</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>187.5</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
@@ -1141,7 +1162,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J3" s="140" t="n">
+      <c r="J3" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="2" t="n"/>
@@ -1193,7 +1214,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J4" s="142" t="n">
+      <c r="J4" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="n"/>
@@ -1245,7 +1266,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J5" s="142" t="n">
+      <c r="J5" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="n"/>
@@ -1297,7 +1318,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J6" s="142" t="n">
+      <c r="J6" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="n"/>
@@ -1349,7 +1370,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J7" s="140" t="n">
+      <c r="J7" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="n"/>
@@ -1401,7 +1422,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J8" s="142" t="n">
+      <c r="J8" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="n"/>
@@ -1453,7 +1474,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J9" s="140" t="n">
+      <c r="J9" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="2" t="n"/>
@@ -1505,7 +1526,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J10" s="142" t="n">
+      <c r="J10" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="n"/>
@@ -1557,7 +1578,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J11" s="142" t="n">
+      <c r="J11" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="n"/>
@@ -1609,7 +1630,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J12" s="140" t="n">
+      <c r="J12" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="n"/>
@@ -1661,7 +1682,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J13" s="142" t="n">
+      <c r="J13" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="n"/>
@@ -1713,7 +1734,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J14" s="142" t="n">
+      <c r="J14" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="n"/>
@@ -1765,7 +1786,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J15" s="142" t="n">
+      <c r="J15" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="n"/>
@@ -1817,7 +1838,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J16" s="142" t="n">
+      <c r="J16" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="n"/>
@@ -1869,7 +1890,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J17" s="140" t="n">
+      <c r="J17" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="2" t="n"/>
@@ -1921,7 +1942,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J18" s="142" t="n">
+      <c r="J18" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="n"/>
@@ -1973,7 +1994,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J19" s="140" t="n">
+      <c r="J19" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K19" s="2" t="n"/>
@@ -2025,7 +2046,7 @@
           <t>3 - 3</t>
         </is>
       </c>
-      <c r="J20" s="142" t="n">
+      <c r="J20" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="n"/>
@@ -2077,7 +2098,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J21" s="140" t="n">
+      <c r="J21" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="2" t="n"/>
@@ -2129,7 +2150,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J22" s="142" t="n">
+      <c r="J22" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="n"/>
@@ -2181,7 +2202,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J23" s="140" t="n">
+      <c r="J23" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K23" s="2" t="n"/>
@@ -2233,7 +2254,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J24" s="142" t="n">
+      <c r="J24" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K24" s="2" t="n"/>
@@ -2285,7 +2306,7 @@
           <t>0 - 6</t>
         </is>
       </c>
-      <c r="J25" s="142" t="n">
+      <c r="J25" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K25" s="2" t="n"/>
@@ -2337,7 +2358,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J26" s="142" t="n">
+      <c r="J26" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K26" s="2" t="n"/>
@@ -2389,7 +2410,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J27" s="142" t="n">
+      <c r="J27" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="n"/>
@@ -2441,7 +2462,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J28" s="142" t="n">
+      <c r="J28" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K28" s="2" t="n"/>
@@ -2493,7 +2514,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J29" s="140" t="n">
+      <c r="J29" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K29" s="2" t="n"/>
@@ -2545,7 +2566,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J30" s="142" t="n">
+      <c r="J30" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K30" s="2" t="n"/>
@@ -2597,7 +2618,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J31" s="142" t="n">
+      <c r="J31" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="n"/>
@@ -2649,7 +2670,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J32" s="142" t="n">
+      <c r="J32" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K32" s="2" t="n"/>
@@ -2701,7 +2722,7 @@
           <t>2 - 5</t>
         </is>
       </c>
-      <c r="J33" s="142" t="n">
+      <c r="J33" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K33" s="2" t="n"/>
@@ -2753,7 +2774,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J34" s="140" t="n">
+      <c r="J34" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K34" s="2" t="n"/>
@@ -2805,7 +2826,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J35" s="142" t="n">
+      <c r="J35" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K35" s="2" t="n"/>
@@ -2857,7 +2878,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J36" s="142" t="n">
+      <c r="J36" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K36" s="2" t="n"/>
@@ -2909,7 +2930,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J37" s="142" t="n">
+      <c r="J37" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K37" s="2" t="n"/>
@@ -2961,7 +2982,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J38" s="142" t="n">
+      <c r="J38" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="2" t="n"/>
@@ -3013,7 +3034,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J39" s="142" t="n">
+      <c r="J39" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K39" s="2" t="n"/>
@@ -3065,7 +3086,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J40" s="142" t="n">
+      <c r="J40" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K40" s="2" t="n"/>
@@ -3117,7 +3138,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J41" s="142" t="n">
+      <c r="J41" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K41" s="2" t="n"/>
@@ -3169,7 +3190,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J42" s="142" t="n">
+      <c r="J42" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K42" s="2" t="n"/>
@@ -3221,7 +3242,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J43" s="140" t="n">
+      <c r="J43" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K43" s="2" t="n"/>
@@ -3273,7 +3294,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J44" s="142" t="n">
+      <c r="J44" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K44" s="2" t="n"/>
@@ -3325,7 +3346,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J45" s="140" t="n">
+      <c r="J45" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K45" s="2" t="n"/>
@@ -3377,7 +3398,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J46" s="142" t="n">
+      <c r="J46" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K46" s="2" t="n"/>
@@ -3429,7 +3450,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J47" s="142" t="n">
+      <c r="J47" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K47" s="2" t="n"/>
@@ -3481,7 +3502,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J48" s="140" t="n">
+      <c r="J48" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K48" s="2" t="n"/>
@@ -3533,7 +3554,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J49" s="142" t="n">
+      <c r="J49" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K49" s="2" t="n"/>
@@ -3585,7 +3606,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J50" s="142" t="n">
+      <c r="J50" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K50" s="2" t="n"/>
@@ -3637,7 +3658,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J51" s="142" t="n">
+      <c r="J51" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K51" s="2" t="n"/>
@@ -3689,7 +3710,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J52" s="140" t="n">
+      <c r="J52" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K52" s="2" t="n"/>
@@ -3741,7 +3762,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J53" s="142" t="n">
+      <c r="J53" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K53" s="2" t="n"/>
@@ -3793,7 +3814,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J54" s="140" t="n">
+      <c r="J54" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K54" s="2" t="n"/>
@@ -3845,7 +3866,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J55" s="140" t="n">
+      <c r="J55" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K55" s="2" t="n"/>
@@ -3897,7 +3918,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J56" s="142" t="n">
+      <c r="J56" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K56" s="2" t="n"/>
@@ -3949,7 +3970,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J57" s="142" t="n">
+      <c r="J57" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K57" s="2" t="n"/>
@@ -4001,7 +4022,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J58" s="142" t="n">
+      <c r="J58" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K58" s="2" t="n"/>
@@ -4053,7 +4074,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J59" s="140" t="n">
+      <c r="J59" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K59" s="2" t="n"/>
@@ -4105,7 +4126,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J60" s="140" t="n">
+      <c r="J60" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K60" s="2" t="n"/>
@@ -4157,7 +4178,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J61" s="140" t="n">
+      <c r="J61" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K61" s="2" t="n"/>
@@ -4209,7 +4230,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J62" s="142" t="n">
+      <c r="J62" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K62" s="2" t="n"/>
@@ -4261,7 +4282,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J63" s="142" t="n">
+      <c r="J63" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K63" s="2" t="n"/>
@@ -4313,7 +4334,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J64" s="142" t="n">
+      <c r="J64" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K64" s="2" t="n"/>
@@ -4365,7 +4386,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J65" s="142" t="n">
+      <c r="J65" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K65" s="2" t="n"/>
@@ -4417,7 +4438,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J66" s="140" t="n">
+      <c r="J66" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K66" s="2" t="n"/>
@@ -4469,7 +4490,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J67" s="142" t="n">
+      <c r="J67" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K67" s="2" t="n"/>
@@ -4521,7 +4542,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J68" s="142" t="n">
+      <c r="J68" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K68" s="2" t="n"/>
@@ -4573,7 +4594,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J69" s="142" t="n">
+      <c r="J69" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K69" s="2" t="n"/>
@@ -4625,7 +4646,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="J70" s="142" t="n">
+      <c r="J70" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K70" s="2" t="n"/>
@@ -4677,7 +4698,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J71" s="140" t="n">
+      <c r="J71" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K71" s="2" t="n"/>
@@ -4729,7 +4750,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J72" s="142" t="n">
+      <c r="J72" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K72" s="2" t="n"/>
@@ -4781,7 +4802,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J73" s="142" t="n">
+      <c r="J73" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K73" s="2" t="n"/>
@@ -4833,7 +4854,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J74" s="142" t="n">
+      <c r="J74" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K74" s="2" t="n"/>
@@ -4885,7 +4906,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J75" s="142" t="n">
+      <c r="J75" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K75" s="2" t="n"/>
@@ -4937,7 +4958,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J76" s="142" t="n">
+      <c r="J76" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K76" s="2" t="n"/>
@@ -4989,7 +5010,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J77" s="140" t="n">
+      <c r="J77" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K77" s="2" t="n"/>
@@ -5041,7 +5062,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J78" s="140" t="n">
+      <c r="J78" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K78" s="2" t="n"/>
@@ -5093,7 +5114,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J79" s="142" t="n">
+      <c r="J79" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K79" s="2" t="n"/>
@@ -5145,7 +5166,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J80" s="140" t="n">
+      <c r="J80" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K80" s="2" t="n"/>
@@ -5197,7 +5218,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J81" s="142" t="n">
+      <c r="J81" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K81" s="2" t="n"/>
@@ -5249,7 +5270,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J82" s="142" t="n">
+      <c r="J82" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K82" s="2" t="n"/>
@@ -5301,7 +5322,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J83" s="140" t="n">
+      <c r="J83" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K83" s="2" t="n"/>
@@ -5353,7 +5374,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J84" s="140" t="n">
+      <c r="J84" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K84" s="2" t="n"/>
@@ -5405,7 +5426,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J85" s="142" t="n">
+      <c r="J85" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K85" s="2" t="n"/>
@@ -5457,7 +5478,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J86" s="142" t="n">
+      <c r="J86" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K86" s="2" t="n"/>
@@ -5509,7 +5530,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J87" s="142" t="n">
+      <c r="J87" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K87" s="2" t="n"/>
@@ -5561,7 +5582,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J88" s="142" t="n">
+      <c r="J88" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K88" s="2" t="n"/>
@@ -5613,7 +5634,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J89" s="142" t="n">
+      <c r="J89" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K89" s="2" t="n"/>
@@ -5665,7 +5686,7 @@
           <t>1 - 6</t>
         </is>
       </c>
-      <c r="J90" s="142" t="n">
+      <c r="J90" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K90" s="2" t="n"/>
@@ -5717,7 +5738,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J91" s="142" t="n">
+      <c r="J91" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K91" s="2" t="n"/>
@@ -5769,7 +5790,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J92" s="142" t="n">
+      <c r="J92" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K92" s="2" t="n"/>
@@ -5821,7 +5842,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J93" s="142" t="n">
+      <c r="J93" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K93" s="2" t="n"/>
@@ -5873,7 +5894,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J94" s="142" t="n">
+      <c r="J94" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K94" s="2" t="n"/>
@@ -5925,7 +5946,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J95" s="142" t="n">
+      <c r="J95" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K95" s="2" t="n"/>
@@ -5977,7 +5998,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J96" s="142" t="n">
+      <c r="J96" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K96" s="2" t="n"/>
@@ -6029,7 +6050,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J97" s="142" t="n">
+      <c r="J97" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K97" s="2" t="n"/>
@@ -6081,7 +6102,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J98" s="142" t="n">
+      <c r="J98" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K98" s="2" t="n"/>
@@ -6133,7 +6154,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J99" s="140" t="n">
+      <c r="J99" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K99" s="2" t="n"/>
@@ -6185,7 +6206,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J100" s="142" t="n">
+      <c r="J100" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K100" s="2" t="n"/>
@@ -6237,7 +6258,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J101" s="142" t="n">
+      <c r="J101" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K101" s="2" t="n"/>
@@ -6289,7 +6310,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J102" s="142" t="n">
+      <c r="J102" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K102" s="2" t="n"/>
@@ -6341,7 +6362,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J103" s="140" t="n">
+      <c r="J103" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K103" s="2" t="n"/>
@@ -6393,7 +6414,7 @@
           <t>5 - 2</t>
         </is>
       </c>
-      <c r="J104" s="142" t="n">
+      <c r="J104" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K104" s="2" t="n"/>
@@ -6445,7 +6466,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J105" s="142" t="n">
+      <c r="J105" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K105" s="2" t="n"/>
@@ -6497,7 +6518,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J106" s="142" t="n">
+      <c r="J106" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K106" s="2" t="n"/>
@@ -6549,7 +6570,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J107" s="142" t="n">
+      <c r="J107" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K107" s="2" t="n"/>
@@ -6601,7 +6622,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J108" s="142" t="n">
+      <c r="J108" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K108" s="2" t="n"/>
@@ -6653,7 +6674,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J109" s="140" t="n">
+      <c r="J109" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K109" s="2" t="n"/>
@@ -6705,7 +6726,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J110" s="142" t="n">
+      <c r="J110" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K110" s="2" t="n"/>
@@ -6757,7 +6778,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J111" s="142" t="n">
+      <c r="J111" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K111" s="2" t="n"/>
@@ -6809,7 +6830,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J112" s="142" t="n">
+      <c r="J112" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K112" s="2" t="n"/>
@@ -6861,7 +6882,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J113" s="142" t="n">
+      <c r="J113" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K113" s="2" t="n"/>
@@ -6913,7 +6934,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J114" s="142" t="n">
+      <c r="J114" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K114" s="2" t="n"/>
@@ -6965,7 +6986,7 @@
           <t>4 - 3</t>
         </is>
       </c>
-      <c r="J115" s="142" t="n">
+      <c r="J115" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K115" s="2" t="n"/>
@@ -7017,7 +7038,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J116" s="142" t="n">
+      <c r="J116" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K116" s="2" t="n"/>
@@ -7069,7 +7090,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J117" s="142" t="n">
+      <c r="J117" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K117" s="2" t="n"/>
@@ -7121,7 +7142,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J118" s="142" t="n">
+      <c r="J118" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K118" s="2" t="n"/>
@@ -7173,7 +7194,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J119" s="140" t="n">
+      <c r="J119" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K119" s="2" t="n"/>
@@ -7225,7 +7246,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J120" s="142" t="n">
+      <c r="J120" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K120" s="2" t="n"/>
@@ -7277,7 +7298,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J121" s="142" t="n">
+      <c r="J121" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K121" s="2" t="n"/>
@@ -7329,7 +7350,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J122" s="140" t="n">
+      <c r="J122" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K122" s="2" t="n"/>
@@ -7381,7 +7402,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J123" s="142" t="n">
+      <c r="J123" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K123" s="2" t="n"/>
@@ -7433,7 +7454,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J124" s="142" t="n">
+      <c r="J124" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K124" s="2" t="n"/>
@@ -7485,7 +7506,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J125" s="142" t="n">
+      <c r="J125" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K125" s="2" t="n"/>
@@ -7537,7 +7558,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J126" s="140" t="n">
+      <c r="J126" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K126" s="2" t="n"/>
@@ -7589,7 +7610,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J127" s="142" t="n">
+      <c r="J127" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K127" s="2" t="n"/>
@@ -7641,7 +7662,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J128" s="142" t="n">
+      <c r="J128" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K128" s="2" t="n"/>
@@ -7693,7 +7714,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J129" s="142" t="n">
+      <c r="J129" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K129" s="2" t="n"/>
@@ -7745,7 +7766,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J130" s="140" t="n">
+      <c r="J130" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K130" s="2" t="n"/>
@@ -7797,7 +7818,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J131" s="142" t="n">
+      <c r="J131" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K131" s="2" t="n"/>
@@ -7849,7 +7870,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J132" s="142" t="n">
+      <c r="J132" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K132" s="2" t="n"/>
@@ -7901,7 +7922,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J133" s="142" t="n">
+      <c r="J133" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K133" s="2" t="n"/>
@@ -7953,7 +7974,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J134" s="142" t="n">
+      <c r="J134" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K134" s="2" t="n"/>
@@ -8005,7 +8026,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J135" s="142" t="n">
+      <c r="J135" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K135" s="2" t="n"/>
@@ -8057,7 +8078,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J136" s="142" t="n">
+      <c r="J136" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K136" s="2" t="n"/>
@@ -8109,7 +8130,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J137" s="142" t="n">
+      <c r="J137" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K137" s="2" t="n"/>
@@ -8161,7 +8182,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J138" s="142" t="n">
+      <c r="J138" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K138" s="2" t="n"/>
@@ -8213,7 +8234,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="J139" s="142" t="n">
+      <c r="J139" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K139" s="2" t="n"/>
@@ -8265,7 +8286,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J140" s="142" t="n">
+      <c r="J140" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K140" s="2" t="n"/>
@@ -8317,7 +8338,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J141" s="142" t="n">
+      <c r="J141" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K141" s="2" t="n"/>
@@ -8369,7 +8390,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J142" s="142" t="n">
+      <c r="J142" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K142" s="2" t="n"/>
@@ -8421,7 +8442,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J143" s="140" t="n">
+      <c r="J143" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K143" s="2" t="n"/>
@@ -8473,7 +8494,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J144" s="142" t="n">
+      <c r="J144" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K144" s="2" t="n"/>
@@ -8525,7 +8546,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J145" s="140" t="n">
+      <c r="J145" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K145" s="2" t="n"/>
@@ -8577,7 +8598,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J146" s="142" t="n">
+      <c r="J146" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K146" s="2" t="n"/>
@@ -8629,7 +8650,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J147" s="142" t="n">
+      <c r="J147" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K147" s="2" t="n"/>
@@ -8681,7 +8702,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J148" s="142" t="n">
+      <c r="J148" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K148" s="2" t="n"/>
@@ -8733,7 +8754,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J149" s="140" t="n">
+      <c r="J149" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K149" s="2" t="n"/>
@@ -8785,7 +8806,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J150" s="142" t="n">
+      <c r="J150" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K150" s="2" t="n"/>
@@ -8837,7 +8858,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J151" s="142" t="n">
+      <c r="J151" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K151" s="2" t="n"/>
@@ -8889,7 +8910,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J152" s="142" t="n">
+      <c r="J152" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K152" s="2" t="n"/>
@@ -8941,7 +8962,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J153" s="140" t="n">
+      <c r="J153" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K153" s="2" t="n"/>
@@ -8993,7 +9014,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J154" s="140" t="n">
+      <c r="J154" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K154" s="2" t="n"/>
@@ -9045,7 +9066,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J155" s="140" t="n">
+      <c r="J155" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K155" s="2" t="n"/>
@@ -9097,7 +9118,7 @@
           <t>3 - 4</t>
         </is>
       </c>
-      <c r="J156" s="140" t="n">
+      <c r="J156" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K156" s="2" t="n"/>
@@ -9149,7 +9170,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J157" s="142" t="n">
+      <c r="J157" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K157" s="2" t="n"/>
@@ -9201,7 +9222,7 @@
           <t>5 - 2</t>
         </is>
       </c>
-      <c r="J158" s="142" t="n">
+      <c r="J158" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K158" s="2" t="n"/>
@@ -9253,7 +9274,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J159" s="142" t="n">
+      <c r="J159" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K159" s="2" t="n"/>
@@ -9305,7 +9326,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J160" s="142" t="n">
+      <c r="J160" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K160" s="2" t="n"/>
@@ -9357,7 +9378,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J161" s="140" t="n">
+      <c r="J161" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K161" s="2" t="n"/>
@@ -9409,7 +9430,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J162" s="140" t="n">
+      <c r="J162" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K162" s="2" t="n"/>
@@ -9461,7 +9482,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J163" s="142" t="n">
+      <c r="J163" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K163" s="2" t="n"/>
@@ -9513,7 +9534,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J164" s="142" t="n">
+      <c r="J164" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K164" s="2" t="n"/>
@@ -9565,7 +9586,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J165" s="142" t="n">
+      <c r="J165" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K165" s="2" t="n"/>
@@ -9617,7 +9638,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J166" s="140" t="n">
+      <c r="J166" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K166" s="2" t="n"/>
@@ -9669,7 +9690,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J167" s="142" t="n">
+      <c r="J167" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K167" s="2" t="n"/>
@@ -9721,7 +9742,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J168" s="140" t="n">
+      <c r="J168" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K168" s="2" t="n"/>
@@ -9773,7 +9794,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J169" s="142" t="n">
+      <c r="J169" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K169" s="2" t="n"/>
@@ -9825,7 +9846,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J170" s="142" t="n">
+      <c r="J170" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K170" s="2" t="n"/>
@@ -9877,7 +9898,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J171" s="142" t="n">
+      <c r="J171" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K171" s="2" t="n"/>
@@ -9929,7 +9950,7 @@
           <t>6 - 2</t>
         </is>
       </c>
-      <c r="J172" s="142" t="n">
+      <c r="J172" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K172" s="2" t="n"/>
@@ -9981,7 +10002,7 @@
           <t>0 - 6</t>
         </is>
       </c>
-      <c r="J173" s="142" t="n">
+      <c r="J173" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K173" s="2" t="n"/>
@@ -10033,7 +10054,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J174" s="142" t="n">
+      <c r="J174" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K174" s="2" t="n"/>
@@ -10085,7 +10106,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J175" s="140" t="n">
+      <c r="J175" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K175" s="2" t="n"/>
@@ -10137,7 +10158,7 @@
           <t>6 - 1</t>
         </is>
       </c>
-      <c r="J176" s="142" t="n">
+      <c r="J176" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K176" s="2" t="n"/>
@@ -10189,7 +10210,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J177" s="140" t="n">
+      <c r="J177" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K177" s="2" t="n"/>
@@ -10241,7 +10262,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J178" s="142" t="n">
+      <c r="J178" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K178" s="2" t="n"/>
@@ -10293,7 +10314,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J179" s="142" t="n">
+      <c r="J179" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K179" s="2" t="n"/>
@@ -10345,7 +10366,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J180" s="142" t="n">
+      <c r="J180" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K180" s="2" t="n"/>
@@ -10397,7 +10418,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J181" s="142" t="n">
+      <c r="J181" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K181" s="2" t="n"/>
@@ -10449,7 +10470,7 @@
           <t>6 - 0</t>
         </is>
       </c>
-      <c r="J182" s="142" t="n">
+      <c r="J182" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K182" s="2" t="n"/>
@@ -10501,7 +10522,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J183" s="140" t="n">
+      <c r="J183" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K183" s="2" t="n"/>
@@ -10553,7 +10574,7 @@
           <t>2 - 4</t>
         </is>
       </c>
-      <c r="J184" s="142" t="n">
+      <c r="J184" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K184" s="2" t="n"/>
@@ -10605,7 +10626,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J185" s="142" t="n">
+      <c r="J185" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K185" s="2" t="n"/>
@@ -10657,7 +10678,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J186" s="140" t="n">
+      <c r="J186" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K186" s="2" t="n"/>
@@ -10709,7 +10730,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J187" s="142" t="n">
+      <c r="J187" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K187" s="2" t="n"/>
@@ -10761,7 +10782,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J188" s="140" t="n">
+      <c r="J188" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K188" s="2" t="n"/>
@@ -10813,7 +10834,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J189" s="142" t="n">
+      <c r="J189" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K189" s="2" t="n"/>
@@ -10865,7 +10886,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J190" s="142" t="n">
+      <c r="J190" s="149" t="n">
         <v>1</v>
       </c>
       <c r="K190" s="2" t="n"/>
@@ -10917,7 +10938,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J191" s="140" t="n">
+      <c r="J191" s="148" t="n">
         <v>0</v>
       </c>
       <c r="K191" s="2" t="n"/>
@@ -10930,6 +10951,370 @@
       <c r="R191" s="2" t="n"/>
       <c r="S191" s="2" t="n"/>
       <c r="T191" s="2" t="n"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="inlineStr">
+        <is>
+          <t>29.11.2025</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="C192" s="2" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F192" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G192" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="H192" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="I192" s="2" t="inlineStr">
+        <is>
+          <t>3 - 1</t>
+        </is>
+      </c>
+      <c r="J192" s="149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K192" s="2" t="n"/>
+      <c r="L192" s="2" t="n"/>
+      <c r="M192" s="2" t="n"/>
+      <c r="N192" s="2" t="n"/>
+      <c r="O192" s="2" t="n"/>
+      <c r="P192" s="2" t="n"/>
+      <c r="Q192" s="2" t="n"/>
+      <c r="R192" s="2" t="n"/>
+      <c r="S192" s="2" t="n"/>
+      <c r="T192" s="2" t="n"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="inlineStr">
+        <is>
+          <t>29.11.2025</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="C193" s="2" t="inlineStr">
+        <is>
+          <t>Real Oviedo</t>
+        </is>
+      </c>
+      <c r="D193" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F193" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G193" s="2" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="H193" s="2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I193" s="2" t="inlineStr">
+        <is>
+          <t>2 - 0</t>
+        </is>
+      </c>
+      <c r="J193" s="149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K193" s="2" t="n"/>
+      <c r="L193" s="2" t="n"/>
+      <c r="M193" s="2" t="n"/>
+      <c r="N193" s="2" t="n"/>
+      <c r="O193" s="2" t="n"/>
+      <c r="P193" s="2" t="n"/>
+      <c r="Q193" s="2" t="n"/>
+      <c r="R193" s="2" t="n"/>
+      <c r="S193" s="2" t="n"/>
+      <c r="T193" s="2" t="n"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>29.11.2025</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>Olympique Marseille</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F194" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G194" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="H194" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="I194" s="2" t="inlineStr">
+        <is>
+          <t>2 - 2</t>
+        </is>
+      </c>
+      <c r="J194" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" s="2" t="n"/>
+      <c r="L194" s="2" t="n"/>
+      <c r="M194" s="2" t="n"/>
+      <c r="N194" s="2" t="n"/>
+      <c r="O194" s="2" t="n"/>
+      <c r="P194" s="2" t="n"/>
+      <c r="Q194" s="2" t="n"/>
+      <c r="R194" s="2" t="n"/>
+      <c r="S194" s="2" t="n"/>
+      <c r="T194" s="2" t="n"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="inlineStr">
+        <is>
+          <t>30.11.2025</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="C195" s="2" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="D195" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F195" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G195" s="2" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="H195" s="2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I195" s="2" t="inlineStr">
+        <is>
+          <t>0 - 1</t>
+        </is>
+      </c>
+      <c r="J195" s="149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K195" s="2" t="n"/>
+      <c r="L195" s="2" t="n"/>
+      <c r="M195" s="2" t="n"/>
+      <c r="N195" s="2" t="n"/>
+      <c r="O195" s="2" t="n"/>
+      <c r="P195" s="2" t="n"/>
+      <c r="Q195" s="2" t="n"/>
+      <c r="R195" s="2" t="n"/>
+      <c r="S195" s="2" t="n"/>
+      <c r="T195" s="2" t="n"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="inlineStr">
+        <is>
+          <t>30.11.2025</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="C196" s="2" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F196" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G196" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="H196" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I196" s="2" t="inlineStr">
+        <is>
+          <t>3 - 1</t>
+        </is>
+      </c>
+      <c r="J196" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" s="2" t="n"/>
+      <c r="L196" s="2" t="n"/>
+      <c r="M196" s="2" t="n"/>
+      <c r="N196" s="2" t="n"/>
+      <c r="O196" s="2" t="n"/>
+      <c r="P196" s="2" t="n"/>
+      <c r="Q196" s="2" t="n"/>
+      <c r="R196" s="2" t="n"/>
+      <c r="S196" s="2" t="n"/>
+      <c r="T196" s="2" t="n"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="inlineStr">
+        <is>
+          <t>30.11.2025</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="C197" s="2" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="D197" s="2" t="inlineStr">
+        <is>
+          <t>1X</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F197" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G197" s="2" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="H197" s="2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="I197" s="2" t="inlineStr">
+        <is>
+          <t>1 - 1</t>
+        </is>
+      </c>
+      <c r="J197" s="149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K197" s="2" t="n"/>
+      <c r="L197" s="2" t="n"/>
+      <c r="M197" s="2" t="n"/>
+      <c r="N197" s="2" t="n"/>
+      <c r="O197" s="2" t="n"/>
+      <c r="P197" s="2" t="n"/>
+      <c r="Q197" s="2" t="n"/>
+      <c r="R197" s="2" t="n"/>
+      <c r="S197" s="2" t="n"/>
+      <c r="T197" s="2" t="n"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="inlineStr">
+        <is>
+          <t>30.11.2025</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="inlineStr">
+        <is>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="C198" s="2" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F198" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G198" s="2" t="n">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="H198" s="2" t="n">
+        <v>6.000000000000007</v>
+      </c>
+      <c r="I198" s="2" t="inlineStr">
+        <is>
+          <t>1 - 1</t>
+        </is>
+      </c>
+      <c r="J198" s="149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K198" s="2" t="n"/>
+      <c r="L198" s="2" t="n"/>
+      <c r="M198" s="2" t="n"/>
+      <c r="N198" s="2" t="n"/>
+      <c r="O198" s="2" t="n"/>
+      <c r="P198" s="2" t="n"/>
+      <c r="Q198" s="2" t="n"/>
+      <c r="R198" s="2" t="n"/>
+      <c r="S198" s="2" t="n"/>
+      <c r="T198" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11075,14 +11460,14 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>61.54%</t>
+          <t>64.29%</t>
         </is>
       </c>
     </row>
@@ -11093,14 +11478,14 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>73.33%</t>
         </is>
       </c>
     </row>
@@ -11111,14 +11496,14 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>69.23%</t>
         </is>
       </c>
     </row>
@@ -11183,14 +11568,14 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
     </row>
@@ -11363,14 +11748,14 @@
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>57.14%</t>
         </is>
       </c>
     </row>
@@ -11399,14 +11784,14 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>8</v>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>72.73%</t>
         </is>
       </c>
     </row>
@@ -11435,14 +11820,14 @@
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>25.0%</t>
         </is>
       </c>
     </row>

--- a/app/placed_bets.xlsx
+++ b/app/placed_bets.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -557,6 +557,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -924,7 +930,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T198"/>
+  <dimension ref="A1:T200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,7 +1012,7 @@
         </is>
       </c>
       <c r="K1" s="2" t="n"/>
-      <c r="L1" s="149" t="inlineStr">
+      <c r="L1" s="150" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
@@ -1090,38 +1096,38 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J2" s="149" t="n">
+      <c r="J2" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>73.59999999999999</v>
+        <v>73.37</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>12710</v>
+        <v>12810</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>11826</v>
+        <v>11890.5</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>-884</v>
+        <v>-919.5</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>-0.85%</t>
+          <t>-0.89%</t>
         </is>
       </c>
       <c r="S2" s="2" t="n">
         <v>1.31</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>146</v>
+        <v>110.5</v>
       </c>
     </row>
     <row r="3">
@@ -1214,7 +1220,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J4" s="149" t="n">
+      <c r="J4" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="n"/>
@@ -1266,7 +1272,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J5" s="149" t="n">
+      <c r="J5" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="n"/>
@@ -1318,7 +1324,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J6" s="149" t="n">
+      <c r="J6" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="n"/>
@@ -1422,7 +1428,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J8" s="149" t="n">
+      <c r="J8" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="n"/>
@@ -1526,7 +1532,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J10" s="149" t="n">
+      <c r="J10" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="n"/>
@@ -1578,7 +1584,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J11" s="149" t="n">
+      <c r="J11" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="n"/>
@@ -1682,7 +1688,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J13" s="149" t="n">
+      <c r="J13" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="n"/>
@@ -1734,7 +1740,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J14" s="149" t="n">
+      <c r="J14" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="n"/>
@@ -1786,7 +1792,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J15" s="149" t="n">
+      <c r="J15" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="n"/>
@@ -1838,7 +1844,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J16" s="149" t="n">
+      <c r="J16" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="n"/>
@@ -1942,7 +1948,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J18" s="149" t="n">
+      <c r="J18" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="n"/>
@@ -2046,7 +2052,7 @@
           <t>3 - 3</t>
         </is>
       </c>
-      <c r="J20" s="149" t="n">
+      <c r="J20" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="n"/>
@@ -2150,7 +2156,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J22" s="149" t="n">
+      <c r="J22" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="n"/>
@@ -2254,7 +2260,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J24" s="149" t="n">
+      <c r="J24" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K24" s="2" t="n"/>
@@ -2306,7 +2312,7 @@
           <t>0 - 6</t>
         </is>
       </c>
-      <c r="J25" s="149" t="n">
+      <c r="J25" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K25" s="2" t="n"/>
@@ -2358,7 +2364,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J26" s="149" t="n">
+      <c r="J26" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K26" s="2" t="n"/>
@@ -2410,7 +2416,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J27" s="149" t="n">
+      <c r="J27" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="n"/>
@@ -2462,7 +2468,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J28" s="149" t="n">
+      <c r="J28" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K28" s="2" t="n"/>
@@ -2566,7 +2572,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J30" s="149" t="n">
+      <c r="J30" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K30" s="2" t="n"/>
@@ -2618,7 +2624,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J31" s="149" t="n">
+      <c r="J31" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="n"/>
@@ -2670,7 +2676,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J32" s="149" t="n">
+      <c r="J32" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K32" s="2" t="n"/>
@@ -2722,7 +2728,7 @@
           <t>2 - 5</t>
         </is>
       </c>
-      <c r="J33" s="149" t="n">
+      <c r="J33" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K33" s="2" t="n"/>
@@ -2826,7 +2832,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J35" s="149" t="n">
+      <c r="J35" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K35" s="2" t="n"/>
@@ -2878,7 +2884,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J36" s="149" t="n">
+      <c r="J36" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K36" s="2" t="n"/>
@@ -2930,7 +2936,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J37" s="149" t="n">
+      <c r="J37" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K37" s="2" t="n"/>
@@ -2982,7 +2988,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J38" s="149" t="n">
+      <c r="J38" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="2" t="n"/>
@@ -3034,7 +3040,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J39" s="149" t="n">
+      <c r="J39" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K39" s="2" t="n"/>
@@ -3086,7 +3092,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J40" s="149" t="n">
+      <c r="J40" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K40" s="2" t="n"/>
@@ -3138,7 +3144,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J41" s="149" t="n">
+      <c r="J41" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K41" s="2" t="n"/>
@@ -3190,7 +3196,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J42" s="149" t="n">
+      <c r="J42" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K42" s="2" t="n"/>
@@ -3294,7 +3300,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J44" s="149" t="n">
+      <c r="J44" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K44" s="2" t="n"/>
@@ -3398,7 +3404,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J46" s="149" t="n">
+      <c r="J46" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K46" s="2" t="n"/>
@@ -3450,7 +3456,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J47" s="149" t="n">
+      <c r="J47" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K47" s="2" t="n"/>
@@ -3554,7 +3560,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J49" s="149" t="n">
+      <c r="J49" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K49" s="2" t="n"/>
@@ -3606,7 +3612,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J50" s="149" t="n">
+      <c r="J50" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K50" s="2" t="n"/>
@@ -3658,7 +3664,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J51" s="149" t="n">
+      <c r="J51" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K51" s="2" t="n"/>
@@ -3762,7 +3768,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J53" s="149" t="n">
+      <c r="J53" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K53" s="2" t="n"/>
@@ -3918,7 +3924,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J56" s="149" t="n">
+      <c r="J56" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K56" s="2" t="n"/>
@@ -3970,7 +3976,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J57" s="149" t="n">
+      <c r="J57" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K57" s="2" t="n"/>
@@ -4022,7 +4028,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J58" s="149" t="n">
+      <c r="J58" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K58" s="2" t="n"/>
@@ -4230,7 +4236,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J62" s="149" t="n">
+      <c r="J62" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K62" s="2" t="n"/>
@@ -4282,7 +4288,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J63" s="149" t="n">
+      <c r="J63" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K63" s="2" t="n"/>
@@ -4334,7 +4340,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J64" s="149" t="n">
+      <c r="J64" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K64" s="2" t="n"/>
@@ -4386,7 +4392,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J65" s="149" t="n">
+      <c r="J65" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K65" s="2" t="n"/>
@@ -4490,7 +4496,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J67" s="149" t="n">
+      <c r="J67" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K67" s="2" t="n"/>
@@ -4542,7 +4548,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J68" s="149" t="n">
+      <c r="J68" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K68" s="2" t="n"/>
@@ -4594,7 +4600,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J69" s="149" t="n">
+      <c r="J69" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K69" s="2" t="n"/>
@@ -4646,7 +4652,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="J70" s="149" t="n">
+      <c r="J70" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K70" s="2" t="n"/>
@@ -4750,7 +4756,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J72" s="149" t="n">
+      <c r="J72" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K72" s="2" t="n"/>
@@ -4802,7 +4808,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J73" s="149" t="n">
+      <c r="J73" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K73" s="2" t="n"/>
@@ -4854,7 +4860,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J74" s="149" t="n">
+      <c r="J74" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K74" s="2" t="n"/>
@@ -4906,7 +4912,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J75" s="149" t="n">
+      <c r="J75" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K75" s="2" t="n"/>
@@ -4958,7 +4964,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J76" s="149" t="n">
+      <c r="J76" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K76" s="2" t="n"/>
@@ -5114,7 +5120,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J79" s="149" t="n">
+      <c r="J79" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K79" s="2" t="n"/>
@@ -5218,7 +5224,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J81" s="149" t="n">
+      <c r="J81" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K81" s="2" t="n"/>
@@ -5270,7 +5276,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J82" s="149" t="n">
+      <c r="J82" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K82" s="2" t="n"/>
@@ -5426,7 +5432,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J85" s="149" t="n">
+      <c r="J85" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K85" s="2" t="n"/>
@@ -5478,7 +5484,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J86" s="149" t="n">
+      <c r="J86" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K86" s="2" t="n"/>
@@ -5530,7 +5536,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J87" s="149" t="n">
+      <c r="J87" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K87" s="2" t="n"/>
@@ -5582,7 +5588,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J88" s="149" t="n">
+      <c r="J88" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K88" s="2" t="n"/>
@@ -5634,7 +5640,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J89" s="149" t="n">
+      <c r="J89" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K89" s="2" t="n"/>
@@ -5686,7 +5692,7 @@
           <t>1 - 6</t>
         </is>
       </c>
-      <c r="J90" s="149" t="n">
+      <c r="J90" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K90" s="2" t="n"/>
@@ -5738,7 +5744,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J91" s="149" t="n">
+      <c r="J91" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K91" s="2" t="n"/>
@@ -5790,7 +5796,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J92" s="149" t="n">
+      <c r="J92" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K92" s="2" t="n"/>
@@ -5842,7 +5848,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J93" s="149" t="n">
+      <c r="J93" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K93" s="2" t="n"/>
@@ -5894,7 +5900,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J94" s="149" t="n">
+      <c r="J94" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K94" s="2" t="n"/>
@@ -5946,7 +5952,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J95" s="149" t="n">
+      <c r="J95" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K95" s="2" t="n"/>
@@ -5998,7 +6004,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J96" s="149" t="n">
+      <c r="J96" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K96" s="2" t="n"/>
@@ -6050,7 +6056,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J97" s="149" t="n">
+      <c r="J97" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K97" s="2" t="n"/>
@@ -6102,7 +6108,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J98" s="149" t="n">
+      <c r="J98" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K98" s="2" t="n"/>
@@ -6206,7 +6212,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J100" s="149" t="n">
+      <c r="J100" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K100" s="2" t="n"/>
@@ -6258,7 +6264,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J101" s="149" t="n">
+      <c r="J101" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K101" s="2" t="n"/>
@@ -6310,7 +6316,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J102" s="149" t="n">
+      <c r="J102" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K102" s="2" t="n"/>
@@ -6414,7 +6420,7 @@
           <t>5 - 2</t>
         </is>
       </c>
-      <c r="J104" s="149" t="n">
+      <c r="J104" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K104" s="2" t="n"/>
@@ -6466,7 +6472,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J105" s="149" t="n">
+      <c r="J105" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K105" s="2" t="n"/>
@@ -6518,7 +6524,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J106" s="149" t="n">
+      <c r="J106" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K106" s="2" t="n"/>
@@ -6570,7 +6576,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J107" s="149" t="n">
+      <c r="J107" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K107" s="2" t="n"/>
@@ -6622,7 +6628,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J108" s="149" t="n">
+      <c r="J108" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K108" s="2" t="n"/>
@@ -6726,7 +6732,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J110" s="149" t="n">
+      <c r="J110" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K110" s="2" t="n"/>
@@ -6778,7 +6784,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J111" s="149" t="n">
+      <c r="J111" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K111" s="2" t="n"/>
@@ -6830,7 +6836,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J112" s="149" t="n">
+      <c r="J112" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K112" s="2" t="n"/>
@@ -6882,7 +6888,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J113" s="149" t="n">
+      <c r="J113" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K113" s="2" t="n"/>
@@ -6934,7 +6940,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J114" s="149" t="n">
+      <c r="J114" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K114" s="2" t="n"/>
@@ -6986,7 +6992,7 @@
           <t>4 - 3</t>
         </is>
       </c>
-      <c r="J115" s="149" t="n">
+      <c r="J115" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K115" s="2" t="n"/>
@@ -7038,7 +7044,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J116" s="149" t="n">
+      <c r="J116" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K116" s="2" t="n"/>
@@ -7090,7 +7096,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J117" s="149" t="n">
+      <c r="J117" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K117" s="2" t="n"/>
@@ -7142,7 +7148,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J118" s="149" t="n">
+      <c r="J118" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K118" s="2" t="n"/>
@@ -7246,7 +7252,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J120" s="149" t="n">
+      <c r="J120" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K120" s="2" t="n"/>
@@ -7298,7 +7304,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J121" s="149" t="n">
+      <c r="J121" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K121" s="2" t="n"/>
@@ -7402,7 +7408,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J123" s="149" t="n">
+      <c r="J123" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K123" s="2" t="n"/>
@@ -7454,7 +7460,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J124" s="149" t="n">
+      <c r="J124" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K124" s="2" t="n"/>
@@ -7506,7 +7512,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J125" s="149" t="n">
+      <c r="J125" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K125" s="2" t="n"/>
@@ -7610,7 +7616,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J127" s="149" t="n">
+      <c r="J127" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K127" s="2" t="n"/>
@@ -7662,7 +7668,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J128" s="149" t="n">
+      <c r="J128" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K128" s="2" t="n"/>
@@ -7714,7 +7720,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J129" s="149" t="n">
+      <c r="J129" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K129" s="2" t="n"/>
@@ -7818,7 +7824,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J131" s="149" t="n">
+      <c r="J131" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K131" s="2" t="n"/>
@@ -7870,7 +7876,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J132" s="149" t="n">
+      <c r="J132" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K132" s="2" t="n"/>
@@ -7922,7 +7928,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J133" s="149" t="n">
+      <c r="J133" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K133" s="2" t="n"/>
@@ -7974,7 +7980,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J134" s="149" t="n">
+      <c r="J134" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K134" s="2" t="n"/>
@@ -8026,7 +8032,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J135" s="149" t="n">
+      <c r="J135" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K135" s="2" t="n"/>
@@ -8078,7 +8084,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J136" s="149" t="n">
+      <c r="J136" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K136" s="2" t="n"/>
@@ -8130,7 +8136,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J137" s="149" t="n">
+      <c r="J137" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K137" s="2" t="n"/>
@@ -8182,7 +8188,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J138" s="149" t="n">
+      <c r="J138" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K138" s="2" t="n"/>
@@ -8234,7 +8240,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="J139" s="149" t="n">
+      <c r="J139" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K139" s="2" t="n"/>
@@ -8286,7 +8292,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J140" s="149" t="n">
+      <c r="J140" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K140" s="2" t="n"/>
@@ -8338,7 +8344,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J141" s="149" t="n">
+      <c r="J141" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K141" s="2" t="n"/>
@@ -8390,7 +8396,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J142" s="149" t="n">
+      <c r="J142" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K142" s="2" t="n"/>
@@ -8494,7 +8500,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J144" s="149" t="n">
+      <c r="J144" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K144" s="2" t="n"/>
@@ -8598,7 +8604,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J146" s="149" t="n">
+      <c r="J146" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K146" s="2" t="n"/>
@@ -8650,7 +8656,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J147" s="149" t="n">
+      <c r="J147" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K147" s="2" t="n"/>
@@ -8702,7 +8708,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J148" s="149" t="n">
+      <c r="J148" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K148" s="2" t="n"/>
@@ -8806,7 +8812,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J150" s="149" t="n">
+      <c r="J150" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K150" s="2" t="n"/>
@@ -8858,7 +8864,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J151" s="149" t="n">
+      <c r="J151" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K151" s="2" t="n"/>
@@ -8910,7 +8916,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J152" s="149" t="n">
+      <c r="J152" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K152" s="2" t="n"/>
@@ -9170,7 +9176,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J157" s="149" t="n">
+      <c r="J157" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K157" s="2" t="n"/>
@@ -9222,7 +9228,7 @@
           <t>5 - 2</t>
         </is>
       </c>
-      <c r="J158" s="149" t="n">
+      <c r="J158" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K158" s="2" t="n"/>
@@ -9274,7 +9280,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J159" s="149" t="n">
+      <c r="J159" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K159" s="2" t="n"/>
@@ -9326,7 +9332,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J160" s="149" t="n">
+      <c r="J160" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K160" s="2" t="n"/>
@@ -9482,7 +9488,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J163" s="149" t="n">
+      <c r="J163" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K163" s="2" t="n"/>
@@ -9534,7 +9540,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J164" s="149" t="n">
+      <c r="J164" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K164" s="2" t="n"/>
@@ -9586,7 +9592,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J165" s="149" t="n">
+      <c r="J165" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K165" s="2" t="n"/>
@@ -9690,7 +9696,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J167" s="149" t="n">
+      <c r="J167" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K167" s="2" t="n"/>
@@ -9794,7 +9800,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J169" s="149" t="n">
+      <c r="J169" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K169" s="2" t="n"/>
@@ -9846,7 +9852,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J170" s="149" t="n">
+      <c r="J170" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K170" s="2" t="n"/>
@@ -9898,7 +9904,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J171" s="149" t="n">
+      <c r="J171" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K171" s="2" t="n"/>
@@ -9950,7 +9956,7 @@
           <t>6 - 2</t>
         </is>
       </c>
-      <c r="J172" s="149" t="n">
+      <c r="J172" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K172" s="2" t="n"/>
@@ -10002,7 +10008,7 @@
           <t>0 - 6</t>
         </is>
       </c>
-      <c r="J173" s="149" t="n">
+      <c r="J173" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K173" s="2" t="n"/>
@@ -10054,7 +10060,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J174" s="149" t="n">
+      <c r="J174" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K174" s="2" t="n"/>
@@ -10158,7 +10164,7 @@
           <t>6 - 1</t>
         </is>
       </c>
-      <c r="J176" s="149" t="n">
+      <c r="J176" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K176" s="2" t="n"/>
@@ -10262,7 +10268,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J178" s="149" t="n">
+      <c r="J178" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K178" s="2" t="n"/>
@@ -10314,7 +10320,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J179" s="149" t="n">
+      <c r="J179" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K179" s="2" t="n"/>
@@ -10366,7 +10372,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J180" s="149" t="n">
+      <c r="J180" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K180" s="2" t="n"/>
@@ -10418,7 +10424,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J181" s="149" t="n">
+      <c r="J181" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K181" s="2" t="n"/>
@@ -10470,7 +10476,7 @@
           <t>6 - 0</t>
         </is>
       </c>
-      <c r="J182" s="149" t="n">
+      <c r="J182" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K182" s="2" t="n"/>
@@ -10574,7 +10580,7 @@
           <t>2 - 4</t>
         </is>
       </c>
-      <c r="J184" s="149" t="n">
+      <c r="J184" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K184" s="2" t="n"/>
@@ -10626,7 +10632,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J185" s="149" t="n">
+      <c r="J185" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K185" s="2" t="n"/>
@@ -10730,7 +10736,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J187" s="149" t="n">
+      <c r="J187" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K187" s="2" t="n"/>
@@ -10834,7 +10840,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J189" s="149" t="n">
+      <c r="J189" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K189" s="2" t="n"/>
@@ -10886,7 +10892,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J190" s="149" t="n">
+      <c r="J190" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K190" s="2" t="n"/>
@@ -10990,7 +10996,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J192" s="149" t="n">
+      <c r="J192" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K192" s="2" t="n"/>
@@ -11042,7 +11048,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J193" s="149" t="n">
+      <c r="J193" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K193" s="2" t="n"/>
@@ -11146,7 +11152,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J195" s="149" t="n">
+      <c r="J195" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K195" s="2" t="n"/>
@@ -11250,7 +11256,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J197" s="149" t="n">
+      <c r="J197" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K197" s="2" t="n"/>
@@ -11302,7 +11308,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J198" s="149" t="n">
+      <c r="J198" s="150" t="n">
         <v>1</v>
       </c>
       <c r="K198" s="2" t="n"/>
@@ -11315,6 +11321,110 @@
       <c r="R198" s="2" t="n"/>
       <c r="S198" s="2" t="n"/>
       <c r="T198" s="2" t="n"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="inlineStr">
+        <is>
+          <t>06.12.2025</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="C199" s="2" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F199" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G199" s="2" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="H199" s="2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="I199" s="2" t="inlineStr">
+        <is>
+          <t>3 - 5</t>
+        </is>
+      </c>
+      <c r="J199" s="150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K199" s="2" t="n"/>
+      <c r="L199" s="2" t="n"/>
+      <c r="M199" s="2" t="n"/>
+      <c r="N199" s="2" t="n"/>
+      <c r="O199" s="2" t="n"/>
+      <c r="P199" s="2" t="n"/>
+      <c r="Q199" s="2" t="n"/>
+      <c r="R199" s="2" t="n"/>
+      <c r="S199" s="2" t="n"/>
+      <c r="T199" s="2" t="n"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>07.12.2025</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F200" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G200" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="H200" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="I200" s="2" t="inlineStr">
+        <is>
+          <t>0 - 2</t>
+        </is>
+      </c>
+      <c r="J200" s="148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" s="2" t="n"/>
+      <c r="L200" s="2" t="n"/>
+      <c r="M200" s="2" t="n"/>
+      <c r="N200" s="2" t="n"/>
+      <c r="O200" s="2" t="n"/>
+      <c r="P200" s="2" t="n"/>
+      <c r="Q200" s="2" t="n"/>
+      <c r="R200" s="2" t="n"/>
+      <c r="S200" s="2" t="n"/>
+      <c r="T200" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11478,14 +11588,14 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>73.33%</t>
+          <t>75.0%</t>
         </is>
       </c>
     </row>
@@ -11496,14 +11606,14 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69.23%</t>
+          <t>64.29%</t>
         </is>
       </c>
     </row>

--- a/app/placed_bets.xlsx
+++ b/app/placed_bets.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -563,6 +563,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -930,7 +942,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T200"/>
+  <dimension ref="A1:T205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,12 +1024,12 @@
         </is>
       </c>
       <c r="K1" s="2" t="n"/>
-      <c r="L1" s="150" t="inlineStr">
+      <c r="L1" s="154" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
-      <c r="M1" s="148" t="inlineStr">
+      <c r="M1" s="155" t="inlineStr">
         <is>
           <t>Losses</t>
         </is>
@@ -1096,38 +1108,38 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J2" s="150" t="n">
+      <c r="J2" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>73.37</v>
+        <v>73.53</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>12810</v>
+        <v>13060</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>11890.5</v>
+        <v>12152.5</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>-919.5</v>
+        <v>-907.5</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>-0.89%</t>
+          <t>-0.88%</t>
         </is>
       </c>
       <c r="S2" s="2" t="n">
         <v>1.31</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>110.5</v>
+        <v>122.5</v>
       </c>
     </row>
     <row r="3">
@@ -1168,7 +1180,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J3" s="148" t="n">
+      <c r="J3" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="2" t="n"/>
@@ -1220,7 +1232,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J4" s="150" t="n">
+      <c r="J4" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="n"/>
@@ -1272,7 +1284,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J5" s="150" t="n">
+      <c r="J5" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="n"/>
@@ -1324,7 +1336,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J6" s="150" t="n">
+      <c r="J6" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="n"/>
@@ -1376,7 +1388,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J7" s="148" t="n">
+      <c r="J7" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="n"/>
@@ -1428,7 +1440,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J8" s="150" t="n">
+      <c r="J8" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="n"/>
@@ -1480,7 +1492,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J9" s="148" t="n">
+      <c r="J9" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="2" t="n"/>
@@ -1532,7 +1544,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J10" s="150" t="n">
+      <c r="J10" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="n"/>
@@ -1584,7 +1596,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J11" s="150" t="n">
+      <c r="J11" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="n"/>
@@ -1636,7 +1648,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J12" s="148" t="n">
+      <c r="J12" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="2" t="n"/>
@@ -1688,7 +1700,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J13" s="150" t="n">
+      <c r="J13" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="n"/>
@@ -1740,7 +1752,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J14" s="150" t="n">
+      <c r="J14" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="n"/>
@@ -1792,7 +1804,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J15" s="150" t="n">
+      <c r="J15" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="n"/>
@@ -1844,7 +1856,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J16" s="150" t="n">
+      <c r="J16" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="n"/>
@@ -1896,7 +1908,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J17" s="148" t="n">
+      <c r="J17" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="2" t="n"/>
@@ -1948,7 +1960,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J18" s="150" t="n">
+      <c r="J18" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="n"/>
@@ -2000,7 +2012,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J19" s="148" t="n">
+      <c r="J19" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K19" s="2" t="n"/>
@@ -2052,7 +2064,7 @@
           <t>3 - 3</t>
         </is>
       </c>
-      <c r="J20" s="150" t="n">
+      <c r="J20" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="n"/>
@@ -2104,7 +2116,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J21" s="148" t="n">
+      <c r="J21" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="2" t="n"/>
@@ -2156,7 +2168,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J22" s="150" t="n">
+      <c r="J22" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="n"/>
@@ -2208,7 +2220,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J23" s="148" t="n">
+      <c r="J23" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K23" s="2" t="n"/>
@@ -2260,7 +2272,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J24" s="150" t="n">
+      <c r="J24" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K24" s="2" t="n"/>
@@ -2312,7 +2324,7 @@
           <t>0 - 6</t>
         </is>
       </c>
-      <c r="J25" s="150" t="n">
+      <c r="J25" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K25" s="2" t="n"/>
@@ -2364,7 +2376,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J26" s="150" t="n">
+      <c r="J26" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K26" s="2" t="n"/>
@@ -2416,7 +2428,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J27" s="150" t="n">
+      <c r="J27" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="n"/>
@@ -2468,7 +2480,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J28" s="150" t="n">
+      <c r="J28" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K28" s="2" t="n"/>
@@ -2520,7 +2532,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J29" s="148" t="n">
+      <c r="J29" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K29" s="2" t="n"/>
@@ -2572,7 +2584,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J30" s="150" t="n">
+      <c r="J30" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K30" s="2" t="n"/>
@@ -2624,7 +2636,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J31" s="150" t="n">
+      <c r="J31" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="n"/>
@@ -2676,7 +2688,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J32" s="150" t="n">
+      <c r="J32" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K32" s="2" t="n"/>
@@ -2728,7 +2740,7 @@
           <t>2 - 5</t>
         </is>
       </c>
-      <c r="J33" s="150" t="n">
+      <c r="J33" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K33" s="2" t="n"/>
@@ -2780,7 +2792,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J34" s="148" t="n">
+      <c r="J34" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K34" s="2" t="n"/>
@@ -2832,7 +2844,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J35" s="150" t="n">
+      <c r="J35" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K35" s="2" t="n"/>
@@ -2884,7 +2896,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J36" s="150" t="n">
+      <c r="J36" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K36" s="2" t="n"/>
@@ -2936,7 +2948,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J37" s="150" t="n">
+      <c r="J37" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K37" s="2" t="n"/>
@@ -2988,7 +3000,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J38" s="150" t="n">
+      <c r="J38" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="2" t="n"/>
@@ -3040,7 +3052,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J39" s="150" t="n">
+      <c r="J39" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K39" s="2" t="n"/>
@@ -3092,7 +3104,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J40" s="150" t="n">
+      <c r="J40" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K40" s="2" t="n"/>
@@ -3144,7 +3156,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J41" s="150" t="n">
+      <c r="J41" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K41" s="2" t="n"/>
@@ -3196,7 +3208,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J42" s="150" t="n">
+      <c r="J42" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K42" s="2" t="n"/>
@@ -3248,7 +3260,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J43" s="148" t="n">
+      <c r="J43" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K43" s="2" t="n"/>
@@ -3300,7 +3312,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J44" s="150" t="n">
+      <c r="J44" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K44" s="2" t="n"/>
@@ -3352,7 +3364,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J45" s="148" t="n">
+      <c r="J45" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K45" s="2" t="n"/>
@@ -3404,7 +3416,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J46" s="150" t="n">
+      <c r="J46" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K46" s="2" t="n"/>
@@ -3456,7 +3468,7 @@
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="J47" s="150" t="n">
+      <c r="J47" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K47" s="2" t="n"/>
@@ -3508,7 +3520,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J48" s="148" t="n">
+      <c r="J48" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K48" s="2" t="n"/>
@@ -3560,7 +3572,7 @@
           <t>7 - 1</t>
         </is>
       </c>
-      <c r="J49" s="150" t="n">
+      <c r="J49" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K49" s="2" t="n"/>
@@ -3612,7 +3624,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J50" s="150" t="n">
+      <c r="J50" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K50" s="2" t="n"/>
@@ -3664,7 +3676,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J51" s="150" t="n">
+      <c r="J51" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K51" s="2" t="n"/>
@@ -3716,7 +3728,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J52" s="148" t="n">
+      <c r="J52" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K52" s="2" t="n"/>
@@ -3768,7 +3780,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J53" s="150" t="n">
+      <c r="J53" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K53" s="2" t="n"/>
@@ -3820,7 +3832,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J54" s="148" t="n">
+      <c r="J54" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K54" s="2" t="n"/>
@@ -3872,7 +3884,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J55" s="148" t="n">
+      <c r="J55" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K55" s="2" t="n"/>
@@ -3924,7 +3936,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J56" s="150" t="n">
+      <c r="J56" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K56" s="2" t="n"/>
@@ -3976,7 +3988,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J57" s="150" t="n">
+      <c r="J57" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K57" s="2" t="n"/>
@@ -4028,7 +4040,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J58" s="150" t="n">
+      <c r="J58" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K58" s="2" t="n"/>
@@ -4080,7 +4092,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J59" s="148" t="n">
+      <c r="J59" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K59" s="2" t="n"/>
@@ -4132,7 +4144,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J60" s="148" t="n">
+      <c r="J60" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K60" s="2" t="n"/>
@@ -4184,7 +4196,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J61" s="148" t="n">
+      <c r="J61" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K61" s="2" t="n"/>
@@ -4236,7 +4248,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J62" s="150" t="n">
+      <c r="J62" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K62" s="2" t="n"/>
@@ -4288,7 +4300,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J63" s="150" t="n">
+      <c r="J63" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K63" s="2" t="n"/>
@@ -4340,7 +4352,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J64" s="150" t="n">
+      <c r="J64" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K64" s="2" t="n"/>
@@ -4392,7 +4404,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J65" s="150" t="n">
+      <c r="J65" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K65" s="2" t="n"/>
@@ -4444,7 +4456,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J66" s="148" t="n">
+      <c r="J66" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K66" s="2" t="n"/>
@@ -4496,7 +4508,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J67" s="150" t="n">
+      <c r="J67" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K67" s="2" t="n"/>
@@ -4548,7 +4560,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J68" s="150" t="n">
+      <c r="J68" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K68" s="2" t="n"/>
@@ -4600,7 +4612,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J69" s="150" t="n">
+      <c r="J69" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K69" s="2" t="n"/>
@@ -4652,7 +4664,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="J70" s="150" t="n">
+      <c r="J70" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K70" s="2" t="n"/>
@@ -4704,7 +4716,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J71" s="148" t="n">
+      <c r="J71" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K71" s="2" t="n"/>
@@ -4756,7 +4768,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J72" s="150" t="n">
+      <c r="J72" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K72" s="2" t="n"/>
@@ -4808,7 +4820,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J73" s="150" t="n">
+      <c r="J73" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K73" s="2" t="n"/>
@@ -4860,7 +4872,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J74" s="150" t="n">
+      <c r="J74" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K74" s="2" t="n"/>
@@ -4912,7 +4924,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J75" s="150" t="n">
+      <c r="J75" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K75" s="2" t="n"/>
@@ -4964,7 +4976,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J76" s="150" t="n">
+      <c r="J76" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K76" s="2" t="n"/>
@@ -5016,7 +5028,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J77" s="148" t="n">
+      <c r="J77" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K77" s="2" t="n"/>
@@ -5068,7 +5080,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J78" s="148" t="n">
+      <c r="J78" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K78" s="2" t="n"/>
@@ -5120,7 +5132,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J79" s="150" t="n">
+      <c r="J79" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K79" s="2" t="n"/>
@@ -5172,7 +5184,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J80" s="148" t="n">
+      <c r="J80" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K80" s="2" t="n"/>
@@ -5224,7 +5236,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J81" s="150" t="n">
+      <c r="J81" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K81" s="2" t="n"/>
@@ -5276,7 +5288,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J82" s="150" t="n">
+      <c r="J82" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K82" s="2" t="n"/>
@@ -5328,7 +5340,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J83" s="148" t="n">
+      <c r="J83" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K83" s="2" t="n"/>
@@ -5380,7 +5392,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J84" s="148" t="n">
+      <c r="J84" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K84" s="2" t="n"/>
@@ -5432,7 +5444,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J85" s="150" t="n">
+      <c r="J85" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K85" s="2" t="n"/>
@@ -5484,7 +5496,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J86" s="150" t="n">
+      <c r="J86" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K86" s="2" t="n"/>
@@ -5536,7 +5548,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J87" s="150" t="n">
+      <c r="J87" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K87" s="2" t="n"/>
@@ -5588,7 +5600,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J88" s="150" t="n">
+      <c r="J88" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K88" s="2" t="n"/>
@@ -5640,7 +5652,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J89" s="150" t="n">
+      <c r="J89" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K89" s="2" t="n"/>
@@ -5692,7 +5704,7 @@
           <t>1 - 6</t>
         </is>
       </c>
-      <c r="J90" s="150" t="n">
+      <c r="J90" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K90" s="2" t="n"/>
@@ -5744,7 +5756,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J91" s="150" t="n">
+      <c r="J91" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K91" s="2" t="n"/>
@@ -5796,7 +5808,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J92" s="150" t="n">
+      <c r="J92" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K92" s="2" t="n"/>
@@ -5848,7 +5860,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J93" s="150" t="n">
+      <c r="J93" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K93" s="2" t="n"/>
@@ -5900,7 +5912,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J94" s="150" t="n">
+      <c r="J94" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K94" s="2" t="n"/>
@@ -5952,7 +5964,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J95" s="150" t="n">
+      <c r="J95" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K95" s="2" t="n"/>
@@ -6004,7 +6016,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J96" s="150" t="n">
+      <c r="J96" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K96" s="2" t="n"/>
@@ -6056,7 +6068,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J97" s="150" t="n">
+      <c r="J97" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K97" s="2" t="n"/>
@@ -6108,7 +6120,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J98" s="150" t="n">
+      <c r="J98" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K98" s="2" t="n"/>
@@ -6160,7 +6172,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J99" s="148" t="n">
+      <c r="J99" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K99" s="2" t="n"/>
@@ -6212,7 +6224,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J100" s="150" t="n">
+      <c r="J100" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K100" s="2" t="n"/>
@@ -6264,7 +6276,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J101" s="150" t="n">
+      <c r="J101" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K101" s="2" t="n"/>
@@ -6316,7 +6328,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J102" s="150" t="n">
+      <c r="J102" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K102" s="2" t="n"/>
@@ -6368,7 +6380,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J103" s="148" t="n">
+      <c r="J103" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K103" s="2" t="n"/>
@@ -6420,7 +6432,7 @@
           <t>5 - 2</t>
         </is>
       </c>
-      <c r="J104" s="150" t="n">
+      <c r="J104" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K104" s="2" t="n"/>
@@ -6472,7 +6484,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J105" s="150" t="n">
+      <c r="J105" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K105" s="2" t="n"/>
@@ -6524,7 +6536,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J106" s="150" t="n">
+      <c r="J106" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K106" s="2" t="n"/>
@@ -6576,7 +6588,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J107" s="150" t="n">
+      <c r="J107" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K107" s="2" t="n"/>
@@ -6628,7 +6640,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J108" s="150" t="n">
+      <c r="J108" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K108" s="2" t="n"/>
@@ -6680,7 +6692,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J109" s="148" t="n">
+      <c r="J109" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K109" s="2" t="n"/>
@@ -6732,7 +6744,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J110" s="150" t="n">
+      <c r="J110" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K110" s="2" t="n"/>
@@ -6784,7 +6796,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J111" s="150" t="n">
+      <c r="J111" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K111" s="2" t="n"/>
@@ -6836,7 +6848,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J112" s="150" t="n">
+      <c r="J112" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K112" s="2" t="n"/>
@@ -6888,7 +6900,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J113" s="150" t="n">
+      <c r="J113" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K113" s="2" t="n"/>
@@ -6940,7 +6952,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J114" s="150" t="n">
+      <c r="J114" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K114" s="2" t="n"/>
@@ -6992,7 +7004,7 @@
           <t>4 - 3</t>
         </is>
       </c>
-      <c r="J115" s="150" t="n">
+      <c r="J115" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K115" s="2" t="n"/>
@@ -7044,7 +7056,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J116" s="150" t="n">
+      <c r="J116" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K116" s="2" t="n"/>
@@ -7096,7 +7108,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J117" s="150" t="n">
+      <c r="J117" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K117" s="2" t="n"/>
@@ -7148,7 +7160,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J118" s="150" t="n">
+      <c r="J118" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K118" s="2" t="n"/>
@@ -7200,7 +7212,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J119" s="148" t="n">
+      <c r="J119" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K119" s="2" t="n"/>
@@ -7252,7 +7264,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J120" s="150" t="n">
+      <c r="J120" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K120" s="2" t="n"/>
@@ -7304,7 +7316,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J121" s="150" t="n">
+      <c r="J121" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K121" s="2" t="n"/>
@@ -7356,7 +7368,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J122" s="148" t="n">
+      <c r="J122" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K122" s="2" t="n"/>
@@ -7408,7 +7420,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J123" s="150" t="n">
+      <c r="J123" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K123" s="2" t="n"/>
@@ -7460,7 +7472,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J124" s="150" t="n">
+      <c r="J124" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K124" s="2" t="n"/>
@@ -7512,7 +7524,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J125" s="150" t="n">
+      <c r="J125" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K125" s="2" t="n"/>
@@ -7564,7 +7576,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J126" s="148" t="n">
+      <c r="J126" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K126" s="2" t="n"/>
@@ -7616,7 +7628,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J127" s="150" t="n">
+      <c r="J127" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K127" s="2" t="n"/>
@@ -7668,7 +7680,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J128" s="150" t="n">
+      <c r="J128" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K128" s="2" t="n"/>
@@ -7720,7 +7732,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J129" s="150" t="n">
+      <c r="J129" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K129" s="2" t="n"/>
@@ -7772,7 +7784,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J130" s="148" t="n">
+      <c r="J130" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K130" s="2" t="n"/>
@@ -7824,7 +7836,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J131" s="150" t="n">
+      <c r="J131" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K131" s="2" t="n"/>
@@ -7876,7 +7888,7 @@
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="J132" s="150" t="n">
+      <c r="J132" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K132" s="2" t="n"/>
@@ -7928,7 +7940,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J133" s="150" t="n">
+      <c r="J133" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K133" s="2" t="n"/>
@@ -7980,7 +7992,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J134" s="150" t="n">
+      <c r="J134" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K134" s="2" t="n"/>
@@ -8032,7 +8044,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J135" s="150" t="n">
+      <c r="J135" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K135" s="2" t="n"/>
@@ -8084,7 +8096,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J136" s="150" t="n">
+      <c r="J136" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K136" s="2" t="n"/>
@@ -8136,7 +8148,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J137" s="150" t="n">
+      <c r="J137" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K137" s="2" t="n"/>
@@ -8188,7 +8200,7 @@
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="J138" s="150" t="n">
+      <c r="J138" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K138" s="2" t="n"/>
@@ -8240,7 +8252,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="J139" s="150" t="n">
+      <c r="J139" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K139" s="2" t="n"/>
@@ -8292,7 +8304,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J140" s="150" t="n">
+      <c r="J140" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K140" s="2" t="n"/>
@@ -8344,7 +8356,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J141" s="150" t="n">
+      <c r="J141" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K141" s="2" t="n"/>
@@ -8396,7 +8408,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J142" s="150" t="n">
+      <c r="J142" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K142" s="2" t="n"/>
@@ -8448,7 +8460,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J143" s="148" t="n">
+      <c r="J143" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K143" s="2" t="n"/>
@@ -8500,7 +8512,7 @@
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="J144" s="150" t="n">
+      <c r="J144" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K144" s="2" t="n"/>
@@ -8552,7 +8564,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J145" s="148" t="n">
+      <c r="J145" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K145" s="2" t="n"/>
@@ -8604,7 +8616,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J146" s="150" t="n">
+      <c r="J146" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K146" s="2" t="n"/>
@@ -8656,7 +8668,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J147" s="150" t="n">
+      <c r="J147" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K147" s="2" t="n"/>
@@ -8708,7 +8720,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J148" s="150" t="n">
+      <c r="J148" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K148" s="2" t="n"/>
@@ -8760,7 +8772,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J149" s="148" t="n">
+      <c r="J149" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K149" s="2" t="n"/>
@@ -8812,7 +8824,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J150" s="150" t="n">
+      <c r="J150" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K150" s="2" t="n"/>
@@ -8864,7 +8876,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J151" s="150" t="n">
+      <c r="J151" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K151" s="2" t="n"/>
@@ -8916,7 +8928,7 @@
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="J152" s="150" t="n">
+      <c r="J152" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K152" s="2" t="n"/>
@@ -8968,7 +8980,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J153" s="148" t="n">
+      <c r="J153" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K153" s="2" t="n"/>
@@ -9020,7 +9032,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J154" s="148" t="n">
+      <c r="J154" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K154" s="2" t="n"/>
@@ -9072,7 +9084,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J155" s="148" t="n">
+      <c r="J155" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K155" s="2" t="n"/>
@@ -9124,7 +9136,7 @@
           <t>3 - 4</t>
         </is>
       </c>
-      <c r="J156" s="148" t="n">
+      <c r="J156" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K156" s="2" t="n"/>
@@ -9176,7 +9188,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J157" s="150" t="n">
+      <c r="J157" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K157" s="2" t="n"/>
@@ -9228,7 +9240,7 @@
           <t>5 - 2</t>
         </is>
       </c>
-      <c r="J158" s="150" t="n">
+      <c r="J158" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K158" s="2" t="n"/>
@@ -9280,7 +9292,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J159" s="150" t="n">
+      <c r="J159" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K159" s="2" t="n"/>
@@ -9332,7 +9344,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J160" s="150" t="n">
+      <c r="J160" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K160" s="2" t="n"/>
@@ -9384,7 +9396,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J161" s="148" t="n">
+      <c r="J161" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K161" s="2" t="n"/>
@@ -9436,7 +9448,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J162" s="148" t="n">
+      <c r="J162" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K162" s="2" t="n"/>
@@ -9488,7 +9500,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J163" s="150" t="n">
+      <c r="J163" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K163" s="2" t="n"/>
@@ -9540,7 +9552,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J164" s="150" t="n">
+      <c r="J164" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K164" s="2" t="n"/>
@@ -9592,7 +9604,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J165" s="150" t="n">
+      <c r="J165" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K165" s="2" t="n"/>
@@ -9644,7 +9656,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J166" s="148" t="n">
+      <c r="J166" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K166" s="2" t="n"/>
@@ -9696,7 +9708,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J167" s="150" t="n">
+      <c r="J167" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K167" s="2" t="n"/>
@@ -9748,7 +9760,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="J168" s="148" t="n">
+      <c r="J168" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K168" s="2" t="n"/>
@@ -9800,7 +9812,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J169" s="150" t="n">
+      <c r="J169" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K169" s="2" t="n"/>
@@ -9852,7 +9864,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J170" s="150" t="n">
+      <c r="J170" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K170" s="2" t="n"/>
@@ -9904,7 +9916,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J171" s="150" t="n">
+      <c r="J171" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K171" s="2" t="n"/>
@@ -9956,7 +9968,7 @@
           <t>6 - 2</t>
         </is>
       </c>
-      <c r="J172" s="150" t="n">
+      <c r="J172" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K172" s="2" t="n"/>
@@ -10008,7 +10020,7 @@
           <t>0 - 6</t>
         </is>
       </c>
-      <c r="J173" s="150" t="n">
+      <c r="J173" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K173" s="2" t="n"/>
@@ -10060,7 +10072,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J174" s="150" t="n">
+      <c r="J174" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K174" s="2" t="n"/>
@@ -10112,7 +10124,7 @@
           <t>3 - 2</t>
         </is>
       </c>
-      <c r="J175" s="148" t="n">
+      <c r="J175" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K175" s="2" t="n"/>
@@ -10164,7 +10176,7 @@
           <t>6 - 1</t>
         </is>
       </c>
-      <c r="J176" s="150" t="n">
+      <c r="J176" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K176" s="2" t="n"/>
@@ -10216,7 +10228,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J177" s="148" t="n">
+      <c r="J177" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K177" s="2" t="n"/>
@@ -10268,7 +10280,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J178" s="150" t="n">
+      <c r="J178" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K178" s="2" t="n"/>
@@ -10320,7 +10332,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="J179" s="150" t="n">
+      <c r="J179" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K179" s="2" t="n"/>
@@ -10372,7 +10384,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="J180" s="150" t="n">
+      <c r="J180" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K180" s="2" t="n"/>
@@ -10424,7 +10436,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J181" s="150" t="n">
+      <c r="J181" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K181" s="2" t="n"/>
@@ -10476,7 +10488,7 @@
           <t>6 - 0</t>
         </is>
       </c>
-      <c r="J182" s="150" t="n">
+      <c r="J182" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K182" s="2" t="n"/>
@@ -10528,7 +10540,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="J183" s="148" t="n">
+      <c r="J183" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K183" s="2" t="n"/>
@@ -10580,7 +10592,7 @@
           <t>2 - 4</t>
         </is>
       </c>
-      <c r="J184" s="150" t="n">
+      <c r="J184" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K184" s="2" t="n"/>
@@ -10632,7 +10644,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="J185" s="150" t="n">
+      <c r="J185" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K185" s="2" t="n"/>
@@ -10684,7 +10696,7 @@
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="J186" s="148" t="n">
+      <c r="J186" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K186" s="2" t="n"/>
@@ -10736,7 +10748,7 @@
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="J187" s="150" t="n">
+      <c r="J187" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K187" s="2" t="n"/>
@@ -10788,7 +10800,7 @@
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="J188" s="148" t="n">
+      <c r="J188" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K188" s="2" t="n"/>
@@ -10840,7 +10852,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J189" s="150" t="n">
+      <c r="J189" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K189" s="2" t="n"/>
@@ -10892,7 +10904,7 @@
           <t>4 - 2</t>
         </is>
       </c>
-      <c r="J190" s="150" t="n">
+      <c r="J190" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K190" s="2" t="n"/>
@@ -10944,7 +10956,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J191" s="148" t="n">
+      <c r="J191" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K191" s="2" t="n"/>
@@ -10996,7 +11008,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J192" s="150" t="n">
+      <c r="J192" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K192" s="2" t="n"/>
@@ -11048,7 +11060,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="J193" s="150" t="n">
+      <c r="J193" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K193" s="2" t="n"/>
@@ -11100,7 +11112,7 @@
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="J194" s="148" t="n">
+      <c r="J194" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K194" s="2" t="n"/>
@@ -11152,7 +11164,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="J195" s="150" t="n">
+      <c r="J195" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K195" s="2" t="n"/>
@@ -11204,7 +11216,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="J196" s="148" t="n">
+      <c r="J196" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K196" s="2" t="n"/>
@@ -11256,7 +11268,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J197" s="150" t="n">
+      <c r="J197" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K197" s="2" t="n"/>
@@ -11308,7 +11320,7 @@
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="J198" s="150" t="n">
+      <c r="J198" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K198" s="2" t="n"/>
@@ -11360,7 +11372,7 @@
           <t>3 - 5</t>
         </is>
       </c>
-      <c r="J199" s="150" t="n">
+      <c r="J199" s="154" t="n">
         <v>1</v>
       </c>
       <c r="K199" s="2" t="n"/>
@@ -11412,7 +11424,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="J200" s="148" t="n">
+      <c r="J200" s="155" t="n">
         <v>0</v>
       </c>
       <c r="K200" s="2" t="n"/>
@@ -11425,6 +11437,266 @@
       <c r="R200" s="2" t="n"/>
       <c r="S200" s="2" t="n"/>
       <c r="T200" s="2" t="n"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="inlineStr">
+        <is>
+          <t>13.12.2025</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F201" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G201" s="2" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="H201" s="2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I201" s="2" t="inlineStr">
+        <is>
+          <t>2 - 1</t>
+        </is>
+      </c>
+      <c r="J201" s="154" t="n">
+        <v>1</v>
+      </c>
+      <c r="K201" s="2" t="n"/>
+      <c r="L201" s="2" t="n"/>
+      <c r="M201" s="2" t="n"/>
+      <c r="N201" s="2" t="n"/>
+      <c r="O201" s="2" t="n"/>
+      <c r="P201" s="2" t="n"/>
+      <c r="Q201" s="2" t="n"/>
+      <c r="R201" s="2" t="n"/>
+      <c r="S201" s="2" t="n"/>
+      <c r="T201" s="2" t="n"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="inlineStr">
+        <is>
+          <t>13.12.2025</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F202" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G202" s="2" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="H202" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I202" s="2" t="inlineStr">
+        <is>
+          <t>2 - 0</t>
+        </is>
+      </c>
+      <c r="J202" s="154" t="n">
+        <v>1</v>
+      </c>
+      <c r="K202" s="2" t="n"/>
+      <c r="L202" s="2" t="n"/>
+      <c r="M202" s="2" t="n"/>
+      <c r="N202" s="2" t="n"/>
+      <c r="O202" s="2" t="n"/>
+      <c r="P202" s="2" t="n"/>
+      <c r="Q202" s="2" t="n"/>
+      <c r="R202" s="2" t="n"/>
+      <c r="S202" s="2" t="n"/>
+      <c r="T202" s="2" t="n"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="inlineStr">
+        <is>
+          <t>14.12.2025</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="inlineStr">
+        <is>
+          <t>Olympique Lyon</t>
+        </is>
+      </c>
+      <c r="C203" s="2" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="inlineStr">
+        <is>
+          <t>1X</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F203" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G203" s="2" t="n">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="H203" s="2" t="n">
+        <v>7.999999999999993</v>
+      </c>
+      <c r="I203" s="2" t="inlineStr">
+        <is>
+          <t>1 - 0</t>
+        </is>
+      </c>
+      <c r="J203" s="154" t="n">
+        <v>1</v>
+      </c>
+      <c r="K203" s="2" t="n"/>
+      <c r="L203" s="2" t="n"/>
+      <c r="M203" s="2" t="n"/>
+      <c r="N203" s="2" t="n"/>
+      <c r="O203" s="2" t="n"/>
+      <c r="P203" s="2" t="n"/>
+      <c r="Q203" s="2" t="n"/>
+      <c r="R203" s="2" t="n"/>
+      <c r="S203" s="2" t="n"/>
+      <c r="T203" s="2" t="n"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="inlineStr">
+        <is>
+          <t>14.12.2025</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="inlineStr">
+        <is>
+          <t>X2</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F204" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G204" s="2" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="H204" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I204" s="2" t="inlineStr">
+        <is>
+          <t>1 - 0</t>
+        </is>
+      </c>
+      <c r="J204" s="155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" s="2" t="n"/>
+      <c r="L204" s="2" t="n"/>
+      <c r="M204" s="2" t="n"/>
+      <c r="N204" s="2" t="n"/>
+      <c r="O204" s="2" t="n"/>
+      <c r="P204" s="2" t="n"/>
+      <c r="Q204" s="2" t="n"/>
+      <c r="R204" s="2" t="n"/>
+      <c r="S204" s="2" t="n"/>
+      <c r="T204" s="2" t="n"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="inlineStr">
+        <is>
+          <t>14.12.2025</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F205" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G205" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="H205" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="I205" s="2" t="inlineStr">
+        <is>
+          <t>1 - 2</t>
+        </is>
+      </c>
+      <c r="J205" s="154" t="n">
+        <v>1</v>
+      </c>
+      <c r="K205" s="2" t="n"/>
+      <c r="L205" s="2" t="n"/>
+      <c r="M205" s="2" t="n"/>
+      <c r="N205" s="2" t="n"/>
+      <c r="O205" s="2" t="n"/>
+      <c r="P205" s="2" t="n"/>
+      <c r="Q205" s="2" t="n"/>
+      <c r="R205" s="2" t="n"/>
+      <c r="S205" s="2" t="n"/>
+      <c r="T205" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11570,14 +11842,14 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>64.29%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -11588,14 +11860,14 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>76.47%</t>
         </is>
       </c>
     </row>
@@ -11768,14 +12040,14 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>13</v>
-      </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>92.86%</t>
+          <t>93.33%</t>
         </is>
       </c>
     </row>
@@ -11822,14 +12094,14 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>7</v>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>70.0%</t>
         </is>
       </c>
     </row>
@@ -11876,14 +12148,14 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>16.67%</t>
         </is>
       </c>
     </row>
